--- a/spine_rts-gmlc/datasets/branch_bus_detailed.xlsx
+++ b/spine_rts-gmlc/datasets/branch_bus_detailed.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="branch" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6207" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5793" uniqueCount="402">
   <si>
     <t>UID</t>
   </si>
@@ -1229,6 +1229,9 @@
   </si>
   <si>
     <t>connection__to_node</t>
+  </si>
+  <si>
+    <t>313_HEAD_STORAGE</t>
   </si>
 </sst>
 </file>
@@ -2047,10 +2050,10 @@
   <dimension ref="A1:P121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2:G121"/>
+      <selection pane="bottomRight" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7881,7 +7884,7 @@
   <dimension ref="A1:O74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12397,8 +12400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H481"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20622,7 +20625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F241"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
@@ -25462,8 +25465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C241"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -28131,10 +28134,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C202"/>
+  <dimension ref="A1:E156"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84:B156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -28160,7 +28163,7 @@
         <v>235</v>
       </c>
       <c r="B2" t="s">
-        <v>239</v>
+        <v>401</v>
       </c>
       <c r="C2" t="s">
         <v>236</v>
@@ -28171,7 +28174,7 @@
         <v>235</v>
       </c>
       <c r="B3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C3" t="s">
         <v>236</v>
@@ -28182,7 +28185,7 @@
         <v>235</v>
       </c>
       <c r="B4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C4" t="s">
         <v>236</v>
@@ -28193,7 +28196,7 @@
         <v>235</v>
       </c>
       <c r="B5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C5" t="s">
         <v>236</v>
@@ -28204,7 +28207,7 @@
         <v>235</v>
       </c>
       <c r="B6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C6" t="s">
         <v>236</v>
@@ -28215,7 +28218,7 @@
         <v>235</v>
       </c>
       <c r="B7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C7" t="s">
         <v>236</v>
@@ -28226,7 +28229,7 @@
         <v>235</v>
       </c>
       <c r="B8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C8" t="s">
         <v>236</v>
@@ -28237,7 +28240,7 @@
         <v>235</v>
       </c>
       <c r="B9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C9" t="s">
         <v>236</v>
@@ -28248,7 +28251,7 @@
         <v>235</v>
       </c>
       <c r="B10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C10" t="s">
         <v>236</v>
@@ -28259,7 +28262,7 @@
         <v>235</v>
       </c>
       <c r="B11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C11" t="s">
         <v>236</v>
@@ -28270,7 +28273,7 @@
         <v>235</v>
       </c>
       <c r="B12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C12" t="s">
         <v>236</v>
@@ -28281,7 +28284,7 @@
         <v>235</v>
       </c>
       <c r="B13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C13" t="s">
         <v>236</v>
@@ -28292,7 +28295,7 @@
         <v>235</v>
       </c>
       <c r="B14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C14" t="s">
         <v>236</v>
@@ -28303,7 +28306,7 @@
         <v>235</v>
       </c>
       <c r="B15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C15" t="s">
         <v>236</v>
@@ -28314,7 +28317,7 @@
         <v>235</v>
       </c>
       <c r="B16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C16" t="s">
         <v>236</v>
@@ -28325,7 +28328,7 @@
         <v>235</v>
       </c>
       <c r="B17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C17" t="s">
         <v>236</v>
@@ -28336,7 +28339,7 @@
         <v>235</v>
       </c>
       <c r="B18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C18" t="s">
         <v>236</v>
@@ -28347,7 +28350,7 @@
         <v>235</v>
       </c>
       <c r="B19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C19" t="s">
         <v>236</v>
@@ -28358,7 +28361,7 @@
         <v>235</v>
       </c>
       <c r="B20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C20" t="s">
         <v>236</v>
@@ -28369,7 +28372,7 @@
         <v>235</v>
       </c>
       <c r="B21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C21" t="s">
         <v>236</v>
@@ -28380,7 +28383,7 @@
         <v>235</v>
       </c>
       <c r="B22" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C22" t="s">
         <v>236</v>
@@ -28391,7 +28394,7 @@
         <v>235</v>
       </c>
       <c r="B23" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C23" t="s">
         <v>236</v>
@@ -28402,7 +28405,7 @@
         <v>235</v>
       </c>
       <c r="B24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C24" t="s">
         <v>236</v>
@@ -28413,7 +28416,7 @@
         <v>235</v>
       </c>
       <c r="B25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C25" t="s">
         <v>236</v>
@@ -28424,7 +28427,7 @@
         <v>235</v>
       </c>
       <c r="B26" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C26" t="s">
         <v>236</v>
@@ -28435,7 +28438,7 @@
         <v>235</v>
       </c>
       <c r="B27" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C27" t="s">
         <v>236</v>
@@ -28446,7 +28449,7 @@
         <v>235</v>
       </c>
       <c r="B28" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C28" t="s">
         <v>236</v>
@@ -28457,7 +28460,7 @@
         <v>235</v>
       </c>
       <c r="B29" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C29" t="s">
         <v>236</v>
@@ -28468,7 +28471,7 @@
         <v>235</v>
       </c>
       <c r="B30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C30" t="s">
         <v>236</v>
@@ -28479,7 +28482,7 @@
         <v>235</v>
       </c>
       <c r="B31" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C31" t="s">
         <v>236</v>
@@ -28490,7 +28493,7 @@
         <v>235</v>
       </c>
       <c r="B32" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C32" t="s">
         <v>236</v>
@@ -28501,7 +28504,7 @@
         <v>235</v>
       </c>
       <c r="B33" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C33" t="s">
         <v>236</v>
@@ -28512,7 +28515,7 @@
         <v>235</v>
       </c>
       <c r="B34" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C34" t="s">
         <v>236</v>
@@ -28523,7 +28526,7 @@
         <v>235</v>
       </c>
       <c r="B35" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C35" t="s">
         <v>236</v>
@@ -28534,7 +28537,7 @@
         <v>235</v>
       </c>
       <c r="B36" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C36" t="s">
         <v>236</v>
@@ -28545,7 +28548,7 @@
         <v>235</v>
       </c>
       <c r="B37" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C37" t="s">
         <v>236</v>
@@ -28556,7 +28559,7 @@
         <v>235</v>
       </c>
       <c r="B38" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C38" t="s">
         <v>236</v>
@@ -28567,7 +28570,7 @@
         <v>235</v>
       </c>
       <c r="B39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C39" t="s">
         <v>236</v>
@@ -28578,7 +28581,7 @@
         <v>235</v>
       </c>
       <c r="B40" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C40" t="s">
         <v>236</v>
@@ -28589,7 +28592,7 @@
         <v>235</v>
       </c>
       <c r="B41" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C41" t="s">
         <v>236</v>
@@ -28600,7 +28603,7 @@
         <v>235</v>
       </c>
       <c r="B42" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C42" t="s">
         <v>236</v>
@@ -28611,7 +28614,7 @@
         <v>235</v>
       </c>
       <c r="B43" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C43" t="s">
         <v>236</v>
@@ -28622,7 +28625,7 @@
         <v>235</v>
       </c>
       <c r="B44" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C44" t="s">
         <v>236</v>
@@ -28633,7 +28636,7 @@
         <v>235</v>
       </c>
       <c r="B45" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C45" t="s">
         <v>236</v>
@@ -28644,7 +28647,7 @@
         <v>235</v>
       </c>
       <c r="B46" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C46" t="s">
         <v>236</v>
@@ -28655,7 +28658,7 @@
         <v>235</v>
       </c>
       <c r="B47" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C47" t="s">
         <v>236</v>
@@ -28666,7 +28669,7 @@
         <v>235</v>
       </c>
       <c r="B48" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C48" t="s">
         <v>236</v>
@@ -28677,7 +28680,7 @@
         <v>235</v>
       </c>
       <c r="B49" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C49" t="s">
         <v>236</v>
@@ -28688,7 +28691,7 @@
         <v>235</v>
       </c>
       <c r="B50" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C50" t="s">
         <v>236</v>
@@ -28699,7 +28702,7 @@
         <v>235</v>
       </c>
       <c r="B51" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C51" t="s">
         <v>236</v>
@@ -28710,7 +28713,7 @@
         <v>235</v>
       </c>
       <c r="B52" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C52" t="s">
         <v>236</v>
@@ -28721,7 +28724,7 @@
         <v>235</v>
       </c>
       <c r="B53" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C53" t="s">
         <v>236</v>
@@ -28732,7 +28735,7 @@
         <v>235</v>
       </c>
       <c r="B54" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C54" t="s">
         <v>236</v>
@@ -28743,7 +28746,7 @@
         <v>235</v>
       </c>
       <c r="B55" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C55" t="s">
         <v>236</v>
@@ -28754,7 +28757,7 @@
         <v>235</v>
       </c>
       <c r="B56" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C56" t="s">
         <v>236</v>
@@ -28765,7 +28768,7 @@
         <v>235</v>
       </c>
       <c r="B57" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C57" t="s">
         <v>236</v>
@@ -28776,7 +28779,7 @@
         <v>235</v>
       </c>
       <c r="B58" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C58" t="s">
         <v>236</v>
@@ -28787,7 +28790,7 @@
         <v>235</v>
       </c>
       <c r="B59" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C59" t="s">
         <v>236</v>
@@ -28798,7 +28801,7 @@
         <v>235</v>
       </c>
       <c r="B60" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C60" t="s">
         <v>236</v>
@@ -28809,7 +28812,7 @@
         <v>235</v>
       </c>
       <c r="B61" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C61" t="s">
         <v>236</v>
@@ -28820,7 +28823,7 @@
         <v>235</v>
       </c>
       <c r="B62" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C62" t="s">
         <v>236</v>
@@ -28831,7 +28834,7 @@
         <v>235</v>
       </c>
       <c r="B63" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C63" t="s">
         <v>236</v>
@@ -28842,7 +28845,7 @@
         <v>235</v>
       </c>
       <c r="B64" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C64" t="s">
         <v>236</v>
@@ -28853,7 +28856,7 @@
         <v>235</v>
       </c>
       <c r="B65" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C65" t="s">
         <v>236</v>
@@ -28864,7 +28867,7 @@
         <v>235</v>
       </c>
       <c r="B66" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C66" t="s">
         <v>236</v>
@@ -28875,7 +28878,7 @@
         <v>235</v>
       </c>
       <c r="B67" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C67" t="s">
         <v>236</v>
@@ -28886,7 +28889,7 @@
         <v>235</v>
       </c>
       <c r="B68" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C68" t="s">
         <v>236</v>
@@ -28897,7 +28900,7 @@
         <v>235</v>
       </c>
       <c r="B69" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C69" t="s">
         <v>236</v>
@@ -28908,7 +28911,7 @@
         <v>235</v>
       </c>
       <c r="B70" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C70" t="s">
         <v>236</v>
@@ -28919,7 +28922,7 @@
         <v>235</v>
       </c>
       <c r="B71" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C71" t="s">
         <v>236</v>
@@ -28930,7 +28933,7 @@
         <v>235</v>
       </c>
       <c r="B72" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C72" t="s">
         <v>236</v>
@@ -28941,7 +28944,7 @@
         <v>235</v>
       </c>
       <c r="B73" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C73" t="s">
         <v>236</v>
@@ -28952,7 +28955,7 @@
         <v>235</v>
       </c>
       <c r="B74" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C74" t="s">
         <v>236</v>
@@ -28963,7 +28966,7 @@
         <v>235</v>
       </c>
       <c r="B75" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C75" t="s">
         <v>236</v>
@@ -28974,7 +28977,7 @@
         <v>235</v>
       </c>
       <c r="B76" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C76" t="s">
         <v>236</v>
@@ -28985,7 +28988,7 @@
         <v>235</v>
       </c>
       <c r="B77" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C77" t="s">
         <v>236</v>
@@ -28996,7 +28999,7 @@
         <v>235</v>
       </c>
       <c r="B78" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C78" t="s">
         <v>236</v>
@@ -29007,7 +29010,7 @@
         <v>235</v>
       </c>
       <c r="B79" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C79" t="s">
         <v>236</v>
@@ -29018,46 +29021,46 @@
         <v>235</v>
       </c>
       <c r="B80" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C80" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>235</v>
       </c>
       <c r="B81" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C81" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>235</v>
       </c>
       <c r="B82" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C82" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>235</v>
       </c>
       <c r="B83" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C83" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>235</v>
       </c>
@@ -29067,1303 +29070,1089 @@
       <c r="C84" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E84" t="str">
+        <f>CONCATENATE("bus-",TEXT(bus!A2,0))</f>
+        <v>bus-101</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>235</v>
       </c>
       <c r="B85" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C85" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E85" t="str">
+        <f>CONCATENATE("bus-",TEXT(bus!A3,0))</f>
+        <v>bus-102</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>235</v>
       </c>
       <c r="B86" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C86" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E86" t="str">
+        <f>CONCATENATE("bus-",TEXT(bus!A4,0))</f>
+        <v>bus-103</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>235</v>
       </c>
       <c r="B87" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C87" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E87" t="str">
+        <f>CONCATENATE("bus-",TEXT(bus!A5,0))</f>
+        <v>bus-104</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>235</v>
       </c>
       <c r="B88" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C88" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E88" t="str">
+        <f>CONCATENATE("bus-",TEXT(bus!A6,0))</f>
+        <v>bus-105</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>235</v>
       </c>
       <c r="B89" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C89" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E89" t="str">
+        <f>CONCATENATE("bus-",TEXT(bus!A7,0))</f>
+        <v>bus-106</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>235</v>
       </c>
       <c r="B90" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C90" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E90" t="str">
+        <f>CONCATENATE("bus-",TEXT(bus!A8,0))</f>
+        <v>bus-107</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>235</v>
       </c>
       <c r="B91" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C91" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E91" t="str">
+        <f>CONCATENATE("bus-",TEXT(bus!A9,0))</f>
+        <v>bus-108</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>235</v>
       </c>
       <c r="B92" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C92" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E92" t="str">
+        <f>CONCATENATE("bus-",TEXT(bus!A10,0))</f>
+        <v>bus-109</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>235</v>
       </c>
       <c r="B93" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C93" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E93" t="str">
+        <f>CONCATENATE("bus-",TEXT(bus!A11,0))</f>
+        <v>bus-110</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>235</v>
       </c>
       <c r="B94" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C94" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E94" t="str">
+        <f>CONCATENATE("bus-",TEXT(bus!A12,0))</f>
+        <v>bus-111</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>235</v>
       </c>
       <c r="B95" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C95" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E95" t="str">
+        <f>CONCATENATE("bus-",TEXT(bus!A13,0))</f>
+        <v>bus-112</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>235</v>
       </c>
       <c r="B96" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="C96" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E96" t="str">
+        <f>CONCATENATE("bus-",TEXT(bus!A14,0))</f>
+        <v>bus-113</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>235</v>
       </c>
       <c r="B97" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="C97" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E97" t="str">
+        <f>CONCATENATE("bus-",TEXT(bus!A15,0))</f>
+        <v>bus-114</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>235</v>
       </c>
       <c r="B98" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="C98" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E98" t="str">
+        <f>CONCATENATE("bus-",TEXT(bus!A16,0))</f>
+        <v>bus-115</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>235</v>
       </c>
       <c r="B99" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="C99" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E99" t="str">
+        <f>CONCATENATE("bus-",TEXT(bus!A17,0))</f>
+        <v>bus-116</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>235</v>
       </c>
       <c r="B100" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="C100" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E100" t="str">
+        <f>CONCATENATE("bus-",TEXT(bus!A18,0))</f>
+        <v>bus-117</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>235</v>
       </c>
       <c r="B101" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="C101" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E101" t="str">
+        <f>CONCATENATE("bus-",TEXT(bus!A19,0))</f>
+        <v>bus-118</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>235</v>
       </c>
       <c r="B102" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="C102" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E102" t="str">
+        <f>CONCATENATE("bus-",TEXT(bus!A20,0))</f>
+        <v>bus-119</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>235</v>
       </c>
       <c r="B103" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="C103" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E103" t="str">
+        <f>CONCATENATE("bus-",TEXT(bus!A21,0))</f>
+        <v>bus-120</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>235</v>
       </c>
       <c r="B104" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="C104" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E104" t="str">
+        <f>CONCATENATE("bus-",TEXT(bus!A22,0))</f>
+        <v>bus-121</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>235</v>
       </c>
       <c r="B105" t="s">
-        <v>336</v>
+        <v>391</v>
       </c>
       <c r="C105" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E105" t="str">
+        <f>CONCATENATE("bus-",TEXT(bus!A23,0))</f>
+        <v>bus-122</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>235</v>
       </c>
       <c r="B106" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="C106" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E106" t="str">
+        <f>CONCATENATE("bus-",TEXT(bus!A24,0))</f>
+        <v>bus-123</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>235</v>
       </c>
       <c r="B107" t="s">
-        <v>337</v>
+        <v>390</v>
       </c>
       <c r="C107" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E107" t="str">
+        <f>CONCATENATE("bus-",TEXT(bus!A25,0))</f>
+        <v>bus-124</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>235</v>
       </c>
       <c r="B108" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="C108" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E108" t="str">
+        <f>CONCATENATE("bus-",TEXT(bus!A26,0))</f>
+        <v>bus-201</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>235</v>
       </c>
       <c r="B109" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="C109" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E109" t="str">
+        <f>CONCATENATE("bus-",TEXT(bus!A27,0))</f>
+        <v>bus-202</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>235</v>
       </c>
       <c r="B110" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="C110" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E110" t="str">
+        <f>CONCATENATE("bus-",TEXT(bus!A28,0))</f>
+        <v>bus-203</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>235</v>
       </c>
       <c r="B111" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="C111" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E111" t="str">
+        <f>CONCATENATE("bus-",TEXT(bus!A29,0))</f>
+        <v>bus-204</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>235</v>
       </c>
       <c r="B112" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="C112" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E112" t="str">
+        <f>CONCATENATE("bus-",TEXT(bus!A30,0))</f>
+        <v>bus-205</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>235</v>
       </c>
       <c r="B113" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="C113" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E113" t="str">
+        <f>CONCATENATE("bus-",TEXT(bus!A31,0))</f>
+        <v>bus-206</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>235</v>
       </c>
       <c r="B114" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="C114" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E114" t="str">
+        <f>CONCATENATE("bus-",TEXT(bus!A32,0))</f>
+        <v>bus-207</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>235</v>
       </c>
       <c r="B115" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="C115" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E115" t="str">
+        <f>CONCATENATE("bus-",TEXT(bus!A33,0))</f>
+        <v>bus-208</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>235</v>
       </c>
       <c r="B116" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="C116" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E116" t="str">
+        <f>CONCATENATE("bus-",TEXT(bus!A34,0))</f>
+        <v>bus-209</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>235</v>
       </c>
       <c r="B117" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="C117" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E117" t="str">
+        <f>CONCATENATE("bus-",TEXT(bus!A35,0))</f>
+        <v>bus-210</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>235</v>
       </c>
       <c r="B118" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="C118" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E118" t="str">
+        <f>CONCATENATE("bus-",TEXT(bus!A36,0))</f>
+        <v>bus-211</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>235</v>
       </c>
       <c r="B119" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="C119" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E119" t="str">
+        <f>CONCATENATE("bus-",TEXT(bus!A37,0))</f>
+        <v>bus-212</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>235</v>
       </c>
       <c r="B120" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="C120" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E120" t="str">
+        <f>CONCATENATE("bus-",TEXT(bus!A38,0))</f>
+        <v>bus-213</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>235</v>
       </c>
       <c r="B121" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="C121" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E121" t="str">
+        <f>CONCATENATE("bus-",TEXT(bus!A39,0))</f>
+        <v>bus-214</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>235</v>
       </c>
       <c r="B122" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="C122" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E122" t="str">
+        <f>CONCATENATE("bus-",TEXT(bus!A40,0))</f>
+        <v>bus-215</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>235</v>
       </c>
       <c r="B123" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="C123" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E123" t="str">
+        <f>CONCATENATE("bus-",TEXT(bus!A41,0))</f>
+        <v>bus-216</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>235</v>
       </c>
       <c r="B124" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="C124" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E124" t="str">
+        <f>CONCATENATE("bus-",TEXT(bus!A42,0))</f>
+        <v>bus-217</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>235</v>
       </c>
       <c r="B125" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="C125" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E125" t="str">
+        <f>CONCATENATE("bus-",TEXT(bus!A43,0))</f>
+        <v>bus-218</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>235</v>
       </c>
       <c r="B126" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="C126" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E126" t="str">
+        <f>CONCATENATE("bus-",TEXT(bus!A44,0))</f>
+        <v>bus-219</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>235</v>
       </c>
       <c r="B127" t="s">
-        <v>347</v>
+        <v>365</v>
       </c>
       <c r="C127" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E127" t="str">
+        <f>CONCATENATE("bus-",TEXT(bus!A45,0))</f>
+        <v>bus-220</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>235</v>
       </c>
       <c r="B128" t="s">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="C128" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E128" t="str">
+        <f>CONCATENATE("bus-",TEXT(bus!A46,0))</f>
+        <v>bus-221</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>235</v>
       </c>
       <c r="B129" t="s">
-        <v>348</v>
+        <v>394</v>
       </c>
       <c r="C129" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E129" t="str">
+        <f>CONCATENATE("bus-",TEXT(bus!A47,0))</f>
+        <v>bus-222</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>235</v>
       </c>
       <c r="B130" t="s">
-        <v>348</v>
+        <v>393</v>
       </c>
       <c r="C130" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E130" t="str">
+        <f>CONCATENATE("bus-",TEXT(bus!A48,0))</f>
+        <v>bus-223</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>235</v>
       </c>
       <c r="B131" t="s">
-        <v>349</v>
+        <v>392</v>
       </c>
       <c r="C131" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E131" t="str">
+        <f>CONCATENATE("bus-",TEXT(bus!A49,0))</f>
+        <v>bus-224</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>235</v>
       </c>
       <c r="B132" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="C132" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E132" t="str">
+        <f>CONCATENATE("bus-",TEXT(bus!A50,0))</f>
+        <v>bus-301</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>235</v>
       </c>
       <c r="B133" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="C133" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E133" t="str">
+        <f>CONCATENATE("bus-",TEXT(bus!A51,0))</f>
+        <v>bus-302</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>235</v>
       </c>
       <c r="B134" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="C134" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E134" t="str">
+        <f>CONCATENATE("bus-",TEXT(bus!A52,0))</f>
+        <v>bus-303</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>235</v>
       </c>
       <c r="B135" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="C135" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E135" t="str">
+        <f>CONCATENATE("bus-",TEXT(bus!A53,0))</f>
+        <v>bus-304</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>235</v>
       </c>
       <c r="B136" t="s">
-        <v>353</v>
+        <v>371</v>
       </c>
       <c r="C136" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E136" t="str">
+        <f>CONCATENATE("bus-",TEXT(bus!A54,0))</f>
+        <v>bus-305</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>235</v>
       </c>
       <c r="B137" t="s">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c r="C137" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E137" t="str">
+        <f>CONCATENATE("bus-",TEXT(bus!A55,0))</f>
+        <v>bus-306</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>235</v>
       </c>
       <c r="B138" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="C138" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E138" t="str">
+        <f>CONCATENATE("bus-",TEXT(bus!A56,0))</f>
+        <v>bus-307</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>235</v>
       </c>
       <c r="B139" t="s">
-        <v>355</v>
+        <v>374</v>
       </c>
       <c r="C139" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E139" t="str">
+        <f>CONCATENATE("bus-",TEXT(bus!A57,0))</f>
+        <v>bus-308</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>235</v>
       </c>
       <c r="B140" t="s">
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="C140" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E140" t="str">
+        <f>CONCATENATE("bus-",TEXT(bus!A58,0))</f>
+        <v>bus-309</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>235</v>
       </c>
       <c r="B141" t="s">
-        <v>356</v>
+        <v>376</v>
       </c>
       <c r="C141" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E141" t="str">
+        <f>CONCATENATE("bus-",TEXT(bus!A59,0))</f>
+        <v>bus-310</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>235</v>
       </c>
       <c r="B142" t="s">
-        <v>356</v>
+        <v>377</v>
       </c>
       <c r="C142" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E142" t="str">
+        <f>CONCATENATE("bus-",TEXT(bus!A60,0))</f>
+        <v>bus-311</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>235</v>
       </c>
       <c r="B143" t="s">
-        <v>357</v>
+        <v>378</v>
       </c>
       <c r="C143" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E143" t="str">
+        <f>CONCATENATE("bus-",TEXT(bus!A61,0))</f>
+        <v>bus-312</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>235</v>
       </c>
       <c r="B144" t="s">
-        <v>357</v>
+        <v>379</v>
       </c>
       <c r="C144" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E144" t="str">
+        <f>CONCATENATE("bus-",TEXT(bus!A62,0))</f>
+        <v>bus-313</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>235</v>
       </c>
       <c r="B145" t="s">
-        <v>358</v>
+        <v>380</v>
       </c>
       <c r="C145" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E145" t="str">
+        <f>CONCATENATE("bus-",TEXT(bus!A63,0))</f>
+        <v>bus-314</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>235</v>
       </c>
       <c r="B146" t="s">
-        <v>359</v>
+        <v>381</v>
       </c>
       <c r="C146" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E146" t="str">
+        <f>CONCATENATE("bus-",TEXT(bus!A64,0))</f>
+        <v>bus-315</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>235</v>
       </c>
       <c r="B147" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="C147" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E147" t="str">
+        <f>CONCATENATE("bus-",TEXT(bus!A65,0))</f>
+        <v>bus-316</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>235</v>
       </c>
       <c r="B148" t="s">
-        <v>360</v>
+        <v>383</v>
       </c>
       <c r="C148" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E148" t="str">
+        <f>CONCATENATE("bus-",TEXT(bus!A66,0))</f>
+        <v>bus-317</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>235</v>
       </c>
       <c r="B149" t="s">
-        <v>360</v>
+        <v>384</v>
       </c>
       <c r="C149" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E149" t="str">
+        <f>CONCATENATE("bus-",TEXT(bus!A67,0))</f>
+        <v>bus-318</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>235</v>
       </c>
       <c r="B150" t="s">
-        <v>360</v>
+        <v>385</v>
       </c>
       <c r="C150" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E150" t="str">
+        <f>CONCATENATE("bus-",TEXT(bus!A68,0))</f>
+        <v>bus-319</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>235</v>
       </c>
       <c r="B151" t="s">
-        <v>361</v>
+        <v>386</v>
       </c>
       <c r="C151" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E151" t="str">
+        <f>CONCATENATE("bus-",TEXT(bus!A69,0))</f>
+        <v>bus-320</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>235</v>
       </c>
       <c r="B152" t="s">
-        <v>361</v>
+        <v>387</v>
       </c>
       <c r="C152" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E152" t="str">
+        <f>CONCATENATE("bus-",TEXT(bus!A70,0))</f>
+        <v>bus-321</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>235</v>
       </c>
       <c r="B153" t="s">
-        <v>362</v>
+        <v>396</v>
       </c>
       <c r="C153" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E153" t="str">
+        <f>CONCATENATE("bus-",TEXT(bus!A71,0))</f>
+        <v>bus-322</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>235</v>
       </c>
       <c r="B154" t="s">
-        <v>362</v>
+        <v>388</v>
       </c>
       <c r="C154" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E154" t="str">
+        <f>CONCATENATE("bus-",TEXT(bus!A72,0))</f>
+        <v>bus-323</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>235</v>
       </c>
       <c r="B155" t="s">
-        <v>363</v>
+        <v>395</v>
       </c>
       <c r="C155" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E155" t="str">
+        <f>CONCATENATE("bus-",TEXT(bus!A73,0))</f>
+        <v>bus-324</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>235</v>
       </c>
       <c r="B156" t="s">
-        <v>363</v>
+        <v>389</v>
       </c>
       <c r="C156" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A157" t="s">
-        <v>235</v>
-      </c>
-      <c r="B157" t="s">
-        <v>364</v>
-      </c>
-      <c r="C157" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A158" t="s">
-        <v>235</v>
-      </c>
-      <c r="B158" t="s">
-        <v>364</v>
-      </c>
-      <c r="C158" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A159" t="s">
-        <v>235</v>
-      </c>
-      <c r="B159" t="s">
-        <v>365</v>
-      </c>
-      <c r="C159" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A160" t="s">
-        <v>235</v>
-      </c>
-      <c r="B160" t="s">
-        <v>365</v>
-      </c>
-      <c r="C160" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A161" t="s">
-        <v>235</v>
-      </c>
-      <c r="B161" t="s">
-        <v>366</v>
-      </c>
-      <c r="C161" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A162" t="s">
-        <v>235</v>
-      </c>
-      <c r="B162" t="s">
-        <v>367</v>
-      </c>
-      <c r="C162" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A163" t="s">
-        <v>235</v>
-      </c>
-      <c r="B163" t="s">
-        <v>367</v>
-      </c>
-      <c r="C163" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A164" t="s">
-        <v>235</v>
-      </c>
-      <c r="B164" t="s">
-        <v>367</v>
-      </c>
-      <c r="C164" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A165" t="s">
-        <v>235</v>
-      </c>
-      <c r="B165" t="s">
-        <v>368</v>
-      </c>
-      <c r="C165" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A166" t="s">
-        <v>235</v>
-      </c>
-      <c r="B166" t="s">
-        <v>368</v>
-      </c>
-      <c r="C166" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A167" t="s">
-        <v>235</v>
-      </c>
-      <c r="B167" t="s">
-        <v>369</v>
-      </c>
-      <c r="C167" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A168" t="s">
-        <v>235</v>
-      </c>
-      <c r="B168" t="s">
-        <v>369</v>
-      </c>
-      <c r="C168" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A169" t="s">
-        <v>235</v>
-      </c>
-      <c r="B169" t="s">
-        <v>370</v>
-      </c>
-      <c r="C169" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A170" t="s">
-        <v>235</v>
-      </c>
-      <c r="B170" t="s">
-        <v>371</v>
-      </c>
-      <c r="C170" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A171" t="s">
-        <v>235</v>
-      </c>
-      <c r="B171" t="s">
-        <v>372</v>
-      </c>
-      <c r="C171" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A172" t="s">
-        <v>235</v>
-      </c>
-      <c r="B172" t="s">
-        <v>373</v>
-      </c>
-      <c r="C172" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A173" t="s">
-        <v>235</v>
-      </c>
-      <c r="B173" t="s">
-        <v>374</v>
-      </c>
-      <c r="C173" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A174" t="s">
-        <v>235</v>
-      </c>
-      <c r="B174" t="s">
-        <v>374</v>
-      </c>
-      <c r="C174" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A175" t="s">
-        <v>235</v>
-      </c>
-      <c r="B175" t="s">
-        <v>375</v>
-      </c>
-      <c r="C175" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A176" t="s">
-        <v>235</v>
-      </c>
-      <c r="B176" t="s">
-        <v>375</v>
-      </c>
-      <c r="C176" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A177" t="s">
-        <v>235</v>
-      </c>
-      <c r="B177" t="s">
-        <v>376</v>
-      </c>
-      <c r="C177" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A178" t="s">
-        <v>235</v>
-      </c>
-      <c r="B178" t="s">
-        <v>376</v>
-      </c>
-      <c r="C178" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A179" t="s">
-        <v>235</v>
-      </c>
-      <c r="B179" t="s">
-        <v>377</v>
-      </c>
-      <c r="C179" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A180" t="s">
-        <v>235</v>
-      </c>
-      <c r="B180" t="s">
-        <v>377</v>
-      </c>
-      <c r="C180" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A181" t="s">
-        <v>235</v>
-      </c>
-      <c r="B181" t="s">
-        <v>378</v>
-      </c>
-      <c r="C181" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A182" t="s">
-        <v>235</v>
-      </c>
-      <c r="B182" t="s">
-        <v>378</v>
-      </c>
-      <c r="C182" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A183" t="s">
-        <v>235</v>
-      </c>
-      <c r="B183" t="s">
-        <v>379</v>
-      </c>
-      <c r="C183" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A184" t="s">
-        <v>235</v>
-      </c>
-      <c r="B184" t="s">
-        <v>380</v>
-      </c>
-      <c r="C184" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A185" t="s">
-        <v>235</v>
-      </c>
-      <c r="B185" t="s">
-        <v>381</v>
-      </c>
-      <c r="C185" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A186" t="s">
-        <v>235</v>
-      </c>
-      <c r="B186" t="s">
-        <v>381</v>
-      </c>
-      <c r="C186" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A187" t="s">
-        <v>235</v>
-      </c>
-      <c r="B187" t="s">
-        <v>381</v>
-      </c>
-      <c r="C187" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A188" t="s">
-        <v>235</v>
-      </c>
-      <c r="B188" t="s">
-        <v>381</v>
-      </c>
-      <c r="C188" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A189" t="s">
-        <v>235</v>
-      </c>
-      <c r="B189" t="s">
-        <v>382</v>
-      </c>
-      <c r="C189" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A190" t="s">
-        <v>235</v>
-      </c>
-      <c r="B190" t="s">
-        <v>382</v>
-      </c>
-      <c r="C190" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A191" t="s">
-        <v>235</v>
-      </c>
-      <c r="B191" t="s">
-        <v>383</v>
-      </c>
-      <c r="C191" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A192" t="s">
-        <v>235</v>
-      </c>
-      <c r="B192" t="s">
-        <v>383</v>
-      </c>
-      <c r="C192" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A193" t="s">
-        <v>235</v>
-      </c>
-      <c r="B193" t="s">
-        <v>384</v>
-      </c>
-      <c r="C193" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A194" t="s">
-        <v>235</v>
-      </c>
-      <c r="B194" t="s">
-        <v>384</v>
-      </c>
-      <c r="C194" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A195" t="s">
-        <v>235</v>
-      </c>
-      <c r="B195" t="s">
-        <v>385</v>
-      </c>
-      <c r="C195" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A196" t="s">
-        <v>235</v>
-      </c>
-      <c r="B196" t="s">
-        <v>385</v>
-      </c>
-      <c r="C196" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A197" t="s">
-        <v>235</v>
-      </c>
-      <c r="B197" t="s">
-        <v>386</v>
-      </c>
-      <c r="C197" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A198" t="s">
-        <v>235</v>
-      </c>
-      <c r="B198" t="s">
-        <v>386</v>
-      </c>
-      <c r="C198" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A199" t="s">
-        <v>235</v>
-      </c>
-      <c r="B199" t="s">
-        <v>387</v>
-      </c>
-      <c r="C199" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A200" t="s">
-        <v>235</v>
-      </c>
-      <c r="B200" t="s">
-        <v>389</v>
-      </c>
-      <c r="C200" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A201" t="s">
-        <v>235</v>
-      </c>
-      <c r="B201" t="s">
-        <v>384</v>
-      </c>
-      <c r="C201" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A202" t="s">
-        <v>235</v>
-      </c>
-      <c r="B202" t="s">
-        <v>388</v>
-      </c>
-      <c r="C202" t="s">
-        <v>236</v>
+      <c r="E156" t="str">
+        <f>CONCATENATE("bus-",TEXT(bus!A74,0))</f>
+        <v>bus-325</v>
       </c>
     </row>
   </sheetData>
@@ -30373,10 +30162,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C403"/>
+  <dimension ref="A1:C311"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A203" sqref="A203:XFD203"/>
+    <sheetView tabSelected="1" topLeftCell="A293" workbookViewId="0">
+      <selection activeCell="A157" sqref="A157:XFD203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -30402,7 +30191,7 @@
         <v>238</v>
       </c>
       <c r="B2" t="s">
-        <v>239</v>
+        <v>401</v>
       </c>
       <c r="C2" t="s">
         <v>322</v>
@@ -30413,7 +30202,7 @@
         <v>238</v>
       </c>
       <c r="B3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C3" t="s">
         <v>322</v>
@@ -30424,7 +30213,7 @@
         <v>238</v>
       </c>
       <c r="B4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C4" t="s">
         <v>322</v>
@@ -30435,7 +30224,7 @@
         <v>238</v>
       </c>
       <c r="B5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C5" t="s">
         <v>322</v>
@@ -30446,7 +30235,7 @@
         <v>238</v>
       </c>
       <c r="B6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C6" t="s">
         <v>322</v>
@@ -30457,7 +30246,7 @@
         <v>238</v>
       </c>
       <c r="B7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C7" t="s">
         <v>322</v>
@@ -30468,7 +30257,7 @@
         <v>238</v>
       </c>
       <c r="B8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C8" t="s">
         <v>322</v>
@@ -30479,7 +30268,7 @@
         <v>238</v>
       </c>
       <c r="B9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C9" t="s">
         <v>322</v>
@@ -30490,7 +30279,7 @@
         <v>238</v>
       </c>
       <c r="B10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C10" t="s">
         <v>322</v>
@@ -30501,7 +30290,7 @@
         <v>238</v>
       </c>
       <c r="B11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C11" t="s">
         <v>322</v>
@@ -30512,7 +30301,7 @@
         <v>238</v>
       </c>
       <c r="B12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C12" t="s">
         <v>322</v>
@@ -30523,7 +30312,7 @@
         <v>238</v>
       </c>
       <c r="B13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C13" t="s">
         <v>322</v>
@@ -30534,7 +30323,7 @@
         <v>238</v>
       </c>
       <c r="B14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C14" t="s">
         <v>322</v>
@@ -30545,7 +30334,7 @@
         <v>238</v>
       </c>
       <c r="B15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C15" t="s">
         <v>322</v>
@@ -30556,7 +30345,7 @@
         <v>238</v>
       </c>
       <c r="B16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C16" t="s">
         <v>322</v>
@@ -30567,7 +30356,7 @@
         <v>238</v>
       </c>
       <c r="B17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C17" t="s">
         <v>322</v>
@@ -30578,7 +30367,7 @@
         <v>238</v>
       </c>
       <c r="B18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C18" t="s">
         <v>322</v>
@@ -30589,7 +30378,7 @@
         <v>238</v>
       </c>
       <c r="B19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C19" t="s">
         <v>322</v>
@@ -30600,7 +30389,7 @@
         <v>238</v>
       </c>
       <c r="B20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C20" t="s">
         <v>322</v>
@@ -30611,7 +30400,7 @@
         <v>238</v>
       </c>
       <c r="B21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C21" t="s">
         <v>322</v>
@@ -30622,7 +30411,7 @@
         <v>238</v>
       </c>
       <c r="B22" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C22" t="s">
         <v>322</v>
@@ -30633,7 +30422,7 @@
         <v>238</v>
       </c>
       <c r="B23" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C23" t="s">
         <v>322</v>
@@ -30644,7 +30433,7 @@
         <v>238</v>
       </c>
       <c r="B24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C24" t="s">
         <v>322</v>
@@ -30655,7 +30444,7 @@
         <v>238</v>
       </c>
       <c r="B25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C25" t="s">
         <v>322</v>
@@ -30666,7 +30455,7 @@
         <v>238</v>
       </c>
       <c r="B26" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C26" t="s">
         <v>322</v>
@@ -30677,7 +30466,7 @@
         <v>238</v>
       </c>
       <c r="B27" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C27" t="s">
         <v>322</v>
@@ -30688,7 +30477,7 @@
         <v>238</v>
       </c>
       <c r="B28" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C28" t="s">
         <v>322</v>
@@ -30699,7 +30488,7 @@
         <v>238</v>
       </c>
       <c r="B29" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C29" t="s">
         <v>322</v>
@@ -30710,7 +30499,7 @@
         <v>238</v>
       </c>
       <c r="B30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C30" t="s">
         <v>322</v>
@@ -30721,7 +30510,7 @@
         <v>238</v>
       </c>
       <c r="B31" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C31" t="s">
         <v>322</v>
@@ -30732,7 +30521,7 @@
         <v>238</v>
       </c>
       <c r="B32" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C32" t="s">
         <v>322</v>
@@ -30743,7 +30532,7 @@
         <v>238</v>
       </c>
       <c r="B33" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C33" t="s">
         <v>322</v>
@@ -30754,7 +30543,7 @@
         <v>238</v>
       </c>
       <c r="B34" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C34" t="s">
         <v>322</v>
@@ -30765,7 +30554,7 @@
         <v>238</v>
       </c>
       <c r="B35" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C35" t="s">
         <v>322</v>
@@ -30776,7 +30565,7 @@
         <v>238</v>
       </c>
       <c r="B36" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C36" t="s">
         <v>322</v>
@@ -30787,7 +30576,7 @@
         <v>238</v>
       </c>
       <c r="B37" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C37" t="s">
         <v>322</v>
@@ -30798,7 +30587,7 @@
         <v>238</v>
       </c>
       <c r="B38" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C38" t="s">
         <v>322</v>
@@ -30809,7 +30598,7 @@
         <v>238</v>
       </c>
       <c r="B39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C39" t="s">
         <v>322</v>
@@ -30820,7 +30609,7 @@
         <v>238</v>
       </c>
       <c r="B40" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C40" t="s">
         <v>322</v>
@@ -30831,7 +30620,7 @@
         <v>238</v>
       </c>
       <c r="B41" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C41" t="s">
         <v>322</v>
@@ -30842,7 +30631,7 @@
         <v>238</v>
       </c>
       <c r="B42" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C42" t="s">
         <v>322</v>
@@ -30853,7 +30642,7 @@
         <v>238</v>
       </c>
       <c r="B43" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C43" t="s">
         <v>322</v>
@@ -30864,7 +30653,7 @@
         <v>238</v>
       </c>
       <c r="B44" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C44" t="s">
         <v>322</v>
@@ -30875,7 +30664,7 @@
         <v>238</v>
       </c>
       <c r="B45" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C45" t="s">
         <v>322</v>
@@ -30886,7 +30675,7 @@
         <v>238</v>
       </c>
       <c r="B46" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C46" t="s">
         <v>322</v>
@@ -30897,7 +30686,7 @@
         <v>238</v>
       </c>
       <c r="B47" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C47" t="s">
         <v>322</v>
@@ -30908,7 +30697,7 @@
         <v>238</v>
       </c>
       <c r="B48" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C48" t="s">
         <v>322</v>
@@ -30919,7 +30708,7 @@
         <v>238</v>
       </c>
       <c r="B49" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C49" t="s">
         <v>322</v>
@@ -30930,7 +30719,7 @@
         <v>238</v>
       </c>
       <c r="B50" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C50" t="s">
         <v>322</v>
@@ -30941,7 +30730,7 @@
         <v>238</v>
       </c>
       <c r="B51" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C51" t="s">
         <v>322</v>
@@ -30952,7 +30741,7 @@
         <v>238</v>
       </c>
       <c r="B52" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C52" t="s">
         <v>322</v>
@@ -30963,7 +30752,7 @@
         <v>238</v>
       </c>
       <c r="B53" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C53" t="s">
         <v>322</v>
@@ -30974,7 +30763,7 @@
         <v>238</v>
       </c>
       <c r="B54" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C54" t="s">
         <v>322</v>
@@ -30985,7 +30774,7 @@
         <v>238</v>
       </c>
       <c r="B55" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C55" t="s">
         <v>322</v>
@@ -30996,7 +30785,7 @@
         <v>238</v>
       </c>
       <c r="B56" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C56" t="s">
         <v>322</v>
@@ -31007,7 +30796,7 @@
         <v>238</v>
       </c>
       <c r="B57" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C57" t="s">
         <v>322</v>
@@ -31018,7 +30807,7 @@
         <v>238</v>
       </c>
       <c r="B58" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C58" t="s">
         <v>322</v>
@@ -31029,7 +30818,7 @@
         <v>238</v>
       </c>
       <c r="B59" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C59" t="s">
         <v>322</v>
@@ -31040,7 +30829,7 @@
         <v>238</v>
       </c>
       <c r="B60" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C60" t="s">
         <v>322</v>
@@ -31051,7 +30840,7 @@
         <v>238</v>
       </c>
       <c r="B61" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C61" t="s">
         <v>322</v>
@@ -31062,7 +30851,7 @@
         <v>238</v>
       </c>
       <c r="B62" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C62" t="s">
         <v>322</v>
@@ -31073,7 +30862,7 @@
         <v>238</v>
       </c>
       <c r="B63" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C63" t="s">
         <v>322</v>
@@ -31084,7 +30873,7 @@
         <v>238</v>
       </c>
       <c r="B64" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C64" t="s">
         <v>322</v>
@@ -31095,7 +30884,7 @@
         <v>238</v>
       </c>
       <c r="B65" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C65" t="s">
         <v>322</v>
@@ -31106,7 +30895,7 @@
         <v>238</v>
       </c>
       <c r="B66" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C66" t="s">
         <v>322</v>
@@ -31117,7 +30906,7 @@
         <v>238</v>
       </c>
       <c r="B67" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C67" t="s">
         <v>322</v>
@@ -31128,7 +30917,7 @@
         <v>238</v>
       </c>
       <c r="B68" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C68" t="s">
         <v>322</v>
@@ -31139,7 +30928,7 @@
         <v>238</v>
       </c>
       <c r="B69" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C69" t="s">
         <v>322</v>
@@ -31150,7 +30939,7 @@
         <v>238</v>
       </c>
       <c r="B70" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C70" t="s">
         <v>322</v>
@@ -31161,7 +30950,7 @@
         <v>238</v>
       </c>
       <c r="B71" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C71" t="s">
         <v>322</v>
@@ -31172,7 +30961,7 @@
         <v>238</v>
       </c>
       <c r="B72" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C72" t="s">
         <v>322</v>
@@ -31183,7 +30972,7 @@
         <v>238</v>
       </c>
       <c r="B73" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C73" t="s">
         <v>322</v>
@@ -31194,7 +30983,7 @@
         <v>238</v>
       </c>
       <c r="B74" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C74" t="s">
         <v>322</v>
@@ -31205,7 +30994,7 @@
         <v>238</v>
       </c>
       <c r="B75" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C75" t="s">
         <v>322</v>
@@ -31216,7 +31005,7 @@
         <v>238</v>
       </c>
       <c r="B76" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C76" t="s">
         <v>322</v>
@@ -31227,7 +31016,7 @@
         <v>238</v>
       </c>
       <c r="B77" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C77" t="s">
         <v>322</v>
@@ -31238,7 +31027,7 @@
         <v>238</v>
       </c>
       <c r="B78" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C78" t="s">
         <v>322</v>
@@ -31249,7 +31038,7 @@
         <v>238</v>
       </c>
       <c r="B79" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C79" t="s">
         <v>322</v>
@@ -31260,7 +31049,7 @@
         <v>238</v>
       </c>
       <c r="B80" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C80" t="s">
         <v>322</v>
@@ -31271,7 +31060,7 @@
         <v>238</v>
       </c>
       <c r="B81" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C81" t="s">
         <v>322</v>
@@ -31282,7 +31071,7 @@
         <v>238</v>
       </c>
       <c r="B82" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C82" t="s">
         <v>322</v>
@@ -31293,7 +31082,7 @@
         <v>238</v>
       </c>
       <c r="B83" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C83" t="s">
         <v>322</v>
@@ -31315,7 +31104,7 @@
         <v>238</v>
       </c>
       <c r="B85" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C85" t="s">
         <v>322</v>
@@ -31326,7 +31115,7 @@
         <v>238</v>
       </c>
       <c r="B86" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C86" t="s">
         <v>322</v>
@@ -31337,7 +31126,7 @@
         <v>238</v>
       </c>
       <c r="B87" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C87" t="s">
         <v>322</v>
@@ -31348,7 +31137,7 @@
         <v>238</v>
       </c>
       <c r="B88" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C88" t="s">
         <v>322</v>
@@ -31359,7 +31148,7 @@
         <v>238</v>
       </c>
       <c r="B89" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C89" t="s">
         <v>322</v>
@@ -31370,7 +31159,7 @@
         <v>238</v>
       </c>
       <c r="B90" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C90" t="s">
         <v>322</v>
@@ -31381,7 +31170,7 @@
         <v>238</v>
       </c>
       <c r="B91" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C91" t="s">
         <v>322</v>
@@ -31392,7 +31181,7 @@
         <v>238</v>
       </c>
       <c r="B92" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C92" t="s">
         <v>322</v>
@@ -31403,7 +31192,7 @@
         <v>238</v>
       </c>
       <c r="B93" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C93" t="s">
         <v>322</v>
@@ -31414,7 +31203,7 @@
         <v>238</v>
       </c>
       <c r="B94" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C94" t="s">
         <v>322</v>
@@ -31425,7 +31214,7 @@
         <v>238</v>
       </c>
       <c r="B95" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C95" t="s">
         <v>322</v>
@@ -31436,7 +31225,7 @@
         <v>238</v>
       </c>
       <c r="B96" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="C96" t="s">
         <v>322</v>
@@ -31447,7 +31236,7 @@
         <v>238</v>
       </c>
       <c r="B97" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="C97" t="s">
         <v>322</v>
@@ -31458,7 +31247,7 @@
         <v>238</v>
       </c>
       <c r="B98" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="C98" t="s">
         <v>322</v>
@@ -31469,7 +31258,7 @@
         <v>238</v>
       </c>
       <c r="B99" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="C99" t="s">
         <v>322</v>
@@ -31480,7 +31269,7 @@
         <v>238</v>
       </c>
       <c r="B100" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="C100" t="s">
         <v>322</v>
@@ -31491,7 +31280,7 @@
         <v>238</v>
       </c>
       <c r="B101" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="C101" t="s">
         <v>322</v>
@@ -31502,7 +31291,7 @@
         <v>238</v>
       </c>
       <c r="B102" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="C102" t="s">
         <v>322</v>
@@ -31513,7 +31302,7 @@
         <v>238</v>
       </c>
       <c r="B103" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="C103" t="s">
         <v>322</v>
@@ -31524,7 +31313,7 @@
         <v>238</v>
       </c>
       <c r="B104" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="C104" t="s">
         <v>322</v>
@@ -31535,7 +31324,7 @@
         <v>238</v>
       </c>
       <c r="B105" t="s">
-        <v>336</v>
+        <v>391</v>
       </c>
       <c r="C105" t="s">
         <v>322</v>
@@ -31546,7 +31335,7 @@
         <v>238</v>
       </c>
       <c r="B106" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="C106" t="s">
         <v>322</v>
@@ -31557,7 +31346,7 @@
         <v>238</v>
       </c>
       <c r="B107" t="s">
-        <v>337</v>
+        <v>390</v>
       </c>
       <c r="C107" t="s">
         <v>322</v>
@@ -31568,7 +31357,7 @@
         <v>238</v>
       </c>
       <c r="B108" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="C108" t="s">
         <v>322</v>
@@ -31579,7 +31368,7 @@
         <v>238</v>
       </c>
       <c r="B109" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="C109" t="s">
         <v>322</v>
@@ -31590,7 +31379,7 @@
         <v>238</v>
       </c>
       <c r="B110" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="C110" t="s">
         <v>322</v>
@@ -31601,7 +31390,7 @@
         <v>238</v>
       </c>
       <c r="B111" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="C111" t="s">
         <v>322</v>
@@ -31612,7 +31401,7 @@
         <v>238</v>
       </c>
       <c r="B112" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="C112" t="s">
         <v>322</v>
@@ -31623,7 +31412,7 @@
         <v>238</v>
       </c>
       <c r="B113" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="C113" t="s">
         <v>322</v>
@@ -31634,7 +31423,7 @@
         <v>238</v>
       </c>
       <c r="B114" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="C114" t="s">
         <v>322</v>
@@ -31645,7 +31434,7 @@
         <v>238</v>
       </c>
       <c r="B115" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="C115" t="s">
         <v>322</v>
@@ -31656,7 +31445,7 @@
         <v>238</v>
       </c>
       <c r="B116" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="C116" t="s">
         <v>322</v>
@@ -31667,7 +31456,7 @@
         <v>238</v>
       </c>
       <c r="B117" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="C117" t="s">
         <v>322</v>
@@ -31678,7 +31467,7 @@
         <v>238</v>
       </c>
       <c r="B118" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="C118" t="s">
         <v>322</v>
@@ -31689,7 +31478,7 @@
         <v>238</v>
       </c>
       <c r="B119" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="C119" t="s">
         <v>322</v>
@@ -31700,7 +31489,7 @@
         <v>238</v>
       </c>
       <c r="B120" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="C120" t="s">
         <v>322</v>
@@ -31711,7 +31500,7 @@
         <v>238</v>
       </c>
       <c r="B121" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="C121" t="s">
         <v>322</v>
@@ -31722,7 +31511,7 @@
         <v>238</v>
       </c>
       <c r="B122" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="C122" t="s">
         <v>322</v>
@@ -31733,7 +31522,7 @@
         <v>238</v>
       </c>
       <c r="B123" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="C123" t="s">
         <v>322</v>
@@ -31744,7 +31533,7 @@
         <v>238</v>
       </c>
       <c r="B124" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="C124" t="s">
         <v>322</v>
@@ -31755,7 +31544,7 @@
         <v>238</v>
       </c>
       <c r="B125" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="C125" t="s">
         <v>322</v>
@@ -31766,7 +31555,7 @@
         <v>238</v>
       </c>
       <c r="B126" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="C126" t="s">
         <v>322</v>
@@ -31777,7 +31566,7 @@
         <v>238</v>
       </c>
       <c r="B127" t="s">
-        <v>347</v>
+        <v>365</v>
       </c>
       <c r="C127" t="s">
         <v>322</v>
@@ -31788,7 +31577,7 @@
         <v>238</v>
       </c>
       <c r="B128" t="s">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="C128" t="s">
         <v>322</v>
@@ -31799,7 +31588,7 @@
         <v>238</v>
       </c>
       <c r="B129" t="s">
-        <v>348</v>
+        <v>394</v>
       </c>
       <c r="C129" t="s">
         <v>322</v>
@@ -31810,7 +31599,7 @@
         <v>238</v>
       </c>
       <c r="B130" t="s">
-        <v>348</v>
+        <v>393</v>
       </c>
       <c r="C130" t="s">
         <v>322</v>
@@ -31821,7 +31610,7 @@
         <v>238</v>
       </c>
       <c r="B131" t="s">
-        <v>349</v>
+        <v>392</v>
       </c>
       <c r="C131" t="s">
         <v>322</v>
@@ -31832,7 +31621,7 @@
         <v>238</v>
       </c>
       <c r="B132" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="C132" t="s">
         <v>322</v>
@@ -31843,7 +31632,7 @@
         <v>238</v>
       </c>
       <c r="B133" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="C133" t="s">
         <v>322</v>
@@ -31854,7 +31643,7 @@
         <v>238</v>
       </c>
       <c r="B134" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="C134" t="s">
         <v>322</v>
@@ -31865,7 +31654,7 @@
         <v>238</v>
       </c>
       <c r="B135" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="C135" t="s">
         <v>322</v>
@@ -31876,7 +31665,7 @@
         <v>238</v>
       </c>
       <c r="B136" t="s">
-        <v>353</v>
+        <v>371</v>
       </c>
       <c r="C136" t="s">
         <v>322</v>
@@ -31887,7 +31676,7 @@
         <v>238</v>
       </c>
       <c r="B137" t="s">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c r="C137" t="s">
         <v>322</v>
@@ -31898,7 +31687,7 @@
         <v>238</v>
       </c>
       <c r="B138" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="C138" t="s">
         <v>322</v>
@@ -31909,7 +31698,7 @@
         <v>238</v>
       </c>
       <c r="B139" t="s">
-        <v>355</v>
+        <v>374</v>
       </c>
       <c r="C139" t="s">
         <v>322</v>
@@ -31920,7 +31709,7 @@
         <v>238</v>
       </c>
       <c r="B140" t="s">
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="C140" t="s">
         <v>322</v>
@@ -31931,7 +31720,7 @@
         <v>238</v>
       </c>
       <c r="B141" t="s">
-        <v>356</v>
+        <v>376</v>
       </c>
       <c r="C141" t="s">
         <v>322</v>
@@ -31942,7 +31731,7 @@
         <v>238</v>
       </c>
       <c r="B142" t="s">
-        <v>356</v>
+        <v>377</v>
       </c>
       <c r="C142" t="s">
         <v>322</v>
@@ -31953,7 +31742,7 @@
         <v>238</v>
       </c>
       <c r="B143" t="s">
-        <v>357</v>
+        <v>378</v>
       </c>
       <c r="C143" t="s">
         <v>322</v>
@@ -31964,7 +31753,7 @@
         <v>238</v>
       </c>
       <c r="B144" t="s">
-        <v>357</v>
+        <v>379</v>
       </c>
       <c r="C144" t="s">
         <v>322</v>
@@ -31975,7 +31764,7 @@
         <v>238</v>
       </c>
       <c r="B145" t="s">
-        <v>358</v>
+        <v>380</v>
       </c>
       <c r="C145" t="s">
         <v>322</v>
@@ -31986,7 +31775,7 @@
         <v>238</v>
       </c>
       <c r="B146" t="s">
-        <v>359</v>
+        <v>381</v>
       </c>
       <c r="C146" t="s">
         <v>322</v>
@@ -31997,7 +31786,7 @@
         <v>238</v>
       </c>
       <c r="B147" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="C147" t="s">
         <v>322</v>
@@ -32008,7 +31797,7 @@
         <v>238</v>
       </c>
       <c r="B148" t="s">
-        <v>360</v>
+        <v>383</v>
       </c>
       <c r="C148" t="s">
         <v>322</v>
@@ -32019,7 +31808,7 @@
         <v>238</v>
       </c>
       <c r="B149" t="s">
-        <v>360</v>
+        <v>384</v>
       </c>
       <c r="C149" t="s">
         <v>322</v>
@@ -32030,7 +31819,7 @@
         <v>238</v>
       </c>
       <c r="B150" t="s">
-        <v>360</v>
+        <v>385</v>
       </c>
       <c r="C150" t="s">
         <v>322</v>
@@ -32041,7 +31830,7 @@
         <v>238</v>
       </c>
       <c r="B151" t="s">
-        <v>361</v>
+        <v>386</v>
       </c>
       <c r="C151" t="s">
         <v>322</v>
@@ -32052,7 +31841,7 @@
         <v>238</v>
       </c>
       <c r="B152" t="s">
-        <v>361</v>
+        <v>387</v>
       </c>
       <c r="C152" t="s">
         <v>322</v>
@@ -32063,7 +31852,7 @@
         <v>238</v>
       </c>
       <c r="B153" t="s">
-        <v>362</v>
+        <v>396</v>
       </c>
       <c r="C153" t="s">
         <v>322</v>
@@ -32074,7 +31863,7 @@
         <v>238</v>
       </c>
       <c r="B154" t="s">
-        <v>362</v>
+        <v>388</v>
       </c>
       <c r="C154" t="s">
         <v>322</v>
@@ -32085,7 +31874,7 @@
         <v>238</v>
       </c>
       <c r="B155" t="s">
-        <v>363</v>
+        <v>395</v>
       </c>
       <c r="C155" t="s">
         <v>322</v>
@@ -32096,7 +31885,7 @@
         <v>238</v>
       </c>
       <c r="B156" t="s">
-        <v>363</v>
+        <v>389</v>
       </c>
       <c r="C156" t="s">
         <v>322</v>
@@ -32107,10 +31896,10 @@
         <v>238</v>
       </c>
       <c r="B157" t="s">
-        <v>364</v>
+        <v>401</v>
       </c>
       <c r="C157" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.35">
@@ -32118,10 +31907,10 @@
         <v>238</v>
       </c>
       <c r="B158" t="s">
-        <v>364</v>
+        <v>239</v>
       </c>
       <c r="C158" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.35">
@@ -32129,10 +31918,10 @@
         <v>238</v>
       </c>
       <c r="B159" t="s">
-        <v>365</v>
+        <v>240</v>
       </c>
       <c r="C159" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.35">
@@ -32140,10 +31929,10 @@
         <v>238</v>
       </c>
       <c r="B160" t="s">
-        <v>365</v>
+        <v>241</v>
       </c>
       <c r="C160" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.35">
@@ -32151,10 +31940,10 @@
         <v>238</v>
       </c>
       <c r="B161" t="s">
-        <v>366</v>
+        <v>242</v>
       </c>
       <c r="C161" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.35">
@@ -32162,10 +31951,10 @@
         <v>238</v>
       </c>
       <c r="B162" t="s">
-        <v>367</v>
+        <v>243</v>
       </c>
       <c r="C162" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.35">
@@ -32173,10 +31962,10 @@
         <v>238</v>
       </c>
       <c r="B163" t="s">
-        <v>367</v>
+        <v>244</v>
       </c>
       <c r="C163" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.35">
@@ -32184,10 +31973,10 @@
         <v>238</v>
       </c>
       <c r="B164" t="s">
-        <v>367</v>
+        <v>245</v>
       </c>
       <c r="C164" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.35">
@@ -32195,10 +31984,10 @@
         <v>238</v>
       </c>
       <c r="B165" t="s">
-        <v>368</v>
+        <v>246</v>
       </c>
       <c r="C165" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.35">
@@ -32206,10 +31995,10 @@
         <v>238</v>
       </c>
       <c r="B166" t="s">
-        <v>368</v>
+        <v>247</v>
       </c>
       <c r="C166" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.35">
@@ -32217,10 +32006,10 @@
         <v>238</v>
       </c>
       <c r="B167" t="s">
-        <v>369</v>
+        <v>248</v>
       </c>
       <c r="C167" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.35">
@@ -32228,10 +32017,10 @@
         <v>238</v>
       </c>
       <c r="B168" t="s">
-        <v>369</v>
+        <v>249</v>
       </c>
       <c r="C168" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.35">
@@ -32239,10 +32028,10 @@
         <v>238</v>
       </c>
       <c r="B169" t="s">
-        <v>370</v>
+        <v>250</v>
       </c>
       <c r="C169" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.35">
@@ -32250,10 +32039,10 @@
         <v>238</v>
       </c>
       <c r="B170" t="s">
-        <v>371</v>
+        <v>251</v>
       </c>
       <c r="C170" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.35">
@@ -32261,10 +32050,10 @@
         <v>238</v>
       </c>
       <c r="B171" t="s">
-        <v>372</v>
+        <v>252</v>
       </c>
       <c r="C171" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.35">
@@ -32272,10 +32061,10 @@
         <v>238</v>
       </c>
       <c r="B172" t="s">
-        <v>373</v>
+        <v>253</v>
       </c>
       <c r="C172" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.35">
@@ -32283,10 +32072,10 @@
         <v>238</v>
       </c>
       <c r="B173" t="s">
-        <v>374</v>
+        <v>254</v>
       </c>
       <c r="C173" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.35">
@@ -32294,10 +32083,10 @@
         <v>238</v>
       </c>
       <c r="B174" t="s">
-        <v>374</v>
+        <v>255</v>
       </c>
       <c r="C174" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.35">
@@ -32305,10 +32094,10 @@
         <v>238</v>
       </c>
       <c r="B175" t="s">
-        <v>375</v>
+        <v>256</v>
       </c>
       <c r="C175" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.35">
@@ -32316,10 +32105,10 @@
         <v>238</v>
       </c>
       <c r="B176" t="s">
-        <v>375</v>
+        <v>257</v>
       </c>
       <c r="C176" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.35">
@@ -32327,10 +32116,10 @@
         <v>238</v>
       </c>
       <c r="B177" t="s">
-        <v>376</v>
+        <v>258</v>
       </c>
       <c r="C177" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.35">
@@ -32338,10 +32127,10 @@
         <v>238</v>
       </c>
       <c r="B178" t="s">
-        <v>376</v>
+        <v>259</v>
       </c>
       <c r="C178" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.35">
@@ -32349,10 +32138,10 @@
         <v>238</v>
       </c>
       <c r="B179" t="s">
-        <v>377</v>
+        <v>260</v>
       </c>
       <c r="C179" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.35">
@@ -32360,10 +32149,10 @@
         <v>238</v>
       </c>
       <c r="B180" t="s">
-        <v>377</v>
+        <v>261</v>
       </c>
       <c r="C180" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.35">
@@ -32371,10 +32160,10 @@
         <v>238</v>
       </c>
       <c r="B181" t="s">
-        <v>378</v>
+        <v>262</v>
       </c>
       <c r="C181" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.35">
@@ -32382,10 +32171,10 @@
         <v>238</v>
       </c>
       <c r="B182" t="s">
-        <v>378</v>
+        <v>263</v>
       </c>
       <c r="C182" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.35">
@@ -32393,10 +32182,10 @@
         <v>238</v>
       </c>
       <c r="B183" t="s">
-        <v>379</v>
+        <v>264</v>
       </c>
       <c r="C183" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.35">
@@ -32404,10 +32193,10 @@
         <v>238</v>
       </c>
       <c r="B184" t="s">
-        <v>380</v>
+        <v>265</v>
       </c>
       <c r="C184" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.35">
@@ -32415,10 +32204,10 @@
         <v>238</v>
       </c>
       <c r="B185" t="s">
-        <v>381</v>
+        <v>266</v>
       </c>
       <c r="C185" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.35">
@@ -32426,10 +32215,10 @@
         <v>238</v>
       </c>
       <c r="B186" t="s">
-        <v>381</v>
+        <v>267</v>
       </c>
       <c r="C186" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.35">
@@ -32437,10 +32226,10 @@
         <v>238</v>
       </c>
       <c r="B187" t="s">
-        <v>381</v>
+        <v>268</v>
       </c>
       <c r="C187" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.35">
@@ -32448,10 +32237,10 @@
         <v>238</v>
       </c>
       <c r="B188" t="s">
-        <v>381</v>
+        <v>269</v>
       </c>
       <c r="C188" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.35">
@@ -32459,10 +32248,10 @@
         <v>238</v>
       </c>
       <c r="B189" t="s">
-        <v>382</v>
+        <v>270</v>
       </c>
       <c r="C189" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.35">
@@ -32470,10 +32259,10 @@
         <v>238</v>
       </c>
       <c r="B190" t="s">
-        <v>382</v>
+        <v>271</v>
       </c>
       <c r="C190" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.35">
@@ -32481,10 +32270,10 @@
         <v>238</v>
       </c>
       <c r="B191" t="s">
-        <v>383</v>
+        <v>272</v>
       </c>
       <c r="C191" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.35">
@@ -32492,10 +32281,10 @@
         <v>238</v>
       </c>
       <c r="B192" t="s">
-        <v>383</v>
+        <v>273</v>
       </c>
       <c r="C192" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.35">
@@ -32503,10 +32292,10 @@
         <v>238</v>
       </c>
       <c r="B193" t="s">
-        <v>384</v>
+        <v>274</v>
       </c>
       <c r="C193" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.35">
@@ -32514,10 +32303,10 @@
         <v>238</v>
       </c>
       <c r="B194" t="s">
-        <v>384</v>
+        <v>275</v>
       </c>
       <c r="C194" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.35">
@@ -32525,10 +32314,10 @@
         <v>238</v>
       </c>
       <c r="B195" t="s">
-        <v>385</v>
+        <v>276</v>
       </c>
       <c r="C195" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.35">
@@ -32536,10 +32325,10 @@
         <v>238</v>
       </c>
       <c r="B196" t="s">
-        <v>385</v>
+        <v>277</v>
       </c>
       <c r="C196" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.35">
@@ -32547,10 +32336,10 @@
         <v>238</v>
       </c>
       <c r="B197" t="s">
-        <v>386</v>
+        <v>278</v>
       </c>
       <c r="C197" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.35">
@@ -32558,10 +32347,10 @@
         <v>238</v>
       </c>
       <c r="B198" t="s">
-        <v>386</v>
+        <v>279</v>
       </c>
       <c r="C198" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.35">
@@ -32569,10 +32358,10 @@
         <v>238</v>
       </c>
       <c r="B199" t="s">
-        <v>387</v>
+        <v>280</v>
       </c>
       <c r="C199" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.35">
@@ -32580,10 +32369,10 @@
         <v>238</v>
       </c>
       <c r="B200" t="s">
-        <v>389</v>
+        <v>281</v>
       </c>
       <c r="C200" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.35">
@@ -32591,10 +32380,10 @@
         <v>238</v>
       </c>
       <c r="B201" t="s">
-        <v>384</v>
+        <v>282</v>
       </c>
       <c r="C201" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.35">
@@ -32602,10 +32391,10 @@
         <v>238</v>
       </c>
       <c r="B202" t="s">
-        <v>388</v>
+        <v>283</v>
       </c>
       <c r="C202" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.35">
@@ -32613,7 +32402,7 @@
         <v>238</v>
       </c>
       <c r="B203" t="s">
-        <v>239</v>
+        <v>284</v>
       </c>
       <c r="C203" t="s">
         <v>323</v>
@@ -32624,7 +32413,7 @@
         <v>238</v>
       </c>
       <c r="B204" t="s">
-        <v>240</v>
+        <v>285</v>
       </c>
       <c r="C204" t="s">
         <v>323</v>
@@ -32635,7 +32424,7 @@
         <v>238</v>
       </c>
       <c r="B205" t="s">
-        <v>241</v>
+        <v>286</v>
       </c>
       <c r="C205" t="s">
         <v>323</v>
@@ -32646,7 +32435,7 @@
         <v>238</v>
       </c>
       <c r="B206" t="s">
-        <v>242</v>
+        <v>287</v>
       </c>
       <c r="C206" t="s">
         <v>323</v>
@@ -32657,7 +32446,7 @@
         <v>238</v>
       </c>
       <c r="B207" t="s">
-        <v>243</v>
+        <v>288</v>
       </c>
       <c r="C207" t="s">
         <v>323</v>
@@ -32668,7 +32457,7 @@
         <v>238</v>
       </c>
       <c r="B208" t="s">
-        <v>244</v>
+        <v>289</v>
       </c>
       <c r="C208" t="s">
         <v>323</v>
@@ -32679,7 +32468,7 @@
         <v>238</v>
       </c>
       <c r="B209" t="s">
-        <v>245</v>
+        <v>290</v>
       </c>
       <c r="C209" t="s">
         <v>323</v>
@@ -32690,7 +32479,7 @@
         <v>238</v>
       </c>
       <c r="B210" t="s">
-        <v>246</v>
+        <v>291</v>
       </c>
       <c r="C210" t="s">
         <v>323</v>
@@ -32701,7 +32490,7 @@
         <v>238</v>
       </c>
       <c r="B211" t="s">
-        <v>247</v>
+        <v>292</v>
       </c>
       <c r="C211" t="s">
         <v>323</v>
@@ -32712,7 +32501,7 @@
         <v>238</v>
       </c>
       <c r="B212" t="s">
-        <v>248</v>
+        <v>293</v>
       </c>
       <c r="C212" t="s">
         <v>323</v>
@@ -32723,7 +32512,7 @@
         <v>238</v>
       </c>
       <c r="B213" t="s">
-        <v>249</v>
+        <v>294</v>
       </c>
       <c r="C213" t="s">
         <v>323</v>
@@ -32734,7 +32523,7 @@
         <v>238</v>
       </c>
       <c r="B214" t="s">
-        <v>250</v>
+        <v>295</v>
       </c>
       <c r="C214" t="s">
         <v>323</v>
@@ -32745,7 +32534,7 @@
         <v>238</v>
       </c>
       <c r="B215" t="s">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="C215" t="s">
         <v>323</v>
@@ -32756,7 +32545,7 @@
         <v>238</v>
       </c>
       <c r="B216" t="s">
-        <v>252</v>
+        <v>297</v>
       </c>
       <c r="C216" t="s">
         <v>323</v>
@@ -32767,7 +32556,7 @@
         <v>238</v>
       </c>
       <c r="B217" t="s">
-        <v>253</v>
+        <v>298</v>
       </c>
       <c r="C217" t="s">
         <v>323</v>
@@ -32778,7 +32567,7 @@
         <v>238</v>
       </c>
       <c r="B218" t="s">
-        <v>254</v>
+        <v>299</v>
       </c>
       <c r="C218" t="s">
         <v>323</v>
@@ -32789,7 +32578,7 @@
         <v>238</v>
       </c>
       <c r="B219" t="s">
-        <v>255</v>
+        <v>300</v>
       </c>
       <c r="C219" t="s">
         <v>323</v>
@@ -32800,7 +32589,7 @@
         <v>238</v>
       </c>
       <c r="B220" t="s">
-        <v>256</v>
+        <v>301</v>
       </c>
       <c r="C220" t="s">
         <v>323</v>
@@ -32811,7 +32600,7 @@
         <v>238</v>
       </c>
       <c r="B221" t="s">
-        <v>257</v>
+        <v>302</v>
       </c>
       <c r="C221" t="s">
         <v>323</v>
@@ -32822,7 +32611,7 @@
         <v>238</v>
       </c>
       <c r="B222" t="s">
-        <v>258</v>
+        <v>303</v>
       </c>
       <c r="C222" t="s">
         <v>323</v>
@@ -32833,7 +32622,7 @@
         <v>238</v>
       </c>
       <c r="B223" t="s">
-        <v>259</v>
+        <v>304</v>
       </c>
       <c r="C223" t="s">
         <v>323</v>
@@ -32844,7 +32633,7 @@
         <v>238</v>
       </c>
       <c r="B224" t="s">
-        <v>260</v>
+        <v>305</v>
       </c>
       <c r="C224" t="s">
         <v>323</v>
@@ -32855,7 +32644,7 @@
         <v>238</v>
       </c>
       <c r="B225" t="s">
-        <v>261</v>
+        <v>306</v>
       </c>
       <c r="C225" t="s">
         <v>323</v>
@@ -32866,7 +32655,7 @@
         <v>238</v>
       </c>
       <c r="B226" t="s">
-        <v>262</v>
+        <v>307</v>
       </c>
       <c r="C226" t="s">
         <v>323</v>
@@ -32877,7 +32666,7 @@
         <v>238</v>
       </c>
       <c r="B227" t="s">
-        <v>263</v>
+        <v>308</v>
       </c>
       <c r="C227" t="s">
         <v>323</v>
@@ -32888,7 +32677,7 @@
         <v>238</v>
       </c>
       <c r="B228" t="s">
-        <v>264</v>
+        <v>309</v>
       </c>
       <c r="C228" t="s">
         <v>323</v>
@@ -32899,7 +32688,7 @@
         <v>238</v>
       </c>
       <c r="B229" t="s">
-        <v>265</v>
+        <v>310</v>
       </c>
       <c r="C229" t="s">
         <v>323</v>
@@ -32910,7 +32699,7 @@
         <v>238</v>
       </c>
       <c r="B230" t="s">
-        <v>266</v>
+        <v>311</v>
       </c>
       <c r="C230" t="s">
         <v>323</v>
@@ -32921,7 +32710,7 @@
         <v>238</v>
       </c>
       <c r="B231" t="s">
-        <v>267</v>
+        <v>312</v>
       </c>
       <c r="C231" t="s">
         <v>323</v>
@@ -32932,7 +32721,7 @@
         <v>238</v>
       </c>
       <c r="B232" t="s">
-        <v>268</v>
+        <v>313</v>
       </c>
       <c r="C232" t="s">
         <v>323</v>
@@ -32943,7 +32732,7 @@
         <v>238</v>
       </c>
       <c r="B233" t="s">
-        <v>269</v>
+        <v>314</v>
       </c>
       <c r="C233" t="s">
         <v>323</v>
@@ -32954,7 +32743,7 @@
         <v>238</v>
       </c>
       <c r="B234" t="s">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="C234" t="s">
         <v>323</v>
@@ -32965,7 +32754,7 @@
         <v>238</v>
       </c>
       <c r="B235" t="s">
-        <v>271</v>
+        <v>316</v>
       </c>
       <c r="C235" t="s">
         <v>323</v>
@@ -32976,7 +32765,7 @@
         <v>238</v>
       </c>
       <c r="B236" t="s">
-        <v>272</v>
+        <v>317</v>
       </c>
       <c r="C236" t="s">
         <v>323</v>
@@ -32987,7 +32776,7 @@
         <v>238</v>
       </c>
       <c r="B237" t="s">
-        <v>273</v>
+        <v>318</v>
       </c>
       <c r="C237" t="s">
         <v>323</v>
@@ -32998,7 +32787,7 @@
         <v>238</v>
       </c>
       <c r="B238" t="s">
-        <v>274</v>
+        <v>319</v>
       </c>
       <c r="C238" t="s">
         <v>323</v>
@@ -33009,7 +32798,7 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>275</v>
+        <v>324</v>
       </c>
       <c r="C239" t="s">
         <v>323</v>
@@ -33020,7 +32809,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="s">
-        <v>276</v>
+        <v>325</v>
       </c>
       <c r="C240" t="s">
         <v>323</v>
@@ -33031,7 +32820,7 @@
         <v>238</v>
       </c>
       <c r="B241" t="s">
-        <v>277</v>
+        <v>326</v>
       </c>
       <c r="C241" t="s">
         <v>323</v>
@@ -33042,7 +32831,7 @@
         <v>238</v>
       </c>
       <c r="B242" t="s">
-        <v>278</v>
+        <v>327</v>
       </c>
       <c r="C242" t="s">
         <v>323</v>
@@ -33053,7 +32842,7 @@
         <v>238</v>
       </c>
       <c r="B243" t="s">
-        <v>279</v>
+        <v>328</v>
       </c>
       <c r="C243" t="s">
         <v>323</v>
@@ -33064,7 +32853,7 @@
         <v>238</v>
       </c>
       <c r="B244" t="s">
-        <v>280</v>
+        <v>329</v>
       </c>
       <c r="C244" t="s">
         <v>323</v>
@@ -33075,7 +32864,7 @@
         <v>238</v>
       </c>
       <c r="B245" t="s">
-        <v>281</v>
+        <v>330</v>
       </c>
       <c r="C245" t="s">
         <v>323</v>
@@ -33086,7 +32875,7 @@
         <v>238</v>
       </c>
       <c r="B246" t="s">
-        <v>282</v>
+        <v>331</v>
       </c>
       <c r="C246" t="s">
         <v>323</v>
@@ -33097,7 +32886,7 @@
         <v>238</v>
       </c>
       <c r="B247" t="s">
-        <v>283</v>
+        <v>332</v>
       </c>
       <c r="C247" t="s">
         <v>323</v>
@@ -33108,7 +32897,7 @@
         <v>238</v>
       </c>
       <c r="B248" t="s">
-        <v>284</v>
+        <v>333</v>
       </c>
       <c r="C248" t="s">
         <v>323</v>
@@ -33119,7 +32908,7 @@
         <v>238</v>
       </c>
       <c r="B249" t="s">
-        <v>285</v>
+        <v>334</v>
       </c>
       <c r="C249" t="s">
         <v>323</v>
@@ -33130,7 +32919,7 @@
         <v>238</v>
       </c>
       <c r="B250" t="s">
-        <v>286</v>
+        <v>335</v>
       </c>
       <c r="C250" t="s">
         <v>323</v>
@@ -33141,7 +32930,7 @@
         <v>238</v>
       </c>
       <c r="B251" t="s">
-        <v>287</v>
+        <v>336</v>
       </c>
       <c r="C251" t="s">
         <v>323</v>
@@ -33152,7 +32941,7 @@
         <v>238</v>
       </c>
       <c r="B252" t="s">
-        <v>288</v>
+        <v>337</v>
       </c>
       <c r="C252" t="s">
         <v>323</v>
@@ -33163,7 +32952,7 @@
         <v>238</v>
       </c>
       <c r="B253" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="C253" t="s">
         <v>323</v>
@@ -33174,7 +32963,7 @@
         <v>238</v>
       </c>
       <c r="B254" t="s">
-        <v>290</v>
+        <v>339</v>
       </c>
       <c r="C254" t="s">
         <v>323</v>
@@ -33185,7 +32974,7 @@
         <v>238</v>
       </c>
       <c r="B255" t="s">
-        <v>291</v>
+        <v>340</v>
       </c>
       <c r="C255" t="s">
         <v>323</v>
@@ -33196,7 +32985,7 @@
         <v>238</v>
       </c>
       <c r="B256" t="s">
-        <v>292</v>
+        <v>341</v>
       </c>
       <c r="C256" t="s">
         <v>323</v>
@@ -33207,7 +32996,7 @@
         <v>238</v>
       </c>
       <c r="B257" t="s">
-        <v>293</v>
+        <v>342</v>
       </c>
       <c r="C257" t="s">
         <v>323</v>
@@ -33218,7 +33007,7 @@
         <v>238</v>
       </c>
       <c r="B258" t="s">
-        <v>294</v>
+        <v>343</v>
       </c>
       <c r="C258" t="s">
         <v>323</v>
@@ -33229,7 +33018,7 @@
         <v>238</v>
       </c>
       <c r="B259" t="s">
-        <v>295</v>
+        <v>344</v>
       </c>
       <c r="C259" t="s">
         <v>323</v>
@@ -33240,7 +33029,7 @@
         <v>238</v>
       </c>
       <c r="B260" t="s">
-        <v>296</v>
+        <v>391</v>
       </c>
       <c r="C260" t="s">
         <v>323</v>
@@ -33251,7 +33040,7 @@
         <v>238</v>
       </c>
       <c r="B261" t="s">
-        <v>297</v>
+        <v>345</v>
       </c>
       <c r="C261" t="s">
         <v>323</v>
@@ -33262,7 +33051,7 @@
         <v>238</v>
       </c>
       <c r="B262" t="s">
-        <v>298</v>
+        <v>390</v>
       </c>
       <c r="C262" t="s">
         <v>323</v>
@@ -33273,7 +33062,7 @@
         <v>238</v>
       </c>
       <c r="B263" t="s">
-        <v>299</v>
+        <v>346</v>
       </c>
       <c r="C263" t="s">
         <v>323</v>
@@ -33284,7 +33073,7 @@
         <v>238</v>
       </c>
       <c r="B264" t="s">
-        <v>300</v>
+        <v>347</v>
       </c>
       <c r="C264" t="s">
         <v>323</v>
@@ -33295,7 +33084,7 @@
         <v>238</v>
       </c>
       <c r="B265" t="s">
-        <v>301</v>
+        <v>348</v>
       </c>
       <c r="C265" t="s">
         <v>323</v>
@@ -33306,7 +33095,7 @@
         <v>238</v>
       </c>
       <c r="B266" t="s">
-        <v>302</v>
+        <v>349</v>
       </c>
       <c r="C266" t="s">
         <v>323</v>
@@ -33317,7 +33106,7 @@
         <v>238</v>
       </c>
       <c r="B267" t="s">
-        <v>303</v>
+        <v>350</v>
       </c>
       <c r="C267" t="s">
         <v>323</v>
@@ -33328,7 +33117,7 @@
         <v>238</v>
       </c>
       <c r="B268" t="s">
-        <v>304</v>
+        <v>351</v>
       </c>
       <c r="C268" t="s">
         <v>323</v>
@@ -33339,7 +33128,7 @@
         <v>238</v>
       </c>
       <c r="B269" t="s">
-        <v>305</v>
+        <v>352</v>
       </c>
       <c r="C269" t="s">
         <v>323</v>
@@ -33350,7 +33139,7 @@
         <v>238</v>
       </c>
       <c r="B270" t="s">
-        <v>306</v>
+        <v>353</v>
       </c>
       <c r="C270" t="s">
         <v>323</v>
@@ -33361,7 +33150,7 @@
         <v>238</v>
       </c>
       <c r="B271" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="C271" t="s">
         <v>323</v>
@@ -33372,7 +33161,7 @@
         <v>238</v>
       </c>
       <c r="B272" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="C272" t="s">
         <v>323</v>
@@ -33383,7 +33172,7 @@
         <v>238</v>
       </c>
       <c r="B273" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="C273" t="s">
         <v>323</v>
@@ -33394,7 +33183,7 @@
         <v>238</v>
       </c>
       <c r="B274" t="s">
-        <v>310</v>
+        <v>357</v>
       </c>
       <c r="C274" t="s">
         <v>323</v>
@@ -33405,7 +33194,7 @@
         <v>238</v>
       </c>
       <c r="B275" t="s">
-        <v>311</v>
+        <v>358</v>
       </c>
       <c r="C275" t="s">
         <v>323</v>
@@ -33416,7 +33205,7 @@
         <v>238</v>
       </c>
       <c r="B276" t="s">
-        <v>312</v>
+        <v>359</v>
       </c>
       <c r="C276" t="s">
         <v>323</v>
@@ -33427,7 +33216,7 @@
         <v>238</v>
       </c>
       <c r="B277" t="s">
-        <v>313</v>
+        <v>360</v>
       </c>
       <c r="C277" t="s">
         <v>323</v>
@@ -33438,7 +33227,7 @@
         <v>238</v>
       </c>
       <c r="B278" t="s">
-        <v>314</v>
+        <v>361</v>
       </c>
       <c r="C278" t="s">
         <v>323</v>
@@ -33449,7 +33238,7 @@
         <v>238</v>
       </c>
       <c r="B279" t="s">
-        <v>315</v>
+        <v>362</v>
       </c>
       <c r="C279" t="s">
         <v>323</v>
@@ -33460,7 +33249,7 @@
         <v>238</v>
       </c>
       <c r="B280" t="s">
-        <v>316</v>
+        <v>363</v>
       </c>
       <c r="C280" t="s">
         <v>323</v>
@@ -33471,7 +33260,7 @@
         <v>238</v>
       </c>
       <c r="B281" t="s">
-        <v>317</v>
+        <v>364</v>
       </c>
       <c r="C281" t="s">
         <v>323</v>
@@ -33482,7 +33271,7 @@
         <v>238</v>
       </c>
       <c r="B282" t="s">
-        <v>318</v>
+        <v>365</v>
       </c>
       <c r="C282" t="s">
         <v>323</v>
@@ -33493,7 +33282,7 @@
         <v>238</v>
       </c>
       <c r="B283" t="s">
-        <v>319</v>
+        <v>366</v>
       </c>
       <c r="C283" t="s">
         <v>323</v>
@@ -33504,7 +33293,7 @@
         <v>238</v>
       </c>
       <c r="B284" t="s">
-        <v>324</v>
+        <v>394</v>
       </c>
       <c r="C284" t="s">
         <v>323</v>
@@ -33515,7 +33304,7 @@
         <v>238</v>
       </c>
       <c r="B285" t="s">
-        <v>324</v>
+        <v>393</v>
       </c>
       <c r="C285" t="s">
         <v>323</v>
@@ -33526,7 +33315,7 @@
         <v>238</v>
       </c>
       <c r="B286" t="s">
-        <v>324</v>
+        <v>392</v>
       </c>
       <c r="C286" t="s">
         <v>323</v>
@@ -33537,7 +33326,7 @@
         <v>238</v>
       </c>
       <c r="B287" t="s">
-        <v>325</v>
+        <v>367</v>
       </c>
       <c r="C287" t="s">
         <v>323</v>
@@ -33548,7 +33337,7 @@
         <v>238</v>
       </c>
       <c r="B288" t="s">
-        <v>325</v>
+        <v>368</v>
       </c>
       <c r="C288" t="s">
         <v>323</v>
@@ -33559,7 +33348,7 @@
         <v>238</v>
       </c>
       <c r="B289" t="s">
-        <v>326</v>
+        <v>369</v>
       </c>
       <c r="C289" t="s">
         <v>323</v>
@@ -33570,7 +33359,7 @@
         <v>238</v>
       </c>
       <c r="B290" t="s">
-        <v>326</v>
+        <v>370</v>
       </c>
       <c r="C290" t="s">
         <v>323</v>
@@ -33581,7 +33370,7 @@
         <v>238</v>
       </c>
       <c r="B291" t="s">
-        <v>327</v>
+        <v>371</v>
       </c>
       <c r="C291" t="s">
         <v>323</v>
@@ -33592,7 +33381,7 @@
         <v>238</v>
       </c>
       <c r="B292" t="s">
-        <v>328</v>
+        <v>372</v>
       </c>
       <c r="C292" t="s">
         <v>323</v>
@@ -33603,7 +33392,7 @@
         <v>238</v>
       </c>
       <c r="B293" t="s">
-        <v>329</v>
+        <v>373</v>
       </c>
       <c r="C293" t="s">
         <v>323</v>
@@ -33614,7 +33403,7 @@
         <v>238</v>
       </c>
       <c r="B294" t="s">
-        <v>330</v>
+        <v>374</v>
       </c>
       <c r="C294" t="s">
         <v>323</v>
@@ -33625,7 +33414,7 @@
         <v>238</v>
       </c>
       <c r="B295" t="s">
-        <v>330</v>
+        <v>375</v>
       </c>
       <c r="C295" t="s">
         <v>323</v>
@@ -33636,7 +33425,7 @@
         <v>238</v>
       </c>
       <c r="B296" t="s">
-        <v>331</v>
+        <v>376</v>
       </c>
       <c r="C296" t="s">
         <v>323</v>
@@ -33647,7 +33436,7 @@
         <v>238</v>
       </c>
       <c r="B297" t="s">
-        <v>331</v>
+        <v>377</v>
       </c>
       <c r="C297" t="s">
         <v>323</v>
@@ -33658,7 +33447,7 @@
         <v>238</v>
       </c>
       <c r="B298" t="s">
-        <v>332</v>
+        <v>378</v>
       </c>
       <c r="C298" t="s">
         <v>323</v>
@@ -33669,7 +33458,7 @@
         <v>238</v>
       </c>
       <c r="B299" t="s">
-        <v>332</v>
+        <v>379</v>
       </c>
       <c r="C299" t="s">
         <v>323</v>
@@ -33680,7 +33469,7 @@
         <v>238</v>
       </c>
       <c r="B300" t="s">
-        <v>333</v>
+        <v>380</v>
       </c>
       <c r="C300" t="s">
         <v>323</v>
@@ -33691,7 +33480,7 @@
         <v>238</v>
       </c>
       <c r="B301" t="s">
-        <v>333</v>
+        <v>381</v>
       </c>
       <c r="C301" t="s">
         <v>323</v>
@@ -33702,7 +33491,7 @@
         <v>238</v>
       </c>
       <c r="B302" t="s">
-        <v>334</v>
+        <v>382</v>
       </c>
       <c r="C302" t="s">
         <v>323</v>
@@ -33713,7 +33502,7 @@
         <v>238</v>
       </c>
       <c r="B303" t="s">
-        <v>334</v>
+        <v>383</v>
       </c>
       <c r="C303" t="s">
         <v>323</v>
@@ -33724,7 +33513,7 @@
         <v>238</v>
       </c>
       <c r="B304" t="s">
-        <v>335</v>
+        <v>384</v>
       </c>
       <c r="C304" t="s">
         <v>323</v>
@@ -33735,7 +33524,7 @@
         <v>238</v>
       </c>
       <c r="B305" t="s">
-        <v>335</v>
+        <v>385</v>
       </c>
       <c r="C305" t="s">
         <v>323</v>
@@ -33746,7 +33535,7 @@
         <v>238</v>
       </c>
       <c r="B306" t="s">
-        <v>336</v>
+        <v>386</v>
       </c>
       <c r="C306" t="s">
         <v>323</v>
@@ -33757,7 +33546,7 @@
         <v>238</v>
       </c>
       <c r="B307" t="s">
-        <v>336</v>
+        <v>387</v>
       </c>
       <c r="C307" t="s">
         <v>323</v>
@@ -33768,7 +33557,7 @@
         <v>238</v>
       </c>
       <c r="B308" t="s">
-        <v>337</v>
+        <v>396</v>
       </c>
       <c r="C308" t="s">
         <v>323</v>
@@ -33779,7 +33568,7 @@
         <v>238</v>
       </c>
       <c r="B309" t="s">
-        <v>338</v>
+        <v>388</v>
       </c>
       <c r="C309" t="s">
         <v>323</v>
@@ -33790,7 +33579,7 @@
         <v>238</v>
       </c>
       <c r="B310" t="s">
-        <v>338</v>
+        <v>395</v>
       </c>
       <c r="C310" t="s">
         <v>323</v>
@@ -33801,1021 +33590,9 @@
         <v>238</v>
       </c>
       <c r="B311" t="s">
-        <v>338</v>
+        <v>389</v>
       </c>
       <c r="C311" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A312" t="s">
-        <v>238</v>
-      </c>
-      <c r="B312" t="s">
-        <v>338</v>
-      </c>
-      <c r="C312" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A313" t="s">
-        <v>238</v>
-      </c>
-      <c r="B313" t="s">
-        <v>339</v>
-      </c>
-      <c r="C313" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A314" t="s">
-        <v>238</v>
-      </c>
-      <c r="B314" t="s">
-        <v>339</v>
-      </c>
-      <c r="C314" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A315" t="s">
-        <v>238</v>
-      </c>
-      <c r="B315" t="s">
-        <v>340</v>
-      </c>
-      <c r="C315" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A316" t="s">
-        <v>238</v>
-      </c>
-      <c r="B316" t="s">
-        <v>340</v>
-      </c>
-      <c r="C316" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A317" t="s">
-        <v>238</v>
-      </c>
-      <c r="B317" t="s">
-        <v>341</v>
-      </c>
-      <c r="C317" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A318" t="s">
-        <v>238</v>
-      </c>
-      <c r="B318" t="s">
-        <v>341</v>
-      </c>
-      <c r="C318" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A319" t="s">
-        <v>238</v>
-      </c>
-      <c r="B319" t="s">
-        <v>342</v>
-      </c>
-      <c r="C319" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A320" t="s">
-        <v>238</v>
-      </c>
-      <c r="B320" t="s">
-        <v>342</v>
-      </c>
-      <c r="C320" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A321" t="s">
-        <v>238</v>
-      </c>
-      <c r="B321" t="s">
-        <v>343</v>
-      </c>
-      <c r="C321" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A322" t="s">
-        <v>238</v>
-      </c>
-      <c r="B322" t="s">
-        <v>343</v>
-      </c>
-      <c r="C322" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A323" t="s">
-        <v>238</v>
-      </c>
-      <c r="B323" t="s">
-        <v>344</v>
-      </c>
-      <c r="C323" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A324" t="s">
-        <v>238</v>
-      </c>
-      <c r="B324" t="s">
-        <v>345</v>
-      </c>
-      <c r="C324" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A325" t="s">
-        <v>238</v>
-      </c>
-      <c r="B325" t="s">
-        <v>346</v>
-      </c>
-      <c r="C325" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A326" t="s">
-        <v>238</v>
-      </c>
-      <c r="B326" t="s">
-        <v>346</v>
-      </c>
-      <c r="C326" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A327" t="s">
-        <v>238</v>
-      </c>
-      <c r="B327" t="s">
-        <v>346</v>
-      </c>
-      <c r="C327" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A328" t="s">
-        <v>238</v>
-      </c>
-      <c r="B328" t="s">
-        <v>347</v>
-      </c>
-      <c r="C328" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A329" t="s">
-        <v>238</v>
-      </c>
-      <c r="B329" t="s">
-        <v>347</v>
-      </c>
-      <c r="C329" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A330" t="s">
-        <v>238</v>
-      </c>
-      <c r="B330" t="s">
-        <v>348</v>
-      </c>
-      <c r="C330" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A331" t="s">
-        <v>238</v>
-      </c>
-      <c r="B331" t="s">
-        <v>348</v>
-      </c>
-      <c r="C331" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A332" t="s">
-        <v>238</v>
-      </c>
-      <c r="B332" t="s">
-        <v>349</v>
-      </c>
-      <c r="C332" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A333" t="s">
-        <v>238</v>
-      </c>
-      <c r="B333" t="s">
-        <v>350</v>
-      </c>
-      <c r="C333" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A334" t="s">
-        <v>238</v>
-      </c>
-      <c r="B334" t="s">
-        <v>351</v>
-      </c>
-      <c r="C334" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A335" t="s">
-        <v>238</v>
-      </c>
-      <c r="B335" t="s">
-        <v>352</v>
-      </c>
-      <c r="C335" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A336" t="s">
-        <v>238</v>
-      </c>
-      <c r="B336" t="s">
-        <v>353</v>
-      </c>
-      <c r="C336" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A337" t="s">
-        <v>238</v>
-      </c>
-      <c r="B337" t="s">
-        <v>353</v>
-      </c>
-      <c r="C337" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A338" t="s">
-        <v>238</v>
-      </c>
-      <c r="B338" t="s">
-        <v>354</v>
-      </c>
-      <c r="C338" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A339" t="s">
-        <v>238</v>
-      </c>
-      <c r="B339" t="s">
-        <v>354</v>
-      </c>
-      <c r="C339" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A340" t="s">
-        <v>238</v>
-      </c>
-      <c r="B340" t="s">
-        <v>355</v>
-      </c>
-      <c r="C340" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A341" t="s">
-        <v>238</v>
-      </c>
-      <c r="B341" t="s">
-        <v>355</v>
-      </c>
-      <c r="C341" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A342" t="s">
-        <v>238</v>
-      </c>
-      <c r="B342" t="s">
-        <v>356</v>
-      </c>
-      <c r="C342" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A343" t="s">
-        <v>238</v>
-      </c>
-      <c r="B343" t="s">
-        <v>356</v>
-      </c>
-      <c r="C343" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A344" t="s">
-        <v>238</v>
-      </c>
-      <c r="B344" t="s">
-        <v>357</v>
-      </c>
-      <c r="C344" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A345" t="s">
-        <v>238</v>
-      </c>
-      <c r="B345" t="s">
-        <v>357</v>
-      </c>
-      <c r="C345" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A346" t="s">
-        <v>238</v>
-      </c>
-      <c r="B346" t="s">
-        <v>358</v>
-      </c>
-      <c r="C346" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A347" t="s">
-        <v>238</v>
-      </c>
-      <c r="B347" t="s">
-        <v>359</v>
-      </c>
-      <c r="C347" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A348" t="s">
-        <v>238</v>
-      </c>
-      <c r="B348" t="s">
-        <v>360</v>
-      </c>
-      <c r="C348" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A349" t="s">
-        <v>238</v>
-      </c>
-      <c r="B349" t="s">
-        <v>360</v>
-      </c>
-      <c r="C349" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A350" t="s">
-        <v>238</v>
-      </c>
-      <c r="B350" t="s">
-        <v>360</v>
-      </c>
-      <c r="C350" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A351" t="s">
-        <v>238</v>
-      </c>
-      <c r="B351" t="s">
-        <v>360</v>
-      </c>
-      <c r="C351" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A352" t="s">
-        <v>238</v>
-      </c>
-      <c r="B352" t="s">
-        <v>361</v>
-      </c>
-      <c r="C352" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A353" t="s">
-        <v>238</v>
-      </c>
-      <c r="B353" t="s">
-        <v>361</v>
-      </c>
-      <c r="C353" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A354" t="s">
-        <v>238</v>
-      </c>
-      <c r="B354" t="s">
-        <v>362</v>
-      </c>
-      <c r="C354" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A355" t="s">
-        <v>238</v>
-      </c>
-      <c r="B355" t="s">
-        <v>362</v>
-      </c>
-      <c r="C355" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A356" t="s">
-        <v>238</v>
-      </c>
-      <c r="B356" t="s">
-        <v>363</v>
-      </c>
-      <c r="C356" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A357" t="s">
-        <v>238</v>
-      </c>
-      <c r="B357" t="s">
-        <v>363</v>
-      </c>
-      <c r="C357" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A358" t="s">
-        <v>238</v>
-      </c>
-      <c r="B358" t="s">
-        <v>364</v>
-      </c>
-      <c r="C358" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A359" t="s">
-        <v>238</v>
-      </c>
-      <c r="B359" t="s">
-        <v>364</v>
-      </c>
-      <c r="C359" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A360" t="s">
-        <v>238</v>
-      </c>
-      <c r="B360" t="s">
-        <v>365</v>
-      </c>
-      <c r="C360" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A361" t="s">
-        <v>238</v>
-      </c>
-      <c r="B361" t="s">
-        <v>365</v>
-      </c>
-      <c r="C361" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A362" t="s">
-        <v>238</v>
-      </c>
-      <c r="B362" t="s">
-        <v>366</v>
-      </c>
-      <c r="C362" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A363" t="s">
-        <v>238</v>
-      </c>
-      <c r="B363" t="s">
-        <v>367</v>
-      </c>
-      <c r="C363" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A364" t="s">
-        <v>238</v>
-      </c>
-      <c r="B364" t="s">
-        <v>367</v>
-      </c>
-      <c r="C364" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A365" t="s">
-        <v>238</v>
-      </c>
-      <c r="B365" t="s">
-        <v>367</v>
-      </c>
-      <c r="C365" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A366" t="s">
-        <v>238</v>
-      </c>
-      <c r="B366" t="s">
-        <v>368</v>
-      </c>
-      <c r="C366" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A367" t="s">
-        <v>238</v>
-      </c>
-      <c r="B367" t="s">
-        <v>368</v>
-      </c>
-      <c r="C367" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A368" t="s">
-        <v>238</v>
-      </c>
-      <c r="B368" t="s">
-        <v>369</v>
-      </c>
-      <c r="C368" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A369" t="s">
-        <v>238</v>
-      </c>
-      <c r="B369" t="s">
-        <v>369</v>
-      </c>
-      <c r="C369" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A370" t="s">
-        <v>238</v>
-      </c>
-      <c r="B370" t="s">
-        <v>370</v>
-      </c>
-      <c r="C370" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A371" t="s">
-        <v>238</v>
-      </c>
-      <c r="B371" t="s">
-        <v>371</v>
-      </c>
-      <c r="C371" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A372" t="s">
-        <v>238</v>
-      </c>
-      <c r="B372" t="s">
-        <v>372</v>
-      </c>
-      <c r="C372" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A373" t="s">
-        <v>238</v>
-      </c>
-      <c r="B373" t="s">
-        <v>373</v>
-      </c>
-      <c r="C373" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A374" t="s">
-        <v>238</v>
-      </c>
-      <c r="B374" t="s">
-        <v>374</v>
-      </c>
-      <c r="C374" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A375" t="s">
-        <v>238</v>
-      </c>
-      <c r="B375" t="s">
-        <v>374</v>
-      </c>
-      <c r="C375" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A376" t="s">
-        <v>238</v>
-      </c>
-      <c r="B376" t="s">
-        <v>375</v>
-      </c>
-      <c r="C376" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A377" t="s">
-        <v>238</v>
-      </c>
-      <c r="B377" t="s">
-        <v>375</v>
-      </c>
-      <c r="C377" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A378" t="s">
-        <v>238</v>
-      </c>
-      <c r="B378" t="s">
-        <v>376</v>
-      </c>
-      <c r="C378" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A379" t="s">
-        <v>238</v>
-      </c>
-      <c r="B379" t="s">
-        <v>376</v>
-      </c>
-      <c r="C379" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A380" t="s">
-        <v>238</v>
-      </c>
-      <c r="B380" t="s">
-        <v>377</v>
-      </c>
-      <c r="C380" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A381" t="s">
-        <v>238</v>
-      </c>
-      <c r="B381" t="s">
-        <v>377</v>
-      </c>
-      <c r="C381" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A382" t="s">
-        <v>238</v>
-      </c>
-      <c r="B382" t="s">
-        <v>378</v>
-      </c>
-      <c r="C382" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A383" t="s">
-        <v>238</v>
-      </c>
-      <c r="B383" t="s">
-        <v>378</v>
-      </c>
-      <c r="C383" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A384" t="s">
-        <v>238</v>
-      </c>
-      <c r="B384" t="s">
-        <v>379</v>
-      </c>
-      <c r="C384" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A385" t="s">
-        <v>238</v>
-      </c>
-      <c r="B385" t="s">
-        <v>380</v>
-      </c>
-      <c r="C385" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A386" t="s">
-        <v>238</v>
-      </c>
-      <c r="B386" t="s">
-        <v>381</v>
-      </c>
-      <c r="C386" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A387" t="s">
-        <v>238</v>
-      </c>
-      <c r="B387" t="s">
-        <v>381</v>
-      </c>
-      <c r="C387" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A388" t="s">
-        <v>238</v>
-      </c>
-      <c r="B388" t="s">
-        <v>381</v>
-      </c>
-      <c r="C388" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A389" t="s">
-        <v>238</v>
-      </c>
-      <c r="B389" t="s">
-        <v>381</v>
-      </c>
-      <c r="C389" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A390" t="s">
-        <v>238</v>
-      </c>
-      <c r="B390" t="s">
-        <v>382</v>
-      </c>
-      <c r="C390" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A391" t="s">
-        <v>238</v>
-      </c>
-      <c r="B391" t="s">
-        <v>382</v>
-      </c>
-      <c r="C391" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A392" t="s">
-        <v>238</v>
-      </c>
-      <c r="B392" t="s">
-        <v>383</v>
-      </c>
-      <c r="C392" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A393" t="s">
-        <v>238</v>
-      </c>
-      <c r="B393" t="s">
-        <v>383</v>
-      </c>
-      <c r="C393" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A394" t="s">
-        <v>238</v>
-      </c>
-      <c r="B394" t="s">
-        <v>384</v>
-      </c>
-      <c r="C394" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A395" t="s">
-        <v>238</v>
-      </c>
-      <c r="B395" t="s">
-        <v>384</v>
-      </c>
-      <c r="C395" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A396" t="s">
-        <v>238</v>
-      </c>
-      <c r="B396" t="s">
-        <v>385</v>
-      </c>
-      <c r="C396" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A397" t="s">
-        <v>238</v>
-      </c>
-      <c r="B397" t="s">
-        <v>385</v>
-      </c>
-      <c r="C397" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A398" t="s">
-        <v>238</v>
-      </c>
-      <c r="B398" t="s">
-        <v>386</v>
-      </c>
-      <c r="C398" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A399" t="s">
-        <v>238</v>
-      </c>
-      <c r="B399" t="s">
-        <v>386</v>
-      </c>
-      <c r="C399" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A400" t="s">
-        <v>238</v>
-      </c>
-      <c r="B400" t="s">
-        <v>387</v>
-      </c>
-      <c r="C400" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A401" t="s">
-        <v>238</v>
-      </c>
-      <c r="B401" t="s">
-        <v>389</v>
-      </c>
-      <c r="C401" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A402" t="s">
-        <v>238</v>
-      </c>
-      <c r="B402" t="s">
-        <v>384</v>
-      </c>
-      <c r="C402" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A403" t="s">
-        <v>238</v>
-      </c>
-      <c r="B403" t="s">
-        <v>388</v>
-      </c>
-      <c r="C403" t="s">
         <v>323</v>
       </c>
     </row>

--- a/spine_rts-gmlc/datasets/branch_bus_detailed.xlsx
+++ b/spine_rts-gmlc/datasets/branch_bus_detailed.xlsx
@@ -22,7 +22,7 @@
     <sheet name="rel_node__commodity" sheetId="5" r:id="rId8"/>
     <sheet name="rel_node__temporal_block" sheetId="7" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcMode="manual"/>
 </workbook>
 </file>
 
@@ -21263,7 +21263,7 @@
   <cols>
     <col min="1" max="1" width="24.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="5" max="5" width="29.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -21303,7 +21303,7 @@
         <v>398</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -21323,7 +21323,7 @@
         <v>398</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -21343,7 +21343,7 @@
         <v>398</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -21363,7 +21363,7 @@
         <v>398</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -21383,7 +21383,7 @@
         <v>398</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -21403,7 +21403,7 @@
         <v>398</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -21423,7 +21423,7 @@
         <v>398</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -21443,7 +21443,7 @@
         <v>398</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -21463,7 +21463,7 @@
         <v>398</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -21483,7 +21483,7 @@
         <v>398</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -21503,7 +21503,7 @@
         <v>398</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -21523,7 +21523,7 @@
         <v>398</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -21543,7 +21543,7 @@
         <v>398</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -21563,7 +21563,7 @@
         <v>398</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -21583,7 +21583,7 @@
         <v>398</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -21603,7 +21603,7 @@
         <v>398</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -21623,7 +21623,7 @@
         <v>398</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -21643,7 +21643,7 @@
         <v>398</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -21663,7 +21663,7 @@
         <v>398</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -21683,7 +21683,7 @@
         <v>398</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
@@ -21703,7 +21703,7 @@
         <v>398</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
@@ -21723,7 +21723,7 @@
         <v>398</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
@@ -21743,7 +21743,7 @@
         <v>398</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
@@ -21763,7 +21763,7 @@
         <v>398</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
@@ -21783,7 +21783,7 @@
         <v>398</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
@@ -21803,7 +21803,7 @@
         <v>398</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
@@ -21823,7 +21823,7 @@
         <v>398</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
@@ -21843,7 +21843,7 @@
         <v>398</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
@@ -21863,7 +21863,7 @@
         <v>398</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
@@ -21883,7 +21883,7 @@
         <v>398</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
@@ -21903,7 +21903,7 @@
         <v>398</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
@@ -21923,7 +21923,7 @@
         <v>398</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
@@ -21943,7 +21943,7 @@
         <v>398</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
@@ -21963,7 +21963,7 @@
         <v>398</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
@@ -21983,7 +21983,7 @@
         <v>398</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
@@ -22003,7 +22003,7 @@
         <v>398</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
@@ -22023,7 +22023,7 @@
         <v>398</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
@@ -22043,7 +22043,7 @@
         <v>398</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
@@ -22063,7 +22063,7 @@
         <v>398</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
@@ -22083,7 +22083,7 @@
         <v>398</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
@@ -22103,7 +22103,7 @@
         <v>398</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
@@ -22123,7 +22123,7 @@
         <v>398</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
@@ -22143,7 +22143,7 @@
         <v>398</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
@@ -22163,7 +22163,7 @@
         <v>398</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
@@ -22183,7 +22183,7 @@
         <v>398</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
@@ -22203,7 +22203,7 @@
         <v>398</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
@@ -22223,7 +22223,7 @@
         <v>398</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
@@ -22243,7 +22243,7 @@
         <v>398</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
@@ -22263,7 +22263,7 @@
         <v>398</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
@@ -22283,7 +22283,7 @@
         <v>398</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
@@ -22303,7 +22303,7 @@
         <v>398</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
@@ -22323,7 +22323,7 @@
         <v>398</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
@@ -22343,7 +22343,7 @@
         <v>398</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
@@ -22363,7 +22363,7 @@
         <v>398</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
@@ -22383,7 +22383,7 @@
         <v>398</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
@@ -22403,7 +22403,7 @@
         <v>398</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
@@ -22423,7 +22423,7 @@
         <v>398</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
@@ -22443,7 +22443,7 @@
         <v>398</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
@@ -22463,7 +22463,7 @@
         <v>398</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
@@ -22483,7 +22483,7 @@
         <v>398</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
@@ -22503,7 +22503,7 @@
         <v>398</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
@@ -22523,7 +22523,7 @@
         <v>398</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
@@ -22543,7 +22543,7 @@
         <v>398</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
@@ -22563,7 +22563,7 @@
         <v>398</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
@@ -22583,7 +22583,7 @@
         <v>398</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
@@ -22603,7 +22603,7 @@
         <v>398</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
@@ -22623,7 +22623,7 @@
         <v>398</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
@@ -22643,7 +22643,7 @@
         <v>398</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
@@ -22663,7 +22663,7 @@
         <v>398</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
@@ -22683,7 +22683,7 @@
         <v>398</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
@@ -22703,7 +22703,7 @@
         <v>398</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
@@ -22723,7 +22723,7 @@
         <v>398</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
@@ -22743,7 +22743,7 @@
         <v>398</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
@@ -22763,7 +22763,7 @@
         <v>398</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
@@ -22783,7 +22783,7 @@
         <v>398</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
@@ -22803,7 +22803,7 @@
         <v>398</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
@@ -22823,7 +22823,7 @@
         <v>398</v>
       </c>
       <c r="F78">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
@@ -22843,7 +22843,7 @@
         <v>398</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
@@ -22863,7 +22863,7 @@
         <v>398</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
@@ -22883,7 +22883,7 @@
         <v>398</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
@@ -22903,7 +22903,7 @@
         <v>398</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
@@ -22923,7 +22923,7 @@
         <v>398</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
@@ -22943,7 +22943,7 @@
         <v>398</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
@@ -22963,7 +22963,7 @@
         <v>398</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
@@ -22983,7 +22983,7 @@
         <v>398</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
@@ -23003,7 +23003,7 @@
         <v>398</v>
       </c>
       <c r="F87">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
@@ -23023,7 +23023,7 @@
         <v>398</v>
       </c>
       <c r="F88">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
@@ -23043,7 +23043,7 @@
         <v>398</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
@@ -23063,7 +23063,7 @@
         <v>398</v>
       </c>
       <c r="F90">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
@@ -23083,7 +23083,7 @@
         <v>398</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
@@ -23103,7 +23103,7 @@
         <v>398</v>
       </c>
       <c r="F92">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
@@ -23123,7 +23123,7 @@
         <v>398</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
@@ -23143,7 +23143,7 @@
         <v>398</v>
       </c>
       <c r="F94">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
@@ -23163,7 +23163,7 @@
         <v>398</v>
       </c>
       <c r="F95">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
@@ -23183,7 +23183,7 @@
         <v>398</v>
       </c>
       <c r="F96">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
@@ -23203,7 +23203,7 @@
         <v>398</v>
       </c>
       <c r="F97">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
@@ -23223,7 +23223,7 @@
         <v>398</v>
       </c>
       <c r="F98">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
@@ -23243,7 +23243,7 @@
         <v>398</v>
       </c>
       <c r="F99">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
@@ -23263,7 +23263,7 @@
         <v>398</v>
       </c>
       <c r="F100">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
@@ -23283,7 +23283,7 @@
         <v>398</v>
       </c>
       <c r="F101">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
@@ -23303,7 +23303,7 @@
         <v>398</v>
       </c>
       <c r="F102">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
@@ -23323,7 +23323,7 @@
         <v>398</v>
       </c>
       <c r="F103">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
@@ -23343,7 +23343,7 @@
         <v>398</v>
       </c>
       <c r="F104">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
@@ -23363,7 +23363,7 @@
         <v>398</v>
       </c>
       <c r="F105">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
@@ -23383,7 +23383,7 @@
         <v>398</v>
       </c>
       <c r="F106">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
@@ -23403,7 +23403,7 @@
         <v>398</v>
       </c>
       <c r="F107">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.35">
@@ -23423,7 +23423,7 @@
         <v>398</v>
       </c>
       <c r="F108">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
@@ -23443,7 +23443,7 @@
         <v>398</v>
       </c>
       <c r="F109">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.35">
@@ -23463,7 +23463,7 @@
         <v>398</v>
       </c>
       <c r="F110">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
@@ -23483,7 +23483,7 @@
         <v>398</v>
       </c>
       <c r="F111">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.35">
@@ -23503,7 +23503,7 @@
         <v>398</v>
       </c>
       <c r="F112">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.35">
@@ -23523,7 +23523,7 @@
         <v>398</v>
       </c>
       <c r="F113">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.35">
@@ -23543,7 +23543,7 @@
         <v>398</v>
       </c>
       <c r="F114">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.35">
@@ -23563,7 +23563,7 @@
         <v>398</v>
       </c>
       <c r="F115">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.35">
@@ -23583,7 +23583,7 @@
         <v>398</v>
       </c>
       <c r="F116">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
@@ -23603,7 +23603,7 @@
         <v>398</v>
       </c>
       <c r="F117">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.35">
@@ -23623,7 +23623,7 @@
         <v>398</v>
       </c>
       <c r="F118">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.35">
@@ -23643,7 +23643,7 @@
         <v>398</v>
       </c>
       <c r="F119">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.35">
@@ -23663,7 +23663,7 @@
         <v>398</v>
       </c>
       <c r="F120">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.35">
@@ -23683,7 +23683,7 @@
         <v>398</v>
       </c>
       <c r="F121">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.35">
@@ -23703,7 +23703,7 @@
         <v>398</v>
       </c>
       <c r="F122">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.35">
@@ -23723,7 +23723,7 @@
         <v>398</v>
       </c>
       <c r="F123">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.35">
@@ -23743,7 +23743,7 @@
         <v>398</v>
       </c>
       <c r="F124">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.35">
@@ -23763,7 +23763,7 @@
         <v>398</v>
       </c>
       <c r="F125">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.35">
@@ -23783,7 +23783,7 @@
         <v>398</v>
       </c>
       <c r="F126">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.35">
@@ -23803,7 +23803,7 @@
         <v>398</v>
       </c>
       <c r="F127">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.35">
@@ -23823,7 +23823,7 @@
         <v>398</v>
       </c>
       <c r="F128">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.35">
@@ -23843,7 +23843,7 @@
         <v>398</v>
       </c>
       <c r="F129">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.35">
@@ -23863,7 +23863,7 @@
         <v>398</v>
       </c>
       <c r="F130">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.35">
@@ -23883,7 +23883,7 @@
         <v>398</v>
       </c>
       <c r="F131">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.35">
@@ -23903,7 +23903,7 @@
         <v>398</v>
       </c>
       <c r="F132">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.35">
@@ -23923,7 +23923,7 @@
         <v>398</v>
       </c>
       <c r="F133">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.35">
@@ -23943,7 +23943,7 @@
         <v>398</v>
       </c>
       <c r="F134">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.35">
@@ -23963,7 +23963,7 @@
         <v>398</v>
       </c>
       <c r="F135">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.35">
@@ -23983,7 +23983,7 @@
         <v>398</v>
       </c>
       <c r="F136">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.35">
@@ -24003,7 +24003,7 @@
         <v>398</v>
       </c>
       <c r="F137">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.35">
@@ -24023,7 +24023,7 @@
         <v>398</v>
       </c>
       <c r="F138">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.35">
@@ -24043,7 +24043,7 @@
         <v>398</v>
       </c>
       <c r="F139">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.35">
@@ -24063,7 +24063,7 @@
         <v>398</v>
       </c>
       <c r="F140">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.35">
@@ -24083,7 +24083,7 @@
         <v>398</v>
       </c>
       <c r="F141">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.35">
@@ -24103,7 +24103,7 @@
         <v>398</v>
       </c>
       <c r="F142">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.35">
@@ -24123,7 +24123,7 @@
         <v>398</v>
       </c>
       <c r="F143">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.35">
@@ -24143,7 +24143,7 @@
         <v>398</v>
       </c>
       <c r="F144">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.35">
@@ -24163,7 +24163,7 @@
         <v>398</v>
       </c>
       <c r="F145">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.35">
@@ -24183,7 +24183,7 @@
         <v>398</v>
       </c>
       <c r="F146">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.35">
@@ -24203,7 +24203,7 @@
         <v>398</v>
       </c>
       <c r="F147">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.35">
@@ -24223,7 +24223,7 @@
         <v>398</v>
       </c>
       <c r="F148">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.35">
@@ -24243,7 +24243,7 @@
         <v>398</v>
       </c>
       <c r="F149">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.35">
@@ -24263,7 +24263,7 @@
         <v>398</v>
       </c>
       <c r="F150">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.35">
@@ -24283,7 +24283,7 @@
         <v>398</v>
       </c>
       <c r="F151">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.35">
@@ -24303,7 +24303,7 @@
         <v>398</v>
       </c>
       <c r="F152">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.35">
@@ -24323,7 +24323,7 @@
         <v>398</v>
       </c>
       <c r="F153">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.35">
@@ -24343,7 +24343,7 @@
         <v>398</v>
       </c>
       <c r="F154">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.35">
@@ -24363,7 +24363,7 @@
         <v>398</v>
       </c>
       <c r="F155">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.35">
@@ -24383,7 +24383,7 @@
         <v>398</v>
       </c>
       <c r="F156">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.35">
@@ -24403,7 +24403,7 @@
         <v>398</v>
       </c>
       <c r="F157">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.35">
@@ -24423,7 +24423,7 @@
         <v>398</v>
       </c>
       <c r="F158">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.35">
@@ -24443,7 +24443,7 @@
         <v>398</v>
       </c>
       <c r="F159">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.35">
@@ -24463,7 +24463,7 @@
         <v>398</v>
       </c>
       <c r="F160">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.35">
@@ -24483,7 +24483,7 @@
         <v>398</v>
       </c>
       <c r="F161">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.35">
@@ -24503,7 +24503,7 @@
         <v>398</v>
       </c>
       <c r="F162">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.35">
@@ -24523,7 +24523,7 @@
         <v>398</v>
       </c>
       <c r="F163">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.35">
@@ -24543,7 +24543,7 @@
         <v>398</v>
       </c>
       <c r="F164">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.35">
@@ -24563,7 +24563,7 @@
         <v>398</v>
       </c>
       <c r="F165">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.35">
@@ -24583,7 +24583,7 @@
         <v>398</v>
       </c>
       <c r="F166">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.35">
@@ -24603,7 +24603,7 @@
         <v>398</v>
       </c>
       <c r="F167">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.35">
@@ -24623,7 +24623,7 @@
         <v>398</v>
       </c>
       <c r="F168">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.35">
@@ -24643,7 +24643,7 @@
         <v>398</v>
       </c>
       <c r="F169">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.35">
@@ -24663,7 +24663,7 @@
         <v>398</v>
       </c>
       <c r="F170">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.35">
@@ -24683,7 +24683,7 @@
         <v>398</v>
       </c>
       <c r="F171">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.35">
@@ -24703,7 +24703,7 @@
         <v>398</v>
       </c>
       <c r="F172">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.35">
@@ -24723,7 +24723,7 @@
         <v>398</v>
       </c>
       <c r="F173">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.35">
@@ -24743,7 +24743,7 @@
         <v>398</v>
       </c>
       <c r="F174">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.35">
@@ -24763,7 +24763,7 @@
         <v>398</v>
       </c>
       <c r="F175">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.35">
@@ -24783,7 +24783,7 @@
         <v>398</v>
       </c>
       <c r="F176">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.35">
@@ -24803,7 +24803,7 @@
         <v>398</v>
       </c>
       <c r="F177">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.35">
@@ -24823,7 +24823,7 @@
         <v>398</v>
       </c>
       <c r="F178">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.35">
@@ -24843,7 +24843,7 @@
         <v>398</v>
       </c>
       <c r="F179">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.35">
@@ -24863,7 +24863,7 @@
         <v>398</v>
       </c>
       <c r="F180">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.35">
@@ -24883,7 +24883,7 @@
         <v>398</v>
       </c>
       <c r="F181">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.35">
@@ -24903,7 +24903,7 @@
         <v>398</v>
       </c>
       <c r="F182">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.35">
@@ -24923,7 +24923,7 @@
         <v>398</v>
       </c>
       <c r="F183">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.35">
@@ -24943,7 +24943,7 @@
         <v>398</v>
       </c>
       <c r="F184">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.35">
@@ -24963,7 +24963,7 @@
         <v>398</v>
       </c>
       <c r="F185">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.35">
@@ -24983,7 +24983,7 @@
         <v>398</v>
       </c>
       <c r="F186">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.35">
@@ -25003,7 +25003,7 @@
         <v>398</v>
       </c>
       <c r="F187">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.35">
@@ -25023,7 +25023,7 @@
         <v>398</v>
       </c>
       <c r="F188">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.35">
@@ -25043,7 +25043,7 @@
         <v>398</v>
       </c>
       <c r="F189">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.35">
@@ -25063,7 +25063,7 @@
         <v>398</v>
       </c>
       <c r="F190">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.35">
@@ -25083,7 +25083,7 @@
         <v>398</v>
       </c>
       <c r="F191">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.35">
@@ -25103,7 +25103,7 @@
         <v>398</v>
       </c>
       <c r="F192">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.35">
@@ -25123,7 +25123,7 @@
         <v>398</v>
       </c>
       <c r="F193">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.35">
@@ -25143,7 +25143,7 @@
         <v>398</v>
       </c>
       <c r="F194">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.35">
@@ -25163,7 +25163,7 @@
         <v>398</v>
       </c>
       <c r="F195">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.35">
@@ -25183,7 +25183,7 @@
         <v>398</v>
       </c>
       <c r="F196">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.35">
@@ -25203,7 +25203,7 @@
         <v>398</v>
       </c>
       <c r="F197">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.35">
@@ -25223,7 +25223,7 @@
         <v>398</v>
       </c>
       <c r="F198">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.35">
@@ -25243,7 +25243,7 @@
         <v>398</v>
       </c>
       <c r="F199">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.35">
@@ -25263,7 +25263,7 @@
         <v>398</v>
       </c>
       <c r="F200">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.35">
@@ -25283,7 +25283,7 @@
         <v>398</v>
       </c>
       <c r="F201">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.35">
@@ -25303,7 +25303,7 @@
         <v>398</v>
       </c>
       <c r="F202">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.35">
@@ -25323,7 +25323,7 @@
         <v>398</v>
       </c>
       <c r="F203">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.35">
@@ -25343,7 +25343,7 @@
         <v>398</v>
       </c>
       <c r="F204">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.35">
@@ -25363,7 +25363,7 @@
         <v>398</v>
       </c>
       <c r="F205">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.35">
@@ -25383,7 +25383,7 @@
         <v>398</v>
       </c>
       <c r="F206">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.35">
@@ -25403,7 +25403,7 @@
         <v>398</v>
       </c>
       <c r="F207">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.35">
@@ -25423,7 +25423,7 @@
         <v>398</v>
       </c>
       <c r="F208">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.35">
@@ -25443,7 +25443,7 @@
         <v>398</v>
       </c>
       <c r="F209">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.35">
@@ -25463,7 +25463,7 @@
         <v>398</v>
       </c>
       <c r="F210">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.35">
@@ -25483,7 +25483,7 @@
         <v>398</v>
       </c>
       <c r="F211">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.35">
@@ -25503,7 +25503,7 @@
         <v>398</v>
       </c>
       <c r="F212">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.35">
@@ -25523,7 +25523,7 @@
         <v>398</v>
       </c>
       <c r="F213">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.35">
@@ -25543,7 +25543,7 @@
         <v>398</v>
       </c>
       <c r="F214">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.35">
@@ -25563,7 +25563,7 @@
         <v>398</v>
       </c>
       <c r="F215">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.35">
@@ -25583,7 +25583,7 @@
         <v>398</v>
       </c>
       <c r="F216">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.35">
@@ -25603,7 +25603,7 @@
         <v>398</v>
       </c>
       <c r="F217">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.35">
@@ -25623,7 +25623,7 @@
         <v>398</v>
       </c>
       <c r="F218">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.35">
@@ -25643,7 +25643,7 @@
         <v>398</v>
       </c>
       <c r="F219">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.35">
@@ -25663,7 +25663,7 @@
         <v>398</v>
       </c>
       <c r="F220">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.35">
@@ -25683,7 +25683,7 @@
         <v>398</v>
       </c>
       <c r="F221">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.35">
@@ -25703,7 +25703,7 @@
         <v>398</v>
       </c>
       <c r="F222">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.35">
@@ -25723,7 +25723,7 @@
         <v>398</v>
       </c>
       <c r="F223">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.35">
@@ -25743,7 +25743,7 @@
         <v>398</v>
       </c>
       <c r="F224">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.35">
@@ -25763,7 +25763,7 @@
         <v>398</v>
       </c>
       <c r="F225">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.35">
@@ -25783,7 +25783,7 @@
         <v>398</v>
       </c>
       <c r="F226">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.35">
@@ -25803,7 +25803,7 @@
         <v>398</v>
       </c>
       <c r="F227">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.35">
@@ -25823,7 +25823,7 @@
         <v>398</v>
       </c>
       <c r="F228">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.35">
@@ -25843,7 +25843,7 @@
         <v>398</v>
       </c>
       <c r="F229">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.35">
@@ -25863,7 +25863,7 @@
         <v>398</v>
       </c>
       <c r="F230">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.35">
@@ -25883,7 +25883,7 @@
         <v>398</v>
       </c>
       <c r="F231">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.35">
@@ -25903,7 +25903,7 @@
         <v>398</v>
       </c>
       <c r="F232">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.35">
@@ -25923,7 +25923,7 @@
         <v>398</v>
       </c>
       <c r="F233">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.35">
@@ -25943,7 +25943,7 @@
         <v>398</v>
       </c>
       <c r="F234">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.35">
@@ -25963,7 +25963,7 @@
         <v>398</v>
       </c>
       <c r="F235">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.35">
@@ -25983,7 +25983,7 @@
         <v>398</v>
       </c>
       <c r="F236">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.35">
@@ -26003,7 +26003,7 @@
         <v>398</v>
       </c>
       <c r="F237">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.35">
@@ -26023,7 +26023,7 @@
         <v>398</v>
       </c>
       <c r="F238">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.35">
@@ -26043,7 +26043,7 @@
         <v>398</v>
       </c>
       <c r="F239">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.35">
@@ -26063,7 +26063,7 @@
         <v>398</v>
       </c>
       <c r="F240">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.35">
@@ -26083,7 +26083,7 @@
         <v>398</v>
       </c>
       <c r="F241">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.35">
@@ -26103,7 +26103,7 @@
         <v>398</v>
       </c>
       <c r="F242">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.35">
@@ -26123,7 +26123,7 @@
         <v>398</v>
       </c>
       <c r="F243">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
   </sheetData>

--- a/spine_rts-gmlc/datasets/branch_bus_detailed.xlsx
+++ b/spine_rts-gmlc/datasets/branch_bus_detailed.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" firstSheet="9" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="branch" sheetId="1" r:id="rId1"/>
@@ -22,14 +22,15 @@
     <sheet name="rel_connection__direction_node" sheetId="3" r:id="rId8"/>
     <sheet name="rel_connection__node__node" sheetId="9" r:id="rId9"/>
     <sheet name="rel_node__commodity" sheetId="5" r:id="rId10"/>
-    <sheet name="rel_node__temporal_block" sheetId="7" r:id="rId11"/>
+    <sheet name="rel_node__commodity_ptdf" sheetId="15" r:id="rId11"/>
+    <sheet name="rel_node__temporal_block" sheetId="7" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5957" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6429" uniqueCount="471">
   <si>
     <t>UID</t>
   </si>
@@ -1436,6 +1437,12 @@
   </si>
   <si>
     <t>node_opt_type_reference</t>
+  </si>
+  <si>
+    <t>energy_carrier</t>
+  </si>
+  <si>
+    <t>commodity_physics_none</t>
   </si>
 </sst>
 </file>
@@ -8088,7 +8095,7 @@
   <dimension ref="A1:E156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A84" sqref="A84:XFD84"/>
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10112,6 +10119,1742 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C156"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C4" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C5" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C6" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C7" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>232</v>
+      </c>
+      <c r="B8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C8" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>232</v>
+      </c>
+      <c r="B9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C9" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B10" t="s">
+        <v>243</v>
+      </c>
+      <c r="C10" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>232</v>
+      </c>
+      <c r="B11" t="s">
+        <v>244</v>
+      </c>
+      <c r="C11" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>232</v>
+      </c>
+      <c r="B12" t="s">
+        <v>245</v>
+      </c>
+      <c r="C12" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>232</v>
+      </c>
+      <c r="B13" t="s">
+        <v>246</v>
+      </c>
+      <c r="C13" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>232</v>
+      </c>
+      <c r="B14" t="s">
+        <v>247</v>
+      </c>
+      <c r="C14" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>232</v>
+      </c>
+      <c r="B15" t="s">
+        <v>248</v>
+      </c>
+      <c r="C15" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>232</v>
+      </c>
+      <c r="B16" t="s">
+        <v>249</v>
+      </c>
+      <c r="C16" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>232</v>
+      </c>
+      <c r="B17" t="s">
+        <v>250</v>
+      </c>
+      <c r="C17" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>232</v>
+      </c>
+      <c r="B18" t="s">
+        <v>251</v>
+      </c>
+      <c r="C18" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>232</v>
+      </c>
+      <c r="B19" t="s">
+        <v>252</v>
+      </c>
+      <c r="C19" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>232</v>
+      </c>
+      <c r="B20" t="s">
+        <v>253</v>
+      </c>
+      <c r="C20" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>232</v>
+      </c>
+      <c r="B21" t="s">
+        <v>254</v>
+      </c>
+      <c r="C21" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>232</v>
+      </c>
+      <c r="B22" t="s">
+        <v>255</v>
+      </c>
+      <c r="C22" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>232</v>
+      </c>
+      <c r="B23" t="s">
+        <v>256</v>
+      </c>
+      <c r="C23" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>232</v>
+      </c>
+      <c r="B24" t="s">
+        <v>257</v>
+      </c>
+      <c r="C24" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>232</v>
+      </c>
+      <c r="B25" t="s">
+        <v>258</v>
+      </c>
+      <c r="C25" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>232</v>
+      </c>
+      <c r="B26" t="s">
+        <v>259</v>
+      </c>
+      <c r="C26" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>232</v>
+      </c>
+      <c r="B27" t="s">
+        <v>260</v>
+      </c>
+      <c r="C27" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>232</v>
+      </c>
+      <c r="B28" t="s">
+        <v>261</v>
+      </c>
+      <c r="C28" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>232</v>
+      </c>
+      <c r="B29" t="s">
+        <v>262</v>
+      </c>
+      <c r="C29" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>232</v>
+      </c>
+      <c r="B30" t="s">
+        <v>263</v>
+      </c>
+      <c r="C30" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>232</v>
+      </c>
+      <c r="B31" t="s">
+        <v>264</v>
+      </c>
+      <c r="C31" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>232</v>
+      </c>
+      <c r="B32" t="s">
+        <v>265</v>
+      </c>
+      <c r="C32" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>232</v>
+      </c>
+      <c r="B33" t="s">
+        <v>266</v>
+      </c>
+      <c r="C33" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>232</v>
+      </c>
+      <c r="B34" t="s">
+        <v>267</v>
+      </c>
+      <c r="C34" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>232</v>
+      </c>
+      <c r="B35" t="s">
+        <v>268</v>
+      </c>
+      <c r="C35" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>232</v>
+      </c>
+      <c r="B36" t="s">
+        <v>269</v>
+      </c>
+      <c r="C36" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>232</v>
+      </c>
+      <c r="B37" t="s">
+        <v>270</v>
+      </c>
+      <c r="C37" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>232</v>
+      </c>
+      <c r="B38" t="s">
+        <v>271</v>
+      </c>
+      <c r="C38" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>232</v>
+      </c>
+      <c r="B39" t="s">
+        <v>272</v>
+      </c>
+      <c r="C39" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>232</v>
+      </c>
+      <c r="B40" t="s">
+        <v>273</v>
+      </c>
+      <c r="C40" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>232</v>
+      </c>
+      <c r="B41" t="s">
+        <v>274</v>
+      </c>
+      <c r="C41" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>232</v>
+      </c>
+      <c r="B42" t="s">
+        <v>275</v>
+      </c>
+      <c r="C42" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>232</v>
+      </c>
+      <c r="B43" t="s">
+        <v>276</v>
+      </c>
+      <c r="C43" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>232</v>
+      </c>
+      <c r="B44" t="s">
+        <v>277</v>
+      </c>
+      <c r="C44" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>232</v>
+      </c>
+      <c r="B45" t="s">
+        <v>278</v>
+      </c>
+      <c r="C45" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>232</v>
+      </c>
+      <c r="B46" t="s">
+        <v>279</v>
+      </c>
+      <c r="C46" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>232</v>
+      </c>
+      <c r="B47" t="s">
+        <v>280</v>
+      </c>
+      <c r="C47" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>232</v>
+      </c>
+      <c r="B48" t="s">
+        <v>281</v>
+      </c>
+      <c r="C48" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>232</v>
+      </c>
+      <c r="B49" t="s">
+        <v>282</v>
+      </c>
+      <c r="C49" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>232</v>
+      </c>
+      <c r="B50" t="s">
+        <v>283</v>
+      </c>
+      <c r="C50" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>232</v>
+      </c>
+      <c r="B51" t="s">
+        <v>284</v>
+      </c>
+      <c r="C51" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>232</v>
+      </c>
+      <c r="B52" t="s">
+        <v>285</v>
+      </c>
+      <c r="C52" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>232</v>
+      </c>
+      <c r="B53" t="s">
+        <v>286</v>
+      </c>
+      <c r="C53" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>232</v>
+      </c>
+      <c r="B54" t="s">
+        <v>287</v>
+      </c>
+      <c r="C54" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>232</v>
+      </c>
+      <c r="B55" t="s">
+        <v>288</v>
+      </c>
+      <c r="C55" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>232</v>
+      </c>
+      <c r="B56" t="s">
+        <v>289</v>
+      </c>
+      <c r="C56" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>232</v>
+      </c>
+      <c r="B57" t="s">
+        <v>290</v>
+      </c>
+      <c r="C57" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>232</v>
+      </c>
+      <c r="B58" t="s">
+        <v>291</v>
+      </c>
+      <c r="C58" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>232</v>
+      </c>
+      <c r="B59" t="s">
+        <v>292</v>
+      </c>
+      <c r="C59" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>232</v>
+      </c>
+      <c r="B60" t="s">
+        <v>293</v>
+      </c>
+      <c r="C60" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>232</v>
+      </c>
+      <c r="B61" t="s">
+        <v>294</v>
+      </c>
+      <c r="C61" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>232</v>
+      </c>
+      <c r="B62" t="s">
+        <v>295</v>
+      </c>
+      <c r="C62" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>232</v>
+      </c>
+      <c r="B63" t="s">
+        <v>296</v>
+      </c>
+      <c r="C63" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>232</v>
+      </c>
+      <c r="B64" t="s">
+        <v>297</v>
+      </c>
+      <c r="C64" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>232</v>
+      </c>
+      <c r="B65" t="s">
+        <v>298</v>
+      </c>
+      <c r="C65" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>232</v>
+      </c>
+      <c r="B66" t="s">
+        <v>299</v>
+      </c>
+      <c r="C66" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>232</v>
+      </c>
+      <c r="B67" t="s">
+        <v>300</v>
+      </c>
+      <c r="C67" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>232</v>
+      </c>
+      <c r="B68" t="s">
+        <v>301</v>
+      </c>
+      <c r="C68" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>232</v>
+      </c>
+      <c r="B69" t="s">
+        <v>302</v>
+      </c>
+      <c r="C69" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>232</v>
+      </c>
+      <c r="B70" t="s">
+        <v>303</v>
+      </c>
+      <c r="C70" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>232</v>
+      </c>
+      <c r="B71" t="s">
+        <v>304</v>
+      </c>
+      <c r="C71" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>232</v>
+      </c>
+      <c r="B72" t="s">
+        <v>305</v>
+      </c>
+      <c r="C72" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>232</v>
+      </c>
+      <c r="B73" t="s">
+        <v>306</v>
+      </c>
+      <c r="C73" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>232</v>
+      </c>
+      <c r="B74" t="s">
+        <v>307</v>
+      </c>
+      <c r="C74" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>232</v>
+      </c>
+      <c r="B75" t="s">
+        <v>308</v>
+      </c>
+      <c r="C75" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>232</v>
+      </c>
+      <c r="B76" t="s">
+        <v>309</v>
+      </c>
+      <c r="C76" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>232</v>
+      </c>
+      <c r="B77" t="s">
+        <v>310</v>
+      </c>
+      <c r="C77" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>232</v>
+      </c>
+      <c r="B78" t="s">
+        <v>311</v>
+      </c>
+      <c r="C78" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>232</v>
+      </c>
+      <c r="B79" t="s">
+        <v>312</v>
+      </c>
+      <c r="C79" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>232</v>
+      </c>
+      <c r="B80" t="s">
+        <v>313</v>
+      </c>
+      <c r="C80" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>232</v>
+      </c>
+      <c r="B81" t="s">
+        <v>314</v>
+      </c>
+      <c r="C81" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>232</v>
+      </c>
+      <c r="B82" t="s">
+        <v>315</v>
+      </c>
+      <c r="C82" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>232</v>
+      </c>
+      <c r="B83" t="s">
+        <v>316</v>
+      </c>
+      <c r="C83" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>232</v>
+      </c>
+      <c r="B84" t="s">
+        <v>320</v>
+      </c>
+      <c r="C84" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>232</v>
+      </c>
+      <c r="B85" t="s">
+        <v>321</v>
+      </c>
+      <c r="C85" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>232</v>
+      </c>
+      <c r="B86" t="s">
+        <v>322</v>
+      </c>
+      <c r="C86" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>232</v>
+      </c>
+      <c r="B87" t="s">
+        <v>323</v>
+      </c>
+      <c r="C87" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>232</v>
+      </c>
+      <c r="B88" t="s">
+        <v>324</v>
+      </c>
+      <c r="C88" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>232</v>
+      </c>
+      <c r="B89" t="s">
+        <v>325</v>
+      </c>
+      <c r="C89" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>232</v>
+      </c>
+      <c r="B90" t="s">
+        <v>326</v>
+      </c>
+      <c r="C90" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>232</v>
+      </c>
+      <c r="B91" t="s">
+        <v>327</v>
+      </c>
+      <c r="C91" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>232</v>
+      </c>
+      <c r="B92" t="s">
+        <v>328</v>
+      </c>
+      <c r="C92" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>232</v>
+      </c>
+      <c r="B93" t="s">
+        <v>329</v>
+      </c>
+      <c r="C93" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>232</v>
+      </c>
+      <c r="B94" t="s">
+        <v>330</v>
+      </c>
+      <c r="C94" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>232</v>
+      </c>
+      <c r="B95" t="s">
+        <v>331</v>
+      </c>
+      <c r="C95" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>232</v>
+      </c>
+      <c r="B96" t="s">
+        <v>332</v>
+      </c>
+      <c r="C96" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>232</v>
+      </c>
+      <c r="B97" t="s">
+        <v>333</v>
+      </c>
+      <c r="C97" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>232</v>
+      </c>
+      <c r="B98" t="s">
+        <v>334</v>
+      </c>
+      <c r="C98" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>232</v>
+      </c>
+      <c r="B99" t="s">
+        <v>335</v>
+      </c>
+      <c r="C99" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>232</v>
+      </c>
+      <c r="B100" t="s">
+        <v>336</v>
+      </c>
+      <c r="C100" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>232</v>
+      </c>
+      <c r="B101" t="s">
+        <v>337</v>
+      </c>
+      <c r="C101" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>232</v>
+      </c>
+      <c r="B102" t="s">
+        <v>338</v>
+      </c>
+      <c r="C102" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>232</v>
+      </c>
+      <c r="B103" t="s">
+        <v>339</v>
+      </c>
+      <c r="C103" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>232</v>
+      </c>
+      <c r="B104" t="s">
+        <v>340</v>
+      </c>
+      <c r="C104" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>232</v>
+      </c>
+      <c r="B105" t="s">
+        <v>387</v>
+      </c>
+      <c r="C105" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>232</v>
+      </c>
+      <c r="B106" t="s">
+        <v>341</v>
+      </c>
+      <c r="C106" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>232</v>
+      </c>
+      <c r="B107" t="s">
+        <v>386</v>
+      </c>
+      <c r="C107" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>232</v>
+      </c>
+      <c r="B108" t="s">
+        <v>342</v>
+      </c>
+      <c r="C108" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>232</v>
+      </c>
+      <c r="B109" t="s">
+        <v>343</v>
+      </c>
+      <c r="C109" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>232</v>
+      </c>
+      <c r="B110" t="s">
+        <v>344</v>
+      </c>
+      <c r="C110" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>232</v>
+      </c>
+      <c r="B111" t="s">
+        <v>345</v>
+      </c>
+      <c r="C111" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>232</v>
+      </c>
+      <c r="B112" t="s">
+        <v>346</v>
+      </c>
+      <c r="C112" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>232</v>
+      </c>
+      <c r="B113" t="s">
+        <v>347</v>
+      </c>
+      <c r="C113" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>232</v>
+      </c>
+      <c r="B114" t="s">
+        <v>348</v>
+      </c>
+      <c r="C114" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>232</v>
+      </c>
+      <c r="B115" t="s">
+        <v>349</v>
+      </c>
+      <c r="C115" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>232</v>
+      </c>
+      <c r="B116" t="s">
+        <v>350</v>
+      </c>
+      <c r="C116" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>232</v>
+      </c>
+      <c r="B117" t="s">
+        <v>351</v>
+      </c>
+      <c r="C117" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>232</v>
+      </c>
+      <c r="B118" t="s">
+        <v>352</v>
+      </c>
+      <c r="C118" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>232</v>
+      </c>
+      <c r="B119" t="s">
+        <v>353</v>
+      </c>
+      <c r="C119" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>232</v>
+      </c>
+      <c r="B120" t="s">
+        <v>354</v>
+      </c>
+      <c r="C120" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>232</v>
+      </c>
+      <c r="B121" t="s">
+        <v>355</v>
+      </c>
+      <c r="C121" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>232</v>
+      </c>
+      <c r="B122" t="s">
+        <v>356</v>
+      </c>
+      <c r="C122" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>232</v>
+      </c>
+      <c r="B123" t="s">
+        <v>357</v>
+      </c>
+      <c r="C123" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>232</v>
+      </c>
+      <c r="B124" t="s">
+        <v>358</v>
+      </c>
+      <c r="C124" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>232</v>
+      </c>
+      <c r="B125" t="s">
+        <v>359</v>
+      </c>
+      <c r="C125" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>232</v>
+      </c>
+      <c r="B126" t="s">
+        <v>360</v>
+      </c>
+      <c r="C126" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>232</v>
+      </c>
+      <c r="B127" t="s">
+        <v>361</v>
+      </c>
+      <c r="C127" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>232</v>
+      </c>
+      <c r="B128" t="s">
+        <v>362</v>
+      </c>
+      <c r="C128" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>232</v>
+      </c>
+      <c r="B129" t="s">
+        <v>390</v>
+      </c>
+      <c r="C129" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>232</v>
+      </c>
+      <c r="B130" t="s">
+        <v>389</v>
+      </c>
+      <c r="C130" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>232</v>
+      </c>
+      <c r="B131" t="s">
+        <v>388</v>
+      </c>
+      <c r="C131" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>232</v>
+      </c>
+      <c r="B132" t="s">
+        <v>363</v>
+      </c>
+      <c r="C132" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>232</v>
+      </c>
+      <c r="B133" t="s">
+        <v>364</v>
+      </c>
+      <c r="C133" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>232</v>
+      </c>
+      <c r="B134" t="s">
+        <v>365</v>
+      </c>
+      <c r="C134" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>232</v>
+      </c>
+      <c r="B135" t="s">
+        <v>366</v>
+      </c>
+      <c r="C135" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>232</v>
+      </c>
+      <c r="B136" t="s">
+        <v>367</v>
+      </c>
+      <c r="C136" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>232</v>
+      </c>
+      <c r="B137" t="s">
+        <v>368</v>
+      </c>
+      <c r="C137" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>232</v>
+      </c>
+      <c r="B138" t="s">
+        <v>369</v>
+      </c>
+      <c r="C138" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>232</v>
+      </c>
+      <c r="B139" t="s">
+        <v>370</v>
+      </c>
+      <c r="C139" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>232</v>
+      </c>
+      <c r="B140" t="s">
+        <v>371</v>
+      </c>
+      <c r="C140" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>232</v>
+      </c>
+      <c r="B141" t="s">
+        <v>372</v>
+      </c>
+      <c r="C141" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>232</v>
+      </c>
+      <c r="B142" t="s">
+        <v>373</v>
+      </c>
+      <c r="C142" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>232</v>
+      </c>
+      <c r="B143" t="s">
+        <v>374</v>
+      </c>
+      <c r="C143" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>232</v>
+      </c>
+      <c r="B144" t="s">
+        <v>375</v>
+      </c>
+      <c r="C144" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>232</v>
+      </c>
+      <c r="B145" t="s">
+        <v>376</v>
+      </c>
+      <c r="C145" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>232</v>
+      </c>
+      <c r="B146" t="s">
+        <v>377</v>
+      </c>
+      <c r="C146" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>232</v>
+      </c>
+      <c r="B147" t="s">
+        <v>378</v>
+      </c>
+      <c r="C147" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>232</v>
+      </c>
+      <c r="B148" t="s">
+        <v>379</v>
+      </c>
+      <c r="C148" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>232</v>
+      </c>
+      <c r="B149" t="s">
+        <v>380</v>
+      </c>
+      <c r="C149" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>232</v>
+      </c>
+      <c r="B150" t="s">
+        <v>381</v>
+      </c>
+      <c r="C150" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>232</v>
+      </c>
+      <c r="B151" t="s">
+        <v>382</v>
+      </c>
+      <c r="C151" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>232</v>
+      </c>
+      <c r="B152" t="s">
+        <v>383</v>
+      </c>
+      <c r="C152" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>232</v>
+      </c>
+      <c r="B153" t="s">
+        <v>392</v>
+      </c>
+      <c r="C153" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>232</v>
+      </c>
+      <c r="B154" t="s">
+        <v>384</v>
+      </c>
+      <c r="C154" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>232</v>
+      </c>
+      <c r="B155" t="s">
+        <v>391</v>
+      </c>
+      <c r="C155" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>232</v>
+      </c>
+      <c r="B156" t="s">
+        <v>385</v>
+      </c>
+      <c r="C156" t="s">
+        <v>233</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C311"/>
   <sheetViews>
@@ -17440,18 +19183,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -17480,6 +19223,20 @@
       </c>
       <c r="D2" t="s">
         <v>458</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B3" t="s">
+        <v>469</v>
+      </c>
+      <c r="C3" t="s">
+        <v>457</v>
+      </c>
+      <c r="D3" t="s">
+        <v>470</v>
       </c>
     </row>
   </sheetData>
@@ -20986,8 +22743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:C75"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/spine_rts-gmlc/datasets/branch_bus_detailed.xlsx
+++ b/spine_rts-gmlc/datasets/branch_bus_detailed.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="branch" sheetId="1" r:id="rId1"/>
@@ -23,16 +23,17 @@
     <sheet name="rel_node_group__node_ptdf" sheetId="17" r:id="rId9"/>
     <sheet name="rel_connection__direction_node" sheetId="3" r:id="rId10"/>
     <sheet name="rel_connection__node__node" sheetId="9" r:id="rId11"/>
-    <sheet name="rel_node__commodity" sheetId="5" r:id="rId12"/>
-    <sheet name="rel_node__temporal_block" sheetId="7" r:id="rId13"/>
-    <sheet name="rel_node__temporal_block_ptdf" sheetId="16" r:id="rId14"/>
+    <sheet name="rel_connection__node__node_ptdf" sheetId="18" r:id="rId12"/>
+    <sheet name="rel_node__commodity" sheetId="5" r:id="rId13"/>
+    <sheet name="rel_node__temporal_block" sheetId="7" r:id="rId14"/>
+    <sheet name="rel_node__temporal_block_ptdf" sheetId="16" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="162913" calcMode="manual"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7014" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8230" uniqueCount="477">
   <si>
     <t>UID</t>
   </si>
@@ -16410,8 +16411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F243"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F1"/>
+    <sheetView topLeftCell="A156" workbookViewId="0">
+      <selection sqref="A1:F243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16458,7 +16459,7 @@
         <v>394</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -16478,7 +16479,7 @@
         <v>394</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -16498,7 +16499,7 @@
         <v>394</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -16518,7 +16519,7 @@
         <v>394</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -16538,7 +16539,7 @@
         <v>394</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -16558,7 +16559,7 @@
         <v>394</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -16578,7 +16579,7 @@
         <v>394</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -16598,7 +16599,7 @@
         <v>394</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -16618,7 +16619,7 @@
         <v>394</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -16638,7 +16639,7 @@
         <v>394</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -16658,7 +16659,7 @@
         <v>394</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -16678,7 +16679,7 @@
         <v>394</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -16698,7 +16699,7 @@
         <v>394</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -16718,7 +16719,7 @@
         <v>394</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -16738,7 +16739,7 @@
         <v>394</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -16758,7 +16759,7 @@
         <v>394</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -16778,7 +16779,7 @@
         <v>394</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -16798,7 +16799,7 @@
         <v>394</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -16818,7 +16819,7 @@
         <v>394</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -16838,7 +16839,7 @@
         <v>394</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
@@ -16858,7 +16859,7 @@
         <v>394</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
@@ -16878,7 +16879,7 @@
         <v>394</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
@@ -16898,7 +16899,7 @@
         <v>394</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
@@ -16918,7 +16919,7 @@
         <v>394</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
@@ -16938,7 +16939,7 @@
         <v>394</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
@@ -16958,7 +16959,7 @@
         <v>394</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
@@ -16978,7 +16979,7 @@
         <v>394</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
@@ -16998,7 +16999,7 @@
         <v>394</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
@@ -17018,7 +17019,7 @@
         <v>394</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
@@ -17038,7 +17039,7 @@
         <v>394</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
@@ -17058,7 +17059,7 @@
         <v>394</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
@@ -17078,7 +17079,7 @@
         <v>394</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
@@ -17098,7 +17099,7 @@
         <v>394</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
@@ -17118,7 +17119,7 @@
         <v>394</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
@@ -17138,7 +17139,7 @@
         <v>394</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
@@ -17158,7 +17159,7 @@
         <v>394</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
@@ -17178,7 +17179,7 @@
         <v>394</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
@@ -17198,7 +17199,7 @@
         <v>394</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
@@ -17218,7 +17219,7 @@
         <v>394</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
@@ -17238,7 +17239,7 @@
         <v>394</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
@@ -17258,7 +17259,7 @@
         <v>394</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
@@ -17278,7 +17279,7 @@
         <v>394</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
@@ -17298,7 +17299,7 @@
         <v>394</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
@@ -17318,7 +17319,7 @@
         <v>394</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
@@ -17338,7 +17339,7 @@
         <v>394</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
@@ -17358,7 +17359,7 @@
         <v>394</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
@@ -17378,7 +17379,7 @@
         <v>394</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
@@ -17398,7 +17399,7 @@
         <v>394</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
@@ -17418,7 +17419,7 @@
         <v>394</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
@@ -17438,7 +17439,7 @@
         <v>394</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
@@ -17458,7 +17459,7 @@
         <v>394</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
@@ -17478,7 +17479,7 @@
         <v>394</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
@@ -17498,7 +17499,7 @@
         <v>394</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
@@ -17518,7 +17519,7 @@
         <v>394</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
@@ -17538,7 +17539,7 @@
         <v>394</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
@@ -17558,7 +17559,7 @@
         <v>394</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
@@ -17578,7 +17579,7 @@
         <v>394</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
@@ -17598,7 +17599,7 @@
         <v>394</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
@@ -17618,7 +17619,7 @@
         <v>394</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
@@ -17638,7 +17639,7 @@
         <v>394</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
@@ -17658,7 +17659,7 @@
         <v>394</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
@@ -17678,7 +17679,7 @@
         <v>394</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
@@ -17698,7 +17699,7 @@
         <v>394</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
@@ -17718,7 +17719,7 @@
         <v>394</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
@@ -17738,7 +17739,7 @@
         <v>394</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
@@ -17758,7 +17759,7 @@
         <v>394</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
@@ -17778,7 +17779,7 @@
         <v>394</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
@@ -17798,7 +17799,7 @@
         <v>394</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
@@ -17818,7 +17819,7 @@
         <v>394</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
@@ -17838,7 +17839,7 @@
         <v>394</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
@@ -17858,7 +17859,7 @@
         <v>394</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
@@ -17878,7 +17879,7 @@
         <v>394</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
@@ -17898,7 +17899,7 @@
         <v>394</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
@@ -17918,7 +17919,7 @@
         <v>394</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
@@ -17938,7 +17939,7 @@
         <v>394</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
@@ -17958,7 +17959,7 @@
         <v>394</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
@@ -17978,7 +17979,7 @@
         <v>394</v>
       </c>
       <c r="F78">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
@@ -17998,7 +17999,7 @@
         <v>394</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
@@ -18018,7 +18019,7 @@
         <v>394</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
@@ -18038,7 +18039,7 @@
         <v>394</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
@@ -18058,7 +18059,7 @@
         <v>394</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
@@ -18078,7 +18079,7 @@
         <v>394</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
@@ -18098,7 +18099,7 @@
         <v>394</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
@@ -18118,7 +18119,7 @@
         <v>394</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
@@ -18138,7 +18139,7 @@
         <v>394</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
@@ -18158,7 +18159,7 @@
         <v>394</v>
       </c>
       <c r="F87">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
@@ -18178,7 +18179,7 @@
         <v>394</v>
       </c>
       <c r="F88">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
@@ -18198,7 +18199,7 @@
         <v>394</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
@@ -18218,7 +18219,7 @@
         <v>394</v>
       </c>
       <c r="F90">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
@@ -18238,7 +18239,7 @@
         <v>394</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
@@ -18258,7 +18259,7 @@
         <v>394</v>
       </c>
       <c r="F92">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
@@ -18278,7 +18279,7 @@
         <v>394</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
@@ -18298,7 +18299,7 @@
         <v>394</v>
       </c>
       <c r="F94">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
@@ -18318,7 +18319,7 @@
         <v>394</v>
       </c>
       <c r="F95">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
@@ -18338,7 +18339,7 @@
         <v>394</v>
       </c>
       <c r="F96">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
@@ -18358,7 +18359,7 @@
         <v>394</v>
       </c>
       <c r="F97">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
@@ -18378,7 +18379,7 @@
         <v>394</v>
       </c>
       <c r="F98">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
@@ -18398,7 +18399,7 @@
         <v>394</v>
       </c>
       <c r="F99">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
@@ -18418,7 +18419,7 @@
         <v>394</v>
       </c>
       <c r="F100">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
@@ -18438,7 +18439,7 @@
         <v>394</v>
       </c>
       <c r="F101">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
@@ -18458,7 +18459,7 @@
         <v>394</v>
       </c>
       <c r="F102">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
@@ -18478,7 +18479,7 @@
         <v>394</v>
       </c>
       <c r="F103">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
@@ -18498,7 +18499,7 @@
         <v>394</v>
       </c>
       <c r="F104">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
@@ -18518,7 +18519,7 @@
         <v>394</v>
       </c>
       <c r="F105">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
@@ -18538,7 +18539,7 @@
         <v>394</v>
       </c>
       <c r="F106">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
@@ -18558,7 +18559,7 @@
         <v>394</v>
       </c>
       <c r="F107">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.35">
@@ -18578,7 +18579,7 @@
         <v>394</v>
       </c>
       <c r="F108">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
@@ -18598,7 +18599,7 @@
         <v>394</v>
       </c>
       <c r="F109">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.35">
@@ -18618,7 +18619,7 @@
         <v>394</v>
       </c>
       <c r="F110">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
@@ -18638,7 +18639,7 @@
         <v>394</v>
       </c>
       <c r="F111">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.35">
@@ -18658,7 +18659,7 @@
         <v>394</v>
       </c>
       <c r="F112">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.35">
@@ -18678,7 +18679,7 @@
         <v>394</v>
       </c>
       <c r="F113">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.35">
@@ -18698,7 +18699,7 @@
         <v>394</v>
       </c>
       <c r="F114">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.35">
@@ -18718,7 +18719,7 @@
         <v>394</v>
       </c>
       <c r="F115">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.35">
@@ -18738,7 +18739,7 @@
         <v>394</v>
       </c>
       <c r="F116">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
@@ -18758,7 +18759,7 @@
         <v>394</v>
       </c>
       <c r="F117">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.35">
@@ -18778,7 +18779,7 @@
         <v>394</v>
       </c>
       <c r="F118">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.35">
@@ -18798,7 +18799,7 @@
         <v>394</v>
       </c>
       <c r="F119">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.35">
@@ -18818,7 +18819,7 @@
         <v>394</v>
       </c>
       <c r="F120">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.35">
@@ -18838,7 +18839,7 @@
         <v>394</v>
       </c>
       <c r="F121">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.35">
@@ -18858,7 +18859,7 @@
         <v>394</v>
       </c>
       <c r="F122">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.35">
@@ -18878,7 +18879,7 @@
         <v>394</v>
       </c>
       <c r="F123">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.35">
@@ -18898,7 +18899,7 @@
         <v>394</v>
       </c>
       <c r="F124">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.35">
@@ -18918,7 +18919,7 @@
         <v>394</v>
       </c>
       <c r="F125">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.35">
@@ -18938,7 +18939,7 @@
         <v>394</v>
       </c>
       <c r="F126">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.35">
@@ -18958,7 +18959,7 @@
         <v>394</v>
       </c>
       <c r="F127">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.35">
@@ -18978,7 +18979,7 @@
         <v>394</v>
       </c>
       <c r="F128">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.35">
@@ -18998,7 +18999,7 @@
         <v>394</v>
       </c>
       <c r="F129">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.35">
@@ -19018,7 +19019,7 @@
         <v>394</v>
       </c>
       <c r="F130">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.35">
@@ -19038,7 +19039,7 @@
         <v>394</v>
       </c>
       <c r="F131">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.35">
@@ -19058,7 +19059,7 @@
         <v>394</v>
       </c>
       <c r="F132">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.35">
@@ -19078,7 +19079,7 @@
         <v>394</v>
       </c>
       <c r="F133">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.35">
@@ -19098,7 +19099,7 @@
         <v>394</v>
       </c>
       <c r="F134">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.35">
@@ -19118,7 +19119,7 @@
         <v>394</v>
       </c>
       <c r="F135">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.35">
@@ -19138,7 +19139,7 @@
         <v>394</v>
       </c>
       <c r="F136">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.35">
@@ -19158,7 +19159,7 @@
         <v>394</v>
       </c>
       <c r="F137">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.35">
@@ -19178,7 +19179,7 @@
         <v>394</v>
       </c>
       <c r="F138">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.35">
@@ -19198,7 +19199,7 @@
         <v>394</v>
       </c>
       <c r="F139">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.35">
@@ -19218,7 +19219,7 @@
         <v>394</v>
       </c>
       <c r="F140">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.35">
@@ -19238,7 +19239,7 @@
         <v>394</v>
       </c>
       <c r="F141">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.35">
@@ -19258,7 +19259,7 @@
         <v>394</v>
       </c>
       <c r="F142">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.35">
@@ -19278,7 +19279,7 @@
         <v>394</v>
       </c>
       <c r="F143">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.35">
@@ -19298,7 +19299,7 @@
         <v>394</v>
       </c>
       <c r="F144">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.35">
@@ -19318,7 +19319,7 @@
         <v>394</v>
       </c>
       <c r="F145">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.35">
@@ -19338,7 +19339,7 @@
         <v>394</v>
       </c>
       <c r="F146">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.35">
@@ -19358,7 +19359,7 @@
         <v>394</v>
       </c>
       <c r="F147">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.35">
@@ -19378,7 +19379,7 @@
         <v>394</v>
       </c>
       <c r="F148">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.35">
@@ -19398,7 +19399,7 @@
         <v>394</v>
       </c>
       <c r="F149">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.35">
@@ -19418,7 +19419,7 @@
         <v>394</v>
       </c>
       <c r="F150">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.35">
@@ -19438,7 +19439,7 @@
         <v>394</v>
       </c>
       <c r="F151">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.35">
@@ -19458,7 +19459,7 @@
         <v>394</v>
       </c>
       <c r="F152">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.35">
@@ -19478,7 +19479,7 @@
         <v>394</v>
       </c>
       <c r="F153">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.35">
@@ -19498,7 +19499,7 @@
         <v>394</v>
       </c>
       <c r="F154">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.35">
@@ -19518,7 +19519,7 @@
         <v>394</v>
       </c>
       <c r="F155">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.35">
@@ -19538,7 +19539,7 @@
         <v>394</v>
       </c>
       <c r="F156">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.35">
@@ -19558,7 +19559,7 @@
         <v>394</v>
       </c>
       <c r="F157">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.35">
@@ -19578,7 +19579,7 @@
         <v>394</v>
       </c>
       <c r="F158">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.35">
@@ -19598,7 +19599,7 @@
         <v>394</v>
       </c>
       <c r="F159">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.35">
@@ -19618,7 +19619,7 @@
         <v>394</v>
       </c>
       <c r="F160">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.35">
@@ -19638,7 +19639,7 @@
         <v>394</v>
       </c>
       <c r="F161">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.35">
@@ -19658,7 +19659,7 @@
         <v>394</v>
       </c>
       <c r="F162">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.35">
@@ -19678,7 +19679,7 @@
         <v>394</v>
       </c>
       <c r="F163">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.35">
@@ -19698,7 +19699,7 @@
         <v>394</v>
       </c>
       <c r="F164">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.35">
@@ -19718,7 +19719,7 @@
         <v>394</v>
       </c>
       <c r="F165">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.35">
@@ -19738,7 +19739,7 @@
         <v>394</v>
       </c>
       <c r="F166">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.35">
@@ -19758,7 +19759,7 @@
         <v>394</v>
       </c>
       <c r="F167">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.35">
@@ -19778,7 +19779,7 @@
         <v>394</v>
       </c>
       <c r="F168">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.35">
@@ -19798,7 +19799,7 @@
         <v>394</v>
       </c>
       <c r="F169">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.35">
@@ -19818,7 +19819,7 @@
         <v>394</v>
       </c>
       <c r="F170">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.35">
@@ -19838,7 +19839,7 @@
         <v>394</v>
       </c>
       <c r="F171">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.35">
@@ -19858,7 +19859,7 @@
         <v>394</v>
       </c>
       <c r="F172">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.35">
@@ -19878,7 +19879,7 @@
         <v>394</v>
       </c>
       <c r="F173">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.35">
@@ -19898,7 +19899,7 @@
         <v>394</v>
       </c>
       <c r="F174">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.35">
@@ -19918,7 +19919,7 @@
         <v>394</v>
       </c>
       <c r="F175">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.35">
@@ -19938,7 +19939,7 @@
         <v>394</v>
       </c>
       <c r="F176">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.35">
@@ -19958,7 +19959,7 @@
         <v>394</v>
       </c>
       <c r="F177">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.35">
@@ -19978,7 +19979,7 @@
         <v>394</v>
       </c>
       <c r="F178">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.35">
@@ -19998,7 +19999,7 @@
         <v>394</v>
       </c>
       <c r="F179">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.35">
@@ -20018,7 +20019,7 @@
         <v>394</v>
       </c>
       <c r="F180">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.35">
@@ -20038,7 +20039,7 @@
         <v>394</v>
       </c>
       <c r="F181">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.35">
@@ -20058,7 +20059,7 @@
         <v>394</v>
       </c>
       <c r="F182">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.35">
@@ -20078,7 +20079,7 @@
         <v>394</v>
       </c>
       <c r="F183">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.35">
@@ -20098,7 +20099,7 @@
         <v>394</v>
       </c>
       <c r="F184">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.35">
@@ -20118,7 +20119,7 @@
         <v>394</v>
       </c>
       <c r="F185">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.35">
@@ -20138,7 +20139,7 @@
         <v>394</v>
       </c>
       <c r="F186">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.35">
@@ -20158,7 +20159,7 @@
         <v>394</v>
       </c>
       <c r="F187">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.35">
@@ -20178,7 +20179,7 @@
         <v>394</v>
       </c>
       <c r="F188">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.35">
@@ -20198,7 +20199,7 @@
         <v>394</v>
       </c>
       <c r="F189">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.35">
@@ -20218,7 +20219,7 @@
         <v>394</v>
       </c>
       <c r="F190">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.35">
@@ -20238,7 +20239,7 @@
         <v>394</v>
       </c>
       <c r="F191">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.35">
@@ -20258,7 +20259,7 @@
         <v>394</v>
       </c>
       <c r="F192">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.35">
@@ -20278,7 +20279,7 @@
         <v>394</v>
       </c>
       <c r="F193">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.35">
@@ -20298,7 +20299,7 @@
         <v>394</v>
       </c>
       <c r="F194">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.35">
@@ -20318,7 +20319,7 @@
         <v>394</v>
       </c>
       <c r="F195">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.35">
@@ -20338,7 +20339,7 @@
         <v>394</v>
       </c>
       <c r="F196">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.35">
@@ -20358,7 +20359,7 @@
         <v>394</v>
       </c>
       <c r="F197">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.35">
@@ -20378,7 +20379,7 @@
         <v>394</v>
       </c>
       <c r="F198">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.35">
@@ -20398,7 +20399,7 @@
         <v>394</v>
       </c>
       <c r="F199">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.35">
@@ -20418,7 +20419,7 @@
         <v>394</v>
       </c>
       <c r="F200">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.35">
@@ -20438,7 +20439,7 @@
         <v>394</v>
       </c>
       <c r="F201">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.35">
@@ -20458,7 +20459,7 @@
         <v>394</v>
       </c>
       <c r="F202">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.35">
@@ -20478,7 +20479,7 @@
         <v>394</v>
       </c>
       <c r="F203">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.35">
@@ -20498,7 +20499,7 @@
         <v>394</v>
       </c>
       <c r="F204">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.35">
@@ -20518,7 +20519,7 @@
         <v>394</v>
       </c>
       <c r="F205">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.35">
@@ -20538,7 +20539,7 @@
         <v>394</v>
       </c>
       <c r="F206">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.35">
@@ -20558,7 +20559,7 @@
         <v>394</v>
       </c>
       <c r="F207">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.35">
@@ -20578,7 +20579,7 @@
         <v>394</v>
       </c>
       <c r="F208">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.35">
@@ -20598,7 +20599,7 @@
         <v>394</v>
       </c>
       <c r="F209">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.35">
@@ -20618,7 +20619,7 @@
         <v>394</v>
       </c>
       <c r="F210">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.35">
@@ -20638,7 +20639,7 @@
         <v>394</v>
       </c>
       <c r="F211">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.35">
@@ -20658,7 +20659,7 @@
         <v>394</v>
       </c>
       <c r="F212">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.35">
@@ -20678,7 +20679,7 @@
         <v>394</v>
       </c>
       <c r="F213">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.35">
@@ -20698,7 +20699,7 @@
         <v>394</v>
       </c>
       <c r="F214">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.35">
@@ -20718,7 +20719,7 @@
         <v>394</v>
       </c>
       <c r="F215">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.35">
@@ -20738,7 +20739,7 @@
         <v>394</v>
       </c>
       <c r="F216">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.35">
@@ -20758,7 +20759,7 @@
         <v>394</v>
       </c>
       <c r="F217">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.35">
@@ -20778,7 +20779,7 @@
         <v>394</v>
       </c>
       <c r="F218">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.35">
@@ -20798,7 +20799,7 @@
         <v>394</v>
       </c>
       <c r="F219">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.35">
@@ -20818,7 +20819,7 @@
         <v>394</v>
       </c>
       <c r="F220">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.35">
@@ -20838,7 +20839,7 @@
         <v>394</v>
       </c>
       <c r="F221">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.35">
@@ -20858,7 +20859,7 @@
         <v>394</v>
       </c>
       <c r="F222">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.35">
@@ -20878,7 +20879,7 @@
         <v>394</v>
       </c>
       <c r="F223">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.35">
@@ -20898,7 +20899,7 @@
         <v>394</v>
       </c>
       <c r="F224">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.35">
@@ -20918,7 +20919,7 @@
         <v>394</v>
       </c>
       <c r="F225">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.35">
@@ -20938,7 +20939,7 @@
         <v>394</v>
       </c>
       <c r="F226">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.35">
@@ -20958,7 +20959,7 @@
         <v>394</v>
       </c>
       <c r="F227">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.35">
@@ -20978,7 +20979,7 @@
         <v>394</v>
       </c>
       <c r="F228">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.35">
@@ -20998,7 +20999,7 @@
         <v>394</v>
       </c>
       <c r="F229">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.35">
@@ -21018,7 +21019,7 @@
         <v>394</v>
       </c>
       <c r="F230">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.35">
@@ -21038,7 +21039,7 @@
         <v>394</v>
       </c>
       <c r="F231">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.35">
@@ -21058,7 +21059,7 @@
         <v>394</v>
       </c>
       <c r="F232">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.35">
@@ -21078,7 +21079,7 @@
         <v>394</v>
       </c>
       <c r="F233">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.35">
@@ -21098,7 +21099,7 @@
         <v>394</v>
       </c>
       <c r="F234">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.35">
@@ -21118,7 +21119,7 @@
         <v>394</v>
       </c>
       <c r="F235">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.35">
@@ -21138,7 +21139,7 @@
         <v>394</v>
       </c>
       <c r="F236">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.35">
@@ -21158,7 +21159,7 @@
         <v>394</v>
       </c>
       <c r="F237">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.35">
@@ -21178,7 +21179,7 @@
         <v>394</v>
       </c>
       <c r="F238">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.35">
@@ -21198,7 +21199,7 @@
         <v>394</v>
       </c>
       <c r="F239">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.35">
@@ -21218,7 +21219,7 @@
         <v>394</v>
       </c>
       <c r="F240">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.35">
@@ -21238,7 +21239,7 @@
         <v>394</v>
       </c>
       <c r="F241">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.35">
@@ -21258,7 +21259,7 @@
         <v>394</v>
       </c>
       <c r="F242">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.35">
@@ -21278,7 +21279,7 @@
         <v>394</v>
       </c>
       <c r="F243">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
   </sheetData>
@@ -21287,6 +21288,4881 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F243"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F243"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" t="s">
+        <v>462</v>
+      </c>
+      <c r="F1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D2" t="s">
+        <v>378</v>
+      </c>
+      <c r="E2" t="s">
+        <v>394</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B3" t="s">
+        <v>454</v>
+      </c>
+      <c r="C3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D3" t="s">
+        <v>332</v>
+      </c>
+      <c r="E3" t="s">
+        <v>394</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>320</v>
+      </c>
+      <c r="D4" t="s">
+        <v>321</v>
+      </c>
+      <c r="E4" t="s">
+        <v>394</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>320</v>
+      </c>
+      <c r="D5" t="s">
+        <v>322</v>
+      </c>
+      <c r="E5" t="s">
+        <v>394</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>317</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>320</v>
+      </c>
+      <c r="D6" t="s">
+        <v>324</v>
+      </c>
+      <c r="E6" t="s">
+        <v>394</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>317</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>321</v>
+      </c>
+      <c r="D7" t="s">
+        <v>323</v>
+      </c>
+      <c r="E7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>317</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>321</v>
+      </c>
+      <c r="D8" t="s">
+        <v>325</v>
+      </c>
+      <c r="E8" t="s">
+        <v>394</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>317</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>322</v>
+      </c>
+      <c r="D9" t="s">
+        <v>328</v>
+      </c>
+      <c r="E9" t="s">
+        <v>394</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>317</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>322</v>
+      </c>
+      <c r="D10" t="s">
+        <v>386</v>
+      </c>
+      <c r="E10" t="s">
+        <v>394</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>317</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>323</v>
+      </c>
+      <c r="D11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E11" t="s">
+        <v>394</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>317</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>324</v>
+      </c>
+      <c r="D12" t="s">
+        <v>329</v>
+      </c>
+      <c r="E12" t="s">
+        <v>394</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>317</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>325</v>
+      </c>
+      <c r="D13" t="s">
+        <v>329</v>
+      </c>
+      <c r="E13" t="s">
+        <v>394</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>317</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>326</v>
+      </c>
+      <c r="D14" t="s">
+        <v>327</v>
+      </c>
+      <c r="E14" t="s">
+        <v>394</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>317</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>326</v>
+      </c>
+      <c r="D15" t="s">
+        <v>344</v>
+      </c>
+      <c r="E15" t="s">
+        <v>394</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>317</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>327</v>
+      </c>
+      <c r="D16" t="s">
+        <v>328</v>
+      </c>
+      <c r="E16" t="s">
+        <v>394</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>317</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>327</v>
+      </c>
+      <c r="D17" t="s">
+        <v>329</v>
+      </c>
+      <c r="E17" t="s">
+        <v>394</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>317</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>328</v>
+      </c>
+      <c r="D18" t="s">
+        <v>330</v>
+      </c>
+      <c r="E18" t="s">
+        <v>394</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>317</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
+        <v>328</v>
+      </c>
+      <c r="D19" t="s">
+        <v>331</v>
+      </c>
+      <c r="E19" t="s">
+        <v>394</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>317</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>329</v>
+      </c>
+      <c r="D20" t="s">
+        <v>330</v>
+      </c>
+      <c r="E20" t="s">
+        <v>394</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>317</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" t="s">
+        <v>329</v>
+      </c>
+      <c r="D21" t="s">
+        <v>331</v>
+      </c>
+      <c r="E21" t="s">
+        <v>394</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>317</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" t="s">
+        <v>330</v>
+      </c>
+      <c r="D22" t="s">
+        <v>332</v>
+      </c>
+      <c r="E22" t="s">
+        <v>394</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>317</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
+        <v>330</v>
+      </c>
+      <c r="D23" t="s">
+        <v>333</v>
+      </c>
+      <c r="E23" t="s">
+        <v>394</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>317</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" t="s">
+        <v>331</v>
+      </c>
+      <c r="D24" t="s">
+        <v>332</v>
+      </c>
+      <c r="E24" t="s">
+        <v>394</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>317</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" t="s">
+        <v>331</v>
+      </c>
+      <c r="D25" t="s">
+        <v>341</v>
+      </c>
+      <c r="E25" t="s">
+        <v>394</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>317</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" t="s">
+        <v>332</v>
+      </c>
+      <c r="D26" t="s">
+        <v>341</v>
+      </c>
+      <c r="E26" t="s">
+        <v>394</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>317</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" t="s">
+        <v>332</v>
+      </c>
+      <c r="D27" t="s">
+        <v>356</v>
+      </c>
+      <c r="E27" t="s">
+        <v>394</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>317</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" t="s">
+        <v>333</v>
+      </c>
+      <c r="D28" t="s">
+        <v>335</v>
+      </c>
+      <c r="E28" t="s">
+        <v>394</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>317</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" t="s">
+        <v>334</v>
+      </c>
+      <c r="D29" t="s">
+        <v>335</v>
+      </c>
+      <c r="E29" t="s">
+        <v>394</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>317</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" t="s">
+        <v>334</v>
+      </c>
+      <c r="D30" t="s">
+        <v>340</v>
+      </c>
+      <c r="E30" t="s">
+        <v>394</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>317</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" t="s">
+        <v>334</v>
+      </c>
+      <c r="D31" t="s">
+        <v>340</v>
+      </c>
+      <c r="E31" t="s">
+        <v>394</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>317</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" t="s">
+        <v>334</v>
+      </c>
+      <c r="D32" t="s">
+        <v>386</v>
+      </c>
+      <c r="E32" t="s">
+        <v>394</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>317</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" t="s">
+        <v>335</v>
+      </c>
+      <c r="D33" t="s">
+        <v>336</v>
+      </c>
+      <c r="E33" t="s">
+        <v>394</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>317</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" t="s">
+        <v>335</v>
+      </c>
+      <c r="D34" t="s">
+        <v>338</v>
+      </c>
+      <c r="E34" t="s">
+        <v>394</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>317</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" t="s">
+        <v>336</v>
+      </c>
+      <c r="D35" t="s">
+        <v>337</v>
+      </c>
+      <c r="E35" t="s">
+        <v>394</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>317</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" t="s">
+        <v>336</v>
+      </c>
+      <c r="D36" t="s">
+        <v>387</v>
+      </c>
+      <c r="E36" t="s">
+        <v>394</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>317</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" t="s">
+        <v>337</v>
+      </c>
+      <c r="D37" t="s">
+        <v>340</v>
+      </c>
+      <c r="E37" t="s">
+        <v>394</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>317</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" t="s">
+        <v>337</v>
+      </c>
+      <c r="D38" t="s">
+        <v>340</v>
+      </c>
+      <c r="E38" t="s">
+        <v>394</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>317</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" t="s">
+        <v>338</v>
+      </c>
+      <c r="D39" t="s">
+        <v>339</v>
+      </c>
+      <c r="E39" t="s">
+        <v>394</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>317</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" t="s">
+        <v>338</v>
+      </c>
+      <c r="D40" t="s">
+        <v>339</v>
+      </c>
+      <c r="E40" t="s">
+        <v>394</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>317</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" t="s">
+        <v>339</v>
+      </c>
+      <c r="D41" t="s">
+        <v>341</v>
+      </c>
+      <c r="E41" t="s">
+        <v>394</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>317</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" t="s">
+        <v>339</v>
+      </c>
+      <c r="D42" t="s">
+        <v>341</v>
+      </c>
+      <c r="E42" t="s">
+        <v>394</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>317</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" t="s">
+        <v>340</v>
+      </c>
+      <c r="D43" t="s">
+        <v>387</v>
+      </c>
+      <c r="E43" t="s">
+        <v>394</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>317</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" t="s">
+        <v>341</v>
+      </c>
+      <c r="D44" t="s">
+        <v>358</v>
+      </c>
+      <c r="E44" t="s">
+        <v>394</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>317</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" t="s">
+        <v>342</v>
+      </c>
+      <c r="D45" t="s">
+        <v>343</v>
+      </c>
+      <c r="E45" t="s">
+        <v>394</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>317</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" t="s">
+        <v>342</v>
+      </c>
+      <c r="D46" t="s">
+        <v>344</v>
+      </c>
+      <c r="E46" t="s">
+        <v>394</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>317</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" t="s">
+        <v>342</v>
+      </c>
+      <c r="D47" t="s">
+        <v>346</v>
+      </c>
+      <c r="E47" t="s">
+        <v>394</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>317</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" t="s">
+        <v>343</v>
+      </c>
+      <c r="D48" t="s">
+        <v>345</v>
+      </c>
+      <c r="E48" t="s">
+        <v>394</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>317</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" t="s">
+        <v>343</v>
+      </c>
+      <c r="D49" t="s">
+        <v>347</v>
+      </c>
+      <c r="E49" t="s">
+        <v>394</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>317</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50" t="s">
+        <v>344</v>
+      </c>
+      <c r="D50" t="s">
+        <v>350</v>
+      </c>
+      <c r="E50" t="s">
+        <v>394</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>317</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" t="s">
+        <v>344</v>
+      </c>
+      <c r="D51" t="s">
+        <v>388</v>
+      </c>
+      <c r="E51" t="s">
+        <v>394</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>317</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" t="s">
+        <v>345</v>
+      </c>
+      <c r="D52" t="s">
+        <v>350</v>
+      </c>
+      <c r="E52" t="s">
+        <v>394</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>317</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" t="s">
+        <v>346</v>
+      </c>
+      <c r="D53" t="s">
+        <v>351</v>
+      </c>
+      <c r="E53" t="s">
+        <v>394</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>317</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" t="s">
+        <v>347</v>
+      </c>
+      <c r="D54" t="s">
+        <v>351</v>
+      </c>
+      <c r="E54" t="s">
+        <v>394</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>317</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C55" t="s">
+        <v>348</v>
+      </c>
+      <c r="D55" t="s">
+        <v>349</v>
+      </c>
+      <c r="E55" t="s">
+        <v>394</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>317</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" t="s">
+        <v>349</v>
+      </c>
+      <c r="D56" t="s">
+        <v>350</v>
+      </c>
+      <c r="E56" t="s">
+        <v>394</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>317</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" t="s">
+        <v>349</v>
+      </c>
+      <c r="D57" t="s">
+        <v>351</v>
+      </c>
+      <c r="E57" t="s">
+        <v>394</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>317</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" t="s">
+        <v>350</v>
+      </c>
+      <c r="D58" t="s">
+        <v>352</v>
+      </c>
+      <c r="E58" t="s">
+        <v>394</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>317</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" t="s">
+        <v>350</v>
+      </c>
+      <c r="D59" t="s">
+        <v>353</v>
+      </c>
+      <c r="E59" t="s">
+        <v>394</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>317</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60" t="s">
+        <v>351</v>
+      </c>
+      <c r="D60" t="s">
+        <v>352</v>
+      </c>
+      <c r="E60" t="s">
+        <v>394</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>317</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C61" t="s">
+        <v>351</v>
+      </c>
+      <c r="D61" t="s">
+        <v>353</v>
+      </c>
+      <c r="E61" t="s">
+        <v>394</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>317</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62" t="s">
+        <v>352</v>
+      </c>
+      <c r="D62" t="s">
+        <v>354</v>
+      </c>
+      <c r="E62" t="s">
+        <v>394</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>317</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C63" t="s">
+        <v>352</v>
+      </c>
+      <c r="D63" t="s">
+        <v>355</v>
+      </c>
+      <c r="E63" t="s">
+        <v>394</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>317</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C64" t="s">
+        <v>353</v>
+      </c>
+      <c r="D64" t="s">
+        <v>354</v>
+      </c>
+      <c r="E64" t="s">
+        <v>394</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>317</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65" t="s">
+        <v>353</v>
+      </c>
+      <c r="D65" t="s">
+        <v>389</v>
+      </c>
+      <c r="E65" t="s">
+        <v>394</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>317</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C66" t="s">
+        <v>354</v>
+      </c>
+      <c r="D66" t="s">
+        <v>389</v>
+      </c>
+      <c r="E66" t="s">
+        <v>394</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>317</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C67" t="s">
+        <v>355</v>
+      </c>
+      <c r="D67" t="s">
+        <v>357</v>
+      </c>
+      <c r="E67" t="s">
+        <v>394</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>317</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C68" t="s">
+        <v>356</v>
+      </c>
+      <c r="D68" t="s">
+        <v>357</v>
+      </c>
+      <c r="E68" t="s">
+        <v>394</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>317</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C69" t="s">
+        <v>356</v>
+      </c>
+      <c r="D69" t="s">
+        <v>362</v>
+      </c>
+      <c r="E69" t="s">
+        <v>394</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>317</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C70" t="s">
+        <v>356</v>
+      </c>
+      <c r="D70" t="s">
+        <v>362</v>
+      </c>
+      <c r="E70" t="s">
+        <v>394</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>317</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C71" t="s">
+        <v>356</v>
+      </c>
+      <c r="D71" t="s">
+        <v>388</v>
+      </c>
+      <c r="E71" t="s">
+        <v>394</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>317</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C72" t="s">
+        <v>357</v>
+      </c>
+      <c r="D72" t="s">
+        <v>358</v>
+      </c>
+      <c r="E72" t="s">
+        <v>394</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>317</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C73" t="s">
+        <v>357</v>
+      </c>
+      <c r="D73" t="s">
+        <v>360</v>
+      </c>
+      <c r="E73" t="s">
+        <v>394</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>317</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C74" t="s">
+        <v>358</v>
+      </c>
+      <c r="D74" t="s">
+        <v>359</v>
+      </c>
+      <c r="E74" t="s">
+        <v>394</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>317</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C75" t="s">
+        <v>358</v>
+      </c>
+      <c r="D75" t="s">
+        <v>390</v>
+      </c>
+      <c r="E75" t="s">
+        <v>394</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>317</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C76" t="s">
+        <v>359</v>
+      </c>
+      <c r="D76" t="s">
+        <v>362</v>
+      </c>
+      <c r="E76" t="s">
+        <v>394</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>317</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C77" t="s">
+        <v>359</v>
+      </c>
+      <c r="D77" t="s">
+        <v>362</v>
+      </c>
+      <c r="E77" t="s">
+        <v>394</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>317</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C78" t="s">
+        <v>360</v>
+      </c>
+      <c r="D78" t="s">
+        <v>361</v>
+      </c>
+      <c r="E78" t="s">
+        <v>394</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>317</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C79" t="s">
+        <v>360</v>
+      </c>
+      <c r="D79" t="s">
+        <v>361</v>
+      </c>
+      <c r="E79" t="s">
+        <v>394</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>317</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C80" t="s">
+        <v>361</v>
+      </c>
+      <c r="D80" t="s">
+        <v>389</v>
+      </c>
+      <c r="E80" t="s">
+        <v>394</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>317</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C81" t="s">
+        <v>361</v>
+      </c>
+      <c r="D81" t="s">
+        <v>389</v>
+      </c>
+      <c r="E81" t="s">
+        <v>394</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>317</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C82" t="s">
+        <v>362</v>
+      </c>
+      <c r="D82" t="s">
+        <v>390</v>
+      </c>
+      <c r="E82" t="s">
+        <v>394</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>317</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C83" t="s">
+        <v>363</v>
+      </c>
+      <c r="D83" t="s">
+        <v>364</v>
+      </c>
+      <c r="E83" t="s">
+        <v>394</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>317</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C84" t="s">
+        <v>363</v>
+      </c>
+      <c r="D84" t="s">
+        <v>365</v>
+      </c>
+      <c r="E84" t="s">
+        <v>394</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>317</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C85" t="s">
+        <v>363</v>
+      </c>
+      <c r="D85" t="s">
+        <v>367</v>
+      </c>
+      <c r="E85" t="s">
+        <v>394</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>317</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C86" t="s">
+        <v>364</v>
+      </c>
+      <c r="D86" t="s">
+        <v>366</v>
+      </c>
+      <c r="E86" t="s">
+        <v>394</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>317</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C87" t="s">
+        <v>364</v>
+      </c>
+      <c r="D87" t="s">
+        <v>368</v>
+      </c>
+      <c r="E87" t="s">
+        <v>394</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>317</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C88" t="s">
+        <v>365</v>
+      </c>
+      <c r="D88" t="s">
+        <v>371</v>
+      </c>
+      <c r="E88" t="s">
+        <v>394</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>317</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C89" t="s">
+        <v>365</v>
+      </c>
+      <c r="D89" t="s">
+        <v>391</v>
+      </c>
+      <c r="E89" t="s">
+        <v>394</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>317</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C90" t="s">
+        <v>366</v>
+      </c>
+      <c r="D90" t="s">
+        <v>371</v>
+      </c>
+      <c r="E90" t="s">
+        <v>394</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>317</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C91" t="s">
+        <v>367</v>
+      </c>
+      <c r="D91" t="s">
+        <v>372</v>
+      </c>
+      <c r="E91" t="s">
+        <v>394</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>317</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C92" t="s">
+        <v>368</v>
+      </c>
+      <c r="D92" t="s">
+        <v>372</v>
+      </c>
+      <c r="E92" t="s">
+        <v>394</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>317</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C93" t="s">
+        <v>369</v>
+      </c>
+      <c r="D93" t="s">
+        <v>370</v>
+      </c>
+      <c r="E93" t="s">
+        <v>394</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>317</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C94" t="s">
+        <v>370</v>
+      </c>
+      <c r="D94" t="s">
+        <v>371</v>
+      </c>
+      <c r="E94" t="s">
+        <v>394</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>317</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C95" t="s">
+        <v>370</v>
+      </c>
+      <c r="D95" t="s">
+        <v>372</v>
+      </c>
+      <c r="E95" t="s">
+        <v>394</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>317</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C96" t="s">
+        <v>371</v>
+      </c>
+      <c r="D96" t="s">
+        <v>373</v>
+      </c>
+      <c r="E96" t="s">
+        <v>394</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>317</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C97" t="s">
+        <v>371</v>
+      </c>
+      <c r="D97" t="s">
+        <v>374</v>
+      </c>
+      <c r="E97" t="s">
+        <v>394</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>317</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C98" t="s">
+        <v>372</v>
+      </c>
+      <c r="D98" t="s">
+        <v>373</v>
+      </c>
+      <c r="E98" t="s">
+        <v>394</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>317</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C99" t="s">
+        <v>372</v>
+      </c>
+      <c r="D99" t="s">
+        <v>374</v>
+      </c>
+      <c r="E99" t="s">
+        <v>394</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>317</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C100" t="s">
+        <v>373</v>
+      </c>
+      <c r="D100" t="s">
+        <v>375</v>
+      </c>
+      <c r="E100" t="s">
+        <v>394</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>317</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C101" t="s">
+        <v>373</v>
+      </c>
+      <c r="D101" t="s">
+        <v>376</v>
+      </c>
+      <c r="E101" t="s">
+        <v>394</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>317</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C102" t="s">
+        <v>374</v>
+      </c>
+      <c r="D102" t="s">
+        <v>375</v>
+      </c>
+      <c r="E102" t="s">
+        <v>394</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>317</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C103" t="s">
+        <v>374</v>
+      </c>
+      <c r="D103" t="s">
+        <v>384</v>
+      </c>
+      <c r="E103" t="s">
+        <v>394</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>317</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C104" t="s">
+        <v>375</v>
+      </c>
+      <c r="D104" t="s">
+        <v>384</v>
+      </c>
+      <c r="E104" t="s">
+        <v>394</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>317</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C105" t="s">
+        <v>376</v>
+      </c>
+      <c r="D105" t="s">
+        <v>378</v>
+      </c>
+      <c r="E105" t="s">
+        <v>394</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>317</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C106" t="s">
+        <v>377</v>
+      </c>
+      <c r="D106" t="s">
+        <v>378</v>
+      </c>
+      <c r="E106" t="s">
+        <v>394</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>317</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C107" t="s">
+        <v>377</v>
+      </c>
+      <c r="D107" t="s">
+        <v>383</v>
+      </c>
+      <c r="E107" t="s">
+        <v>394</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>317</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C108" t="s">
+        <v>377</v>
+      </c>
+      <c r="D108" t="s">
+        <v>383</v>
+      </c>
+      <c r="E108" t="s">
+        <v>394</v>
+      </c>
+      <c r="F108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>317</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C109" t="s">
+        <v>377</v>
+      </c>
+      <c r="D109" t="s">
+        <v>391</v>
+      </c>
+      <c r="E109" t="s">
+        <v>394</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>317</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C110" t="s">
+        <v>378</v>
+      </c>
+      <c r="D110" t="s">
+        <v>379</v>
+      </c>
+      <c r="E110" t="s">
+        <v>394</v>
+      </c>
+      <c r="F110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>317</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C111" t="s">
+        <v>378</v>
+      </c>
+      <c r="D111" t="s">
+        <v>381</v>
+      </c>
+      <c r="E111" t="s">
+        <v>394</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>317</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C112" t="s">
+        <v>379</v>
+      </c>
+      <c r="D112" t="s">
+        <v>380</v>
+      </c>
+      <c r="E112" t="s">
+        <v>394</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>317</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C113" t="s">
+        <v>379</v>
+      </c>
+      <c r="D113" t="s">
+        <v>392</v>
+      </c>
+      <c r="E113" t="s">
+        <v>394</v>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>317</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C114" t="s">
+        <v>380</v>
+      </c>
+      <c r="D114" t="s">
+        <v>383</v>
+      </c>
+      <c r="E114" t="s">
+        <v>394</v>
+      </c>
+      <c r="F114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>317</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C115" t="s">
+        <v>380</v>
+      </c>
+      <c r="D115" t="s">
+        <v>383</v>
+      </c>
+      <c r="E115" t="s">
+        <v>394</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>317</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C116" t="s">
+        <v>381</v>
+      </c>
+      <c r="D116" t="s">
+        <v>382</v>
+      </c>
+      <c r="E116" t="s">
+        <v>394</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>317</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C117" t="s">
+        <v>381</v>
+      </c>
+      <c r="D117" t="s">
+        <v>382</v>
+      </c>
+      <c r="E117" t="s">
+        <v>394</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>317</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C118" t="s">
+        <v>382</v>
+      </c>
+      <c r="D118" t="s">
+        <v>384</v>
+      </c>
+      <c r="E118" t="s">
+        <v>394</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>317</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C119" t="s">
+        <v>382</v>
+      </c>
+      <c r="D119" t="s">
+        <v>384</v>
+      </c>
+      <c r="E119" t="s">
+        <v>394</v>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>317</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C120" t="s">
+        <v>383</v>
+      </c>
+      <c r="D120" t="s">
+        <v>392</v>
+      </c>
+      <c r="E120" t="s">
+        <v>394</v>
+      </c>
+      <c r="F120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>317</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C121" t="s">
+        <v>385</v>
+      </c>
+      <c r="D121" t="s">
+        <v>340</v>
+      </c>
+      <c r="E121" t="s">
+        <v>394</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>317</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C122" t="s">
+        <v>380</v>
+      </c>
+      <c r="D122" t="s">
+        <v>389</v>
+      </c>
+      <c r="E122" t="s">
+        <v>394</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>317</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C123" t="s">
+        <v>384</v>
+      </c>
+      <c r="D123" t="s">
+        <v>385</v>
+      </c>
+      <c r="E123" t="s">
+        <v>394</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>317</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C124" t="s">
+        <v>321</v>
+      </c>
+      <c r="D124" t="s">
+        <v>320</v>
+      </c>
+      <c r="E124" t="s">
+        <v>394</v>
+      </c>
+      <c r="F124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>317</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C125" t="s">
+        <v>322</v>
+      </c>
+      <c r="D125" t="s">
+        <v>320</v>
+      </c>
+      <c r="E125" t="s">
+        <v>394</v>
+      </c>
+      <c r="F125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>317</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C126" t="s">
+        <v>324</v>
+      </c>
+      <c r="D126" t="s">
+        <v>320</v>
+      </c>
+      <c r="E126" t="s">
+        <v>394</v>
+      </c>
+      <c r="F126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>317</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C127" t="s">
+        <v>323</v>
+      </c>
+      <c r="D127" t="s">
+        <v>321</v>
+      </c>
+      <c r="E127" t="s">
+        <v>394</v>
+      </c>
+      <c r="F127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>317</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C128" t="s">
+        <v>325</v>
+      </c>
+      <c r="D128" t="s">
+        <v>321</v>
+      </c>
+      <c r="E128" t="s">
+        <v>394</v>
+      </c>
+      <c r="F128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>317</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C129" t="s">
+        <v>328</v>
+      </c>
+      <c r="D129" t="s">
+        <v>322</v>
+      </c>
+      <c r="E129" t="s">
+        <v>394</v>
+      </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>317</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C130" t="s">
+        <v>386</v>
+      </c>
+      <c r="D130" t="s">
+        <v>322</v>
+      </c>
+      <c r="E130" t="s">
+        <v>394</v>
+      </c>
+      <c r="F130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>317</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C131" t="s">
+        <v>328</v>
+      </c>
+      <c r="D131" t="s">
+        <v>323</v>
+      </c>
+      <c r="E131" t="s">
+        <v>394</v>
+      </c>
+      <c r="F131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>317</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C132" t="s">
+        <v>329</v>
+      </c>
+      <c r="D132" t="s">
+        <v>324</v>
+      </c>
+      <c r="E132" t="s">
+        <v>394</v>
+      </c>
+      <c r="F132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>317</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C133" t="s">
+        <v>329</v>
+      </c>
+      <c r="D133" t="s">
+        <v>325</v>
+      </c>
+      <c r="E133" t="s">
+        <v>394</v>
+      </c>
+      <c r="F133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>317</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C134" t="s">
+        <v>327</v>
+      </c>
+      <c r="D134" t="s">
+        <v>326</v>
+      </c>
+      <c r="E134" t="s">
+        <v>394</v>
+      </c>
+      <c r="F134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>317</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C135" t="s">
+        <v>344</v>
+      </c>
+      <c r="D135" t="s">
+        <v>326</v>
+      </c>
+      <c r="E135" t="s">
+        <v>394</v>
+      </c>
+      <c r="F135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>317</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C136" t="s">
+        <v>328</v>
+      </c>
+      <c r="D136" t="s">
+        <v>327</v>
+      </c>
+      <c r="E136" t="s">
+        <v>394</v>
+      </c>
+      <c r="F136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>317</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C137" t="s">
+        <v>329</v>
+      </c>
+      <c r="D137" t="s">
+        <v>327</v>
+      </c>
+      <c r="E137" t="s">
+        <v>394</v>
+      </c>
+      <c r="F137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>317</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C138" t="s">
+        <v>330</v>
+      </c>
+      <c r="D138" t="s">
+        <v>328</v>
+      </c>
+      <c r="E138" t="s">
+        <v>394</v>
+      </c>
+      <c r="F138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>317</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C139" t="s">
+        <v>331</v>
+      </c>
+      <c r="D139" t="s">
+        <v>328</v>
+      </c>
+      <c r="E139" t="s">
+        <v>394</v>
+      </c>
+      <c r="F139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>317</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C140" t="s">
+        <v>330</v>
+      </c>
+      <c r="D140" t="s">
+        <v>329</v>
+      </c>
+      <c r="E140" t="s">
+        <v>394</v>
+      </c>
+      <c r="F140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>317</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C141" t="s">
+        <v>331</v>
+      </c>
+      <c r="D141" t="s">
+        <v>329</v>
+      </c>
+      <c r="E141" t="s">
+        <v>394</v>
+      </c>
+      <c r="F141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>317</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C142" t="s">
+        <v>332</v>
+      </c>
+      <c r="D142" t="s">
+        <v>330</v>
+      </c>
+      <c r="E142" t="s">
+        <v>394</v>
+      </c>
+      <c r="F142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>317</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C143" t="s">
+        <v>333</v>
+      </c>
+      <c r="D143" t="s">
+        <v>330</v>
+      </c>
+      <c r="E143" t="s">
+        <v>394</v>
+      </c>
+      <c r="F143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>317</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C144" t="s">
+        <v>332</v>
+      </c>
+      <c r="D144" t="s">
+        <v>331</v>
+      </c>
+      <c r="E144" t="s">
+        <v>394</v>
+      </c>
+      <c r="F144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>317</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C145" t="s">
+        <v>341</v>
+      </c>
+      <c r="D145" t="s">
+        <v>331</v>
+      </c>
+      <c r="E145" t="s">
+        <v>394</v>
+      </c>
+      <c r="F145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>317</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C146" t="s">
+        <v>341</v>
+      </c>
+      <c r="D146" t="s">
+        <v>332</v>
+      </c>
+      <c r="E146" t="s">
+        <v>394</v>
+      </c>
+      <c r="F146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>317</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C147" t="s">
+        <v>356</v>
+      </c>
+      <c r="D147" t="s">
+        <v>332</v>
+      </c>
+      <c r="E147" t="s">
+        <v>394</v>
+      </c>
+      <c r="F147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>317</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C148" t="s">
+        <v>335</v>
+      </c>
+      <c r="D148" t="s">
+        <v>333</v>
+      </c>
+      <c r="E148" t="s">
+        <v>394</v>
+      </c>
+      <c r="F148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>317</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C149" t="s">
+        <v>335</v>
+      </c>
+      <c r="D149" t="s">
+        <v>334</v>
+      </c>
+      <c r="E149" t="s">
+        <v>394</v>
+      </c>
+      <c r="F149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>317</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C150" t="s">
+        <v>340</v>
+      </c>
+      <c r="D150" t="s">
+        <v>334</v>
+      </c>
+      <c r="E150" t="s">
+        <v>394</v>
+      </c>
+      <c r="F150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>317</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C151" t="s">
+        <v>340</v>
+      </c>
+      <c r="D151" t="s">
+        <v>334</v>
+      </c>
+      <c r="E151" t="s">
+        <v>394</v>
+      </c>
+      <c r="F151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>317</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C152" t="s">
+        <v>386</v>
+      </c>
+      <c r="D152" t="s">
+        <v>334</v>
+      </c>
+      <c r="E152" t="s">
+        <v>394</v>
+      </c>
+      <c r="F152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>317</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C153" t="s">
+        <v>336</v>
+      </c>
+      <c r="D153" t="s">
+        <v>335</v>
+      </c>
+      <c r="E153" t="s">
+        <v>394</v>
+      </c>
+      <c r="F153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>317</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C154" t="s">
+        <v>338</v>
+      </c>
+      <c r="D154" t="s">
+        <v>335</v>
+      </c>
+      <c r="E154" t="s">
+        <v>394</v>
+      </c>
+      <c r="F154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>317</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C155" t="s">
+        <v>337</v>
+      </c>
+      <c r="D155" t="s">
+        <v>336</v>
+      </c>
+      <c r="E155" t="s">
+        <v>394</v>
+      </c>
+      <c r="F155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>317</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C156" t="s">
+        <v>387</v>
+      </c>
+      <c r="D156" t="s">
+        <v>336</v>
+      </c>
+      <c r="E156" t="s">
+        <v>394</v>
+      </c>
+      <c r="F156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>317</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C157" t="s">
+        <v>340</v>
+      </c>
+      <c r="D157" t="s">
+        <v>337</v>
+      </c>
+      <c r="E157" t="s">
+        <v>394</v>
+      </c>
+      <c r="F157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>317</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C158" t="s">
+        <v>340</v>
+      </c>
+      <c r="D158" t="s">
+        <v>337</v>
+      </c>
+      <c r="E158" t="s">
+        <v>394</v>
+      </c>
+      <c r="F158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>317</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C159" t="s">
+        <v>339</v>
+      </c>
+      <c r="D159" t="s">
+        <v>338</v>
+      </c>
+      <c r="E159" t="s">
+        <v>394</v>
+      </c>
+      <c r="F159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>317</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C160" t="s">
+        <v>339</v>
+      </c>
+      <c r="D160" t="s">
+        <v>338</v>
+      </c>
+      <c r="E160" t="s">
+        <v>394</v>
+      </c>
+      <c r="F160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>317</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C161" t="s">
+        <v>341</v>
+      </c>
+      <c r="D161" t="s">
+        <v>339</v>
+      </c>
+      <c r="E161" t="s">
+        <v>394</v>
+      </c>
+      <c r="F161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>317</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C162" t="s">
+        <v>341</v>
+      </c>
+      <c r="D162" t="s">
+        <v>339</v>
+      </c>
+      <c r="E162" t="s">
+        <v>394</v>
+      </c>
+      <c r="F162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>317</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C163" t="s">
+        <v>387</v>
+      </c>
+      <c r="D163" t="s">
+        <v>340</v>
+      </c>
+      <c r="E163" t="s">
+        <v>394</v>
+      </c>
+      <c r="F163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>317</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C164" t="s">
+        <v>358</v>
+      </c>
+      <c r="D164" t="s">
+        <v>341</v>
+      </c>
+      <c r="E164" t="s">
+        <v>394</v>
+      </c>
+      <c r="F164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>317</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C165" t="s">
+        <v>343</v>
+      </c>
+      <c r="D165" t="s">
+        <v>342</v>
+      </c>
+      <c r="E165" t="s">
+        <v>394</v>
+      </c>
+      <c r="F165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>317</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C166" t="s">
+        <v>344</v>
+      </c>
+      <c r="D166" t="s">
+        <v>342</v>
+      </c>
+      <c r="E166" t="s">
+        <v>394</v>
+      </c>
+      <c r="F166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>317</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C167" t="s">
+        <v>346</v>
+      </c>
+      <c r="D167" t="s">
+        <v>342</v>
+      </c>
+      <c r="E167" t="s">
+        <v>394</v>
+      </c>
+      <c r="F167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>317</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C168" t="s">
+        <v>345</v>
+      </c>
+      <c r="D168" t="s">
+        <v>343</v>
+      </c>
+      <c r="E168" t="s">
+        <v>394</v>
+      </c>
+      <c r="F168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>317</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C169" t="s">
+        <v>347</v>
+      </c>
+      <c r="D169" t="s">
+        <v>343</v>
+      </c>
+      <c r="E169" t="s">
+        <v>394</v>
+      </c>
+      <c r="F169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>317</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C170" t="s">
+        <v>350</v>
+      </c>
+      <c r="D170" t="s">
+        <v>344</v>
+      </c>
+      <c r="E170" t="s">
+        <v>394</v>
+      </c>
+      <c r="F170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>317</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C171" t="s">
+        <v>388</v>
+      </c>
+      <c r="D171" t="s">
+        <v>344</v>
+      </c>
+      <c r="E171" t="s">
+        <v>394</v>
+      </c>
+      <c r="F171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>317</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C172" t="s">
+        <v>350</v>
+      </c>
+      <c r="D172" t="s">
+        <v>345</v>
+      </c>
+      <c r="E172" t="s">
+        <v>394</v>
+      </c>
+      <c r="F172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>317</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C173" t="s">
+        <v>351</v>
+      </c>
+      <c r="D173" t="s">
+        <v>346</v>
+      </c>
+      <c r="E173" t="s">
+        <v>394</v>
+      </c>
+      <c r="F173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>317</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C174" t="s">
+        <v>351</v>
+      </c>
+      <c r="D174" t="s">
+        <v>347</v>
+      </c>
+      <c r="E174" t="s">
+        <v>394</v>
+      </c>
+      <c r="F174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>317</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C175" t="s">
+        <v>349</v>
+      </c>
+      <c r="D175" t="s">
+        <v>348</v>
+      </c>
+      <c r="E175" t="s">
+        <v>394</v>
+      </c>
+      <c r="F175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>317</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C176" t="s">
+        <v>350</v>
+      </c>
+      <c r="D176" t="s">
+        <v>349</v>
+      </c>
+      <c r="E176" t="s">
+        <v>394</v>
+      </c>
+      <c r="F176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>317</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C177" t="s">
+        <v>351</v>
+      </c>
+      <c r="D177" t="s">
+        <v>349</v>
+      </c>
+      <c r="E177" t="s">
+        <v>394</v>
+      </c>
+      <c r="F177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>317</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C178" t="s">
+        <v>352</v>
+      </c>
+      <c r="D178" t="s">
+        <v>350</v>
+      </c>
+      <c r="E178" t="s">
+        <v>394</v>
+      </c>
+      <c r="F178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>317</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C179" t="s">
+        <v>353</v>
+      </c>
+      <c r="D179" t="s">
+        <v>350</v>
+      </c>
+      <c r="E179" t="s">
+        <v>394</v>
+      </c>
+      <c r="F179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>317</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C180" t="s">
+        <v>352</v>
+      </c>
+      <c r="D180" t="s">
+        <v>351</v>
+      </c>
+      <c r="E180" t="s">
+        <v>394</v>
+      </c>
+      <c r="F180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>317</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C181" t="s">
+        <v>353</v>
+      </c>
+      <c r="D181" t="s">
+        <v>351</v>
+      </c>
+      <c r="E181" t="s">
+        <v>394</v>
+      </c>
+      <c r="F181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>317</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C182" t="s">
+        <v>354</v>
+      </c>
+      <c r="D182" t="s">
+        <v>352</v>
+      </c>
+      <c r="E182" t="s">
+        <v>394</v>
+      </c>
+      <c r="F182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>317</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C183" t="s">
+        <v>355</v>
+      </c>
+      <c r="D183" t="s">
+        <v>352</v>
+      </c>
+      <c r="E183" t="s">
+        <v>394</v>
+      </c>
+      <c r="F183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>317</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C184" t="s">
+        <v>354</v>
+      </c>
+      <c r="D184" t="s">
+        <v>353</v>
+      </c>
+      <c r="E184" t="s">
+        <v>394</v>
+      </c>
+      <c r="F184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>317</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C185" t="s">
+        <v>389</v>
+      </c>
+      <c r="D185" t="s">
+        <v>353</v>
+      </c>
+      <c r="E185" t="s">
+        <v>394</v>
+      </c>
+      <c r="F185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>317</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C186" t="s">
+        <v>389</v>
+      </c>
+      <c r="D186" t="s">
+        <v>354</v>
+      </c>
+      <c r="E186" t="s">
+        <v>394</v>
+      </c>
+      <c r="F186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>317</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C187" t="s">
+        <v>357</v>
+      </c>
+      <c r="D187" t="s">
+        <v>355</v>
+      </c>
+      <c r="E187" t="s">
+        <v>394</v>
+      </c>
+      <c r="F187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>317</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C188" t="s">
+        <v>357</v>
+      </c>
+      <c r="D188" t="s">
+        <v>356</v>
+      </c>
+      <c r="E188" t="s">
+        <v>394</v>
+      </c>
+      <c r="F188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>317</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C189" t="s">
+        <v>362</v>
+      </c>
+      <c r="D189" t="s">
+        <v>356</v>
+      </c>
+      <c r="E189" t="s">
+        <v>394</v>
+      </c>
+      <c r="F189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>317</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C190" t="s">
+        <v>362</v>
+      </c>
+      <c r="D190" t="s">
+        <v>356</v>
+      </c>
+      <c r="E190" t="s">
+        <v>394</v>
+      </c>
+      <c r="F190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>317</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C191" t="s">
+        <v>388</v>
+      </c>
+      <c r="D191" t="s">
+        <v>356</v>
+      </c>
+      <c r="E191" t="s">
+        <v>394</v>
+      </c>
+      <c r="F191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>317</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C192" t="s">
+        <v>358</v>
+      </c>
+      <c r="D192" t="s">
+        <v>357</v>
+      </c>
+      <c r="E192" t="s">
+        <v>394</v>
+      </c>
+      <c r="F192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>317</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C193" t="s">
+        <v>360</v>
+      </c>
+      <c r="D193" t="s">
+        <v>357</v>
+      </c>
+      <c r="E193" t="s">
+        <v>394</v>
+      </c>
+      <c r="F193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>317</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C194" t="s">
+        <v>359</v>
+      </c>
+      <c r="D194" t="s">
+        <v>358</v>
+      </c>
+      <c r="E194" t="s">
+        <v>394</v>
+      </c>
+      <c r="F194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>317</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C195" t="s">
+        <v>390</v>
+      </c>
+      <c r="D195" t="s">
+        <v>358</v>
+      </c>
+      <c r="E195" t="s">
+        <v>394</v>
+      </c>
+      <c r="F195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>317</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C196" t="s">
+        <v>362</v>
+      </c>
+      <c r="D196" t="s">
+        <v>359</v>
+      </c>
+      <c r="E196" t="s">
+        <v>394</v>
+      </c>
+      <c r="F196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>317</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C197" t="s">
+        <v>362</v>
+      </c>
+      <c r="D197" t="s">
+        <v>359</v>
+      </c>
+      <c r="E197" t="s">
+        <v>394</v>
+      </c>
+      <c r="F197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>317</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C198" t="s">
+        <v>361</v>
+      </c>
+      <c r="D198" t="s">
+        <v>360</v>
+      </c>
+      <c r="E198" t="s">
+        <v>394</v>
+      </c>
+      <c r="F198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>317</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C199" t="s">
+        <v>361</v>
+      </c>
+      <c r="D199" t="s">
+        <v>360</v>
+      </c>
+      <c r="E199" t="s">
+        <v>394</v>
+      </c>
+      <c r="F199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>317</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C200" t="s">
+        <v>389</v>
+      </c>
+      <c r="D200" t="s">
+        <v>361</v>
+      </c>
+      <c r="E200" t="s">
+        <v>394</v>
+      </c>
+      <c r="F200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>317</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C201" t="s">
+        <v>389</v>
+      </c>
+      <c r="D201" t="s">
+        <v>361</v>
+      </c>
+      <c r="E201" t="s">
+        <v>394</v>
+      </c>
+      <c r="F201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>317</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C202" t="s">
+        <v>390</v>
+      </c>
+      <c r="D202" t="s">
+        <v>362</v>
+      </c>
+      <c r="E202" t="s">
+        <v>394</v>
+      </c>
+      <c r="F202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>317</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C203" t="s">
+        <v>364</v>
+      </c>
+      <c r="D203" t="s">
+        <v>363</v>
+      </c>
+      <c r="E203" t="s">
+        <v>394</v>
+      </c>
+      <c r="F203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>317</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C204" t="s">
+        <v>365</v>
+      </c>
+      <c r="D204" t="s">
+        <v>363</v>
+      </c>
+      <c r="E204" t="s">
+        <v>394</v>
+      </c>
+      <c r="F204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>317</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C205" t="s">
+        <v>367</v>
+      </c>
+      <c r="D205" t="s">
+        <v>363</v>
+      </c>
+      <c r="E205" t="s">
+        <v>394</v>
+      </c>
+      <c r="F205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>317</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C206" t="s">
+        <v>366</v>
+      </c>
+      <c r="D206" t="s">
+        <v>364</v>
+      </c>
+      <c r="E206" t="s">
+        <v>394</v>
+      </c>
+      <c r="F206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>317</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C207" t="s">
+        <v>368</v>
+      </c>
+      <c r="D207" t="s">
+        <v>364</v>
+      </c>
+      <c r="E207" t="s">
+        <v>394</v>
+      </c>
+      <c r="F207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>317</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C208" t="s">
+        <v>371</v>
+      </c>
+      <c r="D208" t="s">
+        <v>365</v>
+      </c>
+      <c r="E208" t="s">
+        <v>394</v>
+      </c>
+      <c r="F208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>317</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C209" t="s">
+        <v>391</v>
+      </c>
+      <c r="D209" t="s">
+        <v>365</v>
+      </c>
+      <c r="E209" t="s">
+        <v>394</v>
+      </c>
+      <c r="F209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
+        <v>317</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C210" t="s">
+        <v>371</v>
+      </c>
+      <c r="D210" t="s">
+        <v>366</v>
+      </c>
+      <c r="E210" t="s">
+        <v>394</v>
+      </c>
+      <c r="F210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
+        <v>317</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C211" t="s">
+        <v>372</v>
+      </c>
+      <c r="D211" t="s">
+        <v>367</v>
+      </c>
+      <c r="E211" t="s">
+        <v>394</v>
+      </c>
+      <c r="F211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
+        <v>317</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C212" t="s">
+        <v>372</v>
+      </c>
+      <c r="D212" t="s">
+        <v>368</v>
+      </c>
+      <c r="E212" t="s">
+        <v>394</v>
+      </c>
+      <c r="F212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
+        <v>317</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C213" t="s">
+        <v>370</v>
+      </c>
+      <c r="D213" t="s">
+        <v>369</v>
+      </c>
+      <c r="E213" t="s">
+        <v>394</v>
+      </c>
+      <c r="F213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A214" t="s">
+        <v>317</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C214" t="s">
+        <v>371</v>
+      </c>
+      <c r="D214" t="s">
+        <v>370</v>
+      </c>
+      <c r="E214" t="s">
+        <v>394</v>
+      </c>
+      <c r="F214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
+        <v>317</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C215" t="s">
+        <v>372</v>
+      </c>
+      <c r="D215" t="s">
+        <v>370</v>
+      </c>
+      <c r="E215" t="s">
+        <v>394</v>
+      </c>
+      <c r="F215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
+        <v>317</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C216" t="s">
+        <v>373</v>
+      </c>
+      <c r="D216" t="s">
+        <v>371</v>
+      </c>
+      <c r="E216" t="s">
+        <v>394</v>
+      </c>
+      <c r="F216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
+        <v>317</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C217" t="s">
+        <v>374</v>
+      </c>
+      <c r="D217" t="s">
+        <v>371</v>
+      </c>
+      <c r="E217" t="s">
+        <v>394</v>
+      </c>
+      <c r="F217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
+        <v>317</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C218" t="s">
+        <v>373</v>
+      </c>
+      <c r="D218" t="s">
+        <v>372</v>
+      </c>
+      <c r="E218" t="s">
+        <v>394</v>
+      </c>
+      <c r="F218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
+        <v>317</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C219" t="s">
+        <v>374</v>
+      </c>
+      <c r="D219" t="s">
+        <v>372</v>
+      </c>
+      <c r="E219" t="s">
+        <v>394</v>
+      </c>
+      <c r="F219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
+        <v>317</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C220" t="s">
+        <v>375</v>
+      </c>
+      <c r="D220" t="s">
+        <v>373</v>
+      </c>
+      <c r="E220" t="s">
+        <v>394</v>
+      </c>
+      <c r="F220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
+        <v>317</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C221" t="s">
+        <v>376</v>
+      </c>
+      <c r="D221" t="s">
+        <v>373</v>
+      </c>
+      <c r="E221" t="s">
+        <v>394</v>
+      </c>
+      <c r="F221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
+        <v>317</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C222" t="s">
+        <v>375</v>
+      </c>
+      <c r="D222" t="s">
+        <v>374</v>
+      </c>
+      <c r="E222" t="s">
+        <v>394</v>
+      </c>
+      <c r="F222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
+        <v>317</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C223" t="s">
+        <v>384</v>
+      </c>
+      <c r="D223" t="s">
+        <v>374</v>
+      </c>
+      <c r="E223" t="s">
+        <v>394</v>
+      </c>
+      <c r="F223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
+        <v>317</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C224" t="s">
+        <v>384</v>
+      </c>
+      <c r="D224" t="s">
+        <v>375</v>
+      </c>
+      <c r="E224" t="s">
+        <v>394</v>
+      </c>
+      <c r="F224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
+        <v>317</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C225" t="s">
+        <v>378</v>
+      </c>
+      <c r="D225" t="s">
+        <v>376</v>
+      </c>
+      <c r="E225" t="s">
+        <v>394</v>
+      </c>
+      <c r="F225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
+        <v>317</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C226" t="s">
+        <v>378</v>
+      </c>
+      <c r="D226" t="s">
+        <v>377</v>
+      </c>
+      <c r="E226" t="s">
+        <v>394</v>
+      </c>
+      <c r="F226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A227" t="s">
+        <v>317</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C227" t="s">
+        <v>383</v>
+      </c>
+      <c r="D227" t="s">
+        <v>377</v>
+      </c>
+      <c r="E227" t="s">
+        <v>394</v>
+      </c>
+      <c r="F227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
+        <v>317</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C228" t="s">
+        <v>383</v>
+      </c>
+      <c r="D228" t="s">
+        <v>377</v>
+      </c>
+      <c r="E228" t="s">
+        <v>394</v>
+      </c>
+      <c r="F228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
+        <v>317</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C229" t="s">
+        <v>391</v>
+      </c>
+      <c r="D229" t="s">
+        <v>377</v>
+      </c>
+      <c r="E229" t="s">
+        <v>394</v>
+      </c>
+      <c r="F229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
+        <v>317</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C230" t="s">
+        <v>379</v>
+      </c>
+      <c r="D230" t="s">
+        <v>378</v>
+      </c>
+      <c r="E230" t="s">
+        <v>394</v>
+      </c>
+      <c r="F230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A231" t="s">
+        <v>317</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C231" t="s">
+        <v>381</v>
+      </c>
+      <c r="D231" t="s">
+        <v>378</v>
+      </c>
+      <c r="E231" t="s">
+        <v>394</v>
+      </c>
+      <c r="F231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A232" t="s">
+        <v>317</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C232" t="s">
+        <v>380</v>
+      </c>
+      <c r="D232" t="s">
+        <v>379</v>
+      </c>
+      <c r="E232" t="s">
+        <v>394</v>
+      </c>
+      <c r="F232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A233" t="s">
+        <v>317</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C233" t="s">
+        <v>392</v>
+      </c>
+      <c r="D233" t="s">
+        <v>379</v>
+      </c>
+      <c r="E233" t="s">
+        <v>394</v>
+      </c>
+      <c r="F233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A234" t="s">
+        <v>317</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C234" t="s">
+        <v>383</v>
+      </c>
+      <c r="D234" t="s">
+        <v>380</v>
+      </c>
+      <c r="E234" t="s">
+        <v>394</v>
+      </c>
+      <c r="F234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A235" t="s">
+        <v>317</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C235" t="s">
+        <v>383</v>
+      </c>
+      <c r="D235" t="s">
+        <v>380</v>
+      </c>
+      <c r="E235" t="s">
+        <v>394</v>
+      </c>
+      <c r="F235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A236" t="s">
+        <v>317</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C236" t="s">
+        <v>382</v>
+      </c>
+      <c r="D236" t="s">
+        <v>381</v>
+      </c>
+      <c r="E236" t="s">
+        <v>394</v>
+      </c>
+      <c r="F236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A237" t="s">
+        <v>317</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C237" t="s">
+        <v>382</v>
+      </c>
+      <c r="D237" t="s">
+        <v>381</v>
+      </c>
+      <c r="E237" t="s">
+        <v>394</v>
+      </c>
+      <c r="F237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A238" t="s">
+        <v>317</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C238" t="s">
+        <v>384</v>
+      </c>
+      <c r="D238" t="s">
+        <v>382</v>
+      </c>
+      <c r="E238" t="s">
+        <v>394</v>
+      </c>
+      <c r="F238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A239" t="s">
+        <v>317</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C239" t="s">
+        <v>384</v>
+      </c>
+      <c r="D239" t="s">
+        <v>382</v>
+      </c>
+      <c r="E239" t="s">
+        <v>394</v>
+      </c>
+      <c r="F239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A240" t="s">
+        <v>317</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C240" t="s">
+        <v>392</v>
+      </c>
+      <c r="D240" t="s">
+        <v>383</v>
+      </c>
+      <c r="E240" t="s">
+        <v>394</v>
+      </c>
+      <c r="F240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A241" t="s">
+        <v>317</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C241" t="s">
+        <v>340</v>
+      </c>
+      <c r="D241" t="s">
+        <v>385</v>
+      </c>
+      <c r="E241" t="s">
+        <v>394</v>
+      </c>
+      <c r="F241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A242" t="s">
+        <v>317</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C242" t="s">
+        <v>389</v>
+      </c>
+      <c r="D242" t="s">
+        <v>380</v>
+      </c>
+      <c r="E242" t="s">
+        <v>394</v>
+      </c>
+      <c r="F242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A243" t="s">
+        <v>317</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C243" t="s">
+        <v>385</v>
+      </c>
+      <c r="D243" t="s">
+        <v>384</v>
+      </c>
+      <c r="E243" t="s">
+        <v>394</v>
+      </c>
+      <c r="F243">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E156"/>
   <sheetViews>
@@ -23314,7 +28190,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C311"/>
   <sheetViews>
@@ -26755,7 +31631,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C313"/>
   <sheetViews>
@@ -35194,8 +40070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -35244,10 +40120,10 @@
         <v>464</v>
       </c>
       <c r="D3">
+        <v>1E-3</v>
+      </c>
+      <c r="E3">
         <v>0</v>
-      </c>
-      <c r="E3">
-        <v>1E-3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -37300,7 +42176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5:B77"/>
     </sheetView>
   </sheetViews>
@@ -38723,7 +43599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>

--- a/spine_rts-gmlc/datasets/branch_bus_detailed.xlsx
+++ b/spine_rts-gmlc/datasets/branch_bus_detailed.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" firstSheet="11" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="branch" sheetId="1" r:id="rId1"/>
@@ -20,20 +20,22 @@
     <sheet name="obj_connection_ptdf" sheetId="13" r:id="rId6"/>
     <sheet name="obj_node_ptdf" sheetId="14" r:id="rId7"/>
     <sheet name="obj_node-group_ptdf" sheetId="15" r:id="rId8"/>
-    <sheet name="rel_node_group__node_ptdf" sheetId="17" r:id="rId9"/>
+    <sheet name="rel_for_node_group_ptdf" sheetId="17" r:id="rId9"/>
     <sheet name="rel_connection__direction_node" sheetId="3" r:id="rId10"/>
     <sheet name="rel_connection__node__node" sheetId="9" r:id="rId11"/>
     <sheet name="rel_connection__node__node_ptdf" sheetId="18" r:id="rId12"/>
     <sheet name="rel_node__commodity" sheetId="5" r:id="rId13"/>
-    <sheet name="rel_node__temporal_block" sheetId="7" r:id="rId14"/>
-    <sheet name="rel_node__temporal_block_ptdf" sheetId="16" r:id="rId15"/>
+    <sheet name="rel__sto_struc__sto_scen" sheetId="20" r:id="rId14"/>
+    <sheet name="rel_node__stochastic_structure" sheetId="19" r:id="rId15"/>
+    <sheet name="rel_node__temporal_block" sheetId="7" r:id="rId16"/>
+    <sheet name="rel_node__temporal_block_ptdf" sheetId="16" r:id="rId17"/>
   </sheets>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8230" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8860" uniqueCount="486">
   <si>
     <t>UID</t>
   </si>
@@ -1464,6 +1466,33 @@
   </si>
   <si>
     <t>formula</t>
+  </si>
+  <si>
+    <t>stochastic_structure</t>
+  </si>
+  <si>
+    <t>default_none</t>
+  </si>
+  <si>
+    <t>node__stochastic_structure</t>
+  </si>
+  <si>
+    <t>object_class</t>
+  </si>
+  <si>
+    <t>object_name</t>
+  </si>
+  <si>
+    <t>stochastic_scenario</t>
+  </si>
+  <si>
+    <t>stochastic_structure__stochastic_scenario</t>
+  </si>
+  <si>
+    <t>deterministic</t>
+  </si>
+  <si>
+    <t>weight_relative_to_parents</t>
   </si>
 </sst>
 </file>
@@ -1958,9 +1987,7 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -8119,7 +8146,7 @@
   <dimension ref="A1:H485"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21292,10 +21319,14 @@
   <dimension ref="A1:F243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F243"/>
+      <selection activeCell="E1" sqref="E1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="29.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -26166,8 +26197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E156"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B150" sqref="B150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -28192,10 +28223,1799 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D1" t="s">
+        <v>462</v>
+      </c>
+      <c r="E1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D2" t="s">
+        <v>485</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C156"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>479</v>
+      </c>
+      <c r="B3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>479</v>
+      </c>
+      <c r="B4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C4" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>479</v>
+      </c>
+      <c r="B5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C5" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>479</v>
+      </c>
+      <c r="B6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C6" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>479</v>
+      </c>
+      <c r="B7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C7" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>479</v>
+      </c>
+      <c r="B8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C8" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>479</v>
+      </c>
+      <c r="B9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C9" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>479</v>
+      </c>
+      <c r="B10" t="s">
+        <v>243</v>
+      </c>
+      <c r="C10" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>479</v>
+      </c>
+      <c r="B11" t="s">
+        <v>244</v>
+      </c>
+      <c r="C11" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>479</v>
+      </c>
+      <c r="B12" t="s">
+        <v>245</v>
+      </c>
+      <c r="C12" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>479</v>
+      </c>
+      <c r="B13" t="s">
+        <v>246</v>
+      </c>
+      <c r="C13" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>479</v>
+      </c>
+      <c r="B14" t="s">
+        <v>247</v>
+      </c>
+      <c r="C14" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>479</v>
+      </c>
+      <c r="B15" t="s">
+        <v>248</v>
+      </c>
+      <c r="C15" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>479</v>
+      </c>
+      <c r="B16" t="s">
+        <v>249</v>
+      </c>
+      <c r="C16" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>479</v>
+      </c>
+      <c r="B17" t="s">
+        <v>250</v>
+      </c>
+      <c r="C17" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>479</v>
+      </c>
+      <c r="B18" t="s">
+        <v>251</v>
+      </c>
+      <c r="C18" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>479</v>
+      </c>
+      <c r="B19" t="s">
+        <v>252</v>
+      </c>
+      <c r="C19" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>479</v>
+      </c>
+      <c r="B20" t="s">
+        <v>253</v>
+      </c>
+      <c r="C20" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>479</v>
+      </c>
+      <c r="B21" t="s">
+        <v>254</v>
+      </c>
+      <c r="C21" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>479</v>
+      </c>
+      <c r="B22" t="s">
+        <v>255</v>
+      </c>
+      <c r="C22" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>479</v>
+      </c>
+      <c r="B23" t="s">
+        <v>256</v>
+      </c>
+      <c r="C23" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>479</v>
+      </c>
+      <c r="B24" t="s">
+        <v>257</v>
+      </c>
+      <c r="C24" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>479</v>
+      </c>
+      <c r="B25" t="s">
+        <v>258</v>
+      </c>
+      <c r="C25" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>479</v>
+      </c>
+      <c r="B26" t="s">
+        <v>259</v>
+      </c>
+      <c r="C26" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>479</v>
+      </c>
+      <c r="B27" t="s">
+        <v>260</v>
+      </c>
+      <c r="C27" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>479</v>
+      </c>
+      <c r="B28" t="s">
+        <v>261</v>
+      </c>
+      <c r="C28" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>479</v>
+      </c>
+      <c r="B29" t="s">
+        <v>262</v>
+      </c>
+      <c r="C29" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>479</v>
+      </c>
+      <c r="B30" t="s">
+        <v>263</v>
+      </c>
+      <c r="C30" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>479</v>
+      </c>
+      <c r="B31" t="s">
+        <v>264</v>
+      </c>
+      <c r="C31" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>479</v>
+      </c>
+      <c r="B32" t="s">
+        <v>265</v>
+      </c>
+      <c r="C32" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>479</v>
+      </c>
+      <c r="B33" t="s">
+        <v>266</v>
+      </c>
+      <c r="C33" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>479</v>
+      </c>
+      <c r="B34" t="s">
+        <v>267</v>
+      </c>
+      <c r="C34" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>479</v>
+      </c>
+      <c r="B35" t="s">
+        <v>268</v>
+      </c>
+      <c r="C35" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>479</v>
+      </c>
+      <c r="B36" t="s">
+        <v>269</v>
+      </c>
+      <c r="C36" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>479</v>
+      </c>
+      <c r="B37" t="s">
+        <v>270</v>
+      </c>
+      <c r="C37" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>479</v>
+      </c>
+      <c r="B38" t="s">
+        <v>271</v>
+      </c>
+      <c r="C38" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>479</v>
+      </c>
+      <c r="B39" t="s">
+        <v>272</v>
+      </c>
+      <c r="C39" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>479</v>
+      </c>
+      <c r="B40" t="s">
+        <v>273</v>
+      </c>
+      <c r="C40" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>479</v>
+      </c>
+      <c r="B41" t="s">
+        <v>274</v>
+      </c>
+      <c r="C41" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>479</v>
+      </c>
+      <c r="B42" t="s">
+        <v>275</v>
+      </c>
+      <c r="C42" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>479</v>
+      </c>
+      <c r="B43" t="s">
+        <v>276</v>
+      </c>
+      <c r="C43" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>479</v>
+      </c>
+      <c r="B44" t="s">
+        <v>277</v>
+      </c>
+      <c r="C44" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>479</v>
+      </c>
+      <c r="B45" t="s">
+        <v>278</v>
+      </c>
+      <c r="C45" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>479</v>
+      </c>
+      <c r="B46" t="s">
+        <v>279</v>
+      </c>
+      <c r="C46" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>479</v>
+      </c>
+      <c r="B47" t="s">
+        <v>280</v>
+      </c>
+      <c r="C47" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>479</v>
+      </c>
+      <c r="B48" t="s">
+        <v>281</v>
+      </c>
+      <c r="C48" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>479</v>
+      </c>
+      <c r="B49" t="s">
+        <v>282</v>
+      </c>
+      <c r="C49" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>479</v>
+      </c>
+      <c r="B50" t="s">
+        <v>283</v>
+      </c>
+      <c r="C50" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>479</v>
+      </c>
+      <c r="B51" t="s">
+        <v>284</v>
+      </c>
+      <c r="C51" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>479</v>
+      </c>
+      <c r="B52" t="s">
+        <v>285</v>
+      </c>
+      <c r="C52" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>479</v>
+      </c>
+      <c r="B53" t="s">
+        <v>286</v>
+      </c>
+      <c r="C53" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>479</v>
+      </c>
+      <c r="B54" t="s">
+        <v>287</v>
+      </c>
+      <c r="C54" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>479</v>
+      </c>
+      <c r="B55" t="s">
+        <v>288</v>
+      </c>
+      <c r="C55" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>479</v>
+      </c>
+      <c r="B56" t="s">
+        <v>289</v>
+      </c>
+      <c r="C56" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>479</v>
+      </c>
+      <c r="B57" t="s">
+        <v>290</v>
+      </c>
+      <c r="C57" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>479</v>
+      </c>
+      <c r="B58" t="s">
+        <v>291</v>
+      </c>
+      <c r="C58" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>479</v>
+      </c>
+      <c r="B59" t="s">
+        <v>292</v>
+      </c>
+      <c r="C59" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>479</v>
+      </c>
+      <c r="B60" t="s">
+        <v>293</v>
+      </c>
+      <c r="C60" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>479</v>
+      </c>
+      <c r="B61" t="s">
+        <v>294</v>
+      </c>
+      <c r="C61" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>479</v>
+      </c>
+      <c r="B62" t="s">
+        <v>295</v>
+      </c>
+      <c r="C62" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>479</v>
+      </c>
+      <c r="B63" t="s">
+        <v>296</v>
+      </c>
+      <c r="C63" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>479</v>
+      </c>
+      <c r="B64" t="s">
+        <v>297</v>
+      </c>
+      <c r="C64" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>479</v>
+      </c>
+      <c r="B65" t="s">
+        <v>298</v>
+      </c>
+      <c r="C65" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>479</v>
+      </c>
+      <c r="B66" t="s">
+        <v>299</v>
+      </c>
+      <c r="C66" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>479</v>
+      </c>
+      <c r="B67" t="s">
+        <v>300</v>
+      </c>
+      <c r="C67" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>479</v>
+      </c>
+      <c r="B68" t="s">
+        <v>301</v>
+      </c>
+      <c r="C68" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>479</v>
+      </c>
+      <c r="B69" t="s">
+        <v>302</v>
+      </c>
+      <c r="C69" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>479</v>
+      </c>
+      <c r="B70" t="s">
+        <v>303</v>
+      </c>
+      <c r="C70" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>479</v>
+      </c>
+      <c r="B71" t="s">
+        <v>304</v>
+      </c>
+      <c r="C71" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>479</v>
+      </c>
+      <c r="B72" t="s">
+        <v>305</v>
+      </c>
+      <c r="C72" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>479</v>
+      </c>
+      <c r="B73" t="s">
+        <v>306</v>
+      </c>
+      <c r="C73" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>479</v>
+      </c>
+      <c r="B74" t="s">
+        <v>307</v>
+      </c>
+      <c r="C74" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>479</v>
+      </c>
+      <c r="B75" t="s">
+        <v>308</v>
+      </c>
+      <c r="C75" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>479</v>
+      </c>
+      <c r="B76" t="s">
+        <v>309</v>
+      </c>
+      <c r="C76" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>479</v>
+      </c>
+      <c r="B77" t="s">
+        <v>310</v>
+      </c>
+      <c r="C77" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>479</v>
+      </c>
+      <c r="B78" t="s">
+        <v>311</v>
+      </c>
+      <c r="C78" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>479</v>
+      </c>
+      <c r="B79" t="s">
+        <v>312</v>
+      </c>
+      <c r="C79" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>479</v>
+      </c>
+      <c r="B80" t="s">
+        <v>313</v>
+      </c>
+      <c r="C80" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>479</v>
+      </c>
+      <c r="B81" t="s">
+        <v>314</v>
+      </c>
+      <c r="C81" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>479</v>
+      </c>
+      <c r="B82" t="s">
+        <v>315</v>
+      </c>
+      <c r="C82" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>479</v>
+      </c>
+      <c r="B83" t="s">
+        <v>316</v>
+      </c>
+      <c r="C83" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>479</v>
+      </c>
+      <c r="B84" t="s">
+        <v>320</v>
+      </c>
+      <c r="C84" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>479</v>
+      </c>
+      <c r="B85" t="s">
+        <v>321</v>
+      </c>
+      <c r="C85" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>479</v>
+      </c>
+      <c r="B86" t="s">
+        <v>322</v>
+      </c>
+      <c r="C86" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>479</v>
+      </c>
+      <c r="B87" t="s">
+        <v>323</v>
+      </c>
+      <c r="C87" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>479</v>
+      </c>
+      <c r="B88" t="s">
+        <v>324</v>
+      </c>
+      <c r="C88" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>479</v>
+      </c>
+      <c r="B89" t="s">
+        <v>325</v>
+      </c>
+      <c r="C89" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>479</v>
+      </c>
+      <c r="B90" t="s">
+        <v>326</v>
+      </c>
+      <c r="C90" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>479</v>
+      </c>
+      <c r="B91" t="s">
+        <v>327</v>
+      </c>
+      <c r="C91" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>479</v>
+      </c>
+      <c r="B92" t="s">
+        <v>328</v>
+      </c>
+      <c r="C92" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>479</v>
+      </c>
+      <c r="B93" t="s">
+        <v>329</v>
+      </c>
+      <c r="C93" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>479</v>
+      </c>
+      <c r="B94" t="s">
+        <v>330</v>
+      </c>
+      <c r="C94" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>479</v>
+      </c>
+      <c r="B95" t="s">
+        <v>331</v>
+      </c>
+      <c r="C95" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>479</v>
+      </c>
+      <c r="B96" t="s">
+        <v>332</v>
+      </c>
+      <c r="C96" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>479</v>
+      </c>
+      <c r="B97" t="s">
+        <v>333</v>
+      </c>
+      <c r="C97" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>479</v>
+      </c>
+      <c r="B98" t="s">
+        <v>334</v>
+      </c>
+      <c r="C98" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>479</v>
+      </c>
+      <c r="B99" t="s">
+        <v>335</v>
+      </c>
+      <c r="C99" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>479</v>
+      </c>
+      <c r="B100" t="s">
+        <v>336</v>
+      </c>
+      <c r="C100" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>479</v>
+      </c>
+      <c r="B101" t="s">
+        <v>337</v>
+      </c>
+      <c r="C101" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>479</v>
+      </c>
+      <c r="B102" t="s">
+        <v>338</v>
+      </c>
+      <c r="C102" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>479</v>
+      </c>
+      <c r="B103" t="s">
+        <v>339</v>
+      </c>
+      <c r="C103" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>479</v>
+      </c>
+      <c r="B104" t="s">
+        <v>340</v>
+      </c>
+      <c r="C104" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>479</v>
+      </c>
+      <c r="B105" t="s">
+        <v>387</v>
+      </c>
+      <c r="C105" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>479</v>
+      </c>
+      <c r="B106" t="s">
+        <v>341</v>
+      </c>
+      <c r="C106" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>479</v>
+      </c>
+      <c r="B107" t="s">
+        <v>386</v>
+      </c>
+      <c r="C107" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>479</v>
+      </c>
+      <c r="B108" t="s">
+        <v>342</v>
+      </c>
+      <c r="C108" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>479</v>
+      </c>
+      <c r="B109" t="s">
+        <v>343</v>
+      </c>
+      <c r="C109" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>479</v>
+      </c>
+      <c r="B110" t="s">
+        <v>344</v>
+      </c>
+      <c r="C110" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>479</v>
+      </c>
+      <c r="B111" t="s">
+        <v>345</v>
+      </c>
+      <c r="C111" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>479</v>
+      </c>
+      <c r="B112" t="s">
+        <v>346</v>
+      </c>
+      <c r="C112" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>479</v>
+      </c>
+      <c r="B113" t="s">
+        <v>347</v>
+      </c>
+      <c r="C113" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>479</v>
+      </c>
+      <c r="B114" t="s">
+        <v>348</v>
+      </c>
+      <c r="C114" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>479</v>
+      </c>
+      <c r="B115" t="s">
+        <v>349</v>
+      </c>
+      <c r="C115" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>479</v>
+      </c>
+      <c r="B116" t="s">
+        <v>350</v>
+      </c>
+      <c r="C116" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>479</v>
+      </c>
+      <c r="B117" t="s">
+        <v>351</v>
+      </c>
+      <c r="C117" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>479</v>
+      </c>
+      <c r="B118" t="s">
+        <v>352</v>
+      </c>
+      <c r="C118" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>479</v>
+      </c>
+      <c r="B119" t="s">
+        <v>353</v>
+      </c>
+      <c r="C119" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>479</v>
+      </c>
+      <c r="B120" t="s">
+        <v>354</v>
+      </c>
+      <c r="C120" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>479</v>
+      </c>
+      <c r="B121" t="s">
+        <v>355</v>
+      </c>
+      <c r="C121" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>479</v>
+      </c>
+      <c r="B122" t="s">
+        <v>356</v>
+      </c>
+      <c r="C122" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>479</v>
+      </c>
+      <c r="B123" t="s">
+        <v>357</v>
+      </c>
+      <c r="C123" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>479</v>
+      </c>
+      <c r="B124" t="s">
+        <v>358</v>
+      </c>
+      <c r="C124" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>479</v>
+      </c>
+      <c r="B125" t="s">
+        <v>359</v>
+      </c>
+      <c r="C125" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>479</v>
+      </c>
+      <c r="B126" t="s">
+        <v>360</v>
+      </c>
+      <c r="C126" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>479</v>
+      </c>
+      <c r="B127" t="s">
+        <v>361</v>
+      </c>
+      <c r="C127" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>479</v>
+      </c>
+      <c r="B128" t="s">
+        <v>362</v>
+      </c>
+      <c r="C128" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>479</v>
+      </c>
+      <c r="B129" t="s">
+        <v>390</v>
+      </c>
+      <c r="C129" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>479</v>
+      </c>
+      <c r="B130" t="s">
+        <v>389</v>
+      </c>
+      <c r="C130" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>479</v>
+      </c>
+      <c r="B131" t="s">
+        <v>388</v>
+      </c>
+      <c r="C131" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>479</v>
+      </c>
+      <c r="B132" t="s">
+        <v>363</v>
+      </c>
+      <c r="C132" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>479</v>
+      </c>
+      <c r="B133" t="s">
+        <v>364</v>
+      </c>
+      <c r="C133" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>479</v>
+      </c>
+      <c r="B134" t="s">
+        <v>365</v>
+      </c>
+      <c r="C134" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>479</v>
+      </c>
+      <c r="B135" t="s">
+        <v>366</v>
+      </c>
+      <c r="C135" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>479</v>
+      </c>
+      <c r="B136" t="s">
+        <v>367</v>
+      </c>
+      <c r="C136" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>479</v>
+      </c>
+      <c r="B137" t="s">
+        <v>368</v>
+      </c>
+      <c r="C137" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>479</v>
+      </c>
+      <c r="B138" t="s">
+        <v>369</v>
+      </c>
+      <c r="C138" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>479</v>
+      </c>
+      <c r="B139" t="s">
+        <v>370</v>
+      </c>
+      <c r="C139" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>479</v>
+      </c>
+      <c r="B140" t="s">
+        <v>371</v>
+      </c>
+      <c r="C140" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>479</v>
+      </c>
+      <c r="B141" t="s">
+        <v>372</v>
+      </c>
+      <c r="C141" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>479</v>
+      </c>
+      <c r="B142" t="s">
+        <v>373</v>
+      </c>
+      <c r="C142" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>479</v>
+      </c>
+      <c r="B143" t="s">
+        <v>374</v>
+      </c>
+      <c r="C143" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>479</v>
+      </c>
+      <c r="B144" t="s">
+        <v>375</v>
+      </c>
+      <c r="C144" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>479</v>
+      </c>
+      <c r="B145" t="s">
+        <v>376</v>
+      </c>
+      <c r="C145" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>479</v>
+      </c>
+      <c r="B146" t="s">
+        <v>377</v>
+      </c>
+      <c r="C146" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>479</v>
+      </c>
+      <c r="B147" t="s">
+        <v>378</v>
+      </c>
+      <c r="C147" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>479</v>
+      </c>
+      <c r="B148" t="s">
+        <v>379</v>
+      </c>
+      <c r="C148" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>479</v>
+      </c>
+      <c r="B149" t="s">
+        <v>380</v>
+      </c>
+      <c r="C149" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>479</v>
+      </c>
+      <c r="B150" t="s">
+        <v>381</v>
+      </c>
+      <c r="C150" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>479</v>
+      </c>
+      <c r="B151" t="s">
+        <v>382</v>
+      </c>
+      <c r="C151" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>479</v>
+      </c>
+      <c r="B152" t="s">
+        <v>383</v>
+      </c>
+      <c r="C152" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>479</v>
+      </c>
+      <c r="B153" t="s">
+        <v>392</v>
+      </c>
+      <c r="C153" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>479</v>
+      </c>
+      <c r="B154" t="s">
+        <v>384</v>
+      </c>
+      <c r="C154" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>479</v>
+      </c>
+      <c r="B155" t="s">
+        <v>391</v>
+      </c>
+      <c r="C155" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>479</v>
+      </c>
+      <c r="B156" t="s">
+        <v>385</v>
+      </c>
+      <c r="C156" t="s">
+        <v>478</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -31631,11 +33451,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C313"/>
   <sheetViews>
-    <sheetView topLeftCell="A140" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C159" sqref="C159"/>
     </sheetView>
   </sheetViews>
@@ -40070,7 +41890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -42177,7 +43997,7 @@
   <dimension ref="A1:G77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B77"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -43597,1572 +45417,2034 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G74"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>134</v>
       </c>
       <c r="B1" t="s">
-        <v>136</v>
+        <v>480</v>
       </c>
       <c r="C1" t="s">
-        <v>136</v>
+        <v>481</v>
       </c>
       <c r="D1" t="s">
+        <v>480</v>
+      </c>
+      <c r="E1" t="s">
+        <v>481</v>
+      </c>
+      <c r="F1" t="s">
         <v>462</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>463</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>474</v>
       </c>
       <c r="B2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" t="s">
         <v>471</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" t="s">
         <v>320</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>1.2631578947368421E-2</v>
       </c>
-      <c r="G2">
-        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(C2,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
+      <c r="I2">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(E2,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>1.2631578947368421E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>474</v>
       </c>
       <c r="B3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" t="s">
         <v>471</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" t="s">
         <v>321</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>1.1345029239766082E-2</v>
       </c>
-      <c r="G3">
-        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(C3,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
+      <c r="I3">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(E3,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>1.1345029239766082E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>474</v>
       </c>
       <c r="B4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" t="s">
         <v>471</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" t="s">
         <v>322</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>2.1052631578947368E-2</v>
       </c>
-      <c r="G4">
-        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(C4,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
+      <c r="I4">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(E4,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>2.1052631578947368E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>474</v>
       </c>
       <c r="B5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" t="s">
         <v>471</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" t="s">
         <v>323</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>8.6549707602339189E-3</v>
       </c>
-      <c r="G5">
-        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(C5,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
+      <c r="I5">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(E5,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>8.6549707602339189E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>474</v>
       </c>
       <c r="B6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" t="s">
         <v>471</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" t="s">
         <v>324</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>8.3040935672514613E-3</v>
       </c>
-      <c r="G6">
-        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(C6,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
+      <c r="I6">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(E6,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>8.3040935672514613E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>474</v>
       </c>
       <c r="B7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" t="s">
         <v>471</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" t="s">
         <v>325</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>1.5906432748538011E-2</v>
       </c>
-      <c r="G7">
-        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(C7,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
+      <c r="I7">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(E7,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>1.5906432748538011E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>474</v>
       </c>
       <c r="B8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" t="s">
         <v>471</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" t="s">
         <v>326</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>1.4619883040935672E-2</v>
       </c>
-      <c r="G8">
-        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(C8,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
+      <c r="I8">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(E8,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>1.4619883040935672E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>474</v>
       </c>
       <c r="B9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" t="s">
         <v>471</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" t="s">
         <v>327</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>0.02</v>
       </c>
-      <c r="G9">
-        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(C9,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
+      <c r="I9">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(E9,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>0.02</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>474</v>
       </c>
       <c r="B10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" t="s">
         <v>471</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E10" t="s">
         <v>328</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>2.046783625730994E-2</v>
       </c>
-      <c r="G10">
-        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(C10,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
+      <c r="I10">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(E10,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>2.046783625730994E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>474</v>
       </c>
       <c r="B11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" t="s">
         <v>471</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
+        <v>136</v>
+      </c>
+      <c r="E11" t="s">
         <v>329</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>2.2807017543859651E-2</v>
       </c>
-      <c r="G11">
-        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(C11,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
+      <c r="I11">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(E11,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>2.2807017543859651E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>474</v>
       </c>
       <c r="B12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" t="s">
         <v>471</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E12" t="s">
         <v>330</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <v>0</v>
       </c>
-      <c r="G12">
-        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(C12,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
+      <c r="I12">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(E12,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>474</v>
       </c>
       <c r="B13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" t="s">
         <v>471</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E13" t="s">
         <v>331</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E13">
+      <c r="G13">
         <v>0</v>
       </c>
-      <c r="G13">
-        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(C13,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
+      <c r="I13">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(E13,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>474</v>
       </c>
       <c r="B14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" t="s">
         <v>471</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" t="s">
         <v>332</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>3.0994152046783626E-2</v>
       </c>
-      <c r="G14">
-        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(C14,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
+      <c r="I14">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(E14,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>3.0994152046783626E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>474</v>
       </c>
       <c r="B15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" t="s">
         <v>471</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
+        <v>136</v>
+      </c>
+      <c r="E15" t="s">
         <v>333</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E15">
+      <c r="G15">
         <v>2.2690058479532163E-2</v>
       </c>
-      <c r="G15">
-        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(C15,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
+      <c r="I15">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(E15,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>2.2690058479532163E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>474</v>
       </c>
       <c r="B16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" t="s">
         <v>471</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16" t="s">
         <v>334</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E16">
+      <c r="G16">
         <v>3.7076023391812866E-2</v>
       </c>
-      <c r="G16">
-        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(C16,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
+      <c r="I16">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(E16,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>3.7076023391812866E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>474</v>
       </c>
       <c r="B17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" t="s">
         <v>471</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
+        <v>136</v>
+      </c>
+      <c r="E17" t="s">
         <v>335</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E17">
+      <c r="G17">
         <v>1.1695906432748537E-2</v>
       </c>
-      <c r="G17">
-        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(C17,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
+      <c r="I17">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(E17,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>1.1695906432748537E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>474</v>
       </c>
       <c r="B18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" t="s">
         <v>471</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
+        <v>136</v>
+      </c>
+      <c r="E18" t="s">
         <v>336</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="F18" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E18">
+      <c r="G18">
         <v>0</v>
       </c>
-      <c r="G18">
-        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(C18,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
+      <c r="I18">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(E18,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>474</v>
       </c>
       <c r="B19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" t="s">
         <v>471</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
+        <v>136</v>
+      </c>
+      <c r="E19" t="s">
         <v>337</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="F19" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E19">
+      <c r="G19">
         <v>3.8947368421052633E-2</v>
       </c>
-      <c r="G19">
-        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(C19,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
+      <c r="I19">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(E19,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>3.8947368421052633E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>474</v>
       </c>
       <c r="B20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" t="s">
         <v>471</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
+        <v>136</v>
+      </c>
+      <c r="E20" t="s">
         <v>338</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="F20" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E20">
+      <c r="G20">
         <v>2.1169590643274852E-2</v>
       </c>
-      <c r="G20">
-        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(C20,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
+      <c r="I20">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(E20,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>2.1169590643274852E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>474</v>
       </c>
       <c r="B21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" t="s">
         <v>471</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
+        <v>136</v>
+      </c>
+      <c r="E21" t="s">
         <v>339</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="F21" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E21">
+      <c r="G21">
         <v>1.4970760233918129E-2</v>
       </c>
-      <c r="G21">
-        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(C21,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
+      <c r="I21">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(E21,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>1.4970760233918129E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>474</v>
       </c>
       <c r="B22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22" t="s">
         <v>471</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
+        <v>136</v>
+      </c>
+      <c r="E22" t="s">
         <v>340</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="F22" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E22">
+      <c r="G22">
         <v>0</v>
       </c>
-      <c r="G22">
-        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(C22,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
+      <c r="I22">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(E22,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>474</v>
       </c>
       <c r="B23" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" t="s">
         <v>471</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
+        <v>136</v>
+      </c>
+      <c r="E23" t="s">
         <v>387</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="F23" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E23">
+      <c r="G23">
         <v>0</v>
       </c>
-      <c r="G23">
-        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(C23,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
+      <c r="I23">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(E23,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>474</v>
       </c>
       <c r="B24" t="s">
+        <v>136</v>
+      </c>
+      <c r="C24" t="s">
         <v>471</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
+        <v>136</v>
+      </c>
+      <c r="E24" t="s">
         <v>341</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="F24" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E24">
+      <c r="G24">
         <v>0</v>
       </c>
-      <c r="G24">
-        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(C24,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
+      <c r="I24">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(E24,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>474</v>
       </c>
       <c r="B25" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" t="s">
         <v>471</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
+        <v>136</v>
+      </c>
+      <c r="E25" t="s">
         <v>386</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="F25" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E25">
+      <c r="G25">
         <v>0</v>
       </c>
-      <c r="G25">
-        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(C25,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
+      <c r="I25">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(E25,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>474</v>
       </c>
       <c r="B26" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" t="s">
         <v>471</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
+        <v>136</v>
+      </c>
+      <c r="E26" t="s">
         <v>342</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="F26" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E26">
+      <c r="G26">
         <v>1.2631578947368421E-2</v>
       </c>
-      <c r="G26">
-        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(C26,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
+      <c r="I26">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(E26,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>1.2631578947368421E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>474</v>
       </c>
       <c r="B27" t="s">
+        <v>136</v>
+      </c>
+      <c r="C27" t="s">
         <v>471</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
+        <v>136</v>
+      </c>
+      <c r="E27" t="s">
         <v>343</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="F27" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E27">
+      <c r="G27">
         <v>1.1345029239766082E-2</v>
       </c>
-      <c r="G27">
-        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(C27,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
+      <c r="I27">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(E27,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>1.1345029239766082E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>474</v>
       </c>
       <c r="B28" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" t="s">
         <v>471</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
+        <v>136</v>
+      </c>
+      <c r="E28" t="s">
         <v>344</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="F28" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E28">
+      <c r="G28">
         <v>2.1052631578947368E-2</v>
       </c>
-      <c r="G28">
-        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(C28,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
+      <c r="I28">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(E28,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>2.1052631578947368E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>474</v>
       </c>
       <c r="B29" t="s">
+        <v>136</v>
+      </c>
+      <c r="C29" t="s">
         <v>471</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
+        <v>136</v>
+      </c>
+      <c r="E29" t="s">
         <v>345</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="F29" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E29">
+      <c r="G29">
         <v>8.6549707602339189E-3</v>
       </c>
-      <c r="G29">
-        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(C29,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
+      <c r="I29">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(E29,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>8.6549707602339189E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>474</v>
       </c>
       <c r="B30" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" t="s">
         <v>471</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
+        <v>136</v>
+      </c>
+      <c r="E30" t="s">
         <v>346</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="F30" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E30">
+      <c r="G30">
         <v>8.3040935672514613E-3</v>
       </c>
-      <c r="G30">
-        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(C30,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
+      <c r="I30">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(E30,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>8.3040935672514613E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>474</v>
       </c>
       <c r="B31" t="s">
+        <v>136</v>
+      </c>
+      <c r="C31" t="s">
         <v>471</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
+        <v>136</v>
+      </c>
+      <c r="E31" t="s">
         <v>347</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="F31" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E31">
+      <c r="G31">
         <v>1.5906432748538011E-2</v>
       </c>
-      <c r="G31">
-        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(C31,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
+      <c r="I31">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(E31,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>1.5906432748538011E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>474</v>
       </c>
       <c r="B32" t="s">
+        <v>136</v>
+      </c>
+      <c r="C32" t="s">
         <v>471</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
+        <v>136</v>
+      </c>
+      <c r="E32" t="s">
         <v>348</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="F32" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E32">
+      <c r="G32">
         <v>1.4619883040935672E-2</v>
       </c>
-      <c r="G32">
-        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(C32,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
+      <c r="I32">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(E32,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>1.4619883040935672E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>474</v>
       </c>
       <c r="B33" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" t="s">
         <v>471</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
+        <v>136</v>
+      </c>
+      <c r="E33" t="s">
         <v>349</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="F33" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E33">
+      <c r="G33">
         <v>0.02</v>
       </c>
-      <c r="G33">
-        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(C33,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
+      <c r="I33">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(E33,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>0.02</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>474</v>
       </c>
       <c r="B34" t="s">
+        <v>136</v>
+      </c>
+      <c r="C34" t="s">
         <v>471</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
+        <v>136</v>
+      </c>
+      <c r="E34" t="s">
         <v>350</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="F34" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E34">
+      <c r="G34">
         <v>2.046783625730994E-2</v>
       </c>
-      <c r="G34">
-        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(C34,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
+      <c r="I34">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(E34,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>2.046783625730994E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>474</v>
       </c>
       <c r="B35" t="s">
+        <v>136</v>
+      </c>
+      <c r="C35" t="s">
         <v>471</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
+        <v>136</v>
+      </c>
+      <c r="E35" t="s">
         <v>351</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="F35" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E35">
+      <c r="G35">
         <v>2.2807017543859651E-2</v>
       </c>
-      <c r="G35">
-        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(C35,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
+      <c r="I35">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(E35,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>2.2807017543859651E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>474</v>
       </c>
       <c r="B36" t="s">
+        <v>136</v>
+      </c>
+      <c r="C36" t="s">
         <v>471</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
+        <v>136</v>
+      </c>
+      <c r="E36" t="s">
         <v>352</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="F36" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E36">
+      <c r="G36">
         <v>0</v>
       </c>
-      <c r="G36">
-        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(C36,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
+      <c r="I36">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(E36,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>474</v>
       </c>
       <c r="B37" t="s">
+        <v>136</v>
+      </c>
+      <c r="C37" t="s">
         <v>471</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
+        <v>136</v>
+      </c>
+      <c r="E37" t="s">
         <v>353</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="F37" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E37">
+      <c r="G37">
         <v>0</v>
       </c>
-      <c r="G37">
-        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(C37,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
+      <c r="I37">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(E37,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>474</v>
       </c>
       <c r="B38" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" t="s">
         <v>471</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
+        <v>136</v>
+      </c>
+      <c r="E38" t="s">
         <v>354</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="F38" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E38">
+      <c r="G38">
         <v>3.0994152046783626E-2</v>
       </c>
-      <c r="G38">
-        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(C38,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
+      <c r="I38">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(E38,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>3.0994152046783626E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>474</v>
       </c>
       <c r="B39" t="s">
+        <v>136</v>
+      </c>
+      <c r="C39" t="s">
         <v>471</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
+        <v>136</v>
+      </c>
+      <c r="E39" t="s">
         <v>355</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="F39" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E39">
+      <c r="G39">
         <v>2.2690058479532163E-2</v>
       </c>
-      <c r="G39">
-        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(C39,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
+      <c r="I39">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(E39,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>2.2690058479532163E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>474</v>
       </c>
       <c r="B40" t="s">
+        <v>136</v>
+      </c>
+      <c r="C40" t="s">
         <v>471</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
+        <v>136</v>
+      </c>
+      <c r="E40" t="s">
         <v>356</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="F40" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E40">
+      <c r="G40">
         <v>3.7076023391812866E-2</v>
       </c>
-      <c r="G40">
-        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(C40,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
+      <c r="I40">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(E40,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>3.7076023391812866E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>474</v>
       </c>
       <c r="B41" t="s">
+        <v>136</v>
+      </c>
+      <c r="C41" t="s">
         <v>471</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
+        <v>136</v>
+      </c>
+      <c r="E41" t="s">
         <v>357</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="F41" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E41">
+      <c r="G41">
         <v>1.1695906432748537E-2</v>
       </c>
-      <c r="G41">
-        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(C41,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
+      <c r="I41">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(E41,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>1.1695906432748537E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>474</v>
       </c>
       <c r="B42" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42" t="s">
         <v>471</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
+        <v>136</v>
+      </c>
+      <c r="E42" t="s">
         <v>358</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="F42" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E42">
+      <c r="G42">
         <v>0</v>
       </c>
-      <c r="G42">
-        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(C42,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
+      <c r="I42">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(E42,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>474</v>
       </c>
       <c r="B43" t="s">
+        <v>136</v>
+      </c>
+      <c r="C43" t="s">
         <v>471</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
+        <v>136</v>
+      </c>
+      <c r="E43" t="s">
         <v>359</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="F43" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E43">
+      <c r="G43">
         <v>3.8947368421052633E-2</v>
       </c>
-      <c r="G43">
-        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(C43,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
+      <c r="I43">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(E43,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>3.8947368421052633E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>474</v>
       </c>
       <c r="B44" t="s">
+        <v>136</v>
+      </c>
+      <c r="C44" t="s">
         <v>471</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
+        <v>136</v>
+      </c>
+      <c r="E44" t="s">
         <v>360</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="F44" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E44">
+      <c r="G44">
         <v>2.1169590643274852E-2</v>
       </c>
-      <c r="G44">
-        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(C44,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
+      <c r="I44">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(E44,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>2.1169590643274852E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>474</v>
       </c>
       <c r="B45" t="s">
+        <v>136</v>
+      </c>
+      <c r="C45" t="s">
         <v>471</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
+        <v>136</v>
+      </c>
+      <c r="E45" t="s">
         <v>361</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="F45" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E45">
+      <c r="G45">
         <v>1.4970760233918129E-2</v>
       </c>
-      <c r="G45">
-        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(C45,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
+      <c r="I45">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(E45,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>1.4970760233918129E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>474</v>
       </c>
       <c r="B46" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46" t="s">
         <v>471</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
+        <v>136</v>
+      </c>
+      <c r="E46" t="s">
         <v>362</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="F46" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E46">
+      <c r="G46">
         <v>0</v>
       </c>
-      <c r="G46">
-        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(C46,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
+      <c r="I46">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(E46,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>474</v>
       </c>
       <c r="B47" t="s">
+        <v>136</v>
+      </c>
+      <c r="C47" t="s">
         <v>471</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
+        <v>136</v>
+      </c>
+      <c r="E47" t="s">
         <v>390</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="F47" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E47">
+      <c r="G47">
         <v>0</v>
       </c>
-      <c r="G47">
-        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(C47,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
+      <c r="I47">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(E47,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>474</v>
       </c>
       <c r="B48" t="s">
+        <v>136</v>
+      </c>
+      <c r="C48" t="s">
         <v>471</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
+        <v>136</v>
+      </c>
+      <c r="E48" t="s">
         <v>389</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="F48" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E48">
+      <c r="G48">
         <v>0</v>
       </c>
-      <c r="G48">
-        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(C48,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
+      <c r="I48">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(E48,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>474</v>
       </c>
       <c r="B49" t="s">
+        <v>136</v>
+      </c>
+      <c r="C49" t="s">
         <v>471</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
+        <v>136</v>
+      </c>
+      <c r="E49" t="s">
         <v>388</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="F49" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E49">
+      <c r="G49">
         <v>0</v>
       </c>
-      <c r="G49">
-        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(C49,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
+      <c r="I49">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(E49,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>474</v>
       </c>
       <c r="B50" t="s">
+        <v>136</v>
+      </c>
+      <c r="C50" t="s">
         <v>471</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
+        <v>136</v>
+      </c>
+      <c r="E50" t="s">
         <v>363</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="F50" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E50">
+      <c r="G50">
         <v>1.2631578947368421E-2</v>
       </c>
-      <c r="G50">
-        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(C50,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
+      <c r="I50">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(E50,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>1.2631578947368421E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>474</v>
       </c>
       <c r="B51" t="s">
+        <v>136</v>
+      </c>
+      <c r="C51" t="s">
         <v>471</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
+        <v>136</v>
+      </c>
+      <c r="E51" t="s">
         <v>364</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="F51" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E51">
+      <c r="G51">
         <v>1.1345029239766082E-2</v>
       </c>
-      <c r="G51">
-        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(C51,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
+      <c r="I51">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(E51,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>1.1345029239766082E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>474</v>
       </c>
       <c r="B52" t="s">
+        <v>136</v>
+      </c>
+      <c r="C52" t="s">
         <v>471</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
+        <v>136</v>
+      </c>
+      <c r="E52" t="s">
         <v>365</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="F52" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E52">
+      <c r="G52">
         <v>2.1052631578947368E-2</v>
       </c>
-      <c r="G52">
-        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(C52,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
+      <c r="I52">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(E52,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>2.1052631578947368E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>474</v>
       </c>
       <c r="B53" t="s">
+        <v>136</v>
+      </c>
+      <c r="C53" t="s">
         <v>471</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
+        <v>136</v>
+      </c>
+      <c r="E53" t="s">
         <v>366</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="F53" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E53">
+      <c r="G53">
         <v>8.6549707602339189E-3</v>
       </c>
-      <c r="G53">
-        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(C53,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
+      <c r="I53">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(E53,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>8.6549707602339189E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>474</v>
       </c>
       <c r="B54" t="s">
+        <v>136</v>
+      </c>
+      <c r="C54" t="s">
         <v>471</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
+        <v>136</v>
+      </c>
+      <c r="E54" t="s">
         <v>367</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="F54" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E54">
+      <c r="G54">
         <v>8.3040935672514613E-3</v>
       </c>
-      <c r="G54">
-        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(C54,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
+      <c r="I54">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(E54,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>8.3040935672514613E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>474</v>
       </c>
       <c r="B55" t="s">
+        <v>136</v>
+      </c>
+      <c r="C55" t="s">
         <v>471</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
+        <v>136</v>
+      </c>
+      <c r="E55" t="s">
         <v>368</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="F55" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E55">
+      <c r="G55">
         <v>1.5906432748538011E-2</v>
       </c>
-      <c r="G55">
-        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(C55,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
+      <c r="I55">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(E55,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>1.5906432748538011E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>474</v>
       </c>
       <c r="B56" t="s">
+        <v>136</v>
+      </c>
+      <c r="C56" t="s">
         <v>471</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
+        <v>136</v>
+      </c>
+      <c r="E56" t="s">
         <v>369</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="F56" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E56">
+      <c r="G56">
         <v>1.4619883040935672E-2</v>
       </c>
-      <c r="G56">
-        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(C56,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
+      <c r="I56">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(E56,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>1.4619883040935672E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>474</v>
       </c>
       <c r="B57" t="s">
+        <v>136</v>
+      </c>
+      <c r="C57" t="s">
         <v>471</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
+        <v>136</v>
+      </c>
+      <c r="E57" t="s">
         <v>370</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="F57" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E57">
+      <c r="G57">
         <v>0.02</v>
       </c>
-      <c r="G57">
-        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(C57,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
+      <c r="I57">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(E57,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>0.02</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>474</v>
       </c>
       <c r="B58" t="s">
+        <v>136</v>
+      </c>
+      <c r="C58" t="s">
         <v>471</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
+        <v>136</v>
+      </c>
+      <c r="E58" t="s">
         <v>371</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="F58" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E58">
+      <c r="G58">
         <v>2.046783625730994E-2</v>
       </c>
-      <c r="G58">
-        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(C58,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
+      <c r="I58">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(E58,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>2.046783625730994E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>474</v>
       </c>
       <c r="B59" t="s">
+        <v>136</v>
+      </c>
+      <c r="C59" t="s">
         <v>471</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
+        <v>136</v>
+      </c>
+      <c r="E59" t="s">
         <v>372</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="F59" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E59">
+      <c r="G59">
         <v>2.2807017543859651E-2</v>
       </c>
-      <c r="G59">
-        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(C59,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
+      <c r="I59">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(E59,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>2.2807017543859651E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>474</v>
       </c>
       <c r="B60" t="s">
+        <v>136</v>
+      </c>
+      <c r="C60" t="s">
         <v>471</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
+        <v>136</v>
+      </c>
+      <c r="E60" t="s">
         <v>373</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="F60" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E60">
+      <c r="G60">
         <v>0</v>
       </c>
-      <c r="G60">
-        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(C60,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
+      <c r="I60">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(E60,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>474</v>
       </c>
       <c r="B61" t="s">
+        <v>136</v>
+      </c>
+      <c r="C61" t="s">
         <v>471</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
+        <v>136</v>
+      </c>
+      <c r="E61" t="s">
         <v>374</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="F61" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E61">
+      <c r="G61">
         <v>0</v>
       </c>
-      <c r="G61">
-        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(C61,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
+      <c r="I61">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(E61,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>474</v>
       </c>
       <c r="B62" t="s">
+        <v>136</v>
+      </c>
+      <c r="C62" t="s">
         <v>471</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
+        <v>136</v>
+      </c>
+      <c r="E62" t="s">
         <v>375</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="F62" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E62">
+      <c r="G62">
         <v>3.0994152046783626E-2</v>
       </c>
-      <c r="G62">
-        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(C62,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
+      <c r="I62">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(E62,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>3.0994152046783626E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>474</v>
       </c>
       <c r="B63" t="s">
+        <v>136</v>
+      </c>
+      <c r="C63" t="s">
         <v>471</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
+        <v>136</v>
+      </c>
+      <c r="E63" t="s">
         <v>376</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="F63" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E63">
+      <c r="G63">
         <v>2.2690058479532163E-2</v>
       </c>
-      <c r="G63">
-        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(C63,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
+      <c r="I63">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(E63,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>2.2690058479532163E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>474</v>
       </c>
       <c r="B64" t="s">
+        <v>136</v>
+      </c>
+      <c r="C64" t="s">
         <v>471</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
+        <v>136</v>
+      </c>
+      <c r="E64" t="s">
         <v>377</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="F64" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E64">
+      <c r="G64">
         <v>3.7076023391812866E-2</v>
       </c>
-      <c r="G64">
-        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(C64,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
+      <c r="I64">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(E64,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>3.7076023391812866E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>474</v>
       </c>
       <c r="B65" t="s">
+        <v>136</v>
+      </c>
+      <c r="C65" t="s">
         <v>471</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
+        <v>136</v>
+      </c>
+      <c r="E65" t="s">
         <v>378</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="F65" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E65">
+      <c r="G65">
         <v>1.1695906432748537E-2</v>
       </c>
-      <c r="G65">
-        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(C65,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
+      <c r="I65">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(E65,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>1.1695906432748537E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>474</v>
       </c>
       <c r="B66" t="s">
+        <v>136</v>
+      </c>
+      <c r="C66" t="s">
         <v>471</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
+        <v>136</v>
+      </c>
+      <c r="E66" t="s">
         <v>379</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="F66" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E66">
+      <c r="G66">
         <v>0</v>
       </c>
-      <c r="G66">
-        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(C66,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
+      <c r="I66">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(E66,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>474</v>
       </c>
       <c r="B67" t="s">
+        <v>136</v>
+      </c>
+      <c r="C67" t="s">
         <v>471</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
+        <v>136</v>
+      </c>
+      <c r="E67" t="s">
         <v>380</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="F67" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E67">
+      <c r="G67">
         <v>3.8947368421052633E-2</v>
       </c>
-      <c r="G67">
-        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(C67,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
+      <c r="I67">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(E67,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>3.8947368421052633E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>474</v>
       </c>
       <c r="B68" t="s">
+        <v>136</v>
+      </c>
+      <c r="C68" t="s">
         <v>471</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
+        <v>136</v>
+      </c>
+      <c r="E68" t="s">
         <v>381</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="F68" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E68">
+      <c r="G68">
         <v>2.1169590643274852E-2</v>
       </c>
-      <c r="G68">
-        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(C68,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
+      <c r="I68">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(E68,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>2.1169590643274852E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>474</v>
       </c>
       <c r="B69" t="s">
+        <v>136</v>
+      </c>
+      <c r="C69" t="s">
         <v>471</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
+        <v>136</v>
+      </c>
+      <c r="E69" t="s">
         <v>382</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="F69" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E69">
+      <c r="G69">
         <v>1.4970760233918129E-2</v>
       </c>
-      <c r="G69">
-        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(C69,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
+      <c r="I69">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(E69,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>1.4970760233918129E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>474</v>
       </c>
       <c r="B70" t="s">
+        <v>136</v>
+      </c>
+      <c r="C70" t="s">
         <v>471</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
+        <v>136</v>
+      </c>
+      <c r="E70" t="s">
         <v>383</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="F70" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E70">
+      <c r="G70">
         <v>0</v>
       </c>
-      <c r="G70">
-        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(C70,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
+      <c r="I70">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(E70,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>474</v>
       </c>
       <c r="B71" t="s">
+        <v>136</v>
+      </c>
+      <c r="C71" t="s">
         <v>471</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
+        <v>136</v>
+      </c>
+      <c r="E71" t="s">
         <v>392</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="F71" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E71">
+      <c r="G71">
         <v>0</v>
       </c>
-      <c r="G71">
-        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(C71,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
+      <c r="I71">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(E71,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>474</v>
       </c>
       <c r="B72" t="s">
+        <v>136</v>
+      </c>
+      <c r="C72" t="s">
         <v>471</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
+        <v>136</v>
+      </c>
+      <c r="E72" t="s">
         <v>384</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="F72" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E72">
+      <c r="G72">
         <v>0</v>
       </c>
-      <c r="G72">
-        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(C72,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
+      <c r="I72">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(E72,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>474</v>
       </c>
       <c r="B73" t="s">
+        <v>136</v>
+      </c>
+      <c r="C73" t="s">
         <v>471</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
+        <v>136</v>
+      </c>
+      <c r="E73" t="s">
         <v>391</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="F73" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E73">
+      <c r="G73">
         <v>0</v>
       </c>
-      <c r="G73">
-        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(C73,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
+      <c r="I73">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(E73,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>474</v>
       </c>
       <c r="B74" t="s">
+        <v>136</v>
+      </c>
+      <c r="C74" t="s">
         <v>471</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
+        <v>136</v>
+      </c>
+      <c r="E74" t="s">
         <v>385</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="F74" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E74">
+      <c r="G74">
         <v>0</v>
       </c>
-      <c r="G74">
-        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(C74,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
+      <c r="I74">
+        <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(E74,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>479</v>
+      </c>
+      <c r="B75" t="s">
+        <v>136</v>
+      </c>
+      <c r="C75" t="s">
+        <v>471</v>
+      </c>
+      <c r="D75" t="s">
+        <v>477</v>
+      </c>
+      <c r="E75" t="s">
+        <v>478</v>
       </c>
     </row>
   </sheetData>

--- a/spine_rts-gmlc/datasets/branch_bus_detailed.xlsx
+++ b/spine_rts-gmlc/datasets/branch_bus_detailed.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="branch" sheetId="1" r:id="rId1"/>
@@ -1468,9 +1468,6 @@
     <t>stochastic_structure</t>
   </si>
   <si>
-    <t>default_none</t>
-  </si>
-  <si>
     <t>node__stochastic_structure</t>
   </si>
   <si>
@@ -1490,6 +1487,9 @@
   </si>
   <si>
     <t>weight_relative_to_parents</t>
+  </si>
+  <si>
+    <t>default</t>
   </si>
 </sst>
 </file>
@@ -28223,7 +28223,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28240,7 +28240,7 @@
         <v>476</v>
       </c>
       <c r="C1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D1" t="s">
         <v>462</v>
@@ -28251,16 +28251,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>481</v>
+      </c>
+      <c r="B2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C2" t="s">
         <v>482</v>
       </c>
-      <c r="B2" t="s">
-        <v>477</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>483</v>
-      </c>
-      <c r="D2" t="s">
-        <v>484</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -28276,7 +28276,7 @@
   <dimension ref="A1:C156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C2" sqref="C2:C156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28299,1707 +28299,1707 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B2" t="s">
         <v>397</v>
       </c>
       <c r="C2" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B3" t="s">
         <v>236</v>
       </c>
       <c r="C3" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B4" t="s">
         <v>237</v>
       </c>
       <c r="C4" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B5" t="s">
         <v>238</v>
       </c>
       <c r="C5" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B6" t="s">
         <v>239</v>
       </c>
       <c r="C6" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B7" t="s">
         <v>240</v>
       </c>
       <c r="C7" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B8" t="s">
         <v>241</v>
       </c>
       <c r="C8" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B9" t="s">
         <v>242</v>
       </c>
       <c r="C9" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B10" t="s">
         <v>243</v>
       </c>
       <c r="C10" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B11" t="s">
         <v>244</v>
       </c>
       <c r="C11" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B12" t="s">
         <v>245</v>
       </c>
       <c r="C12" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B13" t="s">
         <v>246</v>
       </c>
       <c r="C13" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B14" t="s">
         <v>247</v>
       </c>
       <c r="C14" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B15" t="s">
         <v>248</v>
       </c>
       <c r="C15" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B16" t="s">
         <v>249</v>
       </c>
       <c r="C16" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B17" t="s">
         <v>250</v>
       </c>
       <c r="C17" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B18" t="s">
         <v>251</v>
       </c>
       <c r="C18" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B19" t="s">
         <v>252</v>
       </c>
       <c r="C19" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B20" t="s">
         <v>253</v>
       </c>
       <c r="C20" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B21" t="s">
         <v>254</v>
       </c>
       <c r="C21" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B22" t="s">
         <v>255</v>
       </c>
       <c r="C22" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B23" t="s">
         <v>256</v>
       </c>
       <c r="C23" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B24" t="s">
         <v>257</v>
       </c>
       <c r="C24" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B25" t="s">
         <v>258</v>
       </c>
       <c r="C25" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B26" t="s">
         <v>259</v>
       </c>
       <c r="C26" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B27" t="s">
         <v>260</v>
       </c>
       <c r="C27" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B28" t="s">
         <v>261</v>
       </c>
       <c r="C28" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B29" t="s">
         <v>262</v>
       </c>
       <c r="C29" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B30" t="s">
         <v>263</v>
       </c>
       <c r="C30" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B31" t="s">
         <v>264</v>
       </c>
       <c r="C31" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B32" t="s">
         <v>265</v>
       </c>
       <c r="C32" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B33" t="s">
         <v>266</v>
       </c>
       <c r="C33" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B34" t="s">
         <v>267</v>
       </c>
       <c r="C34" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B35" t="s">
         <v>268</v>
       </c>
       <c r="C35" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B36" t="s">
         <v>269</v>
       </c>
       <c r="C36" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B37" t="s">
         <v>270</v>
       </c>
       <c r="C37" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B38" t="s">
         <v>271</v>
       </c>
       <c r="C38" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B39" t="s">
         <v>272</v>
       </c>
       <c r="C39" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B40" t="s">
         <v>273</v>
       </c>
       <c r="C40" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B41" t="s">
         <v>274</v>
       </c>
       <c r="C41" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B42" t="s">
         <v>275</v>
       </c>
       <c r="C42" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B43" t="s">
         <v>276</v>
       </c>
       <c r="C43" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B44" t="s">
         <v>277</v>
       </c>
       <c r="C44" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B45" t="s">
         <v>278</v>
       </c>
       <c r="C45" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B46" t="s">
         <v>279</v>
       </c>
       <c r="C46" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B47" t="s">
         <v>280</v>
       </c>
       <c r="C47" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B48" t="s">
         <v>281</v>
       </c>
       <c r="C48" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B49" t="s">
         <v>282</v>
       </c>
       <c r="C49" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B50" t="s">
         <v>283</v>
       </c>
       <c r="C50" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B51" t="s">
         <v>284</v>
       </c>
       <c r="C51" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B52" t="s">
         <v>285</v>
       </c>
       <c r="C52" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B53" t="s">
         <v>286</v>
       </c>
       <c r="C53" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B54" t="s">
         <v>287</v>
       </c>
       <c r="C54" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B55" t="s">
         <v>288</v>
       </c>
       <c r="C55" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B56" t="s">
         <v>289</v>
       </c>
       <c r="C56" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B57" t="s">
         <v>290</v>
       </c>
       <c r="C57" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B58" t="s">
         <v>291</v>
       </c>
       <c r="C58" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B59" t="s">
         <v>292</v>
       </c>
       <c r="C59" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B60" t="s">
         <v>293</v>
       </c>
       <c r="C60" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B61" t="s">
         <v>294</v>
       </c>
       <c r="C61" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B62" t="s">
         <v>295</v>
       </c>
       <c r="C62" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B63" t="s">
         <v>296</v>
       </c>
       <c r="C63" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B64" t="s">
         <v>297</v>
       </c>
       <c r="C64" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B65" t="s">
         <v>298</v>
       </c>
       <c r="C65" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B66" t="s">
         <v>299</v>
       </c>
       <c r="C66" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B67" t="s">
         <v>300</v>
       </c>
       <c r="C67" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B68" t="s">
         <v>301</v>
       </c>
       <c r="C68" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B69" t="s">
         <v>302</v>
       </c>
       <c r="C69" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B70" t="s">
         <v>303</v>
       </c>
       <c r="C70" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B71" t="s">
         <v>304</v>
       </c>
       <c r="C71" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B72" t="s">
         <v>305</v>
       </c>
       <c r="C72" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B73" t="s">
         <v>306</v>
       </c>
       <c r="C73" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B74" t="s">
         <v>307</v>
       </c>
       <c r="C74" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B75" t="s">
         <v>308</v>
       </c>
       <c r="C75" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B76" t="s">
         <v>309</v>
       </c>
       <c r="C76" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B77" t="s">
         <v>310</v>
       </c>
       <c r="C77" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B78" t="s">
         <v>311</v>
       </c>
       <c r="C78" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B79" t="s">
         <v>312</v>
       </c>
       <c r="C79" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B80" t="s">
         <v>313</v>
       </c>
       <c r="C80" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B81" t="s">
         <v>314</v>
       </c>
       <c r="C81" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B82" t="s">
         <v>315</v>
       </c>
       <c r="C82" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B83" t="s">
         <v>316</v>
       </c>
       <c r="C83" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B84" t="s">
         <v>320</v>
       </c>
       <c r="C84" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B85" t="s">
         <v>321</v>
       </c>
       <c r="C85" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B86" t="s">
         <v>322</v>
       </c>
       <c r="C86" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B87" t="s">
         <v>323</v>
       </c>
       <c r="C87" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B88" t="s">
         <v>324</v>
       </c>
       <c r="C88" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B89" t="s">
         <v>325</v>
       </c>
       <c r="C89" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B90" t="s">
         <v>326</v>
       </c>
       <c r="C90" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B91" t="s">
         <v>327</v>
       </c>
       <c r="C91" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B92" t="s">
         <v>328</v>
       </c>
       <c r="C92" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B93" t="s">
         <v>329</v>
       </c>
       <c r="C93" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B94" t="s">
         <v>330</v>
       </c>
       <c r="C94" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B95" t="s">
         <v>331</v>
       </c>
       <c r="C95" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B96" t="s">
         <v>332</v>
       </c>
       <c r="C96" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B97" t="s">
         <v>333</v>
       </c>
       <c r="C97" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B98" t="s">
         <v>334</v>
       </c>
       <c r="C98" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B99" t="s">
         <v>335</v>
       </c>
       <c r="C99" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B100" t="s">
         <v>336</v>
       </c>
       <c r="C100" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B101" t="s">
         <v>337</v>
       </c>
       <c r="C101" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B102" t="s">
         <v>338</v>
       </c>
       <c r="C102" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B103" t="s">
         <v>339</v>
       </c>
       <c r="C103" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B104" t="s">
         <v>340</v>
       </c>
       <c r="C104" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B105" t="s">
         <v>387</v>
       </c>
       <c r="C105" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B106" t="s">
         <v>341</v>
       </c>
       <c r="C106" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B107" t="s">
         <v>386</v>
       </c>
       <c r="C107" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B108" t="s">
         <v>342</v>
       </c>
       <c r="C108" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B109" t="s">
         <v>343</v>
       </c>
       <c r="C109" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B110" t="s">
         <v>344</v>
       </c>
       <c r="C110" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B111" t="s">
         <v>345</v>
       </c>
       <c r="C111" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B112" t="s">
         <v>346</v>
       </c>
       <c r="C112" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B113" t="s">
         <v>347</v>
       </c>
       <c r="C113" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B114" t="s">
         <v>348</v>
       </c>
       <c r="C114" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B115" t="s">
         <v>349</v>
       </c>
       <c r="C115" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B116" t="s">
         <v>350</v>
       </c>
       <c r="C116" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B117" t="s">
         <v>351</v>
       </c>
       <c r="C117" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B118" t="s">
         <v>352</v>
       </c>
       <c r="C118" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B119" t="s">
         <v>353</v>
       </c>
       <c r="C119" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B120" t="s">
         <v>354</v>
       </c>
       <c r="C120" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B121" t="s">
         <v>355</v>
       </c>
       <c r="C121" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B122" t="s">
         <v>356</v>
       </c>
       <c r="C122" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B123" t="s">
         <v>357</v>
       </c>
       <c r="C123" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B124" t="s">
         <v>358</v>
       </c>
       <c r="C124" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B125" t="s">
         <v>359</v>
       </c>
       <c r="C125" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B126" t="s">
         <v>360</v>
       </c>
       <c r="C126" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B127" t="s">
         <v>361</v>
       </c>
       <c r="C127" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B128" t="s">
         <v>362</v>
       </c>
       <c r="C128" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B129" t="s">
         <v>390</v>
       </c>
       <c r="C129" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B130" t="s">
         <v>389</v>
       </c>
       <c r="C130" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B131" t="s">
         <v>388</v>
       </c>
       <c r="C131" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B132" t="s">
         <v>363</v>
       </c>
       <c r="C132" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B133" t="s">
         <v>364</v>
       </c>
       <c r="C133" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B134" t="s">
         <v>365</v>
       </c>
       <c r="C134" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B135" t="s">
         <v>366</v>
       </c>
       <c r="C135" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B136" t="s">
         <v>367</v>
       </c>
       <c r="C136" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B137" t="s">
         <v>368</v>
       </c>
       <c r="C137" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B138" t="s">
         <v>369</v>
       </c>
       <c r="C138" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B139" t="s">
         <v>370</v>
       </c>
       <c r="C139" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B140" t="s">
         <v>371</v>
       </c>
       <c r="C140" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B141" t="s">
         <v>372</v>
       </c>
       <c r="C141" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B142" t="s">
         <v>373</v>
       </c>
       <c r="C142" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B143" t="s">
         <v>374</v>
       </c>
       <c r="C143" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B144" t="s">
         <v>375</v>
       </c>
       <c r="C144" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B145" t="s">
         <v>376</v>
       </c>
       <c r="C145" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B146" t="s">
         <v>377</v>
       </c>
       <c r="C146" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B147" t="s">
         <v>378</v>
       </c>
       <c r="C147" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B148" t="s">
         <v>379</v>
       </c>
       <c r="C148" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B149" t="s">
         <v>380</v>
       </c>
       <c r="C149" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B150" t="s">
         <v>381</v>
       </c>
       <c r="C150" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B151" t="s">
         <v>382</v>
       </c>
       <c r="C151" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B152" t="s">
         <v>383</v>
       </c>
       <c r="C152" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B153" t="s">
         <v>392</v>
       </c>
       <c r="C153" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B154" t="s">
         <v>384</v>
       </c>
       <c r="C154" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B155" t="s">
         <v>391</v>
       </c>
       <c r="C155" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B156" t="s">
         <v>385</v>
       </c>
       <c r="C156" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
   </sheetData>
@@ -41886,7 +41886,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="C3" sqref="C3:C123"/>
     </sheetView>
   </sheetViews>
@@ -45415,8 +45415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76:E76"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45434,16 +45434,16 @@
         <v>134</v>
       </c>
       <c r="B1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C1" t="s">
         <v>479</v>
       </c>
-      <c r="C1" t="s">
-        <v>480</v>
-      </c>
       <c r="D1" t="s">
+        <v>478</v>
+      </c>
+      <c r="E1" t="s">
         <v>479</v>
-      </c>
-      <c r="E1" t="s">
-        <v>480</v>
       </c>
       <c r="F1" t="s">
         <v>462</v>
@@ -47428,7 +47428,7 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B75" t="s">
         <v>136</v>
@@ -47440,7 +47440,7 @@
         <v>476</v>
       </c>
       <c r="E75" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
   </sheetData>

--- a/spine_rts-gmlc/datasets/branch_bus_detailed.xlsx
+++ b/spine_rts-gmlc/datasets/branch_bus_detailed.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" firstSheet="8" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="branch" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8164" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8183" uniqueCount="501">
   <si>
     <t>UID</t>
   </si>
@@ -1528,6 +1528,12 @@
   </si>
   <si>
     <t>object_group</t>
+  </si>
+  <si>
+    <t>Emission_CO2_sink</t>
+  </si>
+  <si>
+    <t>emission_CO2</t>
   </si>
 </sst>
 </file>
@@ -8178,10 +8184,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K158"/>
+  <dimension ref="A1:K159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A3" sqref="A3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8267,10 +8273,10 @@
         <v>235</v>
       </c>
       <c r="D3" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="E3" t="s">
-        <v>464</v>
+        <v>500</v>
       </c>
       <c r="F3" t="s">
         <v>481</v>
@@ -8293,7 +8299,7 @@
         <v>235</v>
       </c>
       <c r="D4" t="s">
-        <v>397</v>
+        <v>493</v>
       </c>
       <c r="E4" t="s">
         <v>464</v>
@@ -8319,10 +8325,10 @@
         <v>235</v>
       </c>
       <c r="D5" t="s">
-        <v>320</v>
+        <v>397</v>
       </c>
       <c r="E5" t="s">
-        <v>233</v>
+        <v>464</v>
       </c>
       <c r="F5" t="s">
         <v>481</v>
@@ -8345,7 +8351,7 @@
         <v>235</v>
       </c>
       <c r="D6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E6" t="s">
         <v>233</v>
@@ -8371,7 +8377,7 @@
         <v>235</v>
       </c>
       <c r="D7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E7" t="s">
         <v>233</v>
@@ -8397,7 +8403,7 @@
         <v>235</v>
       </c>
       <c r="D8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E8" t="s">
         <v>233</v>
@@ -8423,7 +8429,7 @@
         <v>235</v>
       </c>
       <c r="D9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E9" t="s">
         <v>233</v>
@@ -8449,7 +8455,7 @@
         <v>235</v>
       </c>
       <c r="D10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E10" t="s">
         <v>233</v>
@@ -8475,7 +8481,7 @@
         <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E11" t="s">
         <v>233</v>
@@ -8501,7 +8507,7 @@
         <v>235</v>
       </c>
       <c r="D12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E12" t="s">
         <v>233</v>
@@ -8527,7 +8533,7 @@
         <v>235</v>
       </c>
       <c r="D13" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E13" t="s">
         <v>233</v>
@@ -8553,7 +8559,7 @@
         <v>235</v>
       </c>
       <c r="D14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E14" t="s">
         <v>233</v>
@@ -8579,7 +8585,7 @@
         <v>235</v>
       </c>
       <c r="D15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E15" t="s">
         <v>233</v>
@@ -8605,7 +8611,7 @@
         <v>235</v>
       </c>
       <c r="D16" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E16" t="s">
         <v>233</v>
@@ -8631,7 +8637,7 @@
         <v>235</v>
       </c>
       <c r="D17" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E17" t="s">
         <v>233</v>
@@ -8657,7 +8663,7 @@
         <v>235</v>
       </c>
       <c r="D18" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E18" t="s">
         <v>233</v>
@@ -8683,7 +8689,7 @@
         <v>235</v>
       </c>
       <c r="D19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E19" t="s">
         <v>233</v>
@@ -8709,7 +8715,7 @@
         <v>235</v>
       </c>
       <c r="D20" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E20" t="s">
         <v>233</v>
@@ -8735,7 +8741,7 @@
         <v>235</v>
       </c>
       <c r="D21" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E21" t="s">
         <v>233</v>
@@ -8761,7 +8767,7 @@
         <v>235</v>
       </c>
       <c r="D22" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E22" t="s">
         <v>233</v>
@@ -8787,7 +8793,7 @@
         <v>235</v>
       </c>
       <c r="D23" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E23" t="s">
         <v>233</v>
@@ -8813,7 +8819,7 @@
         <v>235</v>
       </c>
       <c r="D24" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E24" t="s">
         <v>233</v>
@@ -8839,7 +8845,7 @@
         <v>235</v>
       </c>
       <c r="D25" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E25" t="s">
         <v>233</v>
@@ -8865,7 +8871,7 @@
         <v>235</v>
       </c>
       <c r="D26" t="s">
-        <v>387</v>
+        <v>340</v>
       </c>
       <c r="E26" t="s">
         <v>233</v>
@@ -8891,7 +8897,7 @@
         <v>235</v>
       </c>
       <c r="D27" t="s">
-        <v>341</v>
+        <v>387</v>
       </c>
       <c r="E27" t="s">
         <v>233</v>
@@ -8917,7 +8923,7 @@
         <v>235</v>
       </c>
       <c r="D28" t="s">
-        <v>386</v>
+        <v>341</v>
       </c>
       <c r="E28" t="s">
         <v>233</v>
@@ -8943,7 +8949,7 @@
         <v>235</v>
       </c>
       <c r="D29" t="s">
-        <v>342</v>
+        <v>386</v>
       </c>
       <c r="E29" t="s">
         <v>233</v>
@@ -8969,7 +8975,7 @@
         <v>235</v>
       </c>
       <c r="D30" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E30" t="s">
         <v>233</v>
@@ -8995,7 +9001,7 @@
         <v>235</v>
       </c>
       <c r="D31" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E31" t="s">
         <v>233</v>
@@ -9021,7 +9027,7 @@
         <v>235</v>
       </c>
       <c r="D32" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E32" t="s">
         <v>233</v>
@@ -9047,7 +9053,7 @@
         <v>235</v>
       </c>
       <c r="D33" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E33" t="s">
         <v>233</v>
@@ -9073,7 +9079,7 @@
         <v>235</v>
       </c>
       <c r="D34" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E34" t="s">
         <v>233</v>
@@ -9099,7 +9105,7 @@
         <v>235</v>
       </c>
       <c r="D35" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E35" t="s">
         <v>233</v>
@@ -9125,7 +9131,7 @@
         <v>235</v>
       </c>
       <c r="D36" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E36" t="s">
         <v>233</v>
@@ -9151,7 +9157,7 @@
         <v>235</v>
       </c>
       <c r="D37" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E37" t="s">
         <v>233</v>
@@ -9177,7 +9183,7 @@
         <v>235</v>
       </c>
       <c r="D38" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E38" t="s">
         <v>233</v>
@@ -9203,7 +9209,7 @@
         <v>235</v>
       </c>
       <c r="D39" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E39" t="s">
         <v>233</v>
@@ -9229,7 +9235,7 @@
         <v>235</v>
       </c>
       <c r="D40" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E40" t="s">
         <v>233</v>
@@ -9255,7 +9261,7 @@
         <v>235</v>
       </c>
       <c r="D41" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E41" t="s">
         <v>233</v>
@@ -9281,7 +9287,7 @@
         <v>235</v>
       </c>
       <c r="D42" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E42" t="s">
         <v>233</v>
@@ -9307,7 +9313,7 @@
         <v>235</v>
       </c>
       <c r="D43" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E43" t="s">
         <v>233</v>
@@ -9333,7 +9339,7 @@
         <v>235</v>
       </c>
       <c r="D44" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E44" t="s">
         <v>233</v>
@@ -9359,7 +9365,7 @@
         <v>235</v>
       </c>
       <c r="D45" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E45" t="s">
         <v>233</v>
@@ -9385,7 +9391,7 @@
         <v>235</v>
       </c>
       <c r="D46" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E46" t="s">
         <v>233</v>
@@ -9411,7 +9417,7 @@
         <v>235</v>
       </c>
       <c r="D47" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E47" t="s">
         <v>233</v>
@@ -9437,7 +9443,7 @@
         <v>235</v>
       </c>
       <c r="D48" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E48" t="s">
         <v>233</v>
@@ -9463,7 +9469,7 @@
         <v>235</v>
       </c>
       <c r="D49" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E49" t="s">
         <v>233</v>
@@ -9489,7 +9495,7 @@
         <v>235</v>
       </c>
       <c r="D50" t="s">
-        <v>390</v>
+        <v>362</v>
       </c>
       <c r="E50" t="s">
         <v>233</v>
@@ -9515,7 +9521,7 @@
         <v>235</v>
       </c>
       <c r="D51" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E51" t="s">
         <v>233</v>
@@ -9541,7 +9547,7 @@
         <v>235</v>
       </c>
       <c r="D52" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E52" t="s">
         <v>233</v>
@@ -9567,7 +9573,7 @@
         <v>235</v>
       </c>
       <c r="D53" t="s">
-        <v>363</v>
+        <v>388</v>
       </c>
       <c r="E53" t="s">
         <v>233</v>
@@ -9593,7 +9599,7 @@
         <v>235</v>
       </c>
       <c r="D54" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E54" t="s">
         <v>233</v>
@@ -9619,7 +9625,7 @@
         <v>235</v>
       </c>
       <c r="D55" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E55" t="s">
         <v>233</v>
@@ -9645,7 +9651,7 @@
         <v>235</v>
       </c>
       <c r="D56" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E56" t="s">
         <v>233</v>
@@ -9671,7 +9677,7 @@
         <v>235</v>
       </c>
       <c r="D57" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E57" t="s">
         <v>233</v>
@@ -9697,7 +9703,7 @@
         <v>235</v>
       </c>
       <c r="D58" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E58" t="s">
         <v>233</v>
@@ -9723,7 +9729,7 @@
         <v>235</v>
       </c>
       <c r="D59" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E59" t="s">
         <v>233</v>
@@ -9749,7 +9755,7 @@
         <v>235</v>
       </c>
       <c r="D60" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E60" t="s">
         <v>233</v>
@@ -9775,7 +9781,7 @@
         <v>235</v>
       </c>
       <c r="D61" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E61" t="s">
         <v>233</v>
@@ -9801,7 +9807,7 @@
         <v>235</v>
       </c>
       <c r="D62" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E62" t="s">
         <v>233</v>
@@ -9827,7 +9833,7 @@
         <v>235</v>
       </c>
       <c r="D63" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E63" t="s">
         <v>233</v>
@@ -9853,7 +9859,7 @@
         <v>235</v>
       </c>
       <c r="D64" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E64" t="s">
         <v>233</v>
@@ -9879,7 +9885,7 @@
         <v>235</v>
       </c>
       <c r="D65" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E65" t="s">
         <v>233</v>
@@ -9905,7 +9911,7 @@
         <v>235</v>
       </c>
       <c r="D66" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E66" t="s">
         <v>233</v>
@@ -9931,7 +9937,7 @@
         <v>235</v>
       </c>
       <c r="D67" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E67" t="s">
         <v>233</v>
@@ -9957,7 +9963,7 @@
         <v>235</v>
       </c>
       <c r="D68" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E68" t="s">
         <v>233</v>
@@ -9983,7 +9989,7 @@
         <v>235</v>
       </c>
       <c r="D69" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E69" t="s">
         <v>233</v>
@@ -10009,7 +10015,7 @@
         <v>235</v>
       </c>
       <c r="D70" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E70" t="s">
         <v>233</v>
@@ -10035,7 +10041,7 @@
         <v>235</v>
       </c>
       <c r="D71" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E71" t="s">
         <v>233</v>
@@ -10061,7 +10067,7 @@
         <v>235</v>
       </c>
       <c r="D72" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E72" t="s">
         <v>233</v>
@@ -10087,7 +10093,7 @@
         <v>235</v>
       </c>
       <c r="D73" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E73" t="s">
         <v>233</v>
@@ -10113,7 +10119,7 @@
         <v>235</v>
       </c>
       <c r="D74" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="E74" t="s">
         <v>233</v>
@@ -10139,7 +10145,7 @@
         <v>235</v>
       </c>
       <c r="D75" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="E75" t="s">
         <v>233</v>
@@ -10165,7 +10171,7 @@
         <v>235</v>
       </c>
       <c r="D76" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="E76" t="s">
         <v>233</v>
@@ -10191,7 +10197,7 @@
         <v>235</v>
       </c>
       <c r="D77" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="E77" t="s">
         <v>233</v>
@@ -10217,10 +10223,10 @@
         <v>235</v>
       </c>
       <c r="D78" t="s">
-        <v>236</v>
+        <v>385</v>
       </c>
       <c r="E78" t="s">
-        <v>464</v>
+        <v>233</v>
       </c>
       <c r="F78" t="s">
         <v>481</v>
@@ -10243,7 +10249,7 @@
         <v>235</v>
       </c>
       <c r="D79" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E79" t="s">
         <v>464</v>
@@ -10269,7 +10275,7 @@
         <v>235</v>
       </c>
       <c r="D80" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E80" t="s">
         <v>464</v>
@@ -10295,7 +10301,7 @@
         <v>235</v>
       </c>
       <c r="D81" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E81" t="s">
         <v>464</v>
@@ -10321,7 +10327,7 @@
         <v>235</v>
       </c>
       <c r="D82" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E82" t="s">
         <v>464</v>
@@ -10347,7 +10353,7 @@
         <v>235</v>
       </c>
       <c r="D83" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E83" t="s">
         <v>464</v>
@@ -10373,7 +10379,7 @@
         <v>235</v>
       </c>
       <c r="D84" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E84" t="s">
         <v>464</v>
@@ -10399,7 +10405,7 @@
         <v>235</v>
       </c>
       <c r="D85" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E85" t="s">
         <v>464</v>
@@ -10425,7 +10431,7 @@
         <v>235</v>
       </c>
       <c r="D86" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E86" t="s">
         <v>464</v>
@@ -10451,7 +10457,7 @@
         <v>235</v>
       </c>
       <c r="D87" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E87" t="s">
         <v>464</v>
@@ -10477,7 +10483,7 @@
         <v>235</v>
       </c>
       <c r="D88" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E88" t="s">
         <v>464</v>
@@ -10503,7 +10509,7 @@
         <v>235</v>
       </c>
       <c r="D89" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E89" t="s">
         <v>464</v>
@@ -10529,7 +10535,7 @@
         <v>235</v>
       </c>
       <c r="D90" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E90" t="s">
         <v>464</v>
@@ -10555,7 +10561,7 @@
         <v>235</v>
       </c>
       <c r="D91" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E91" t="s">
         <v>464</v>
@@ -10581,7 +10587,7 @@
         <v>235</v>
       </c>
       <c r="D92" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E92" t="s">
         <v>464</v>
@@ -10607,7 +10613,7 @@
         <v>235</v>
       </c>
       <c r="D93" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E93" t="s">
         <v>464</v>
@@ -10633,7 +10639,7 @@
         <v>235</v>
       </c>
       <c r="D94" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E94" t="s">
         <v>464</v>
@@ -10659,7 +10665,7 @@
         <v>235</v>
       </c>
       <c r="D95" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E95" t="s">
         <v>464</v>
@@ -10685,7 +10691,7 @@
         <v>235</v>
       </c>
       <c r="D96" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E96" t="s">
         <v>464</v>
@@ -10711,7 +10717,7 @@
         <v>235</v>
       </c>
       <c r="D97" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E97" t="s">
         <v>464</v>
@@ -10737,7 +10743,7 @@
         <v>235</v>
       </c>
       <c r="D98" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E98" t="s">
         <v>464</v>
@@ -10763,7 +10769,7 @@
         <v>235</v>
       </c>
       <c r="D99" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E99" t="s">
         <v>464</v>
@@ -10789,7 +10795,7 @@
         <v>235</v>
       </c>
       <c r="D100" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E100" t="s">
         <v>464</v>
@@ -10815,7 +10821,7 @@
         <v>235</v>
       </c>
       <c r="D101" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E101" t="s">
         <v>464</v>
@@ -10841,7 +10847,7 @@
         <v>235</v>
       </c>
       <c r="D102" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E102" t="s">
         <v>464</v>
@@ -10867,7 +10873,7 @@
         <v>235</v>
       </c>
       <c r="D103" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E103" t="s">
         <v>464</v>
@@ -10893,7 +10899,7 @@
         <v>235</v>
       </c>
       <c r="D104" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E104" t="s">
         <v>464</v>
@@ -10919,7 +10925,7 @@
         <v>235</v>
       </c>
       <c r="D105" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E105" t="s">
         <v>464</v>
@@ -10945,7 +10951,7 @@
         <v>235</v>
       </c>
       <c r="D106" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E106" t="s">
         <v>464</v>
@@ -10971,7 +10977,7 @@
         <v>235</v>
       </c>
       <c r="D107" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E107" t="s">
         <v>464</v>
@@ -10997,7 +11003,7 @@
         <v>235</v>
       </c>
       <c r="D108" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E108" t="s">
         <v>464</v>
@@ -11023,7 +11029,7 @@
         <v>235</v>
       </c>
       <c r="D109" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E109" t="s">
         <v>464</v>
@@ -11049,7 +11055,7 @@
         <v>235</v>
       </c>
       <c r="D110" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E110" t="s">
         <v>464</v>
@@ -11075,7 +11081,7 @@
         <v>235</v>
       </c>
       <c r="D111" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E111" t="s">
         <v>464</v>
@@ -11101,7 +11107,7 @@
         <v>235</v>
       </c>
       <c r="D112" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E112" t="s">
         <v>464</v>
@@ -11127,7 +11133,7 @@
         <v>235</v>
       </c>
       <c r="D113" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E113" t="s">
         <v>464</v>
@@ -11153,7 +11159,7 @@
         <v>235</v>
       </c>
       <c r="D114" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E114" t="s">
         <v>464</v>
@@ -11179,7 +11185,7 @@
         <v>235</v>
       </c>
       <c r="D115" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E115" t="s">
         <v>464</v>
@@ -11205,7 +11211,7 @@
         <v>235</v>
       </c>
       <c r="D116" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E116" t="s">
         <v>464</v>
@@ -11231,7 +11237,7 @@
         <v>235</v>
       </c>
       <c r="D117" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E117" t="s">
         <v>464</v>
@@ -11257,7 +11263,7 @@
         <v>235</v>
       </c>
       <c r="D118" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E118" t="s">
         <v>464</v>
@@ -11283,7 +11289,7 @@
         <v>235</v>
       </c>
       <c r="D119" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E119" t="s">
         <v>464</v>
@@ -11309,7 +11315,7 @@
         <v>235</v>
       </c>
       <c r="D120" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E120" t="s">
         <v>464</v>
@@ -11335,7 +11341,7 @@
         <v>235</v>
       </c>
       <c r="D121" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E121" t="s">
         <v>464</v>
@@ -11361,7 +11367,7 @@
         <v>235</v>
       </c>
       <c r="D122" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E122" t="s">
         <v>464</v>
@@ -11387,7 +11393,7 @@
         <v>235</v>
       </c>
       <c r="D123" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E123" t="s">
         <v>464</v>
@@ -11413,7 +11419,7 @@
         <v>235</v>
       </c>
       <c r="D124" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E124" t="s">
         <v>464</v>
@@ -11439,7 +11445,7 @@
         <v>235</v>
       </c>
       <c r="D125" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E125" t="s">
         <v>464</v>
@@ -11465,7 +11471,7 @@
         <v>235</v>
       </c>
       <c r="D126" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E126" t="s">
         <v>464</v>
@@ -11491,7 +11497,7 @@
         <v>235</v>
       </c>
       <c r="D127" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E127" t="s">
         <v>464</v>
@@ -11517,7 +11523,7 @@
         <v>235</v>
       </c>
       <c r="D128" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E128" t="s">
         <v>464</v>
@@ -11543,7 +11549,7 @@
         <v>235</v>
       </c>
       <c r="D129" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E129" t="s">
         <v>464</v>
@@ -11569,7 +11575,7 @@
         <v>235</v>
       </c>
       <c r="D130" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E130" t="s">
         <v>464</v>
@@ -11595,7 +11601,7 @@
         <v>235</v>
       </c>
       <c r="D131" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E131" t="s">
         <v>464</v>
@@ -11621,7 +11627,7 @@
         <v>235</v>
       </c>
       <c r="D132" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E132" t="s">
         <v>464</v>
@@ -11647,7 +11653,7 @@
         <v>235</v>
       </c>
       <c r="D133" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E133" t="s">
         <v>464</v>
@@ -11673,7 +11679,7 @@
         <v>235</v>
       </c>
       <c r="D134" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E134" t="s">
         <v>464</v>
@@ -11699,7 +11705,7 @@
         <v>235</v>
       </c>
       <c r="D135" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E135" t="s">
         <v>464</v>
@@ -11725,7 +11731,7 @@
         <v>235</v>
       </c>
       <c r="D136" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E136" t="s">
         <v>464</v>
@@ -11751,7 +11757,7 @@
         <v>235</v>
       </c>
       <c r="D137" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E137" t="s">
         <v>464</v>
@@ -11777,7 +11783,7 @@
         <v>235</v>
       </c>
       <c r="D138" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E138" t="s">
         <v>464</v>
@@ -11803,7 +11809,7 @@
         <v>235</v>
       </c>
       <c r="D139" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E139" t="s">
         <v>464</v>
@@ -11829,7 +11835,7 @@
         <v>235</v>
       </c>
       <c r="D140" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E140" t="s">
         <v>464</v>
@@ -11855,7 +11861,7 @@
         <v>235</v>
       </c>
       <c r="D141" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E141" t="s">
         <v>464</v>
@@ -11881,7 +11887,7 @@
         <v>235</v>
       </c>
       <c r="D142" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E142" t="s">
         <v>464</v>
@@ -11907,7 +11913,7 @@
         <v>235</v>
       </c>
       <c r="D143" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E143" t="s">
         <v>464</v>
@@ -11933,7 +11939,7 @@
         <v>235</v>
       </c>
       <c r="D144" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E144" t="s">
         <v>464</v>
@@ -11959,7 +11965,7 @@
         <v>235</v>
       </c>
       <c r="D145" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E145" t="s">
         <v>464</v>
@@ -11985,7 +11991,7 @@
         <v>235</v>
       </c>
       <c r="D146" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E146" t="s">
         <v>464</v>
@@ -12011,7 +12017,7 @@
         <v>235</v>
       </c>
       <c r="D147" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E147" t="s">
         <v>464</v>
@@ -12037,7 +12043,7 @@
         <v>235</v>
       </c>
       <c r="D148" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E148" t="s">
         <v>464</v>
@@ -12063,7 +12069,7 @@
         <v>235</v>
       </c>
       <c r="D149" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E149" t="s">
         <v>464</v>
@@ -12089,7 +12095,7 @@
         <v>235</v>
       </c>
       <c r="D150" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E150" t="s">
         <v>464</v>
@@ -12115,7 +12121,7 @@
         <v>235</v>
       </c>
       <c r="D151" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E151" t="s">
         <v>464</v>
@@ -12141,7 +12147,7 @@
         <v>235</v>
       </c>
       <c r="D152" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E152" t="s">
         <v>464</v>
@@ -12167,7 +12173,7 @@
         <v>235</v>
       </c>
       <c r="D153" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E153" t="s">
         <v>464</v>
@@ -12193,7 +12199,7 @@
         <v>235</v>
       </c>
       <c r="D154" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E154" t="s">
         <v>464</v>
@@ -12219,7 +12225,7 @@
         <v>235</v>
       </c>
       <c r="D155" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E155" t="s">
         <v>464</v>
@@ -12245,7 +12251,7 @@
         <v>235</v>
       </c>
       <c r="D156" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E156" t="s">
         <v>464</v>
@@ -12271,7 +12277,7 @@
         <v>235</v>
       </c>
       <c r="D157" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E157" t="s">
         <v>464</v>
@@ -12297,7 +12303,7 @@
         <v>235</v>
       </c>
       <c r="D158" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E158" t="s">
         <v>464</v>
@@ -12309,6 +12315,32 @@
         <v>318</v>
       </c>
       <c r="H158" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>232</v>
+      </c>
+      <c r="B159" t="s">
+        <v>475</v>
+      </c>
+      <c r="C159" t="s">
+        <v>235</v>
+      </c>
+      <c r="D159" t="s">
+        <v>316</v>
+      </c>
+      <c r="E159" t="s">
+        <v>464</v>
+      </c>
+      <c r="F159" t="s">
+        <v>481</v>
+      </c>
+      <c r="G159" t="s">
+        <v>318</v>
+      </c>
+      <c r="H159" t="s">
         <v>319</v>
       </c>
     </row>
@@ -12319,10 +12351,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K159"/>
+  <dimension ref="A1:K160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12398,9 +12430,6 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>232</v>
-      </c>
       <c r="B3" t="s">
         <v>475</v>
       </c>
@@ -12431,10 +12460,10 @@
         <v>235</v>
       </c>
       <c r="D4" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="E4" t="s">
-        <v>464</v>
+        <v>500</v>
       </c>
       <c r="F4" t="s">
         <v>481</v>
@@ -12457,7 +12486,7 @@
         <v>235</v>
       </c>
       <c r="D5" t="s">
-        <v>397</v>
+        <v>493</v>
       </c>
       <c r="E5" t="s">
         <v>464</v>
@@ -12483,10 +12512,10 @@
         <v>235</v>
       </c>
       <c r="D6" t="s">
-        <v>320</v>
+        <v>397</v>
       </c>
       <c r="E6" t="s">
-        <v>233</v>
+        <v>464</v>
       </c>
       <c r="F6" t="s">
         <v>481</v>
@@ -12509,7 +12538,7 @@
         <v>235</v>
       </c>
       <c r="D7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E7" t="s">
         <v>233</v>
@@ -12535,7 +12564,7 @@
         <v>235</v>
       </c>
       <c r="D8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E8" t="s">
         <v>233</v>
@@ -12561,7 +12590,7 @@
         <v>235</v>
       </c>
       <c r="D9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E9" t="s">
         <v>233</v>
@@ -12587,7 +12616,7 @@
         <v>235</v>
       </c>
       <c r="D10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E10" t="s">
         <v>233</v>
@@ -12613,7 +12642,7 @@
         <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E11" t="s">
         <v>233</v>
@@ -12639,7 +12668,7 @@
         <v>235</v>
       </c>
       <c r="D12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E12" t="s">
         <v>233</v>
@@ -12665,7 +12694,7 @@
         <v>235</v>
       </c>
       <c r="D13" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E13" t="s">
         <v>233</v>
@@ -12691,7 +12720,7 @@
         <v>235</v>
       </c>
       <c r="D14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E14" t="s">
         <v>233</v>
@@ -12717,7 +12746,7 @@
         <v>235</v>
       </c>
       <c r="D15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E15" t="s">
         <v>233</v>
@@ -12743,7 +12772,7 @@
         <v>235</v>
       </c>
       <c r="D16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E16" t="s">
         <v>233</v>
@@ -12769,7 +12798,7 @@
         <v>235</v>
       </c>
       <c r="D17" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E17" t="s">
         <v>233</v>
@@ -12795,7 +12824,7 @@
         <v>235</v>
       </c>
       <c r="D18" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E18" t="s">
         <v>233</v>
@@ -12821,7 +12850,7 @@
         <v>235</v>
       </c>
       <c r="D19" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E19" t="s">
         <v>233</v>
@@ -12847,7 +12876,7 @@
         <v>235</v>
       </c>
       <c r="D20" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E20" t="s">
         <v>233</v>
@@ -12873,7 +12902,7 @@
         <v>235</v>
       </c>
       <c r="D21" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E21" t="s">
         <v>233</v>
@@ -12899,7 +12928,7 @@
         <v>235</v>
       </c>
       <c r="D22" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E22" t="s">
         <v>233</v>
@@ -12925,7 +12954,7 @@
         <v>235</v>
       </c>
       <c r="D23" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E23" t="s">
         <v>233</v>
@@ -12951,7 +12980,7 @@
         <v>235</v>
       </c>
       <c r="D24" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E24" t="s">
         <v>233</v>
@@ -12977,7 +13006,7 @@
         <v>235</v>
       </c>
       <c r="D25" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E25" t="s">
         <v>233</v>
@@ -13003,7 +13032,7 @@
         <v>235</v>
       </c>
       <c r="D26" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E26" t="s">
         <v>233</v>
@@ -13029,7 +13058,7 @@
         <v>235</v>
       </c>
       <c r="D27" t="s">
-        <v>387</v>
+        <v>340</v>
       </c>
       <c r="E27" t="s">
         <v>233</v>
@@ -13055,7 +13084,7 @@
         <v>235</v>
       </c>
       <c r="D28" t="s">
-        <v>341</v>
+        <v>387</v>
       </c>
       <c r="E28" t="s">
         <v>233</v>
@@ -13081,7 +13110,7 @@
         <v>235</v>
       </c>
       <c r="D29" t="s">
-        <v>386</v>
+        <v>341</v>
       </c>
       <c r="E29" t="s">
         <v>233</v>
@@ -13107,7 +13136,7 @@
         <v>235</v>
       </c>
       <c r="D30" t="s">
-        <v>342</v>
+        <v>386</v>
       </c>
       <c r="E30" t="s">
         <v>233</v>
@@ -13133,7 +13162,7 @@
         <v>235</v>
       </c>
       <c r="D31" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E31" t="s">
         <v>233</v>
@@ -13159,7 +13188,7 @@
         <v>235</v>
       </c>
       <c r="D32" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E32" t="s">
         <v>233</v>
@@ -13185,7 +13214,7 @@
         <v>235</v>
       </c>
       <c r="D33" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E33" t="s">
         <v>233</v>
@@ -13211,7 +13240,7 @@
         <v>235</v>
       </c>
       <c r="D34" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E34" t="s">
         <v>233</v>
@@ -13237,7 +13266,7 @@
         <v>235</v>
       </c>
       <c r="D35" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E35" t="s">
         <v>233</v>
@@ -13263,7 +13292,7 @@
         <v>235</v>
       </c>
       <c r="D36" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E36" t="s">
         <v>233</v>
@@ -13289,7 +13318,7 @@
         <v>235</v>
       </c>
       <c r="D37" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E37" t="s">
         <v>233</v>
@@ -13315,7 +13344,7 @@
         <v>235</v>
       </c>
       <c r="D38" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E38" t="s">
         <v>233</v>
@@ -13341,7 +13370,7 @@
         <v>235</v>
       </c>
       <c r="D39" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E39" t="s">
         <v>233</v>
@@ -13367,7 +13396,7 @@
         <v>235</v>
       </c>
       <c r="D40" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E40" t="s">
         <v>233</v>
@@ -13393,7 +13422,7 @@
         <v>235</v>
       </c>
       <c r="D41" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E41" t="s">
         <v>233</v>
@@ -13419,7 +13448,7 @@
         <v>235</v>
       </c>
       <c r="D42" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E42" t="s">
         <v>233</v>
@@ -13445,7 +13474,7 @@
         <v>235</v>
       </c>
       <c r="D43" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E43" t="s">
         <v>233</v>
@@ -13471,7 +13500,7 @@
         <v>235</v>
       </c>
       <c r="D44" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E44" t="s">
         <v>233</v>
@@ -13497,7 +13526,7 @@
         <v>235</v>
       </c>
       <c r="D45" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E45" t="s">
         <v>233</v>
@@ -13523,7 +13552,7 @@
         <v>235</v>
       </c>
       <c r="D46" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E46" t="s">
         <v>233</v>
@@ -13549,7 +13578,7 @@
         <v>235</v>
       </c>
       <c r="D47" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E47" t="s">
         <v>233</v>
@@ -13575,7 +13604,7 @@
         <v>235</v>
       </c>
       <c r="D48" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E48" t="s">
         <v>233</v>
@@ -13601,7 +13630,7 @@
         <v>235</v>
       </c>
       <c r="D49" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E49" t="s">
         <v>233</v>
@@ -13627,7 +13656,7 @@
         <v>235</v>
       </c>
       <c r="D50" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E50" t="s">
         <v>233</v>
@@ -13653,7 +13682,7 @@
         <v>235</v>
       </c>
       <c r="D51" t="s">
-        <v>390</v>
+        <v>362</v>
       </c>
       <c r="E51" t="s">
         <v>233</v>
@@ -13679,7 +13708,7 @@
         <v>235</v>
       </c>
       <c r="D52" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E52" t="s">
         <v>233</v>
@@ -13705,7 +13734,7 @@
         <v>235</v>
       </c>
       <c r="D53" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E53" t="s">
         <v>233</v>
@@ -13731,7 +13760,7 @@
         <v>235</v>
       </c>
       <c r="D54" t="s">
-        <v>363</v>
+        <v>388</v>
       </c>
       <c r="E54" t="s">
         <v>233</v>
@@ -13757,7 +13786,7 @@
         <v>235</v>
       </c>
       <c r="D55" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E55" t="s">
         <v>233</v>
@@ -13783,7 +13812,7 @@
         <v>235</v>
       </c>
       <c r="D56" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E56" t="s">
         <v>233</v>
@@ -13809,7 +13838,7 @@
         <v>235</v>
       </c>
       <c r="D57" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E57" t="s">
         <v>233</v>
@@ -13835,7 +13864,7 @@
         <v>235</v>
       </c>
       <c r="D58" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E58" t="s">
         <v>233</v>
@@ -13861,7 +13890,7 @@
         <v>235</v>
       </c>
       <c r="D59" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E59" t="s">
         <v>233</v>
@@ -13887,7 +13916,7 @@
         <v>235</v>
       </c>
       <c r="D60" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E60" t="s">
         <v>233</v>
@@ -13913,7 +13942,7 @@
         <v>235</v>
       </c>
       <c r="D61" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E61" t="s">
         <v>233</v>
@@ -13939,7 +13968,7 @@
         <v>235</v>
       </c>
       <c r="D62" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E62" t="s">
         <v>233</v>
@@ -13965,7 +13994,7 @@
         <v>235</v>
       </c>
       <c r="D63" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E63" t="s">
         <v>233</v>
@@ -13991,7 +14020,7 @@
         <v>235</v>
       </c>
       <c r="D64" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E64" t="s">
         <v>233</v>
@@ -14017,7 +14046,7 @@
         <v>235</v>
       </c>
       <c r="D65" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E65" t="s">
         <v>233</v>
@@ -14043,7 +14072,7 @@
         <v>235</v>
       </c>
       <c r="D66" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E66" t="s">
         <v>233</v>
@@ -14069,7 +14098,7 @@
         <v>235</v>
       </c>
       <c r="D67" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E67" t="s">
         <v>233</v>
@@ -14095,7 +14124,7 @@
         <v>235</v>
       </c>
       <c r="D68" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E68" t="s">
         <v>233</v>
@@ -14121,7 +14150,7 @@
         <v>235</v>
       </c>
       <c r="D69" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E69" t="s">
         <v>233</v>
@@ -14147,7 +14176,7 @@
         <v>235</v>
       </c>
       <c r="D70" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E70" t="s">
         <v>233</v>
@@ -14173,7 +14202,7 @@
         <v>235</v>
       </c>
       <c r="D71" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E71" t="s">
         <v>233</v>
@@ -14199,7 +14228,7 @@
         <v>235</v>
       </c>
       <c r="D72" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E72" t="s">
         <v>233</v>
@@ -14225,7 +14254,7 @@
         <v>235</v>
       </c>
       <c r="D73" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E73" t="s">
         <v>233</v>
@@ -14251,7 +14280,7 @@
         <v>235</v>
       </c>
       <c r="D74" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E74" t="s">
         <v>233</v>
@@ -14277,7 +14306,7 @@
         <v>235</v>
       </c>
       <c r="D75" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="E75" t="s">
         <v>233</v>
@@ -14303,7 +14332,7 @@
         <v>235</v>
       </c>
       <c r="D76" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="E76" t="s">
         <v>233</v>
@@ -14329,7 +14358,7 @@
         <v>235</v>
       </c>
       <c r="D77" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="E77" t="s">
         <v>233</v>
@@ -14355,7 +14384,7 @@
         <v>235</v>
       </c>
       <c r="D78" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="E78" t="s">
         <v>233</v>
@@ -14381,10 +14410,10 @@
         <v>235</v>
       </c>
       <c r="D79" t="s">
-        <v>236</v>
+        <v>385</v>
       </c>
       <c r="E79" t="s">
-        <v>464</v>
+        <v>233</v>
       </c>
       <c r="F79" t="s">
         <v>481</v>
@@ -14407,7 +14436,7 @@
         <v>235</v>
       </c>
       <c r="D80" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E80" t="s">
         <v>464</v>
@@ -14433,7 +14462,7 @@
         <v>235</v>
       </c>
       <c r="D81" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E81" t="s">
         <v>464</v>
@@ -14459,7 +14488,7 @@
         <v>235</v>
       </c>
       <c r="D82" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E82" t="s">
         <v>464</v>
@@ -14485,7 +14514,7 @@
         <v>235</v>
       </c>
       <c r="D83" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E83" t="s">
         <v>464</v>
@@ -14511,7 +14540,7 @@
         <v>235</v>
       </c>
       <c r="D84" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E84" t="s">
         <v>464</v>
@@ -14537,7 +14566,7 @@
         <v>235</v>
       </c>
       <c r="D85" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E85" t="s">
         <v>464</v>
@@ -14563,7 +14592,7 @@
         <v>235</v>
       </c>
       <c r="D86" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E86" t="s">
         <v>464</v>
@@ -14589,7 +14618,7 @@
         <v>235</v>
       </c>
       <c r="D87" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E87" t="s">
         <v>464</v>
@@ -14615,7 +14644,7 @@
         <v>235</v>
       </c>
       <c r="D88" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E88" t="s">
         <v>464</v>
@@ -14641,7 +14670,7 @@
         <v>235</v>
       </c>
       <c r="D89" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E89" t="s">
         <v>464</v>
@@ -14667,7 +14696,7 @@
         <v>235</v>
       </c>
       <c r="D90" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E90" t="s">
         <v>464</v>
@@ -14693,7 +14722,7 @@
         <v>235</v>
       </c>
       <c r="D91" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E91" t="s">
         <v>464</v>
@@ -14719,7 +14748,7 @@
         <v>235</v>
       </c>
       <c r="D92" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E92" t="s">
         <v>464</v>
@@ -14745,7 +14774,7 @@
         <v>235</v>
       </c>
       <c r="D93" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E93" t="s">
         <v>464</v>
@@ -14771,7 +14800,7 @@
         <v>235</v>
       </c>
       <c r="D94" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E94" t="s">
         <v>464</v>
@@ -14797,7 +14826,7 @@
         <v>235</v>
       </c>
       <c r="D95" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E95" t="s">
         <v>464</v>
@@ -14823,7 +14852,7 @@
         <v>235</v>
       </c>
       <c r="D96" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E96" t="s">
         <v>464</v>
@@ -14849,7 +14878,7 @@
         <v>235</v>
       </c>
       <c r="D97" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E97" t="s">
         <v>464</v>
@@ -14875,7 +14904,7 @@
         <v>235</v>
       </c>
       <c r="D98" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E98" t="s">
         <v>464</v>
@@ -14901,7 +14930,7 @@
         <v>235</v>
       </c>
       <c r="D99" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E99" t="s">
         <v>464</v>
@@ -14927,7 +14956,7 @@
         <v>235</v>
       </c>
       <c r="D100" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E100" t="s">
         <v>464</v>
@@ -14953,7 +14982,7 @@
         <v>235</v>
       </c>
       <c r="D101" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E101" t="s">
         <v>464</v>
@@ -14979,7 +15008,7 @@
         <v>235</v>
       </c>
       <c r="D102" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E102" t="s">
         <v>464</v>
@@ -15005,7 +15034,7 @@
         <v>235</v>
       </c>
       <c r="D103" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E103" t="s">
         <v>464</v>
@@ -15031,7 +15060,7 @@
         <v>235</v>
       </c>
       <c r="D104" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E104" t="s">
         <v>464</v>
@@ -15057,7 +15086,7 @@
         <v>235</v>
       </c>
       <c r="D105" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E105" t="s">
         <v>464</v>
@@ -15083,7 +15112,7 @@
         <v>235</v>
       </c>
       <c r="D106" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E106" t="s">
         <v>464</v>
@@ -15109,7 +15138,7 @@
         <v>235</v>
       </c>
       <c r="D107" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E107" t="s">
         <v>464</v>
@@ -15135,7 +15164,7 @@
         <v>235</v>
       </c>
       <c r="D108" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E108" t="s">
         <v>464</v>
@@ -15161,7 +15190,7 @@
         <v>235</v>
       </c>
       <c r="D109" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E109" t="s">
         <v>464</v>
@@ -15187,7 +15216,7 @@
         <v>235</v>
       </c>
       <c r="D110" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E110" t="s">
         <v>464</v>
@@ -15213,7 +15242,7 @@
         <v>235</v>
       </c>
       <c r="D111" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E111" t="s">
         <v>464</v>
@@ -15239,7 +15268,7 @@
         <v>235</v>
       </c>
       <c r="D112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E112" t="s">
         <v>464</v>
@@ -15265,7 +15294,7 @@
         <v>235</v>
       </c>
       <c r="D113" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E113" t="s">
         <v>464</v>
@@ -15291,7 +15320,7 @@
         <v>235</v>
       </c>
       <c r="D114" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E114" t="s">
         <v>464</v>
@@ -15317,7 +15346,7 @@
         <v>235</v>
       </c>
       <c r="D115" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E115" t="s">
         <v>464</v>
@@ -15343,7 +15372,7 @@
         <v>235</v>
       </c>
       <c r="D116" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E116" t="s">
         <v>464</v>
@@ -15369,7 +15398,7 @@
         <v>235</v>
       </c>
       <c r="D117" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E117" t="s">
         <v>464</v>
@@ -15395,7 +15424,7 @@
         <v>235</v>
       </c>
       <c r="D118" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E118" t="s">
         <v>464</v>
@@ -15421,7 +15450,7 @@
         <v>235</v>
       </c>
       <c r="D119" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E119" t="s">
         <v>464</v>
@@ -15447,7 +15476,7 @@
         <v>235</v>
       </c>
       <c r="D120" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E120" t="s">
         <v>464</v>
@@ -15473,7 +15502,7 @@
         <v>235</v>
       </c>
       <c r="D121" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E121" t="s">
         <v>464</v>
@@ -15499,7 +15528,7 @@
         <v>235</v>
       </c>
       <c r="D122" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E122" t="s">
         <v>464</v>
@@ -15525,7 +15554,7 @@
         <v>235</v>
       </c>
       <c r="D123" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E123" t="s">
         <v>464</v>
@@ -15551,7 +15580,7 @@
         <v>235</v>
       </c>
       <c r="D124" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E124" t="s">
         <v>464</v>
@@ -15577,7 +15606,7 @@
         <v>235</v>
       </c>
       <c r="D125" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E125" t="s">
         <v>464</v>
@@ -15603,7 +15632,7 @@
         <v>235</v>
       </c>
       <c r="D126" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E126" t="s">
         <v>464</v>
@@ -15629,7 +15658,7 @@
         <v>235</v>
       </c>
       <c r="D127" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E127" t="s">
         <v>464</v>
@@ -15655,7 +15684,7 @@
         <v>235</v>
       </c>
       <c r="D128" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E128" t="s">
         <v>464</v>
@@ -15681,7 +15710,7 @@
         <v>235</v>
       </c>
       <c r="D129" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E129" t="s">
         <v>464</v>
@@ -15707,7 +15736,7 @@
         <v>235</v>
       </c>
       <c r="D130" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E130" t="s">
         <v>464</v>
@@ -15733,7 +15762,7 @@
         <v>235</v>
       </c>
       <c r="D131" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E131" t="s">
         <v>464</v>
@@ -15759,7 +15788,7 @@
         <v>235</v>
       </c>
       <c r="D132" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E132" t="s">
         <v>464</v>
@@ -15785,7 +15814,7 @@
         <v>235</v>
       </c>
       <c r="D133" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E133" t="s">
         <v>464</v>
@@ -15811,7 +15840,7 @@
         <v>235</v>
       </c>
       <c r="D134" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E134" t="s">
         <v>464</v>
@@ -15837,7 +15866,7 @@
         <v>235</v>
       </c>
       <c r="D135" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E135" t="s">
         <v>464</v>
@@ -15863,7 +15892,7 @@
         <v>235</v>
       </c>
       <c r="D136" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E136" t="s">
         <v>464</v>
@@ -15889,7 +15918,7 @@
         <v>235</v>
       </c>
       <c r="D137" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E137" t="s">
         <v>464</v>
@@ -15915,7 +15944,7 @@
         <v>235</v>
       </c>
       <c r="D138" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E138" t="s">
         <v>464</v>
@@ -15941,7 +15970,7 @@
         <v>235</v>
       </c>
       <c r="D139" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E139" t="s">
         <v>464</v>
@@ -15967,7 +15996,7 @@
         <v>235</v>
       </c>
       <c r="D140" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E140" t="s">
         <v>464</v>
@@ -15993,7 +16022,7 @@
         <v>235</v>
       </c>
       <c r="D141" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E141" t="s">
         <v>464</v>
@@ -16019,7 +16048,7 @@
         <v>235</v>
       </c>
       <c r="D142" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E142" t="s">
         <v>464</v>
@@ -16045,7 +16074,7 @@
         <v>235</v>
       </c>
       <c r="D143" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E143" t="s">
         <v>464</v>
@@ -16071,7 +16100,7 @@
         <v>235</v>
       </c>
       <c r="D144" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E144" t="s">
         <v>464</v>
@@ -16097,7 +16126,7 @@
         <v>235</v>
       </c>
       <c r="D145" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E145" t="s">
         <v>464</v>
@@ -16123,7 +16152,7 @@
         <v>235</v>
       </c>
       <c r="D146" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E146" t="s">
         <v>464</v>
@@ -16149,7 +16178,7 @@
         <v>235</v>
       </c>
       <c r="D147" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E147" t="s">
         <v>464</v>
@@ -16175,7 +16204,7 @@
         <v>235</v>
       </c>
       <c r="D148" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E148" t="s">
         <v>464</v>
@@ -16201,7 +16230,7 @@
         <v>235</v>
       </c>
       <c r="D149" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E149" t="s">
         <v>464</v>
@@ -16227,7 +16256,7 @@
         <v>235</v>
       </c>
       <c r="D150" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E150" t="s">
         <v>464</v>
@@ -16253,7 +16282,7 @@
         <v>235</v>
       </c>
       <c r="D151" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E151" t="s">
         <v>464</v>
@@ -16279,7 +16308,7 @@
         <v>235</v>
       </c>
       <c r="D152" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E152" t="s">
         <v>464</v>
@@ -16305,7 +16334,7 @@
         <v>235</v>
       </c>
       <c r="D153" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E153" t="s">
         <v>464</v>
@@ -16331,7 +16360,7 @@
         <v>235</v>
       </c>
       <c r="D154" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E154" t="s">
         <v>464</v>
@@ -16357,7 +16386,7 @@
         <v>235</v>
       </c>
       <c r="D155" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E155" t="s">
         <v>464</v>
@@ -16383,7 +16412,7 @@
         <v>235</v>
       </c>
       <c r="D156" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E156" t="s">
         <v>464</v>
@@ -16409,7 +16438,7 @@
         <v>235</v>
       </c>
       <c r="D157" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E157" t="s">
         <v>464</v>
@@ -16435,7 +16464,7 @@
         <v>235</v>
       </c>
       <c r="D158" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E158" t="s">
         <v>464</v>
@@ -16461,7 +16490,7 @@
         <v>235</v>
       </c>
       <c r="D159" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E159" t="s">
         <v>464</v>
@@ -16473,6 +16502,32 @@
         <v>318</v>
       </c>
       <c r="H159" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>232</v>
+      </c>
+      <c r="B160" t="s">
+        <v>475</v>
+      </c>
+      <c r="C160" t="s">
+        <v>235</v>
+      </c>
+      <c r="D160" t="s">
+        <v>316</v>
+      </c>
+      <c r="E160" t="s">
+        <v>464</v>
+      </c>
+      <c r="F160" t="s">
+        <v>481</v>
+      </c>
+      <c r="G160" t="s">
+        <v>318</v>
+      </c>
+      <c r="H160" t="s">
         <v>319</v>
       </c>
     </row>
@@ -16483,10 +16538,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16536,6 +16591,20 @@
         <v>457</v>
       </c>
       <c r="D3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B4" t="s">
+        <v>500</v>
+      </c>
+      <c r="C4" t="s">
+        <v>457</v>
+      </c>
+      <c r="D4" t="s">
         <v>465</v>
       </c>
     </row>

--- a/spine_rts-gmlc/datasets/branch_bus_detailed.xlsx
+++ b/spine_rts-gmlc/datasets/branch_bus_detailed.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" firstSheet="8" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" firstSheet="8" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="branch" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8183" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8258" uniqueCount="503">
   <si>
     <t>UID</t>
   </si>
@@ -1534,6 +1534,12 @@
   </si>
   <si>
     <t>tb2_look_ahead</t>
+  </si>
+  <si>
+    <t>nodal_balance_sense</t>
+  </si>
+  <si>
+    <t>none</t>
   </si>
 </sst>
 </file>
@@ -8186,7 +8192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K159"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -16615,10 +16621,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J76"/>
+  <dimension ref="A1:K76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16628,14 +16634,15 @@
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>474</v>
       </c>
@@ -16648,11 +16655,14 @@
       <c r="E1" t="s">
         <v>494</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F1" t="s">
+        <v>494</v>
+      </c>
+      <c r="H1" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>136</v>
       </c>
@@ -16669,19 +16679,22 @@
         <v>464</v>
       </c>
       <c r="F2" t="s">
+        <v>501</v>
+      </c>
+      <c r="G2" t="s">
         <v>474</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>468</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>493</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>468</v>
       </c>
@@ -16696,7 +16709,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>318</v>
       </c>
@@ -16710,21 +16723,24 @@
         <v>465</v>
       </c>
       <c r="F4" t="s">
+        <v>502</v>
+      </c>
+      <c r="G4" t="s">
         <v>136</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>318</v>
       </c>
-      <c r="I4" t="str">
+      <c r="J4" t="str">
         <f>CONCATENATE("bus-",bus!A2)</f>
         <v>bus-101</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A4,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>1.2631578947368421E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>319</v>
       </c>
@@ -16738,21 +16754,24 @@
         <v>465</v>
       </c>
       <c r="F5" t="s">
+        <v>502</v>
+      </c>
+      <c r="G5" t="s">
         <v>136</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>319</v>
       </c>
-      <c r="I5" t="str">
+      <c r="J5" t="str">
         <f>CONCATENATE("bus-",bus!A3)</f>
         <v>bus-102</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A5,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>1.1345029239766082E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>320</v>
       </c>
@@ -16766,21 +16785,24 @@
         <v>465</v>
       </c>
       <c r="F6" t="s">
+        <v>502</v>
+      </c>
+      <c r="G6" t="s">
         <v>136</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>320</v>
       </c>
-      <c r="I6" t="str">
+      <c r="J6" t="str">
         <f>CONCATENATE("bus-",bus!A4)</f>
         <v>bus-103</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A6,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>2.1052631578947368E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>321</v>
       </c>
@@ -16794,21 +16816,24 @@
         <v>465</v>
       </c>
       <c r="F7" t="s">
+        <v>502</v>
+      </c>
+      <c r="G7" t="s">
         <v>136</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>321</v>
       </c>
-      <c r="I7" t="str">
+      <c r="J7" t="str">
         <f>CONCATENATE("bus-",bus!A5)</f>
         <v>bus-104</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A7,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>8.6549707602339189E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>322</v>
       </c>
@@ -16822,21 +16847,24 @@
         <v>465</v>
       </c>
       <c r="F8" t="s">
+        <v>502</v>
+      </c>
+      <c r="G8" t="s">
         <v>136</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>322</v>
       </c>
-      <c r="I8" t="str">
+      <c r="J8" t="str">
         <f>CONCATENATE("bus-",bus!A6)</f>
         <v>bus-105</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A8,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>8.3040935672514613E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>323</v>
       </c>
@@ -16850,21 +16878,24 @@
         <v>465</v>
       </c>
       <c r="F9" t="s">
+        <v>502</v>
+      </c>
+      <c r="G9" t="s">
         <v>136</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>323</v>
       </c>
-      <c r="I9" t="str">
+      <c r="J9" t="str">
         <f>CONCATENATE("bus-",bus!A7)</f>
         <v>bus-106</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A9,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>1.5906432748538011E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>324</v>
       </c>
@@ -16878,21 +16909,24 @@
         <v>465</v>
       </c>
       <c r="F10" t="s">
+        <v>502</v>
+      </c>
+      <c r="G10" t="s">
         <v>136</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>324</v>
       </c>
-      <c r="I10" t="str">
+      <c r="J10" t="str">
         <f>CONCATENATE("bus-",bus!A8)</f>
         <v>bus-107</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A10,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>1.4619883040935672E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>325</v>
       </c>
@@ -16906,21 +16940,24 @@
         <v>465</v>
       </c>
       <c r="F11" t="s">
+        <v>502</v>
+      </c>
+      <c r="G11" t="s">
         <v>136</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>325</v>
       </c>
-      <c r="I11" t="str">
+      <c r="J11" t="str">
         <f>CONCATENATE("bus-",bus!A9)</f>
         <v>bus-108</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A11,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>0.02</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>326</v>
       </c>
@@ -16934,21 +16971,24 @@
         <v>465</v>
       </c>
       <c r="F12" t="s">
+        <v>502</v>
+      </c>
+      <c r="G12" t="s">
         <v>136</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>326</v>
       </c>
-      <c r="I12" t="str">
+      <c r="J12" t="str">
         <f>CONCATENATE("bus-",bus!A10)</f>
         <v>bus-109</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A12,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>2.046783625730994E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>327</v>
       </c>
@@ -16962,21 +17002,24 @@
         <v>465</v>
       </c>
       <c r="F13" t="s">
+        <v>502</v>
+      </c>
+      <c r="G13" t="s">
         <v>136</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>327</v>
       </c>
-      <c r="I13" t="str">
+      <c r="J13" t="str">
         <f>CONCATENATE("bus-",bus!A11)</f>
         <v>bus-110</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A13,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>2.2807017543859651E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>328</v>
       </c>
@@ -16990,21 +17033,24 @@
         <v>465</v>
       </c>
       <c r="F14" t="s">
+        <v>502</v>
+      </c>
+      <c r="G14" t="s">
         <v>136</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>328</v>
       </c>
-      <c r="I14" t="str">
+      <c r="J14" t="str">
         <f>CONCATENATE("bus-",bus!A12)</f>
         <v>bus-111</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A14,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>329</v>
       </c>
@@ -17018,21 +17064,24 @@
         <v>465</v>
       </c>
       <c r="F15" t="s">
+        <v>502</v>
+      </c>
+      <c r="G15" t="s">
         <v>136</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>329</v>
       </c>
-      <c r="I15" t="str">
+      <c r="J15" t="str">
         <f>CONCATENATE("bus-",bus!A13)</f>
         <v>bus-112</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A15,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>330</v>
       </c>
@@ -17049,21 +17098,24 @@
         <v>466</v>
       </c>
       <c r="F16" t="s">
+        <v>502</v>
+      </c>
+      <c r="G16" t="s">
         <v>136</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>330</v>
       </c>
-      <c r="I16" t="str">
+      <c r="J16" t="str">
         <f>CONCATENATE("bus-",bus!A14)</f>
         <v>bus-113</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A16,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>3.0994152046783626E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>331</v>
       </c>
@@ -17077,21 +17129,24 @@
         <v>465</v>
       </c>
       <c r="F17" t="s">
+        <v>502</v>
+      </c>
+      <c r="G17" t="s">
         <v>136</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>331</v>
       </c>
-      <c r="I17" t="str">
+      <c r="J17" t="str">
         <f>CONCATENATE("bus-",bus!A15)</f>
         <v>bus-114</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A17,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>2.2690058479532163E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>332</v>
       </c>
@@ -17105,21 +17160,24 @@
         <v>465</v>
       </c>
       <c r="F18" t="s">
+        <v>502</v>
+      </c>
+      <c r="G18" t="s">
         <v>136</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>332</v>
       </c>
-      <c r="I18" t="str">
+      <c r="J18" t="str">
         <f>CONCATENATE("bus-",bus!A16)</f>
         <v>bus-115</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A18,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>3.7076023391812866E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>333</v>
       </c>
@@ -17133,21 +17191,24 @@
         <v>465</v>
       </c>
       <c r="F19" t="s">
+        <v>502</v>
+      </c>
+      <c r="G19" t="s">
         <v>136</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>333</v>
       </c>
-      <c r="I19" t="str">
+      <c r="J19" t="str">
         <f>CONCATENATE("bus-",bus!A17)</f>
         <v>bus-116</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A19,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>1.1695906432748537E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>334</v>
       </c>
@@ -17161,21 +17222,24 @@
         <v>465</v>
       </c>
       <c r="F20" t="s">
+        <v>502</v>
+      </c>
+      <c r="G20" t="s">
         <v>136</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>334</v>
       </c>
-      <c r="I20" t="str">
+      <c r="J20" t="str">
         <f>CONCATENATE("bus-",bus!A18)</f>
         <v>bus-117</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A20,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>335</v>
       </c>
@@ -17189,21 +17253,24 @@
         <v>465</v>
       </c>
       <c r="F21" t="s">
+        <v>502</v>
+      </c>
+      <c r="G21" t="s">
         <v>136</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>335</v>
       </c>
-      <c r="I21" t="str">
+      <c r="J21" t="str">
         <f>CONCATENATE("bus-",bus!A19)</f>
         <v>bus-118</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A21,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>3.8947368421052633E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>336</v>
       </c>
@@ -17217,21 +17284,24 @@
         <v>465</v>
       </c>
       <c r="F22" t="s">
+        <v>502</v>
+      </c>
+      <c r="G22" t="s">
         <v>136</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>336</v>
       </c>
-      <c r="I22" t="str">
+      <c r="J22" t="str">
         <f>CONCATENATE("bus-",bus!A20)</f>
         <v>bus-119</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A22,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>2.1169590643274852E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>337</v>
       </c>
@@ -17245,21 +17315,24 @@
         <v>465</v>
       </c>
       <c r="F23" t="s">
+        <v>502</v>
+      </c>
+      <c r="G23" t="s">
         <v>136</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>337</v>
       </c>
-      <c r="I23" t="str">
+      <c r="J23" t="str">
         <f>CONCATENATE("bus-",bus!A21)</f>
         <v>bus-120</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A23,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>1.4970760233918129E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>338</v>
       </c>
@@ -17273,21 +17346,24 @@
         <v>465</v>
       </c>
       <c r="F24" t="s">
+        <v>502</v>
+      </c>
+      <c r="G24" t="s">
         <v>136</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>338</v>
       </c>
-      <c r="I24" t="str">
+      <c r="J24" t="str">
         <f>CONCATENATE("bus-",bus!A22)</f>
         <v>bus-121</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A24,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>385</v>
       </c>
@@ -17301,21 +17377,24 @@
         <v>465</v>
       </c>
       <c r="F25" t="s">
+        <v>502</v>
+      </c>
+      <c r="G25" t="s">
         <v>136</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>385</v>
       </c>
-      <c r="I25" t="str">
+      <c r="J25" t="str">
         <f>CONCATENATE("bus-",bus!A23)</f>
         <v>bus-122</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A25,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>339</v>
       </c>
@@ -17329,21 +17408,24 @@
         <v>465</v>
       </c>
       <c r="F26" t="s">
+        <v>502</v>
+      </c>
+      <c r="G26" t="s">
         <v>136</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>339</v>
       </c>
-      <c r="I26" t="str">
+      <c r="J26" t="str">
         <f>CONCATENATE("bus-",bus!A24)</f>
         <v>bus-123</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A26,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>384</v>
       </c>
@@ -17357,21 +17439,24 @@
         <v>465</v>
       </c>
       <c r="F27" t="s">
+        <v>502</v>
+      </c>
+      <c r="G27" t="s">
         <v>136</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>384</v>
       </c>
-      <c r="I27" t="str">
+      <c r="J27" t="str">
         <f>CONCATENATE("bus-",bus!A25)</f>
         <v>bus-124</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A27,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>340</v>
       </c>
@@ -17385,21 +17470,24 @@
         <v>465</v>
       </c>
       <c r="F28" t="s">
+        <v>502</v>
+      </c>
+      <c r="G28" t="s">
         <v>136</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>340</v>
       </c>
-      <c r="I28" t="str">
+      <c r="J28" t="str">
         <f>CONCATENATE("bus-",bus!A26)</f>
         <v>bus-201</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A28,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>1.2631578947368421E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>341</v>
       </c>
@@ -17413,21 +17501,24 @@
         <v>465</v>
       </c>
       <c r="F29" t="s">
+        <v>502</v>
+      </c>
+      <c r="G29" t="s">
         <v>136</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>341</v>
       </c>
-      <c r="I29" t="str">
+      <c r="J29" t="str">
         <f>CONCATENATE("bus-",bus!A27)</f>
         <v>bus-202</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A29,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>1.1345029239766082E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>342</v>
       </c>
@@ -17441,21 +17532,24 @@
         <v>465</v>
       </c>
       <c r="F30" t="s">
+        <v>502</v>
+      </c>
+      <c r="G30" t="s">
         <v>136</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>342</v>
       </c>
-      <c r="I30" t="str">
+      <c r="J30" t="str">
         <f>CONCATENATE("bus-",bus!A28)</f>
         <v>bus-203</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A30,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>2.1052631578947368E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>343</v>
       </c>
@@ -17469,21 +17563,24 @@
         <v>465</v>
       </c>
       <c r="F31" t="s">
+        <v>502</v>
+      </c>
+      <c r="G31" t="s">
         <v>136</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>343</v>
       </c>
-      <c r="I31" t="str">
+      <c r="J31" t="str">
         <f>CONCATENATE("bus-",bus!A29)</f>
         <v>bus-204</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A31,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>8.6549707602339189E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>344</v>
       </c>
@@ -17497,21 +17594,24 @@
         <v>465</v>
       </c>
       <c r="F32" t="s">
+        <v>502</v>
+      </c>
+      <c r="G32" t="s">
         <v>136</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>344</v>
       </c>
-      <c r="I32" t="str">
+      <c r="J32" t="str">
         <f>CONCATENATE("bus-",bus!A30)</f>
         <v>bus-205</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A32,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>8.3040935672514613E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>345</v>
       </c>
@@ -17525,21 +17625,24 @@
         <v>465</v>
       </c>
       <c r="F33" t="s">
+        <v>502</v>
+      </c>
+      <c r="G33" t="s">
         <v>136</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>345</v>
       </c>
-      <c r="I33" t="str">
+      <c r="J33" t="str">
         <f>CONCATENATE("bus-",bus!A31)</f>
         <v>bus-206</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A33,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>1.5906432748538011E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>346</v>
       </c>
@@ -17553,21 +17656,24 @@
         <v>465</v>
       </c>
       <c r="F34" t="s">
+        <v>502</v>
+      </c>
+      <c r="G34" t="s">
         <v>136</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>346</v>
       </c>
-      <c r="I34" t="str">
+      <c r="J34" t="str">
         <f>CONCATENATE("bus-",bus!A32)</f>
         <v>bus-207</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A34,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>1.4619883040935672E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>347</v>
       </c>
@@ -17581,21 +17687,24 @@
         <v>465</v>
       </c>
       <c r="F35" t="s">
+        <v>502</v>
+      </c>
+      <c r="G35" t="s">
         <v>136</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>347</v>
       </c>
-      <c r="I35" t="str">
+      <c r="J35" t="str">
         <f>CONCATENATE("bus-",bus!A33)</f>
         <v>bus-208</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A35,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>0.02</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>348</v>
       </c>
@@ -17609,21 +17718,24 @@
         <v>465</v>
       </c>
       <c r="F36" t="s">
+        <v>502</v>
+      </c>
+      <c r="G36" t="s">
         <v>136</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>348</v>
       </c>
-      <c r="I36" t="str">
+      <c r="J36" t="str">
         <f>CONCATENATE("bus-",bus!A34)</f>
         <v>bus-209</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A36,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>2.046783625730994E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>349</v>
       </c>
@@ -17637,21 +17749,24 @@
         <v>465</v>
       </c>
       <c r="F37" t="s">
+        <v>502</v>
+      </c>
+      <c r="G37" t="s">
         <v>136</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>349</v>
       </c>
-      <c r="I37" t="str">
+      <c r="J37" t="str">
         <f>CONCATENATE("bus-",bus!A35)</f>
         <v>bus-210</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A37,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>2.2807017543859651E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>350</v>
       </c>
@@ -17665,21 +17780,24 @@
         <v>465</v>
       </c>
       <c r="F38" t="s">
+        <v>502</v>
+      </c>
+      <c r="G38" t="s">
         <v>136</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>350</v>
       </c>
-      <c r="I38" t="str">
+      <c r="J38" t="str">
         <f>CONCATENATE("bus-",bus!A36)</f>
         <v>bus-211</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A38,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>351</v>
       </c>
@@ -17693,21 +17811,24 @@
         <v>465</v>
       </c>
       <c r="F39" t="s">
+        <v>502</v>
+      </c>
+      <c r="G39" t="s">
         <v>136</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>351</v>
       </c>
-      <c r="I39" t="str">
+      <c r="J39" t="str">
         <f>CONCATENATE("bus-",bus!A37)</f>
         <v>bus-212</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A39,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>352</v>
       </c>
@@ -17721,21 +17842,24 @@
         <v>465</v>
       </c>
       <c r="F40" t="s">
+        <v>502</v>
+      </c>
+      <c r="G40" t="s">
         <v>136</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>352</v>
       </c>
-      <c r="I40" t="str">
+      <c r="J40" t="str">
         <f>CONCATENATE("bus-",bus!A38)</f>
         <v>bus-213</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A40,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>3.0994152046783626E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>353</v>
       </c>
@@ -17749,21 +17873,24 @@
         <v>465</v>
       </c>
       <c r="F41" t="s">
+        <v>502</v>
+      </c>
+      <c r="G41" t="s">
         <v>136</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>353</v>
       </c>
-      <c r="I41" t="str">
+      <c r="J41" t="str">
         <f>CONCATENATE("bus-",bus!A39)</f>
         <v>bus-214</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A41,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>2.2690058479532163E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>354</v>
       </c>
@@ -17777,21 +17904,24 @@
         <v>465</v>
       </c>
       <c r="F42" t="s">
+        <v>502</v>
+      </c>
+      <c r="G42" t="s">
         <v>136</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>354</v>
       </c>
-      <c r="I42" t="str">
+      <c r="J42" t="str">
         <f>CONCATENATE("bus-",bus!A40)</f>
         <v>bus-215</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A42,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>3.7076023391812866E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>355</v>
       </c>
@@ -17805,21 +17935,24 @@
         <v>465</v>
       </c>
       <c r="F43" t="s">
+        <v>502</v>
+      </c>
+      <c r="G43" t="s">
         <v>136</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>355</v>
       </c>
-      <c r="I43" t="str">
+      <c r="J43" t="str">
         <f>CONCATENATE("bus-",bus!A41)</f>
         <v>bus-216</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A43,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>1.1695906432748537E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>356</v>
       </c>
@@ -17833,21 +17966,24 @@
         <v>465</v>
       </c>
       <c r="F44" t="s">
+        <v>502</v>
+      </c>
+      <c r="G44" t="s">
         <v>136</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>356</v>
       </c>
-      <c r="I44" t="str">
+      <c r="J44" t="str">
         <f>CONCATENATE("bus-",bus!A42)</f>
         <v>bus-217</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A44,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>357</v>
       </c>
@@ -17861,21 +17997,24 @@
         <v>465</v>
       </c>
       <c r="F45" t="s">
+        <v>502</v>
+      </c>
+      <c r="G45" t="s">
         <v>136</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>357</v>
       </c>
-      <c r="I45" t="str">
+      <c r="J45" t="str">
         <f>CONCATENATE("bus-",bus!A43)</f>
         <v>bus-218</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A45,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>3.8947368421052633E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>358</v>
       </c>
@@ -17889,21 +18028,24 @@
         <v>465</v>
       </c>
       <c r="F46" t="s">
+        <v>502</v>
+      </c>
+      <c r="G46" t="s">
         <v>136</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>358</v>
       </c>
-      <c r="I46" t="str">
+      <c r="J46" t="str">
         <f>CONCATENATE("bus-",bus!A44)</f>
         <v>bus-219</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A46,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>2.1169590643274852E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>359</v>
       </c>
@@ -17917,21 +18059,24 @@
         <v>465</v>
       </c>
       <c r="F47" t="s">
+        <v>502</v>
+      </c>
+      <c r="G47" t="s">
         <v>136</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>359</v>
       </c>
-      <c r="I47" t="str">
+      <c r="J47" t="str">
         <f>CONCATENATE("bus-",bus!A45)</f>
         <v>bus-220</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A47,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>1.4970760233918129E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>360</v>
       </c>
@@ -17945,21 +18090,24 @@
         <v>465</v>
       </c>
       <c r="F48" t="s">
+        <v>502</v>
+      </c>
+      <c r="G48" t="s">
         <v>136</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>360</v>
       </c>
-      <c r="I48" t="str">
+      <c r="J48" t="str">
         <f>CONCATENATE("bus-",bus!A46)</f>
         <v>bus-221</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A48,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>388</v>
       </c>
@@ -17973,21 +18121,24 @@
         <v>465</v>
       </c>
       <c r="F49" t="s">
+        <v>502</v>
+      </c>
+      <c r="G49" t="s">
         <v>136</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>388</v>
       </c>
-      <c r="I49" t="str">
+      <c r="J49" t="str">
         <f>CONCATENATE("bus-",bus!A47)</f>
         <v>bus-222</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A49,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>387</v>
       </c>
@@ -18001,21 +18152,24 @@
         <v>465</v>
       </c>
       <c r="F50" t="s">
+        <v>502</v>
+      </c>
+      <c r="G50" t="s">
         <v>136</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>387</v>
       </c>
-      <c r="I50" t="str">
+      <c r="J50" t="str">
         <f>CONCATENATE("bus-",bus!A48)</f>
         <v>bus-223</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A50,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>386</v>
       </c>
@@ -18029,21 +18183,24 @@
         <v>465</v>
       </c>
       <c r="F51" t="s">
+        <v>502</v>
+      </c>
+      <c r="G51" t="s">
         <v>136</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>386</v>
       </c>
-      <c r="I51" t="str">
+      <c r="J51" t="str">
         <f>CONCATENATE("bus-",bus!A49)</f>
         <v>bus-224</v>
       </c>
-      <c r="J51">
+      <c r="K51">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A51,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>361</v>
       </c>
@@ -18057,21 +18214,24 @@
         <v>465</v>
       </c>
       <c r="F52" t="s">
+        <v>502</v>
+      </c>
+      <c r="G52" t="s">
         <v>136</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>361</v>
       </c>
-      <c r="I52" t="str">
+      <c r="J52" t="str">
         <f>CONCATENATE("bus-",bus!A50)</f>
         <v>bus-301</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A52,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>1.2631578947368421E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>362</v>
       </c>
@@ -18085,21 +18245,24 @@
         <v>465</v>
       </c>
       <c r="F53" t="s">
+        <v>502</v>
+      </c>
+      <c r="G53" t="s">
         <v>136</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>362</v>
       </c>
-      <c r="I53" t="str">
+      <c r="J53" t="str">
         <f>CONCATENATE("bus-",bus!A51)</f>
         <v>bus-302</v>
       </c>
-      <c r="J53">
+      <c r="K53">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A53,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>1.1345029239766082E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>363</v>
       </c>
@@ -18113,21 +18276,24 @@
         <v>465</v>
       </c>
       <c r="F54" t="s">
+        <v>502</v>
+      </c>
+      <c r="G54" t="s">
         <v>136</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>363</v>
       </c>
-      <c r="I54" t="str">
+      <c r="J54" t="str">
         <f>CONCATENATE("bus-",bus!A52)</f>
         <v>bus-303</v>
       </c>
-      <c r="J54">
+      <c r="K54">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A54,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>2.1052631578947368E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>364</v>
       </c>
@@ -18141,21 +18307,24 @@
         <v>465</v>
       </c>
       <c r="F55" t="s">
+        <v>502</v>
+      </c>
+      <c r="G55" t="s">
         <v>136</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>364</v>
       </c>
-      <c r="I55" t="str">
+      <c r="J55" t="str">
         <f>CONCATENATE("bus-",bus!A53)</f>
         <v>bus-304</v>
       </c>
-      <c r="J55">
+      <c r="K55">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A55,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>8.6549707602339189E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>365</v>
       </c>
@@ -18169,21 +18338,24 @@
         <v>465</v>
       </c>
       <c r="F56" t="s">
+        <v>502</v>
+      </c>
+      <c r="G56" t="s">
         <v>136</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>365</v>
       </c>
-      <c r="I56" t="str">
+      <c r="J56" t="str">
         <f>CONCATENATE("bus-",bus!A54)</f>
         <v>bus-305</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A56,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>8.3040935672514613E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>366</v>
       </c>
@@ -18197,21 +18369,24 @@
         <v>465</v>
       </c>
       <c r="F57" t="s">
+        <v>502</v>
+      </c>
+      <c r="G57" t="s">
         <v>136</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>366</v>
       </c>
-      <c r="I57" t="str">
+      <c r="J57" t="str">
         <f>CONCATENATE("bus-",bus!A55)</f>
         <v>bus-306</v>
       </c>
-      <c r="J57">
+      <c r="K57">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A57,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>1.5906432748538011E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>367</v>
       </c>
@@ -18225,21 +18400,24 @@
         <v>465</v>
       </c>
       <c r="F58" t="s">
+        <v>502</v>
+      </c>
+      <c r="G58" t="s">
         <v>136</v>
       </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>367</v>
       </c>
-      <c r="I58" t="str">
+      <c r="J58" t="str">
         <f>CONCATENATE("bus-",bus!A56)</f>
         <v>bus-307</v>
       </c>
-      <c r="J58">
+      <c r="K58">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A58,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>1.4619883040935672E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>368</v>
       </c>
@@ -18253,21 +18431,24 @@
         <v>465</v>
       </c>
       <c r="F59" t="s">
+        <v>502</v>
+      </c>
+      <c r="G59" t="s">
         <v>136</v>
       </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>368</v>
       </c>
-      <c r="I59" t="str">
+      <c r="J59" t="str">
         <f>CONCATENATE("bus-",bus!A57)</f>
         <v>bus-308</v>
       </c>
-      <c r="J59">
+      <c r="K59">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A59,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>0.02</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>369</v>
       </c>
@@ -18281,21 +18462,24 @@
         <v>465</v>
       </c>
       <c r="F60" t="s">
+        <v>502</v>
+      </c>
+      <c r="G60" t="s">
         <v>136</v>
       </c>
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>369</v>
       </c>
-      <c r="I60" t="str">
+      <c r="J60" t="str">
         <f>CONCATENATE("bus-",bus!A58)</f>
         <v>bus-309</v>
       </c>
-      <c r="J60">
+      <c r="K60">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A60,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>2.046783625730994E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>370</v>
       </c>
@@ -18309,21 +18493,24 @@
         <v>465</v>
       </c>
       <c r="F61" t="s">
+        <v>502</v>
+      </c>
+      <c r="G61" t="s">
         <v>136</v>
       </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>370</v>
       </c>
-      <c r="I61" t="str">
+      <c r="J61" t="str">
         <f>CONCATENATE("bus-",bus!A59)</f>
         <v>bus-310</v>
       </c>
-      <c r="J61">
+      <c r="K61">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A61,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>2.2807017543859651E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>371</v>
       </c>
@@ -18337,21 +18524,24 @@
         <v>465</v>
       </c>
       <c r="F62" t="s">
+        <v>502</v>
+      </c>
+      <c r="G62" t="s">
         <v>136</v>
       </c>
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>371</v>
       </c>
-      <c r="I62" t="str">
+      <c r="J62" t="str">
         <f>CONCATENATE("bus-",bus!A60)</f>
         <v>bus-311</v>
       </c>
-      <c r="J62">
+      <c r="K62">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A62,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>372</v>
       </c>
@@ -18365,21 +18555,24 @@
         <v>465</v>
       </c>
       <c r="F63" t="s">
+        <v>502</v>
+      </c>
+      <c r="G63" t="s">
         <v>136</v>
       </c>
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>372</v>
       </c>
-      <c r="I63" t="str">
+      <c r="J63" t="str">
         <f>CONCATENATE("bus-",bus!A61)</f>
         <v>bus-312</v>
       </c>
-      <c r="J63">
+      <c r="K63">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A63,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>373</v>
       </c>
@@ -18393,21 +18586,24 @@
         <v>465</v>
       </c>
       <c r="F64" t="s">
+        <v>502</v>
+      </c>
+      <c r="G64" t="s">
         <v>136</v>
       </c>
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>373</v>
       </c>
-      <c r="I64" t="str">
+      <c r="J64" t="str">
         <f>CONCATENATE("bus-",bus!A62)</f>
         <v>bus-313</v>
       </c>
-      <c r="J64">
+      <c r="K64">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A64,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>3.0994152046783626E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>374</v>
       </c>
@@ -18421,21 +18617,24 @@
         <v>465</v>
       </c>
       <c r="F65" t="s">
+        <v>502</v>
+      </c>
+      <c r="G65" t="s">
         <v>136</v>
       </c>
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>374</v>
       </c>
-      <c r="I65" t="str">
+      <c r="J65" t="str">
         <f>CONCATENATE("bus-",bus!A63)</f>
         <v>bus-314</v>
       </c>
-      <c r="J65">
+      <c r="K65">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A65,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>2.2690058479532163E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>375</v>
       </c>
@@ -18449,21 +18648,24 @@
         <v>465</v>
       </c>
       <c r="F66" t="s">
+        <v>502</v>
+      </c>
+      <c r="G66" t="s">
         <v>136</v>
       </c>
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>375</v>
       </c>
-      <c r="I66" t="str">
+      <c r="J66" t="str">
         <f>CONCATENATE("bus-",bus!A64)</f>
         <v>bus-315</v>
       </c>
-      <c r="J66">
+      <c r="K66">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A66,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>3.7076023391812866E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>376</v>
       </c>
@@ -18477,21 +18679,24 @@
         <v>465</v>
       </c>
       <c r="F67" t="s">
+        <v>502</v>
+      </c>
+      <c r="G67" t="s">
         <v>136</v>
       </c>
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>376</v>
       </c>
-      <c r="I67" t="str">
+      <c r="J67" t="str">
         <f>CONCATENATE("bus-",bus!A65)</f>
         <v>bus-316</v>
       </c>
-      <c r="J67">
+      <c r="K67">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A67,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>1.1695906432748537E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>377</v>
       </c>
@@ -18505,21 +18710,24 @@
         <v>465</v>
       </c>
       <c r="F68" t="s">
+        <v>502</v>
+      </c>
+      <c r="G68" t="s">
         <v>136</v>
       </c>
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>377</v>
       </c>
-      <c r="I68" t="str">
+      <c r="J68" t="str">
         <f>CONCATENATE("bus-",bus!A66)</f>
         <v>bus-317</v>
       </c>
-      <c r="J68">
+      <c r="K68">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A68,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>378</v>
       </c>
@@ -18533,21 +18741,24 @@
         <v>465</v>
       </c>
       <c r="F69" t="s">
+        <v>502</v>
+      </c>
+      <c r="G69" t="s">
         <v>136</v>
       </c>
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>378</v>
       </c>
-      <c r="I69" t="str">
+      <c r="J69" t="str">
         <f>CONCATENATE("bus-",bus!A67)</f>
         <v>bus-318</v>
       </c>
-      <c r="J69">
+      <c r="K69">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A69,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>3.8947368421052633E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>379</v>
       </c>
@@ -18561,21 +18772,24 @@
         <v>465</v>
       </c>
       <c r="F70" t="s">
+        <v>502</v>
+      </c>
+      <c r="G70" t="s">
         <v>136</v>
       </c>
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>379</v>
       </c>
-      <c r="I70" t="str">
+      <c r="J70" t="str">
         <f>CONCATENATE("bus-",bus!A68)</f>
         <v>bus-319</v>
       </c>
-      <c r="J70">
+      <c r="K70">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A70,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>2.1169590643274852E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>380</v>
       </c>
@@ -18589,21 +18803,24 @@
         <v>465</v>
       </c>
       <c r="F71" t="s">
+        <v>502</v>
+      </c>
+      <c r="G71" t="s">
         <v>136</v>
       </c>
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>380</v>
       </c>
-      <c r="I71" t="str">
+      <c r="J71" t="str">
         <f>CONCATENATE("bus-",bus!A69)</f>
         <v>bus-320</v>
       </c>
-      <c r="J71">
+      <c r="K71">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A71,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>1.4970760233918129E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>381</v>
       </c>
@@ -18617,21 +18834,24 @@
         <v>465</v>
       </c>
       <c r="F72" t="s">
+        <v>502</v>
+      </c>
+      <c r="G72" t="s">
         <v>136</v>
       </c>
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>381</v>
       </c>
-      <c r="I72" t="str">
+      <c r="J72" t="str">
         <f>CONCATENATE("bus-",bus!A70)</f>
         <v>bus-321</v>
       </c>
-      <c r="J72">
+      <c r="K72">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A72,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>390</v>
       </c>
@@ -18645,21 +18865,24 @@
         <v>465</v>
       </c>
       <c r="F73" t="s">
+        <v>502</v>
+      </c>
+      <c r="G73" t="s">
         <v>136</v>
       </c>
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>390</v>
       </c>
-      <c r="I73" t="str">
+      <c r="J73" t="str">
         <f>CONCATENATE("bus-",bus!A71)</f>
         <v>bus-322</v>
       </c>
-      <c r="J73">
+      <c r="K73">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A73,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>382</v>
       </c>
@@ -18673,21 +18896,24 @@
         <v>465</v>
       </c>
       <c r="F74" t="s">
+        <v>502</v>
+      </c>
+      <c r="G74" t="s">
         <v>136</v>
       </c>
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>382</v>
       </c>
-      <c r="I74" t="str">
+      <c r="J74" t="str">
         <f>CONCATENATE("bus-",bus!A72)</f>
         <v>bus-323</v>
       </c>
-      <c r="J74">
+      <c r="K74">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A74,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>389</v>
       </c>
@@ -18701,21 +18927,24 @@
         <v>465</v>
       </c>
       <c r="F75" t="s">
+        <v>502</v>
+      </c>
+      <c r="G75" t="s">
         <v>136</v>
       </c>
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>389</v>
       </c>
-      <c r="I75" t="str">
+      <c r="J75" t="str">
         <f>CONCATENATE("bus-",bus!A73)</f>
         <v>bus-324</v>
       </c>
-      <c r="J75">
+      <c r="K75">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A75,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>383</v>
       </c>
@@ -18729,16 +18958,19 @@
         <v>465</v>
       </c>
       <c r="F76" t="s">
+        <v>502</v>
+      </c>
+      <c r="G76" t="s">
         <v>136</v>
       </c>
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>383</v>
       </c>
-      <c r="I76" t="str">
+      <c r="J76" t="str">
         <f>CONCATENATE("bus-",bus!A74)</f>
         <v>bus-325</v>
       </c>
-      <c r="J76">
+      <c r="K76">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A76,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>0</v>
       </c>

--- a/spine_rts-gmlc/datasets/branch_bus_detailed.xlsx
+++ b/spine_rts-gmlc/datasets/branch_bus_detailed.xlsx
@@ -16621,10 +16621,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K76"/>
+  <dimension ref="A1:L76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16634,15 +16634,15 @@
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>474</v>
       </c>
@@ -16655,14 +16655,14 @@
       <c r="E1" t="s">
         <v>494</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>496</v>
+      </c>
+      <c r="L1" t="s">
         <v>494</v>
       </c>
-      <c r="H1" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>136</v>
       </c>
@@ -16679,22 +16679,22 @@
         <v>464</v>
       </c>
       <c r="F2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G2" t="s">
+        <v>468</v>
+      </c>
+      <c r="I2" t="s">
+        <v>493</v>
+      </c>
+      <c r="J2" t="s">
+        <v>492</v>
+      </c>
+      <c r="L2" t="s">
         <v>501</v>
       </c>
-      <c r="G2" t="s">
-        <v>474</v>
-      </c>
-      <c r="H2" t="s">
-        <v>468</v>
-      </c>
-      <c r="J2" t="s">
-        <v>493</v>
-      </c>
-      <c r="K2" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>468</v>
       </c>
@@ -16709,7 +16709,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>318</v>
       </c>
@@ -16723,24 +16723,24 @@
         <v>465</v>
       </c>
       <c r="F4" t="s">
-        <v>502</v>
+        <v>136</v>
       </c>
       <c r="G4" t="s">
-        <v>136</v>
-      </c>
-      <c r="H4" t="s">
         <v>318</v>
       </c>
-      <c r="J4" t="str">
+      <c r="I4" t="str">
         <f>CONCATENATE("bus-",bus!A2)</f>
         <v>bus-101</v>
       </c>
-      <c r="K4">
+      <c r="J4">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A4,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>1.2631578947368421E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>319</v>
       </c>
@@ -16754,24 +16754,24 @@
         <v>465</v>
       </c>
       <c r="F5" t="s">
-        <v>502</v>
+        <v>136</v>
       </c>
       <c r="G5" t="s">
-        <v>136</v>
-      </c>
-      <c r="H5" t="s">
         <v>319</v>
       </c>
-      <c r="J5" t="str">
+      <c r="I5" t="str">
         <f>CONCATENATE("bus-",bus!A3)</f>
         <v>bus-102</v>
       </c>
-      <c r="K5">
+      <c r="J5">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A5,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>1.1345029239766082E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>320</v>
       </c>
@@ -16785,24 +16785,24 @@
         <v>465</v>
       </c>
       <c r="F6" t="s">
-        <v>502</v>
+        <v>136</v>
       </c>
       <c r="G6" t="s">
-        <v>136</v>
-      </c>
-      <c r="H6" t="s">
         <v>320</v>
       </c>
-      <c r="J6" t="str">
+      <c r="I6" t="str">
         <f>CONCATENATE("bus-",bus!A4)</f>
         <v>bus-103</v>
       </c>
-      <c r="K6">
+      <c r="J6">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A6,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>2.1052631578947368E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>321</v>
       </c>
@@ -16816,24 +16816,24 @@
         <v>465</v>
       </c>
       <c r="F7" t="s">
-        <v>502</v>
+        <v>136</v>
       </c>
       <c r="G7" t="s">
-        <v>136</v>
-      </c>
-      <c r="H7" t="s">
         <v>321</v>
       </c>
-      <c r="J7" t="str">
+      <c r="I7" t="str">
         <f>CONCATENATE("bus-",bus!A5)</f>
         <v>bus-104</v>
       </c>
-      <c r="K7">
+      <c r="J7">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A7,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>8.6549707602339189E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>322</v>
       </c>
@@ -16847,24 +16847,24 @@
         <v>465</v>
       </c>
       <c r="F8" t="s">
-        <v>502</v>
+        <v>136</v>
       </c>
       <c r="G8" t="s">
-        <v>136</v>
-      </c>
-      <c r="H8" t="s">
         <v>322</v>
       </c>
-      <c r="J8" t="str">
+      <c r="I8" t="str">
         <f>CONCATENATE("bus-",bus!A6)</f>
         <v>bus-105</v>
       </c>
-      <c r="K8">
+      <c r="J8">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A8,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>8.3040935672514613E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>323</v>
       </c>
@@ -16878,24 +16878,24 @@
         <v>465</v>
       </c>
       <c r="F9" t="s">
-        <v>502</v>
+        <v>136</v>
       </c>
       <c r="G9" t="s">
-        <v>136</v>
-      </c>
-      <c r="H9" t="s">
         <v>323</v>
       </c>
-      <c r="J9" t="str">
+      <c r="I9" t="str">
         <f>CONCATENATE("bus-",bus!A7)</f>
         <v>bus-106</v>
       </c>
-      <c r="K9">
+      <c r="J9">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A9,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>1.5906432748538011E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>324</v>
       </c>
@@ -16909,24 +16909,24 @@
         <v>465</v>
       </c>
       <c r="F10" t="s">
-        <v>502</v>
+        <v>136</v>
       </c>
       <c r="G10" t="s">
-        <v>136</v>
-      </c>
-      <c r="H10" t="s">
         <v>324</v>
       </c>
-      <c r="J10" t="str">
+      <c r="I10" t="str">
         <f>CONCATENATE("bus-",bus!A8)</f>
         <v>bus-107</v>
       </c>
-      <c r="K10">
+      <c r="J10">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A10,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>1.4619883040935672E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>325</v>
       </c>
@@ -16940,24 +16940,24 @@
         <v>465</v>
       </c>
       <c r="F11" t="s">
-        <v>502</v>
+        <v>136</v>
       </c>
       <c r="G11" t="s">
-        <v>136</v>
-      </c>
-      <c r="H11" t="s">
         <v>325</v>
       </c>
-      <c r="J11" t="str">
+      <c r="I11" t="str">
         <f>CONCATENATE("bus-",bus!A9)</f>
         <v>bus-108</v>
       </c>
-      <c r="K11">
+      <c r="J11">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A11,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>0.02</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>326</v>
       </c>
@@ -16971,24 +16971,24 @@
         <v>465</v>
       </c>
       <c r="F12" t="s">
-        <v>502</v>
+        <v>136</v>
       </c>
       <c r="G12" t="s">
-        <v>136</v>
-      </c>
-      <c r="H12" t="s">
         <v>326</v>
       </c>
-      <c r="J12" t="str">
+      <c r="I12" t="str">
         <f>CONCATENATE("bus-",bus!A10)</f>
         <v>bus-109</v>
       </c>
-      <c r="K12">
+      <c r="J12">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A12,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>2.046783625730994E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>327</v>
       </c>
@@ -17002,24 +17002,24 @@
         <v>465</v>
       </c>
       <c r="F13" t="s">
-        <v>502</v>
+        <v>136</v>
       </c>
       <c r="G13" t="s">
-        <v>136</v>
-      </c>
-      <c r="H13" t="s">
         <v>327</v>
       </c>
-      <c r="J13" t="str">
+      <c r="I13" t="str">
         <f>CONCATENATE("bus-",bus!A11)</f>
         <v>bus-110</v>
       </c>
-      <c r="K13">
+      <c r="J13">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A13,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>2.2807017543859651E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>328</v>
       </c>
@@ -17033,24 +17033,24 @@
         <v>465</v>
       </c>
       <c r="F14" t="s">
-        <v>502</v>
+        <v>136</v>
       </c>
       <c r="G14" t="s">
-        <v>136</v>
-      </c>
-      <c r="H14" t="s">
         <v>328</v>
       </c>
-      <c r="J14" t="str">
+      <c r="I14" t="str">
         <f>CONCATENATE("bus-",bus!A12)</f>
         <v>bus-111</v>
       </c>
-      <c r="K14">
+      <c r="J14">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A14,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>329</v>
       </c>
@@ -17064,24 +17064,24 @@
         <v>465</v>
       </c>
       <c r="F15" t="s">
-        <v>502</v>
+        <v>136</v>
       </c>
       <c r="G15" t="s">
-        <v>136</v>
-      </c>
-      <c r="H15" t="s">
         <v>329</v>
       </c>
-      <c r="J15" t="str">
+      <c r="I15" t="str">
         <f>CONCATENATE("bus-",bus!A13)</f>
         <v>bus-112</v>
       </c>
-      <c r="K15">
+      <c r="J15">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A15,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>330</v>
       </c>
@@ -17098,24 +17098,24 @@
         <v>466</v>
       </c>
       <c r="F16" t="s">
-        <v>502</v>
+        <v>136</v>
       </c>
       <c r="G16" t="s">
-        <v>136</v>
-      </c>
-      <c r="H16" t="s">
         <v>330</v>
       </c>
-      <c r="J16" t="str">
+      <c r="I16" t="str">
         <f>CONCATENATE("bus-",bus!A14)</f>
         <v>bus-113</v>
       </c>
-      <c r="K16">
+      <c r="J16">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A16,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>3.0994152046783626E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>331</v>
       </c>
@@ -17129,24 +17129,24 @@
         <v>465</v>
       </c>
       <c r="F17" t="s">
-        <v>502</v>
+        <v>136</v>
       </c>
       <c r="G17" t="s">
-        <v>136</v>
-      </c>
-      <c r="H17" t="s">
         <v>331</v>
       </c>
-      <c r="J17" t="str">
+      <c r="I17" t="str">
         <f>CONCATENATE("bus-",bus!A15)</f>
         <v>bus-114</v>
       </c>
-      <c r="K17">
+      <c r="J17">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A17,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>2.2690058479532163E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>332</v>
       </c>
@@ -17160,24 +17160,24 @@
         <v>465</v>
       </c>
       <c r="F18" t="s">
-        <v>502</v>
+        <v>136</v>
       </c>
       <c r="G18" t="s">
-        <v>136</v>
-      </c>
-      <c r="H18" t="s">
         <v>332</v>
       </c>
-      <c r="J18" t="str">
+      <c r="I18" t="str">
         <f>CONCATENATE("bus-",bus!A16)</f>
         <v>bus-115</v>
       </c>
-      <c r="K18">
+      <c r="J18">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A18,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>3.7076023391812866E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>333</v>
       </c>
@@ -17191,24 +17191,24 @@
         <v>465</v>
       </c>
       <c r="F19" t="s">
-        <v>502</v>
+        <v>136</v>
       </c>
       <c r="G19" t="s">
-        <v>136</v>
-      </c>
-      <c r="H19" t="s">
         <v>333</v>
       </c>
-      <c r="J19" t="str">
+      <c r="I19" t="str">
         <f>CONCATENATE("bus-",bus!A17)</f>
         <v>bus-116</v>
       </c>
-      <c r="K19">
+      <c r="J19">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A19,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>1.1695906432748537E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>334</v>
       </c>
@@ -17222,24 +17222,24 @@
         <v>465</v>
       </c>
       <c r="F20" t="s">
-        <v>502</v>
+        <v>136</v>
       </c>
       <c r="G20" t="s">
-        <v>136</v>
-      </c>
-      <c r="H20" t="s">
         <v>334</v>
       </c>
-      <c r="J20" t="str">
+      <c r="I20" t="str">
         <f>CONCATENATE("bus-",bus!A18)</f>
         <v>bus-117</v>
       </c>
-      <c r="K20">
+      <c r="J20">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A20,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>335</v>
       </c>
@@ -17253,24 +17253,24 @@
         <v>465</v>
       </c>
       <c r="F21" t="s">
-        <v>502</v>
+        <v>136</v>
       </c>
       <c r="G21" t="s">
-        <v>136</v>
-      </c>
-      <c r="H21" t="s">
         <v>335</v>
       </c>
-      <c r="J21" t="str">
+      <c r="I21" t="str">
         <f>CONCATENATE("bus-",bus!A19)</f>
         <v>bus-118</v>
       </c>
-      <c r="K21">
+      <c r="J21">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A21,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>3.8947368421052633E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>336</v>
       </c>
@@ -17284,24 +17284,24 @@
         <v>465</v>
       </c>
       <c r="F22" t="s">
-        <v>502</v>
+        <v>136</v>
       </c>
       <c r="G22" t="s">
-        <v>136</v>
-      </c>
-      <c r="H22" t="s">
         <v>336</v>
       </c>
-      <c r="J22" t="str">
+      <c r="I22" t="str">
         <f>CONCATENATE("bus-",bus!A20)</f>
         <v>bus-119</v>
       </c>
-      <c r="K22">
+      <c r="J22">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A22,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>2.1169590643274852E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>337</v>
       </c>
@@ -17315,24 +17315,24 @@
         <v>465</v>
       </c>
       <c r="F23" t="s">
-        <v>502</v>
+        <v>136</v>
       </c>
       <c r="G23" t="s">
-        <v>136</v>
-      </c>
-      <c r="H23" t="s">
         <v>337</v>
       </c>
-      <c r="J23" t="str">
+      <c r="I23" t="str">
         <f>CONCATENATE("bus-",bus!A21)</f>
         <v>bus-120</v>
       </c>
-      <c r="K23">
+      <c r="J23">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A23,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>1.4970760233918129E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>338</v>
       </c>
@@ -17346,24 +17346,24 @@
         <v>465</v>
       </c>
       <c r="F24" t="s">
-        <v>502</v>
+        <v>136</v>
       </c>
       <c r="G24" t="s">
-        <v>136</v>
-      </c>
-      <c r="H24" t="s">
         <v>338</v>
       </c>
-      <c r="J24" t="str">
+      <c r="I24" t="str">
         <f>CONCATENATE("bus-",bus!A22)</f>
         <v>bus-121</v>
       </c>
-      <c r="K24">
+      <c r="J24">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A24,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>385</v>
       </c>
@@ -17377,24 +17377,24 @@
         <v>465</v>
       </c>
       <c r="F25" t="s">
-        <v>502</v>
+        <v>136</v>
       </c>
       <c r="G25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H25" t="s">
         <v>385</v>
       </c>
-      <c r="J25" t="str">
+      <c r="I25" t="str">
         <f>CONCATENATE("bus-",bus!A23)</f>
         <v>bus-122</v>
       </c>
-      <c r="K25">
+      <c r="J25">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A25,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>339</v>
       </c>
@@ -17408,24 +17408,24 @@
         <v>465</v>
       </c>
       <c r="F26" t="s">
-        <v>502</v>
+        <v>136</v>
       </c>
       <c r="G26" t="s">
-        <v>136</v>
-      </c>
-      <c r="H26" t="s">
         <v>339</v>
       </c>
-      <c r="J26" t="str">
+      <c r="I26" t="str">
         <f>CONCATENATE("bus-",bus!A24)</f>
         <v>bus-123</v>
       </c>
-      <c r="K26">
+      <c r="J26">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A26,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>384</v>
       </c>
@@ -17439,24 +17439,24 @@
         <v>465</v>
       </c>
       <c r="F27" t="s">
-        <v>502</v>
+        <v>136</v>
       </c>
       <c r="G27" t="s">
-        <v>136</v>
-      </c>
-      <c r="H27" t="s">
         <v>384</v>
       </c>
-      <c r="J27" t="str">
+      <c r="I27" t="str">
         <f>CONCATENATE("bus-",bus!A25)</f>
         <v>bus-124</v>
       </c>
-      <c r="K27">
+      <c r="J27">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A27,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L27" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>340</v>
       </c>
@@ -17470,24 +17470,24 @@
         <v>465</v>
       </c>
       <c r="F28" t="s">
-        <v>502</v>
+        <v>136</v>
       </c>
       <c r="G28" t="s">
-        <v>136</v>
-      </c>
-      <c r="H28" t="s">
         <v>340</v>
       </c>
-      <c r="J28" t="str">
+      <c r="I28" t="str">
         <f>CONCATENATE("bus-",bus!A26)</f>
         <v>bus-201</v>
       </c>
-      <c r="K28">
+      <c r="J28">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A28,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>1.2631578947368421E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L28" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>341</v>
       </c>
@@ -17501,24 +17501,24 @@
         <v>465</v>
       </c>
       <c r="F29" t="s">
-        <v>502</v>
+        <v>136</v>
       </c>
       <c r="G29" t="s">
-        <v>136</v>
-      </c>
-      <c r="H29" t="s">
         <v>341</v>
       </c>
-      <c r="J29" t="str">
+      <c r="I29" t="str">
         <f>CONCATENATE("bus-",bus!A27)</f>
         <v>bus-202</v>
       </c>
-      <c r="K29">
+      <c r="J29">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A29,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>1.1345029239766082E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L29" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>342</v>
       </c>
@@ -17532,24 +17532,24 @@
         <v>465</v>
       </c>
       <c r="F30" t="s">
-        <v>502</v>
+        <v>136</v>
       </c>
       <c r="G30" t="s">
-        <v>136</v>
-      </c>
-      <c r="H30" t="s">
         <v>342</v>
       </c>
-      <c r="J30" t="str">
+      <c r="I30" t="str">
         <f>CONCATENATE("bus-",bus!A28)</f>
         <v>bus-203</v>
       </c>
-      <c r="K30">
+      <c r="J30">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A30,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>2.1052631578947368E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L30" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>343</v>
       </c>
@@ -17563,24 +17563,24 @@
         <v>465</v>
       </c>
       <c r="F31" t="s">
-        <v>502</v>
+        <v>136</v>
       </c>
       <c r="G31" t="s">
-        <v>136</v>
-      </c>
-      <c r="H31" t="s">
         <v>343</v>
       </c>
-      <c r="J31" t="str">
+      <c r="I31" t="str">
         <f>CONCATENATE("bus-",bus!A29)</f>
         <v>bus-204</v>
       </c>
-      <c r="K31">
+      <c r="J31">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A31,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>8.6549707602339189E-3</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L31" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>344</v>
       </c>
@@ -17594,24 +17594,24 @@
         <v>465</v>
       </c>
       <c r="F32" t="s">
-        <v>502</v>
+        <v>136</v>
       </c>
       <c r="G32" t="s">
-        <v>136</v>
-      </c>
-      <c r="H32" t="s">
         <v>344</v>
       </c>
-      <c r="J32" t="str">
+      <c r="I32" t="str">
         <f>CONCATENATE("bus-",bus!A30)</f>
         <v>bus-205</v>
       </c>
-      <c r="K32">
+      <c r="J32">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A32,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>8.3040935672514613E-3</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L32" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>345</v>
       </c>
@@ -17625,24 +17625,24 @@
         <v>465</v>
       </c>
       <c r="F33" t="s">
-        <v>502</v>
+        <v>136</v>
       </c>
       <c r="G33" t="s">
-        <v>136</v>
-      </c>
-      <c r="H33" t="s">
         <v>345</v>
       </c>
-      <c r="J33" t="str">
+      <c r="I33" t="str">
         <f>CONCATENATE("bus-",bus!A31)</f>
         <v>bus-206</v>
       </c>
-      <c r="K33">
+      <c r="J33">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A33,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>1.5906432748538011E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L33" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>346</v>
       </c>
@@ -17656,24 +17656,24 @@
         <v>465</v>
       </c>
       <c r="F34" t="s">
-        <v>502</v>
+        <v>136</v>
       </c>
       <c r="G34" t="s">
-        <v>136</v>
-      </c>
-      <c r="H34" t="s">
         <v>346</v>
       </c>
-      <c r="J34" t="str">
+      <c r="I34" t="str">
         <f>CONCATENATE("bus-",bus!A32)</f>
         <v>bus-207</v>
       </c>
-      <c r="K34">
+      <c r="J34">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A34,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>1.4619883040935672E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L34" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>347</v>
       </c>
@@ -17687,24 +17687,24 @@
         <v>465</v>
       </c>
       <c r="F35" t="s">
-        <v>502</v>
+        <v>136</v>
       </c>
       <c r="G35" t="s">
-        <v>136</v>
-      </c>
-      <c r="H35" t="s">
         <v>347</v>
       </c>
-      <c r="J35" t="str">
+      <c r="I35" t="str">
         <f>CONCATENATE("bus-",bus!A33)</f>
         <v>bus-208</v>
       </c>
-      <c r="K35">
+      <c r="J35">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A35,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>0.02</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L35" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>348</v>
       </c>
@@ -17718,24 +17718,24 @@
         <v>465</v>
       </c>
       <c r="F36" t="s">
-        <v>502</v>
+        <v>136</v>
       </c>
       <c r="G36" t="s">
-        <v>136</v>
-      </c>
-      <c r="H36" t="s">
         <v>348</v>
       </c>
-      <c r="J36" t="str">
+      <c r="I36" t="str">
         <f>CONCATENATE("bus-",bus!A34)</f>
         <v>bus-209</v>
       </c>
-      <c r="K36">
+      <c r="J36">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A36,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>2.046783625730994E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L36" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>349</v>
       </c>
@@ -17749,24 +17749,24 @@
         <v>465</v>
       </c>
       <c r="F37" t="s">
-        <v>502</v>
+        <v>136</v>
       </c>
       <c r="G37" t="s">
-        <v>136</v>
-      </c>
-      <c r="H37" t="s">
         <v>349</v>
       </c>
-      <c r="J37" t="str">
+      <c r="I37" t="str">
         <f>CONCATENATE("bus-",bus!A35)</f>
         <v>bus-210</v>
       </c>
-      <c r="K37">
+      <c r="J37">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A37,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>2.2807017543859651E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L37" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>350</v>
       </c>
@@ -17780,24 +17780,24 @@
         <v>465</v>
       </c>
       <c r="F38" t="s">
-        <v>502</v>
+        <v>136</v>
       </c>
       <c r="G38" t="s">
-        <v>136</v>
-      </c>
-      <c r="H38" t="s">
         <v>350</v>
       </c>
-      <c r="J38" t="str">
+      <c r="I38" t="str">
         <f>CONCATENATE("bus-",bus!A36)</f>
         <v>bus-211</v>
       </c>
-      <c r="K38">
+      <c r="J38">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A38,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L38" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>351</v>
       </c>
@@ -17811,24 +17811,24 @@
         <v>465</v>
       </c>
       <c r="F39" t="s">
-        <v>502</v>
+        <v>136</v>
       </c>
       <c r="G39" t="s">
-        <v>136</v>
-      </c>
-      <c r="H39" t="s">
         <v>351</v>
       </c>
-      <c r="J39" t="str">
+      <c r="I39" t="str">
         <f>CONCATENATE("bus-",bus!A37)</f>
         <v>bus-212</v>
       </c>
-      <c r="K39">
+      <c r="J39">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A39,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L39" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>352</v>
       </c>
@@ -17842,24 +17842,24 @@
         <v>465</v>
       </c>
       <c r="F40" t="s">
-        <v>502</v>
+        <v>136</v>
       </c>
       <c r="G40" t="s">
-        <v>136</v>
-      </c>
-      <c r="H40" t="s">
         <v>352</v>
       </c>
-      <c r="J40" t="str">
+      <c r="I40" t="str">
         <f>CONCATENATE("bus-",bus!A38)</f>
         <v>bus-213</v>
       </c>
-      <c r="K40">
+      <c r="J40">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A40,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>3.0994152046783626E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L40" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>353</v>
       </c>
@@ -17873,24 +17873,24 @@
         <v>465</v>
       </c>
       <c r="F41" t="s">
-        <v>502</v>
+        <v>136</v>
       </c>
       <c r="G41" t="s">
-        <v>136</v>
-      </c>
-      <c r="H41" t="s">
         <v>353</v>
       </c>
-      <c r="J41" t="str">
+      <c r="I41" t="str">
         <f>CONCATENATE("bus-",bus!A39)</f>
         <v>bus-214</v>
       </c>
-      <c r="K41">
+      <c r="J41">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A41,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>2.2690058479532163E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L41" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>354</v>
       </c>
@@ -17904,24 +17904,24 @@
         <v>465</v>
       </c>
       <c r="F42" t="s">
-        <v>502</v>
+        <v>136</v>
       </c>
       <c r="G42" t="s">
-        <v>136</v>
-      </c>
-      <c r="H42" t="s">
         <v>354</v>
       </c>
-      <c r="J42" t="str">
+      <c r="I42" t="str">
         <f>CONCATENATE("bus-",bus!A40)</f>
         <v>bus-215</v>
       </c>
-      <c r="K42">
+      <c r="J42">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A42,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>3.7076023391812866E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L42" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>355</v>
       </c>
@@ -17935,24 +17935,24 @@
         <v>465</v>
       </c>
       <c r="F43" t="s">
-        <v>502</v>
+        <v>136</v>
       </c>
       <c r="G43" t="s">
-        <v>136</v>
-      </c>
-      <c r="H43" t="s">
         <v>355</v>
       </c>
-      <c r="J43" t="str">
+      <c r="I43" t="str">
         <f>CONCATENATE("bus-",bus!A41)</f>
         <v>bus-216</v>
       </c>
-      <c r="K43">
+      <c r="J43">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A43,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>1.1695906432748537E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L43" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>356</v>
       </c>
@@ -17966,24 +17966,24 @@
         <v>465</v>
       </c>
       <c r="F44" t="s">
-        <v>502</v>
+        <v>136</v>
       </c>
       <c r="G44" t="s">
-        <v>136</v>
-      </c>
-      <c r="H44" t="s">
         <v>356</v>
       </c>
-      <c r="J44" t="str">
+      <c r="I44" t="str">
         <f>CONCATENATE("bus-",bus!A42)</f>
         <v>bus-217</v>
       </c>
-      <c r="K44">
+      <c r="J44">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A44,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L44" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>357</v>
       </c>
@@ -17997,24 +17997,24 @@
         <v>465</v>
       </c>
       <c r="F45" t="s">
-        <v>502</v>
+        <v>136</v>
       </c>
       <c r="G45" t="s">
-        <v>136</v>
-      </c>
-      <c r="H45" t="s">
         <v>357</v>
       </c>
-      <c r="J45" t="str">
+      <c r="I45" t="str">
         <f>CONCATENATE("bus-",bus!A43)</f>
         <v>bus-218</v>
       </c>
-      <c r="K45">
+      <c r="J45">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A45,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>3.8947368421052633E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L45" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>358</v>
       </c>
@@ -18028,24 +18028,24 @@
         <v>465</v>
       </c>
       <c r="F46" t="s">
-        <v>502</v>
+        <v>136</v>
       </c>
       <c r="G46" t="s">
-        <v>136</v>
-      </c>
-      <c r="H46" t="s">
         <v>358</v>
       </c>
-      <c r="J46" t="str">
+      <c r="I46" t="str">
         <f>CONCATENATE("bus-",bus!A44)</f>
         <v>bus-219</v>
       </c>
-      <c r="K46">
+      <c r="J46">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A46,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>2.1169590643274852E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L46" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>359</v>
       </c>
@@ -18059,24 +18059,24 @@
         <v>465</v>
       </c>
       <c r="F47" t="s">
-        <v>502</v>
+        <v>136</v>
       </c>
       <c r="G47" t="s">
-        <v>136</v>
-      </c>
-      <c r="H47" t="s">
         <v>359</v>
       </c>
-      <c r="J47" t="str">
+      <c r="I47" t="str">
         <f>CONCATENATE("bus-",bus!A45)</f>
         <v>bus-220</v>
       </c>
-      <c r="K47">
+      <c r="J47">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A47,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>1.4970760233918129E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L47" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>360</v>
       </c>
@@ -18090,24 +18090,24 @@
         <v>465</v>
       </c>
       <c r="F48" t="s">
-        <v>502</v>
+        <v>136</v>
       </c>
       <c r="G48" t="s">
-        <v>136</v>
-      </c>
-      <c r="H48" t="s">
         <v>360</v>
       </c>
-      <c r="J48" t="str">
+      <c r="I48" t="str">
         <f>CONCATENATE("bus-",bus!A46)</f>
         <v>bus-221</v>
       </c>
-      <c r="K48">
+      <c r="J48">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A48,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L48" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>388</v>
       </c>
@@ -18121,24 +18121,24 @@
         <v>465</v>
       </c>
       <c r="F49" t="s">
-        <v>502</v>
+        <v>136</v>
       </c>
       <c r="G49" t="s">
-        <v>136</v>
-      </c>
-      <c r="H49" t="s">
         <v>388</v>
       </c>
-      <c r="J49" t="str">
+      <c r="I49" t="str">
         <f>CONCATENATE("bus-",bus!A47)</f>
         <v>bus-222</v>
       </c>
-      <c r="K49">
+      <c r="J49">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A49,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L49" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>387</v>
       </c>
@@ -18152,24 +18152,24 @@
         <v>465</v>
       </c>
       <c r="F50" t="s">
-        <v>502</v>
+        <v>136</v>
       </c>
       <c r="G50" t="s">
-        <v>136</v>
-      </c>
-      <c r="H50" t="s">
         <v>387</v>
       </c>
-      <c r="J50" t="str">
+      <c r="I50" t="str">
         <f>CONCATENATE("bus-",bus!A48)</f>
         <v>bus-223</v>
       </c>
-      <c r="K50">
+      <c r="J50">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A50,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L50" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>386</v>
       </c>
@@ -18183,24 +18183,24 @@
         <v>465</v>
       </c>
       <c r="F51" t="s">
-        <v>502</v>
+        <v>136</v>
       </c>
       <c r="G51" t="s">
-        <v>136</v>
-      </c>
-      <c r="H51" t="s">
         <v>386</v>
       </c>
-      <c r="J51" t="str">
+      <c r="I51" t="str">
         <f>CONCATENATE("bus-",bus!A49)</f>
         <v>bus-224</v>
       </c>
-      <c r="K51">
+      <c r="J51">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A51,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L51" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>361</v>
       </c>
@@ -18214,24 +18214,24 @@
         <v>465</v>
       </c>
       <c r="F52" t="s">
-        <v>502</v>
+        <v>136</v>
       </c>
       <c r="G52" t="s">
-        <v>136</v>
-      </c>
-      <c r="H52" t="s">
         <v>361</v>
       </c>
-      <c r="J52" t="str">
+      <c r="I52" t="str">
         <f>CONCATENATE("bus-",bus!A50)</f>
         <v>bus-301</v>
       </c>
-      <c r="K52">
+      <c r="J52">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A52,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>1.2631578947368421E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L52" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>362</v>
       </c>
@@ -18245,24 +18245,24 @@
         <v>465</v>
       </c>
       <c r="F53" t="s">
-        <v>502</v>
+        <v>136</v>
       </c>
       <c r="G53" t="s">
-        <v>136</v>
-      </c>
-      <c r="H53" t="s">
         <v>362</v>
       </c>
-      <c r="J53" t="str">
+      <c r="I53" t="str">
         <f>CONCATENATE("bus-",bus!A51)</f>
         <v>bus-302</v>
       </c>
-      <c r="K53">
+      <c r="J53">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A53,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>1.1345029239766082E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L53" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>363</v>
       </c>
@@ -18276,24 +18276,24 @@
         <v>465</v>
       </c>
       <c r="F54" t="s">
-        <v>502</v>
+        <v>136</v>
       </c>
       <c r="G54" t="s">
-        <v>136</v>
-      </c>
-      <c r="H54" t="s">
         <v>363</v>
       </c>
-      <c r="J54" t="str">
+      <c r="I54" t="str">
         <f>CONCATENATE("bus-",bus!A52)</f>
         <v>bus-303</v>
       </c>
-      <c r="K54">
+      <c r="J54">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A54,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>2.1052631578947368E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L54" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>364</v>
       </c>
@@ -18307,24 +18307,24 @@
         <v>465</v>
       </c>
       <c r="F55" t="s">
-        <v>502</v>
+        <v>136</v>
       </c>
       <c r="G55" t="s">
-        <v>136</v>
-      </c>
-      <c r="H55" t="s">
         <v>364</v>
       </c>
-      <c r="J55" t="str">
+      <c r="I55" t="str">
         <f>CONCATENATE("bus-",bus!A53)</f>
         <v>bus-304</v>
       </c>
-      <c r="K55">
+      <c r="J55">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A55,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>8.6549707602339189E-3</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L55" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>365</v>
       </c>
@@ -18338,24 +18338,24 @@
         <v>465</v>
       </c>
       <c r="F56" t="s">
-        <v>502</v>
+        <v>136</v>
       </c>
       <c r="G56" t="s">
-        <v>136</v>
-      </c>
-      <c r="H56" t="s">
         <v>365</v>
       </c>
-      <c r="J56" t="str">
+      <c r="I56" t="str">
         <f>CONCATENATE("bus-",bus!A54)</f>
         <v>bus-305</v>
       </c>
-      <c r="K56">
+      <c r="J56">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A56,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>8.3040935672514613E-3</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L56" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>366</v>
       </c>
@@ -18369,24 +18369,24 @@
         <v>465</v>
       </c>
       <c r="F57" t="s">
-        <v>502</v>
+        <v>136</v>
       </c>
       <c r="G57" t="s">
-        <v>136</v>
-      </c>
-      <c r="H57" t="s">
         <v>366</v>
       </c>
-      <c r="J57" t="str">
+      <c r="I57" t="str">
         <f>CONCATENATE("bus-",bus!A55)</f>
         <v>bus-306</v>
       </c>
-      <c r="K57">
+      <c r="J57">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A57,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>1.5906432748538011E-2</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L57" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>367</v>
       </c>
@@ -18400,24 +18400,24 @@
         <v>465</v>
       </c>
       <c r="F58" t="s">
-        <v>502</v>
+        <v>136</v>
       </c>
       <c r="G58" t="s">
-        <v>136</v>
-      </c>
-      <c r="H58" t="s">
         <v>367</v>
       </c>
-      <c r="J58" t="str">
+      <c r="I58" t="str">
         <f>CONCATENATE("bus-",bus!A56)</f>
         <v>bus-307</v>
       </c>
-      <c r="K58">
+      <c r="J58">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A58,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>1.4619883040935672E-2</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L58" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>368</v>
       </c>
@@ -18431,24 +18431,24 @@
         <v>465</v>
       </c>
       <c r="F59" t="s">
-        <v>502</v>
+        <v>136</v>
       </c>
       <c r="G59" t="s">
-        <v>136</v>
-      </c>
-      <c r="H59" t="s">
         <v>368</v>
       </c>
-      <c r="J59" t="str">
+      <c r="I59" t="str">
         <f>CONCATENATE("bus-",bus!A57)</f>
         <v>bus-308</v>
       </c>
-      <c r="K59">
+      <c r="J59">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A59,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>0.02</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L59" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>369</v>
       </c>
@@ -18462,24 +18462,24 @@
         <v>465</v>
       </c>
       <c r="F60" t="s">
-        <v>502</v>
+        <v>136</v>
       </c>
       <c r="G60" t="s">
-        <v>136</v>
-      </c>
-      <c r="H60" t="s">
         <v>369</v>
       </c>
-      <c r="J60" t="str">
+      <c r="I60" t="str">
         <f>CONCATENATE("bus-",bus!A58)</f>
         <v>bus-309</v>
       </c>
-      <c r="K60">
+      <c r="J60">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A60,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>2.046783625730994E-2</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L60" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>370</v>
       </c>
@@ -18493,24 +18493,24 @@
         <v>465</v>
       </c>
       <c r="F61" t="s">
-        <v>502</v>
+        <v>136</v>
       </c>
       <c r="G61" t="s">
-        <v>136</v>
-      </c>
-      <c r="H61" t="s">
         <v>370</v>
       </c>
-      <c r="J61" t="str">
+      <c r="I61" t="str">
         <f>CONCATENATE("bus-",bus!A59)</f>
         <v>bus-310</v>
       </c>
-      <c r="K61">
+      <c r="J61">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A61,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>2.2807017543859651E-2</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L61" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>371</v>
       </c>
@@ -18524,24 +18524,24 @@
         <v>465</v>
       </c>
       <c r="F62" t="s">
-        <v>502</v>
+        <v>136</v>
       </c>
       <c r="G62" t="s">
-        <v>136</v>
-      </c>
-      <c r="H62" t="s">
         <v>371</v>
       </c>
-      <c r="J62" t="str">
+      <c r="I62" t="str">
         <f>CONCATENATE("bus-",bus!A60)</f>
         <v>bus-311</v>
       </c>
-      <c r="K62">
+      <c r="J62">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A62,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L62" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>372</v>
       </c>
@@ -18555,24 +18555,24 @@
         <v>465</v>
       </c>
       <c r="F63" t="s">
-        <v>502</v>
+        <v>136</v>
       </c>
       <c r="G63" t="s">
-        <v>136</v>
-      </c>
-      <c r="H63" t="s">
         <v>372</v>
       </c>
-      <c r="J63" t="str">
+      <c r="I63" t="str">
         <f>CONCATENATE("bus-",bus!A61)</f>
         <v>bus-312</v>
       </c>
-      <c r="K63">
+      <c r="J63">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A63,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L63" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>373</v>
       </c>
@@ -18586,24 +18586,24 @@
         <v>465</v>
       </c>
       <c r="F64" t="s">
-        <v>502</v>
+        <v>136</v>
       </c>
       <c r="G64" t="s">
-        <v>136</v>
-      </c>
-      <c r="H64" t="s">
         <v>373</v>
       </c>
-      <c r="J64" t="str">
+      <c r="I64" t="str">
         <f>CONCATENATE("bus-",bus!A62)</f>
         <v>bus-313</v>
       </c>
-      <c r="K64">
+      <c r="J64">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A64,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>3.0994152046783626E-2</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L64" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>374</v>
       </c>
@@ -18617,24 +18617,24 @@
         <v>465</v>
       </c>
       <c r="F65" t="s">
-        <v>502</v>
+        <v>136</v>
       </c>
       <c r="G65" t="s">
-        <v>136</v>
-      </c>
-      <c r="H65" t="s">
         <v>374</v>
       </c>
-      <c r="J65" t="str">
+      <c r="I65" t="str">
         <f>CONCATENATE("bus-",bus!A63)</f>
         <v>bus-314</v>
       </c>
-      <c r="K65">
+      <c r="J65">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A65,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>2.2690058479532163E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L65" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>375</v>
       </c>
@@ -18648,24 +18648,24 @@
         <v>465</v>
       </c>
       <c r="F66" t="s">
-        <v>502</v>
+        <v>136</v>
       </c>
       <c r="G66" t="s">
-        <v>136</v>
-      </c>
-      <c r="H66" t="s">
         <v>375</v>
       </c>
-      <c r="J66" t="str">
+      <c r="I66" t="str">
         <f>CONCATENATE("bus-",bus!A64)</f>
         <v>bus-315</v>
       </c>
-      <c r="K66">
+      <c r="J66">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A66,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>3.7076023391812866E-2</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L66" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>376</v>
       </c>
@@ -18679,24 +18679,24 @@
         <v>465</v>
       </c>
       <c r="F67" t="s">
-        <v>502</v>
+        <v>136</v>
       </c>
       <c r="G67" t="s">
-        <v>136</v>
-      </c>
-      <c r="H67" t="s">
         <v>376</v>
       </c>
-      <c r="J67" t="str">
+      <c r="I67" t="str">
         <f>CONCATENATE("bus-",bus!A65)</f>
         <v>bus-316</v>
       </c>
-      <c r="K67">
+      <c r="J67">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A67,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>1.1695906432748537E-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L67" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>377</v>
       </c>
@@ -18710,24 +18710,24 @@
         <v>465</v>
       </c>
       <c r="F68" t="s">
-        <v>502</v>
+        <v>136</v>
       </c>
       <c r="G68" t="s">
-        <v>136</v>
-      </c>
-      <c r="H68" t="s">
         <v>377</v>
       </c>
-      <c r="J68" t="str">
+      <c r="I68" t="str">
         <f>CONCATENATE("bus-",bus!A66)</f>
         <v>bus-317</v>
       </c>
-      <c r="K68">
+      <c r="J68">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A68,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L68" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>378</v>
       </c>
@@ -18741,24 +18741,24 @@
         <v>465</v>
       </c>
       <c r="F69" t="s">
-        <v>502</v>
+        <v>136</v>
       </c>
       <c r="G69" t="s">
-        <v>136</v>
-      </c>
-      <c r="H69" t="s">
         <v>378</v>
       </c>
-      <c r="J69" t="str">
+      <c r="I69" t="str">
         <f>CONCATENATE("bus-",bus!A67)</f>
         <v>bus-318</v>
       </c>
-      <c r="K69">
+      <c r="J69">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A69,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>3.8947368421052633E-2</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L69" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>379</v>
       </c>
@@ -18772,24 +18772,24 @@
         <v>465</v>
       </c>
       <c r="F70" t="s">
-        <v>502</v>
+        <v>136</v>
       </c>
       <c r="G70" t="s">
-        <v>136</v>
-      </c>
-      <c r="H70" t="s">
         <v>379</v>
       </c>
-      <c r="J70" t="str">
+      <c r="I70" t="str">
         <f>CONCATENATE("bus-",bus!A68)</f>
         <v>bus-319</v>
       </c>
-      <c r="K70">
+      <c r="J70">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A70,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>2.1169590643274852E-2</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L70" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>380</v>
       </c>
@@ -18803,24 +18803,24 @@
         <v>465</v>
       </c>
       <c r="F71" t="s">
-        <v>502</v>
+        <v>136</v>
       </c>
       <c r="G71" t="s">
-        <v>136</v>
-      </c>
-      <c r="H71" t="s">
         <v>380</v>
       </c>
-      <c r="J71" t="str">
+      <c r="I71" t="str">
         <f>CONCATENATE("bus-",bus!A69)</f>
         <v>bus-320</v>
       </c>
-      <c r="K71">
+      <c r="J71">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A71,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>1.4970760233918129E-2</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L71" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>381</v>
       </c>
@@ -18834,24 +18834,24 @@
         <v>465</v>
       </c>
       <c r="F72" t="s">
-        <v>502</v>
+        <v>136</v>
       </c>
       <c r="G72" t="s">
-        <v>136</v>
-      </c>
-      <c r="H72" t="s">
         <v>381</v>
       </c>
-      <c r="J72" t="str">
+      <c r="I72" t="str">
         <f>CONCATENATE("bus-",bus!A70)</f>
         <v>bus-321</v>
       </c>
-      <c r="K72">
+      <c r="J72">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A72,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L72" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>390</v>
       </c>
@@ -18865,24 +18865,24 @@
         <v>465</v>
       </c>
       <c r="F73" t="s">
-        <v>502</v>
+        <v>136</v>
       </c>
       <c r="G73" t="s">
-        <v>136</v>
-      </c>
-      <c r="H73" t="s">
         <v>390</v>
       </c>
-      <c r="J73" t="str">
+      <c r="I73" t="str">
         <f>CONCATENATE("bus-",bus!A71)</f>
         <v>bus-322</v>
       </c>
-      <c r="K73">
+      <c r="J73">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A73,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L73" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>382</v>
       </c>
@@ -18896,24 +18896,24 @@
         <v>465</v>
       </c>
       <c r="F74" t="s">
-        <v>502</v>
+        <v>136</v>
       </c>
       <c r="G74" t="s">
-        <v>136</v>
-      </c>
-      <c r="H74" t="s">
         <v>382</v>
       </c>
-      <c r="J74" t="str">
+      <c r="I74" t="str">
         <f>CONCATENATE("bus-",bus!A72)</f>
         <v>bus-323</v>
       </c>
-      <c r="K74">
+      <c r="J74">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A74,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L74" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>389</v>
       </c>
@@ -18927,24 +18927,24 @@
         <v>465</v>
       </c>
       <c r="F75" t="s">
-        <v>502</v>
+        <v>136</v>
       </c>
       <c r="G75" t="s">
-        <v>136</v>
-      </c>
-      <c r="H75" t="s">
         <v>389</v>
       </c>
-      <c r="J75" t="str">
+      <c r="I75" t="str">
         <f>CONCATENATE("bus-",bus!A73)</f>
         <v>bus-324</v>
       </c>
-      <c r="K75">
+      <c r="J75">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A75,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L75" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>383</v>
       </c>
@@ -18958,21 +18958,21 @@
         <v>465</v>
       </c>
       <c r="F76" t="s">
-        <v>502</v>
+        <v>136</v>
       </c>
       <c r="G76" t="s">
-        <v>136</v>
-      </c>
-      <c r="H76" t="s">
         <v>383</v>
       </c>
-      <c r="J76" t="str">
+      <c r="I76" t="str">
         <f>CONCATENATE("bus-",bus!A74)</f>
         <v>bus-325</v>
       </c>
-      <c r="K76">
+      <c r="J76">
         <f>VLOOKUP(_xlfn.NUMBERVALUE(RIGHT(A76,3)),bus!$A$2:$E$74,5,FALSE)/SUM(bus!$E$2:$E$74)</f>
         <v>0</v>
+      </c>
+      <c r="L76" t="s">
+        <v>502</v>
       </c>
     </row>
   </sheetData>
